--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -49,7 +49,7 @@
     <t>ano_prova</t>
   </si>
   <si>
-    <t>Geopolítica da Rússia</t>
+    <t>Vingança da Geografia</t>
   </si>
   <si>
     <t>De acordo com o texto, qual é a principal razão para a 'insegurança permanente' que caracteriza a história e a política russa?</t>
@@ -252,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,21 +322,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -647,17 +656,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -695,353 +704,353 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>324</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1254</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>125</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>123</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>2024</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5552" uniqueCount="3421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="3680">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -10283,6 +10283,783 @@
   </si>
   <si>
     <t xml:space="preserve">O instrumento jurídico com que conta o Estado social é o sistema tributário, que permite a distribuição de rendas para atender às crescentes necessidades de serviços sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado de Estratégia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 - A estratégia enquanto conceito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etimologicamente, o termo grego *strategos* resulta da combinação de *stratos* e *agein*. Qual é o significado mais provável desta combinação, segundo a análise do texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exército em batalha estática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de enganar o inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O exército em movimento ou sendo conduzido adiante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A administração dos recursos da cidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Agein* significa conduzir adiante ou avançar, sugerindo que a estratégia está intrinsecamente ligada ao movimento do exército (*stratos*).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto romano e posteriormente no século XVIII, o marechal de Puységur observa uma distinção entre *estratégia* e *estratagema*. O que define o estratagema (*strategema*) neste contexto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A organização logística das tropas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ação da inteligência do general, incluindo ardis e habilidades para surpreender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A força bruta aplicada no combate direto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando territorial de uma província romana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estratagema é associado à *sollertia ducum facta*, ou seja, a ação inteligente, o ardil e a habilidade do general para contornar obstáculos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Atenas do século V a.C., a função de estratego evoluiu de puramente militar para política. Qual figura histórica é citada como a encarnação do "bom estrategista" que uniu a hegemonia da cidade a uma estratégia coerente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcibíades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Péricles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milíades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Péricles é citado como o modelo de estratego que soube assegurar a hegemonia da cidade pela definição e execução de uma estratégia coerente e adaptada, unindo o político e o militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferentemente do pensamento ocidental, a China clássica não possuía um termo exato para "estratégia", mas utilizava o conceito de *bing-fa* (Sun Tzu). Como esse conceito é caracterizado no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restringe-se exclusivamente à tática de combate em campo aberto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma noção ampla de método militar ou arte da guerra, onde as batalhas são apenas uma fração da importância da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foca unicamente na administração logística dos reinos combatentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um conceito religioso ligado aos rituais de sacrifício antes da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto destaca que o *bing-fa* é um método amplo onde "as batalhas representam apenas um quinto da importância da guerra" e inclui a análise política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual autor foi responsável por reintroduzir e forjar o termo "estratégia" (como sinônimo de ciência do general) na linguagem militar francesa no final do século XVIII?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guibert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joly de Maizeroy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marechal de Saxe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoleão Bonaparte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joly de Maizeroy forjou o termo em 1771 ao traduzir e comentar as Instituições Militares do Imperador Leão, o Filósofo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 1799, um autor alemão publicou *Geist des neuern Kriegs Systems*, obra decisiva para impor o conceito de estratégia na Europa. Quem foi este autor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl von Clausewitz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietrich von Bülow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerhard von Scharnhorst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquiduque Carlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietrich von Bülow resgatou e impôs o conceito com seu livro célebre de 1799, que foi lido e traduzido em toda a Europa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "Modelo Prussiano" de organização militar, que incluía um Estado-Maior Geral e o ensino superior de guerra, surgiu como resposta a qual evento histórico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vitória de Frederico II na Guerra dos Sete Anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unificação da Alemanha sob Bismarck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A derrota total da Prússia para Napoleão em 1806 (Batalha de Iena).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A invasão da Rússia em 1812.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A renovação prussiana, liderada por Scharnhorst e Gneisenau, foi uma resposta direta e imediata à derrota total sofrida em 1806.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a definição de estratégia proposta por Carl von Clausewitz em sua obra *Da Guerra* (1832)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de fazer a guerra sobre o mapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ciência dos movimentos de um exército fora do campo visual do inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria relativa à prática dos combates ao serviço da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de dispor as tropas para a batalha decisiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clausewitz define a estratégia focando no uso do combate para os fins da guerra: "A estratégia é a teoria relativa à prática dos combates ao serviço da guerra".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Corbett, no início do século XX, sistematizou uma distinção importante para a evolução do conceito de estratégia. Que distinção foi essa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre estratégia terrestre e estratégia naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre *major strategy* (grande estratégia) e *minor strategy*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre estratégia de aniquilamento e estratégia de desgaste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre estratégia direta e estratégia indireta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corbett distinguiu a *major strategy* (articulação da política e do militar/paz e guerra) da *minor strategy* (dimensão estritamente militar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O General Ludendorff, em sua obra *Der totale Krieg* (1935), propôs uma inversão do axioma clássico de Clausewitz. Qual foi essa proposição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A guerra deve ser evitada a todo custo pela diplomacia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política deve estar a serviço da guerra, sendo esta o fim último do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A economia é mais importante que a força militar na guerra moderna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tática deve ditar a estratégia, eliminando a necessidade de comando central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludendorff inverteu a lógica, pregando que a política deveria servir à guerra, conceito ligado à ideia de Guerra Total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 1937, o Almirante Castex propôs o conceito de "estratégia geral". O que esse conceito designava?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de conduzir exclusivamente as forças navais em águas profundas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de conduzir, na guerra e na paz, o conjunto de forças (políticas, militares, econômicas) de uma nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coordenação tática entre a artilharia e a infantaria no campo de batalha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mobilização da indústria apenas após a declaração formal de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castex definiu estratégia geral como a coordenação de todas as estratégias particulares (política, econômica, militar, etc.) tanto na paz quanto na guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A generalização do conceito de estratégia para a sociedade civil e o mundo dos negócios foi impulsionada, em 1944, por qual desenvolvimento teórico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Teoria dos Jogos, de von Neumann e Morgenstern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Administração Científica, de Taylor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Teoria da Burocracia, de Max Weber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Geopolítica, de Haushofer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adoção do conceito pelos criadores da Teoria dos Jogos (von Neumann e Morgenstern) foi uma etapa decisiva para a saída da estratégia da esfera estritamente militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto critica a aplicação do termo "estratégia" a problemas como o buraco na camada de ozônio. Qual é o argumento central para essa crítica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de recursos econômicos para resolver o problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ausência de um "inimigo" ou de uma vontade antagônica dialética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A natureza puramente técnica e não política da questão ambiental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A impossibilidade de usar forças armadas contra fenômenos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O autor argumenta que sem a designação de um adversário (inimigo) e uma dialética de inteligências, não há estratégia, apenas gestão ou política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O General Beaufre definiu estratégia como uma "dialética de vontades". O autor do texto propõe um ajuste a essa definição, preferindo o termo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialética das forças materiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialética das paixões nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialética das inteligências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialética das economias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O autor prefere "dialética das inteligências" para destacar que a estratégia é o nível do discernimento e astúcia, enquanto a tática seria o domínio da vontade/execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a distinção feita por Julien Freund e endossada pelo texto, qual é a relação entre estratégia, tática, inteligência e vontade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia é da vontade; a tática é da inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia é da inteligência; a tática é da vontade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambas são domínios exclusivos da vontade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambas são domínios exclusivos da inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia requer análise e plano (inteligência), enquanto a execução tática e o combate exigem tenacidade e caráter (vontade).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Tzu e Sun Bin são citados para reforçar qual axioma fundamental da estratégia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A importância da superioridade numérica absoluta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A necessidade de conhecer o inimigo como constituinte da relação estratégica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso exclusivo da força bruta para aniquilar o oponente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A irrelevância dos planos frente ao acaso da batalha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os aforismos chineses citados (ex: "Aquele que conhece seu inimigo...") destacam que o inimigo é parte essencial da relação estratégica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a "Teoria da Lógica do Duelo" de Gabriel Tarde e a sociologia de Simmel, o que tende a acontecer em conflitos com múltiplos participantes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conflito se fragmenta em múltiplas pequenas guerras independentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocorre uma redução à dualidade (amigo vs. inimigo), simplificando a situação para dois lados opostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os participantes lutam contra todos simultaneamente até a exaustão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diplomacia resolve o conflito antes que a violência ocorra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tendência sociológica e estratégica é a redução de tríades ou grupos múltiplos a duas forças opostas (lógica do duelo/amigo-inimigo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clausewitz formula as "leis de ação recíproca" para explicar a dinâmica da guerra. O que essas leis descrevem teoricamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tendência da guerra à "ascensão aos extremos" devido à interação entre os adversários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade da diplomacia de interromper a guerra a qualquer momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A superioridade da defesa sobre o ataque em qualquer circunstância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A necessidade de limitar a violência para poupar recursos econômicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As leis de ação recíproca (eu comando o inimigo, ele me comanda; colisão de forças vivas) levam, na teoria pura, à escalada ou ascensão aos extremos da violência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na realidade, a "guerra absoluta" de Clausewitz raramente ocorre. Qual é um dos fatores citados que bloqueia a ascensão aos extremos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de munição no início das guerras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intervenção de terceiros (países neutros) e a resistência social ao sacrifício.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O acordo tácito entre generais para não causar baixas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ausência de paixões políticas nos conflitos modernos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto cita os "neutros", a política e a resistência social como fatores que atenuam a teoria pura e impedem a ascensão aos extremos na realidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Schelling, em *The Strategy of Conflict* (1960), contestou a visão de soma zero pura. Qual ideia fundamental ele introduziu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a guerra é apenas caos e não pode ser teorizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que existe sempre uma margem de interesse comum (cooperação), mesmo que seja apenas evitar a destruição mútua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a comunicação com o inimigo é impossível durante o conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a vitória militar total é o único objetivo racional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schelling mostrou que conflitos não são necessariamente soma zero e que existe interesse comum (ex: sobrevivência) e comunicação (ameaça/coação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 - A estratégia enquanto categoria do conflito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Dietrich von Bülow, qual critério distinguia a estratégia da tática no início do século XIX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distinção entre a concepção política e a execução militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fato de os movimentos ocorrerem fora ou dentro do arco visual recíproco e do efeito do canhão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diferença entre a guerra ofensiva e a guerra defensiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A separação entre o comando logístico e o comando operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bülow definia estratégia como movimentos fora do arco visual e do alcance da artilharia, e tática como a ciência dos movimentos na presença do inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a célebre "fórmula" de Clausewitz que define a relação entre guerra e política?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A guerra é a negação da política pela violência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A guerra é uma simples continuação da política por outros meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política cessa quando a guerra começa, dando lugar à estratégia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A guerra é um ato puramente militar, independente das relações políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clausewitz estabelece que o objetivo político é o móvel inicial e a guerra é um instrumento e uma continuação da política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o Marechal von Moltke redefiniu a relação entre o governo civil e a condução das operações militares, distanciando-se de Clausewitz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo civil deve intervir diretamente em todas as fases das operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política e a estratégia devem fundir-se em uma única autoridade civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo civil não intervém na condução das operações militares; a estratégia substitui a política durante as hostilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O chefe do Estado-Maior deve estar subordinado ao Ministro da Guerra em questões táticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moltke estabeleceu o paradigma de que a política atua antes do conflito, mas deve ceder lugar à independência da estratégia assim que as hostilidades começam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a tese defendida por Ludendorff após a Primeira Guerra Mundial em relação à política e a guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política deve estar a serviço da guerra, pois a guerra é a suprema expressão da vontade da vida racial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As teorias de Clausewitz sobre a primazia da política devem ser mantidas e reforçadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condução da guerra deve ser submetida ao controle democrático e ao sufrágio universal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia deve limitar-se estritamente à logística e deixar a política decidir os combates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludendorff radicalizou a independência militar, chegando a inverter a lógica de Clausewitz e afirmar que a política deve servir à guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o General Poirier definiu a "estratégia integral"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a ciência da execução tática no campo de batalha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a política em ação, ou a ciência e a arte da manobra de forças para cumprir fins políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a substituição da diplomacia pela força bruta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a gestão exclusiva dos meios logísticos e industriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poirier ampliou o conceito para "estratégia integral", mantendo o princípio de que a estratégia é a política em ação e serve aos seus fins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teoria alternativa sobre a distinção entre estratégia e tática foi proposta por autores como Rühle von Lilienstern e o General Bonnal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia é a arte de conceber e a tática é a ciência da execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia lida com exércitos e a tática lida com batalhões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia é ofensiva e a tática é defensiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estratégia é imutável e a tática varia conforme a tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esses autores tentaram distinguir os níveis baseando-se na dicotomia entre concepção (estratégia) e execução (tática), e não apenas no combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual fórmula simples o Almirante Castex adotou para diferenciar estratégia de tática, retomando Jomini?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia é o uso de armas nucleares; tática é o uso de armas convencionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia é a logística; tática é o movimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia é a guerra aquém e além do combate; tática é durante o combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia é a defesa do território; tática é a invasão do inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castex, seguindo Jomini, situou a tática especificamente no momento do combate, e a estratégia cobrindo toda a guerra antes e depois dele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O termo "tática" deriva do grego *Taxis*. Qual é o significado original deste termo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violência e força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem, arranjo e distribuição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engano e surpresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando e liderança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A etimologia de tática remete a ordem e arranjo, refletindo a transição do combate heróico individual para a disciplina militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que Napoleão concluiu ao comparar os mamelucos com os soldados franceses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a bravura individual e o equipamento superior dos mamelucos garantiam a vitória sobre os franceses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a tática, a ordem e as evoluções permitiam que um grupo maior de franceses vencesse um grupo maior de mamelucos, apesar da inferioridade individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a cavalaria era obsoleta frente à infantaria, independentemente da tática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a superioridade numérica era o único fator determinante na batalha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoleão usou o exemplo para demonstrar que a tática e a disciplina coletiva superam a bravura e o equipamento individual em grandes números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o Barão de Mesnil-Durand definiu a tática no século XVIII?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a parte puramente artística e intuitiva da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a ciência de relações, sendo a parte matemática da arte da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a gestão dos recursos de subsistência das tropas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a política aplicada ao campo de batalha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesnil-Durand via a tática como uma ciência de medição, cálculo de forças e movimentos, chamando-a de parte matemática da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual fator fundamental, destacado pelo Coronel Ardant du Picq, distingue a tática teórica do combate real?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A influência das condições meteorológicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O medo e a reação humana, sintetizados na frase "O homem só está apto a uma certa quantidade de terror".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A qualidade do armamento industrial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A interferência do poder político nas decisões do comandante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardant du Picq focou nos fatores morais e psicológicos, notando que o combate real envolve o controle do medo e do pânico, ao contrário da teoria pura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a origem etimológica da palavra "logística" segundo Jomini, embora não confirmada por usos antigos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do grego *logisteuo*, que significa administrar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do latim *logicus*, referente à razão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do cargo de "maréchal général des logis" (marechal de alojamentos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do inglês *logic*, referente à lógica de abastecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomini associou a logística à função de alojamento e movimentação de tropas (maréchal des logis), dando-lhe um sentido de estado-maior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a logística foi verdadeiramente reconhecida como um ramo maior da arte da guerra, com a definição moderna de *logistics*?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a Primeira Guerra Mundial, pelos alemães.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a Segunda Guerra Mundial, pelos norte-americanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante as Guerras Napoleônicas, pelos franceses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a Guerra Fria, pelos soviéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi na Segunda Guerra Mundial que os EUA estabeleceram os métodos e o conceito moderno de logística, elevando-a de uma arte "sem glória" para um ramo maior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que a "orgânica" (organização das forças) teve dificuldade em se impor como um ramo autônomo da ciência militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque era considerada complexa demais para ser ensinada nas academias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque dependia mais de arbitragens burocráticas e corporativistas entre as armas do que de regras racionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque Lewal e outros autores proibiram seu estudo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a organização militar permaneceu inalterada desde o século XVIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto explica que o equilíbrio entre as armas resultava de disputas internas e burocracia, dificultando a aceitação da organização como uma ciência racional autônoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual mudança estrutural nos exércitos do século XIX forçou a ascensão da estratégia e o distanciamento da tática?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A redução dos efetivos para criar exércitos profissionais menores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento contínuo dos efetivos, exigindo a criação de níveis como corpos de exército e grupos de exércitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A abolição dos estados-maiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A eliminação da artilharia como arma decisiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aumento massivo dos exércitos (centenas de milhares de homens) tornou impossível o comando direto, criando escalões superiores e elevando o nível da estratégia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Liddell Hart definiu a "grande estratégia" em sua obra *Strategy*?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a tática das grandes unidades blindadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a política de guerra, coordenando todos os recursos da nação para atingir o objetivo político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a estratégia exclusivamente naval e aérea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a substituição da política pela vontade dos generais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liddell Hart definiu grande estratégia como a coordenação de todos os recursos nacionais para o fim político, essencialmente "política de guerra".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que os soviéticos recusaram o conceito de "grande estratégia", preferindo distinguir entre política militar e estratégia militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque desconheciam os trabalhos de Liddell Hart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque acreditavam que a estratégia não tinha relação com a política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para evitar subordinar os fins políticos aos meios e não dividir o poder absoluto do Partido Comunista com especialistas militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a língua russa não possuía um termo equivalente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A recusa visava manter o primado absoluto da política (o Partido) sobre a esfera militar, evitando que especialistas estratégicos usurpassem o poder decisório.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são considerados os principais teóricos soviéticos responsáveis pela invenção do conceito de "arte operacional" nos anos 1920?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lênin e Stalin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svechin e Triandafillov.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhukov e Konev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moltke e Ludendorff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svechin (que cunhou o termo) e Triandafillov (que escreveu a obra clássica sobre a natureza das operações) são os teóricos centrais da arte operacional soviética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a função da "arte operacional" segundo a teoria militar soviética?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir completamente a estratégia e a tática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar a logística da retaguarda apenas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restabelecer a união entre tática e estratégia, conduzindo operações sucessivas para atingir objetivos que uma única batalha não alcança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focar exclusivamente no combate de pequenas unidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte operacional surgiu porque a extensão das frentes impedia a vitória numa única batalha, exigindo uma corrente de operações para ligar tática e estratégia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o General Iung definiu a tática militar após as contribuições de Lewal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o conjunto de dispositivos para o emprego judicioso dos homens, meios e ambientes para um propósito imediato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a arte de evitar o combate a todo custo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a ciência exclusiva da artilharia e engenharia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a teoria que ignora o terreno e foca apenas no moral da tropa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iung definiu a tática de forma ampla, focando no emprego judicioso de todos os meios para um propósito imediato, indo além do simples choque físico.</t>
   </si>
 </sst>
 </file>
@@ -10594,10 +11371,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:L595"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F561" activeCellId="0" sqref="F561"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A557" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A576" activeCellId="0" sqref="A576:Q595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28910,6 +29687,1366 @@
       </c>
       <c r="L555" s="1"/>
     </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D556" s="0" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F556" s="0" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G556" s="0" t="s">
+        <v>3426</v>
+      </c>
+      <c r="H556" s="0" t="s">
+        <v>3427</v>
+      </c>
+      <c r="I556" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J556" s="0" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K556" s="0"/>
+      <c r="L556" s="0"/>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D557" s="0" t="s">
+        <v>3429</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F557" s="0" t="s">
+        <v>3431</v>
+      </c>
+      <c r="G557" s="0" t="s">
+        <v>3432</v>
+      </c>
+      <c r="H557" s="0" t="s">
+        <v>3433</v>
+      </c>
+      <c r="I557" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J557" s="0" t="s">
+        <v>3434</v>
+      </c>
+      <c r="K557" s="0"/>
+      <c r="L557" s="0"/>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E558" s="0" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F558" s="0" t="s">
+        <v>3437</v>
+      </c>
+      <c r="G558" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="H558" s="0" t="s">
+        <v>3439</v>
+      </c>
+      <c r="I558" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J558" s="0" t="s">
+        <v>3440</v>
+      </c>
+      <c r="K558" s="0"/>
+      <c r="L558" s="0"/>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D559" s="0" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E559" s="0" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F559" s="0" t="s">
+        <v>3443</v>
+      </c>
+      <c r="G559" s="0" t="s">
+        <v>3444</v>
+      </c>
+      <c r="H559" s="0" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I559" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J559" s="0" t="s">
+        <v>3446</v>
+      </c>
+      <c r="K559" s="0"/>
+      <c r="L559" s="0"/>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D560" s="0" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E560" s="0" t="s">
+        <v>3449</v>
+      </c>
+      <c r="F560" s="0" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G560" s="0" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H560" s="0" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I560" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J560" s="0" t="s">
+        <v>3453</v>
+      </c>
+      <c r="K560" s="0"/>
+      <c r="L560" s="0"/>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D561" s="0" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E561" s="0" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F561" s="0" t="s">
+        <v>3457</v>
+      </c>
+      <c r="G561" s="0" t="s">
+        <v>3458</v>
+      </c>
+      <c r="H561" s="0" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I561" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J561" s="0" t="s">
+        <v>3460</v>
+      </c>
+      <c r="K561" s="0"/>
+      <c r="L561" s="0"/>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D562" s="0" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E562" s="0" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F562" s="0" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G562" s="0" t="s">
+        <v>3464</v>
+      </c>
+      <c r="H562" s="0" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I562" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J562" s="0" t="s">
+        <v>3466</v>
+      </c>
+      <c r="K562" s="0"/>
+      <c r="L562" s="0"/>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D563" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E563" s="0" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F563" s="0" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G563" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="H563" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="I563" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J563" s="0" t="s">
+        <v>3472</v>
+      </c>
+      <c r="K563" s="0"/>
+      <c r="L563" s="0"/>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D564" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E564" s="0" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F564" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G564" s="0" t="s">
+        <v>3476</v>
+      </c>
+      <c r="H564" s="0" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I564" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J564" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="K564" s="0"/>
+      <c r="L564" s="0"/>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D565" s="0" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E565" s="0" t="s">
+        <v>3480</v>
+      </c>
+      <c r="F565" s="0" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G565" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="H565" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="I565" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J565" s="0" t="s">
+        <v>3484</v>
+      </c>
+      <c r="K565" s="0"/>
+      <c r="L565" s="0"/>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D566" s="0" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E566" s="0" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F566" s="0" t="s">
+        <v>3488</v>
+      </c>
+      <c r="G566" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="H566" s="0" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I566" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J566" s="0" t="s">
+        <v>3491</v>
+      </c>
+      <c r="K566" s="0"/>
+      <c r="L566" s="0"/>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D567" s="0" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E567" s="0" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F567" s="0" t="s">
+        <v>3494</v>
+      </c>
+      <c r="G567" s="0" t="s">
+        <v>3495</v>
+      </c>
+      <c r="H567" s="0" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I567" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J567" s="0" t="s">
+        <v>3497</v>
+      </c>
+      <c r="K567" s="0"/>
+      <c r="L567" s="0"/>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D568" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E568" s="0" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F568" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G568" s="0" t="s">
+        <v>3502</v>
+      </c>
+      <c r="H568" s="0" t="s">
+        <v>3503</v>
+      </c>
+      <c r="I568" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J568" s="0" t="s">
+        <v>3504</v>
+      </c>
+      <c r="K568" s="0"/>
+      <c r="L568" s="0"/>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D569" s="0" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E569" s="0" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F569" s="0" t="s">
+        <v>3508</v>
+      </c>
+      <c r="G569" s="0" t="s">
+        <v>3509</v>
+      </c>
+      <c r="H569" s="0" t="s">
+        <v>3510</v>
+      </c>
+      <c r="I569" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J569" s="0" t="s">
+        <v>3511</v>
+      </c>
+      <c r="K569" s="0"/>
+      <c r="L569" s="0"/>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D570" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E570" s="0" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F570" s="0" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G570" s="0" t="s">
+        <v>3515</v>
+      </c>
+      <c r="H570" s="0" t="s">
+        <v>3516</v>
+      </c>
+      <c r="I570" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J570" s="0" t="s">
+        <v>3517</v>
+      </c>
+      <c r="K570" s="0"/>
+      <c r="L570" s="0"/>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F571" s="0" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G571" s="0" t="s">
+        <v>3521</v>
+      </c>
+      <c r="H571" s="0" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I571" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J571" s="0" t="s">
+        <v>3523</v>
+      </c>
+      <c r="K571" s="0"/>
+      <c r="L571" s="0"/>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>3526</v>
+      </c>
+      <c r="F572" s="0" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G572" s="0" t="s">
+        <v>3528</v>
+      </c>
+      <c r="H572" s="0" t="s">
+        <v>3529</v>
+      </c>
+      <c r="I572" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J572" s="0" t="s">
+        <v>3530</v>
+      </c>
+      <c r="K572" s="0"/>
+      <c r="L572" s="0"/>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D573" s="0" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E573" s="0" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F573" s="0" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G573" s="0" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H573" s="0" t="s">
+        <v>3536</v>
+      </c>
+      <c r="I573" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J573" s="0" t="s">
+        <v>3537</v>
+      </c>
+      <c r="K573" s="0"/>
+      <c r="L573" s="0"/>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>3539</v>
+      </c>
+      <c r="F574" s="0" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G574" s="0" t="s">
+        <v>3541</v>
+      </c>
+      <c r="H574" s="0" t="s">
+        <v>3542</v>
+      </c>
+      <c r="I574" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J574" s="0" t="s">
+        <v>3543</v>
+      </c>
+      <c r="K574" s="0"/>
+      <c r="L574" s="0"/>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F575" s="0" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G575" s="0" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H575" s="0" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I575" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J575" s="0" t="s">
+        <v>3550</v>
+      </c>
+      <c r="K575" s="0"/>
+      <c r="L575" s="0"/>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D576" s="0" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>3553</v>
+      </c>
+      <c r="F576" s="0" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G576" s="0" t="s">
+        <v>3555</v>
+      </c>
+      <c r="H576" s="0" t="s">
+        <v>3556</v>
+      </c>
+      <c r="I576" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J576" s="0" t="s">
+        <v>3557</v>
+      </c>
+      <c r="K576" s="0"/>
+      <c r="L576" s="0"/>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D577" s="0" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E577" s="0" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F577" s="0" t="s">
+        <v>3560</v>
+      </c>
+      <c r="G577" s="0" t="s">
+        <v>3561</v>
+      </c>
+      <c r="H577" s="0" t="s">
+        <v>3562</v>
+      </c>
+      <c r="I577" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J577" s="0" t="s">
+        <v>3563</v>
+      </c>
+      <c r="K577" s="0"/>
+      <c r="L577" s="0"/>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D578" s="0" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E578" s="0" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F578" s="0" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G578" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H578" s="0" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I578" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J578" s="0" t="s">
+        <v>3569</v>
+      </c>
+      <c r="K578" s="0"/>
+      <c r="L578" s="0"/>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D579" s="0" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E579" s="0" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>3573</v>
+      </c>
+      <c r="G579" s="0" t="s">
+        <v>3574</v>
+      </c>
+      <c r="H579" s="0" t="s">
+        <v>3575</v>
+      </c>
+      <c r="I579" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J579" s="0" t="s">
+        <v>3576</v>
+      </c>
+      <c r="K579" s="0"/>
+      <c r="L579" s="0"/>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D580" s="0" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E580" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F580" s="0" t="s">
+        <v>3579</v>
+      </c>
+      <c r="G580" s="0" t="s">
+        <v>3580</v>
+      </c>
+      <c r="H580" s="0" t="s">
+        <v>3581</v>
+      </c>
+      <c r="I580" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J580" s="0" t="s">
+        <v>3582</v>
+      </c>
+      <c r="K580" s="0"/>
+      <c r="L580" s="0"/>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D581" s="0" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E581" s="0" t="s">
+        <v>3584</v>
+      </c>
+      <c r="F581" s="0" t="s">
+        <v>3585</v>
+      </c>
+      <c r="G581" s="0" t="s">
+        <v>3586</v>
+      </c>
+      <c r="H581" s="0" t="s">
+        <v>3587</v>
+      </c>
+      <c r="I581" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J581" s="0" t="s">
+        <v>3588</v>
+      </c>
+      <c r="K581" s="0"/>
+      <c r="L581" s="0"/>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D582" s="0" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E582" s="0" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F582" s="0" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G582" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="H582" s="0" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I582" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J582" s="0" t="s">
+        <v>3595</v>
+      </c>
+      <c r="K582" s="0"/>
+      <c r="L582" s="0"/>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D583" s="0" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E583" s="0" t="s">
+        <v>3598</v>
+      </c>
+      <c r="F583" s="0" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G583" s="0" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H583" s="0" t="s">
+        <v>3601</v>
+      </c>
+      <c r="I583" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J583" s="0" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K583" s="0"/>
+      <c r="L583" s="0"/>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D584" s="0" t="s">
+        <v>3603</v>
+      </c>
+      <c r="E584" s="0" t="s">
+        <v>3604</v>
+      </c>
+      <c r="F584" s="0" t="s">
+        <v>3605</v>
+      </c>
+      <c r="G584" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="H584" s="0" t="s">
+        <v>3607</v>
+      </c>
+      <c r="I584" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J584" s="0" t="s">
+        <v>3608</v>
+      </c>
+      <c r="K584" s="0"/>
+      <c r="L584" s="0"/>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D585" s="0" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>3611</v>
+      </c>
+      <c r="F585" s="0" t="s">
+        <v>3612</v>
+      </c>
+      <c r="G585" s="0" t="s">
+        <v>3613</v>
+      </c>
+      <c r="H585" s="0" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I585" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J585" s="0" t="s">
+        <v>3615</v>
+      </c>
+      <c r="K585" s="0"/>
+      <c r="L585" s="0"/>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D586" s="0" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F586" s="0" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G586" s="0" t="s">
+        <v>3620</v>
+      </c>
+      <c r="H586" s="0" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I586" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J586" s="0" t="s">
+        <v>3622</v>
+      </c>
+      <c r="K586" s="0"/>
+      <c r="L586" s="0"/>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>3624</v>
+      </c>
+      <c r="F587" s="0" t="s">
+        <v>3625</v>
+      </c>
+      <c r="G587" s="0" t="s">
+        <v>3626</v>
+      </c>
+      <c r="H587" s="0" t="s">
+        <v>3627</v>
+      </c>
+      <c r="I587" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J587" s="0" t="s">
+        <v>3628</v>
+      </c>
+      <c r="K587" s="0"/>
+      <c r="L587" s="0"/>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D588" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>3630</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="G588" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H588" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="I588" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J588" s="0" t="s">
+        <v>3634</v>
+      </c>
+      <c r="K588" s="0"/>
+      <c r="L588" s="0"/>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D589" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E589" s="0" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F589" s="0" t="s">
+        <v>3637</v>
+      </c>
+      <c r="G589" s="0" t="s">
+        <v>3638</v>
+      </c>
+      <c r="H589" s="0" t="s">
+        <v>3639</v>
+      </c>
+      <c r="I589" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J589" s="0" t="s">
+        <v>3640</v>
+      </c>
+      <c r="K589" s="0"/>
+      <c r="L589" s="0"/>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D590" s="0" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F590" s="0" t="s">
+        <v>3644</v>
+      </c>
+      <c r="G590" s="0" t="s">
+        <v>3645</v>
+      </c>
+      <c r="H590" s="0" t="s">
+        <v>3646</v>
+      </c>
+      <c r="I590" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J590" s="0" t="s">
+        <v>3647</v>
+      </c>
+      <c r="K590" s="0"/>
+      <c r="L590" s="0"/>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D591" s="0" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>3649</v>
+      </c>
+      <c r="F591" s="0" t="s">
+        <v>3650</v>
+      </c>
+      <c r="G591" s="0" t="s">
+        <v>3651</v>
+      </c>
+      <c r="H591" s="0" t="s">
+        <v>3652</v>
+      </c>
+      <c r="I591" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J591" s="0" t="s">
+        <v>3653</v>
+      </c>
+      <c r="K591" s="0"/>
+      <c r="L591" s="0"/>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E592" s="0" t="s">
+        <v>3656</v>
+      </c>
+      <c r="F592" s="0" t="s">
+        <v>3657</v>
+      </c>
+      <c r="G592" s="0" t="s">
+        <v>3658</v>
+      </c>
+      <c r="H592" s="0" t="s">
+        <v>3659</v>
+      </c>
+      <c r="I592" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J592" s="0" t="s">
+        <v>3660</v>
+      </c>
+      <c r="K592" s="0"/>
+      <c r="L592" s="0"/>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B593" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C593" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D593" s="0" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E593" s="0" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F593" s="0" t="s">
+        <v>3663</v>
+      </c>
+      <c r="G593" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="H593" s="0" t="s">
+        <v>3665</v>
+      </c>
+      <c r="I593" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J593" s="0" t="s">
+        <v>3666</v>
+      </c>
+      <c r="K593" s="0"/>
+      <c r="L593" s="0"/>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C594" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D594" s="0" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E594" s="0" t="s">
+        <v>3668</v>
+      </c>
+      <c r="F594" s="0" t="s">
+        <v>3669</v>
+      </c>
+      <c r="G594" s="0" t="s">
+        <v>3670</v>
+      </c>
+      <c r="H594" s="0" t="s">
+        <v>3671</v>
+      </c>
+      <c r="I594" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J594" s="0" t="s">
+        <v>3672</v>
+      </c>
+      <c r="K594" s="0"/>
+      <c r="L594" s="0"/>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D595" s="0" t="s">
+        <v>3674</v>
+      </c>
+      <c r="E595" s="0" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F595" s="0" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G595" s="0" t="s">
+        <v>3677</v>
+      </c>
+      <c r="H595" s="0" t="s">
+        <v>3678</v>
+      </c>
+      <c r="I595" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J595" s="0" t="s">
+        <v>3679</v>
+      </c>
+      <c r="K595" s="0"/>
+      <c r="L595" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="3869">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -11060,6 +11060,573 @@
   </si>
   <si>
     <t xml:space="preserve">Iung definiu a tática de forma ampla, focando no emprego judicioso de todos os meios para um propósito imediato, indo além do simples choque físico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria nº 280/2019 – Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normas Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as definições estabelecidas na Portaria nº 280/2019, o conceito de "Adicionalidade" refere-se a:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condição vinculada à obrigação de compensação decorrente exclusivamente do processo de aquisição que envolve a ofertante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O instrumento legal que formaliza o compromisso e as obrigações de compensação do fornecedor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prática compensatória acordada entre as partes como condição para a importação de bens e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condição que incrementa a situação atual do beneficiário no nível tecnológico ou que representa novos negócios ou incremento nos já existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2**, Adicionalidade é a condição que incrementa a situação atual do beneficiário no nível tecnológico ou representa novos negócios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das medidas de compensação tecnológica, como é definida a "Transferência de tecnologia"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O investimento realizado por fornecedor estrangeiro no desenvolvimento da capacitação industrial no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O licenciamento ou cessão do conhecimento tecnológico diretamente relacionado com a fabricação ou desenvolvimento de produto, incluindo a assistência técnica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A produção no Brasil de componente de produto manufaturado estrangeiro sob responsabilidade da subcontratada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento e produção em parceria de produto, incluindo pesquisa e inovação conjuntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.11, alínea 'a', inciso I**, Transferência de tecnologia é o licenciamento ou cessão do conhecimento tecnológico diretamente relacionado com a fabricação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as medidas de compensação comercial, qual a característica que define a modalidade "Recompra (Buy-Back)"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troca de produtos ou serviços selecionados por outros de valor equivalente em uma única transação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordo para que o fornecedor estrangeiro compre um determinado valor em produtos do fabricante nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordo para que o fornecedor aceite como pagamento, total ou parcial, produtos derivados do produto originalmente importado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento direto do fornecedor na capacitação de recursos humanos da empresa nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.11, alínea 'c', inciso III**, a Recompra refere-se ao aceite, como pagamento, de produtos derivados do produto originalmente importado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o valor líquido (FOB) a partir do qual um contrato de importação de PRODE é considerado "contrato principal" e deve incluir, necessariamente, um acordo de compensação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual ou superior a US$ 10.000.000,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual ou superior a US$ 50.000.000,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual ou superior a US$ 100.000.000,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer valor, desde que haja interesse tecnológico da MB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.17**, o contrato principal é aquele com valor líquido (FOB) igual ou superior a US$ 50.000.000,00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de preparação para negociação, a quem compete realizar junto ao Ministério da Defesa (MD) os procedimentos para a anuência quanto à dispensa da exigência de contrapartida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Órgão de Direção Geral (ODG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Diretoria de Gestão de Programas da Marinha (DGePM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Órgão de Direção Setorial (ODS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Secretaria de Produtos de Defesa (SEPROD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.1, alínea 'c'**, cabe ao ODG realizar junto ao MD os procedimentos previstos para anuência quanto à dispensa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que as Diretorias Especializadas (DE) e Organizações Militares (OM) devem utilizar como base principal para planejar o conjunto de compensações antes de iniciar as negociações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As propostas exclusivas enviadas pelos fornecedores estrangeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Banco de Objetos Passíveis de Compensação e outras propostas consolidadas pela DGePM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas as diretrizes genéricas da Estratégia Nacional de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os contratos de compensação assinados pelas outras Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.3, alínea 'b'**, devem planejar com base principalmente no Banco de Objetos Passíveis de Compensação e em outras propostas consolidadas pela DGePM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de negociação de novos acordos, qual é a atribuição específica da Diretoria-Geral de Desenvolvimento Nuclear e Tecnológico da Marinha (DGDNTM)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assinar os contratos comerciais em nome do Comandante da Marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscalizar a execução financeira dos contratos de Offset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prover assessoria técnica de alto nível nas áreas de Ciência, Tecnologia e Inovação (CT&amp;I), quando solicitada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralizar todas as negociações comerciais para evitar duplicidade de esforços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 5.3**, cabe à DGDNTM prover, quando solicitada, assessoria técnica de alto nível nas áreas de CT&amp;I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na fase de execução e controle, qual ação deve ser proposta pelo ODS para acompanhar os processos de transferência de tecnologia em seu Setor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de uma nova Diretoria Especializada exclusiva para Offset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A terceirização da fiscalização para a EMGEPRON.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de Grupos de Fiscalização específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solicitação de auditoria externa independente ao Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2, alínea 'b'**, o ODS deve propor a criação de Grupos de Fiscalização específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quem compete emitir o certificado de crédito excedente de compensação e levá-lo para ratificação em Ata do Almirantado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Centro de Controle Interno da Marinha (CCIM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Órgão de Direção Setorial (ODS) responsável pelo contrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 6.5, alínea 'd'**, cabe à DGePM emitir certificado de crédito excedente de compensação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à atualização do Banco de Dados de Objetos Passíveis de Compensação, o que o ODS deve avaliar incluir entre suas propostas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas itens de alta complexidade tecnológica já dominados pela indústria nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itens provenientes dos processos de nacionalização que não obtiveram êxito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente serviços de manutenção de rotina sem transferência de tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produtos que já possuem isenção fiscal aprovada pelo governo federal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.2, alínea 'e'**, o ODS deve avaliar incluir itens provenientes dos processos de nacionalização que não obtiveram êxito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual organização militar atua como o contato da Marinha do Brasil com os Setores da Base Industrial de Defesa (BID) e do Governo para assuntos de Offset?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Secretaria-Geral da Marinha (SGM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Diretoria-Geral de Desenvolvimento Nuclear e Tecnológico da Marinha (DGDNTM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior da Armada (EMA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Diretoria de Gestão de Programas da Marinha (DGePM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 7.5, alínea 'g'**, cabe à DGePM ser o contato da MB com Setores da BID e do Governo para assuntos de Offset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei nº 12.598 - Produtos e Sistemas de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei - Produtos e Sistemas de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei nº 12.598/2012 estabelece o conceito de Produto de Defesa (PRODE). Qual das alternativas abaixo descreve corretamente o escopo dessa definição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas armamentos e munições letais utilizados em operações de guerra, excluindo serviços e obras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo bem, serviço, obra ou informação utilizado nas atividades finalísticas de defesa, com exceção daqueles de uso administrativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer produto adquirido pelo Ministério da Defesa, independentemente de sua aplicação finalística ou administrativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente os equipamentos desenvolvidos por Empresas Estratégicas de Defesa (EED) com tecnologia nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º, inciso I**, PRODE é todo bem, serviço, obra ou informação utilizado nas atividades finalísticas de defesa, com exceção daqueles de uso administrativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para ser credenciada como Empresa Estratégica de Defesa (EED), a pessoa jurídica deve atender a requisitos específicos de governança. Qual é a restrição imposta aos acionistas estrangeiros?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É vedada qualquer participação de capital estrangeiro na composição acionária de uma EED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acionistas estrangeiros não podem deter mais de 50% do capital social total da empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acionistas estrangeiros não podem exercer, em cada assembleia geral, número de votos superior a 2/3 do total de votos que puderem ser exercidos pelos acionistas brasileiros presentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os estrangeiros podem exercer poder de voto ilimitado, desde que a sede e a administração da empresa permaneçam em território nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º, inciso IV, alínea "d"**, os votos de estrangeiros não podem ser superiores a 2/3 do total de votos dos acionistas brasileiros presentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O descredenciamento de uma Empresa Estratégica de Defesa (EED) pode ocorrer a pedido da própria empresa. O que a lei estabelece caso esse pedido gere risco para o interesse da defesa nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O descredenciamento é automático e imediato, prevalecendo a livre iniciativa privada sobre o interesse estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro da Defesa pode negar o descredenciamento imediato, obrigando a empresa a permanecer como EED por até 5 anos a contar do pedido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A empresa deve pagar uma multa rescisória ao governo, mas é liberada de suas obrigações produtivas imediatamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Economia assume a gestão da empresa para garantir a continuidade da produção por tempo indeterminado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º-A, §§ 3º e 4º**, o Ministro pode negar o descredenciamento imediato se houver risco, obrigando a permanência por até 5 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legislação permite regimes diferenciados de contratação pública. Em qual situação o poder público pode realizar procedimento licitatório destinado exclusivamente à participação de EED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a aquisição de materiais de escritório e suprimentos administrativos de uso comum das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando envolver o fornecimento ou desenvolvimento de Produto Estratégico de Defesa (PED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre que o valor da contratação for inferior ao limite de dispensa de licitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas quando não houver fornecedores internacionais interessados na licitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **art. 3º, § 1º, inciso I**, pode-se realizar licitação exclusiva a EED quando envolver fornecimento ou desenvolvimento de PED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei institui o Regime Especial Tributário para a Indústria de Defesa (RETID). Quem são os beneficiários diretos desse regime no que tange à produção de bens finais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas as empresas que vendem produtos para o governo federal, independentemente do setor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas as empresas públicas e sociedades de economia mista controladas pelo Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A EED que produza ou desenvolva bens de defesa nacional definidos em ato do Poder Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As empresas estrangeiras que exportam produtos de defesa para o Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **art. 8º, inciso I**, são beneficiárias as EEDs que produzam ou desenvolvam bens de defesa nacional definidos em ato do Poder Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que fornecedores de partes e peças (cadeia produtiva) se habilitem ao RETID, é necessário cumprir o requisito da preponderância. Qual é o critério objetivo definido pela lei?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter 100% da receita decorrente de exportações de material bélico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser optante do Simples Nacional e fornecer exclusivamente para o Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter pelo menos 70% da receita total de venda de bens e serviços decorrentes de vendas para EEDs, defesa, exportação ou MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter pelo menos 50% da receita oriunda de vendas para o mercado civil e o restante para a defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 8º, § 2º**, considera-se preponderantemente fornecedora aquela que tenha pelo menos 70% da sua receita total decorrente das vendas especificadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O art. 9º prevê a suspensão de tributos como PIS/Pasep e COFINS no âmbito do RETID. Quando essa suspensão se converte em alíquota zero?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automaticamente, no momento da emissão da nota fiscal de venda entre empresas privadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após o emprego dos bens na produção de bens de defesa destinados à venda à União para uso privativo das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a empresa comprova que teve prejuízo fiscal no exercício anterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas quando os bens são vendidos para o mercado consumidor civil interno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 9º, § 2º, inciso I**, a suspensão converte-se em alíquota zero após o emprego dos bens destinados à venda à União para uso privativo das FA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O artigo 9º-B trata da isenção do Imposto sobre Produtos Industrializados (IPI). Qual é a condição para que os bens de defesa saídos de uma beneficiária do RETID sejam isentos de IPI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser adquiridos por qualquer órgão da administração pública federal, estadual ou municipal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser adquiridos pela União, para uso privativo das Forças Armadas, exceto para uso pessoal e administrativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser destinados exclusivamente à exportação para países da América do Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser adquiridos por empresas de segurança privada autorizadas pela Polícia Federal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 9º-B**, ficam isentos do IPI os bens quando adquiridos pela União, para uso privativo das Forças Armadas, exceto uso pessoal/administrativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios fiscais instituídos pelo RETID possuem um prazo de vigência determinado pela legislação. Qual é esse prazo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os benefícios são permanentes e não possuem data de expiração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 anos, renováveis por igual período mediante decreto presidencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até 20 anos contados da data de publicação da Lei, nas aquisições realizadas depois da habilitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 anos contados a partir da habilitação de cada empresa individualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **art. 11**, os benefícios poderão ser usufruídos em até 20 anos contados da data de publicação desta Lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei nº 12.598/2012 estabelece normas especiais para compras de defesa. Qual legislação é aplicada de forma subsidiária aos procedimentos licitatórios e contratos regidos por ela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Código de Defesa do Consumidor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei das Estatais (Lei nº 13.303/2016).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei nº 8.666/1993.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Código Civil Brasileiro exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **art. 15**, a Lei nº 8.666/1993 será aplicada de forma subsidiária aos procedimentos licitatórios e contratos desta Lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 7.970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto - Produtos e Sistemas de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a finalidade principal da Comissão Mista da Indústria de Defesa (CMID), instituída pelo Decreto nº 7.970/2013?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar diretamente as compras de equipamentos militares para as Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessorar o Ministro de Estado da Defesa em processos decisórios e em proposições de atos relacionados à indústria nacional de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscalizar as contas das empresas privadas que atuam no setor de segurança pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legislar sobre o direito tributário aplicável às empresas estrangeiras de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º**, a CMID tem por finalidade assessorar o Ministro de Estado da Defesa em processos decisórios e proposições de atos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a composição da CMID, quem são os membros titulares que integram essa comissão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas oficiais-generais das três Forças Armadas, excluindo civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representantes do Ministério da Defesa, dos Comandos da Marinha, Exército e Aeronáutica, do Ministério da Economia e do MCTIC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um representante de cada estado da federação e membros do Congresso Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente membros do Ministério da Defesa e representantes da indústria privada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º-B**, incisos I a VI, a comissão é composta por representantes desses órgãos específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre as subcomissões temáticas que podem ser instituídas pela CMID, qual das alternativas abaixo descreve corretamente suas limitações operacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem operar por tempo indeterminado, desde que haja orçamento disponível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não possuem limite de membros, podendo ser expandidas conforme a necessidade do tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terão caráter temporário, duração não superior a um ano e estão limitadas a quatro operando simultaneamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser compostas exclusivamente por membros do Ministério da Economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º-E**, incisos III e IV, as subcomissões têm duração máxima de um ano e limite de quatro simultâneas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que um Produto de Defesa (PRODE) seja classificado como Produto Estratégico de Defesa (PED), quais critérios devem ser considerados pela CMID?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas o baixo custo de aquisição e a disponibilidade imediata no mercado internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O interesse estratégico para a defesa nacional devido ao conteúdo tecnológico, à dificuldade de obtenção ou à sua imprescindibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A exclusividade de produção por empresas estatais, independentemente da tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de ser exportado para o maior número de países aliados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 5º**, o PED é classificado com base no conteúdo tecnológico, dificuldade de obtenção ou imprescindibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando Empresas de Defesa (ED) e Empresas Estratégicas de Defesa (EED) participam de licitações, devem apresentar garantias para assegurar a continuidade das capacitações no País. Qual das opções abaixo é um exemplo dessa garantia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósito antecipado de 100% do valor do contrato em conta internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação exclusiva de mão de obra estrangeira para gerir a produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferência da propriedade intelectual ou da tecnologia relacionada aos PED para a União, quando requisitado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isenção total de impostos federais por um período de vinte anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 9º**, incisos I e IV, a transferência de tecnologia ou propriedade intelectual são formas de garantia previstas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o Termo de Licitação Especial (TLE) e qual sua função nas aquisições previstas na Lei nº 12.598/2012?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um contrato assinado após a entrega do produto para atestar a qualidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um documento confeccionado pelo órgão licitante que deve preceder as aquisições, indicando objeto, custo-benefício e razões da escolha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma autorização judicial necessária para importar qualquer produto de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma declaração emitida pela empresa vencedora renunciando aos lucros do projeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 12**, caput e § 1º, o TLE deve preceder a aquisição e ser confeccionado pelo órgão licitante com tais indicações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No caso de formação de consórcio entre empresas brasileiras e estrangeiras para participar de licitações de produtos de defesa, qual é a regra obrigatória quanto à liderança?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liderança caberá à empresa que possuir o maior capital social, independente da nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liderança deve ser alternada anualmente entre a empresa brasileira e a estrangeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liderança caberá, obrigatoriamente, à empresa brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liderança caberá, obrigatoriamente, à empresa estrangeira detentora da tecnologia principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 14, § 2º**, no consórcio de empresas brasileiras e estrangeiras, a liderança cabe obrigatoriamente à empresa brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual legislação é aplicada de forma subsidiária à Lei nº 12.598/2012 e ao Decreto nº 7.970/2013 nas contratações de defesa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Código Civil Brasileiro de 2002.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei das Sociedades Anônimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lei nº 8.666, de 21 de junho de 1993.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As normas internacionais de comércio da OMC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 21**, a Lei nº 8.666/1993 será aplicada de forma subsidiária.</t>
   </si>
 </sst>
 </file>
@@ -11371,10 +11938,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L595"/>
+  <dimension ref="A1:L624"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A557" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A576" activeCellId="0" sqref="A576:Q595"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A589" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A617" activeCellId="0" sqref="617:624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29688,1364 +30255,2310 @@
       <c r="L555" s="1"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="0" t="s">
+      <c r="A556" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B556" s="0" t="s">
+      <c r="B556" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="C556" s="0" t="s">
+      <c r="C556" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D556" s="0" t="s">
+      <c r="D556" s="1" t="s">
         <v>3423</v>
       </c>
-      <c r="E556" s="0" t="s">
+      <c r="E556" s="1" t="s">
         <v>3424</v>
       </c>
-      <c r="F556" s="0" t="s">
+      <c r="F556" s="1" t="s">
         <v>3425</v>
       </c>
-      <c r="G556" s="0" t="s">
+      <c r="G556" s="1" t="s">
         <v>3426</v>
       </c>
-      <c r="H556" s="0" t="s">
+      <c r="H556" s="1" t="s">
         <v>3427</v>
       </c>
-      <c r="I556" s="0" t="s">
+      <c r="I556" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J556" s="0" t="s">
+      <c r="J556" s="1" t="s">
         <v>3428</v>
       </c>
-      <c r="K556" s="0"/>
-      <c r="L556" s="0"/>
+      <c r="L556" s="1"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B557" s="0" t="s">
+      <c r="B557" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="C557" s="0" t="s">
+      <c r="C557" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D557" s="0" t="s">
+      <c r="D557" s="1" t="s">
         <v>3429</v>
       </c>
-      <c r="E557" s="0" t="s">
+      <c r="E557" s="1" t="s">
         <v>3430</v>
       </c>
-      <c r="F557" s="0" t="s">
+      <c r="F557" s="1" t="s">
         <v>3431</v>
       </c>
-      <c r="G557" s="0" t="s">
+      <c r="G557" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="H557" s="0" t="s">
+      <c r="H557" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="I557" s="0" t="s">
+      <c r="I557" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J557" s="0" t="s">
+      <c r="J557" s="1" t="s">
         <v>3434</v>
       </c>
-      <c r="K557" s="0"/>
-      <c r="L557" s="0"/>
+      <c r="L557" s="1"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B558" s="0" t="s">
+      <c r="B558" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="C558" s="0" t="s">
+      <c r="C558" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D558" s="0" t="s">
+      <c r="D558" s="1" t="s">
         <v>3435</v>
       </c>
-      <c r="E558" s="0" t="s">
+      <c r="E558" s="1" t="s">
         <v>3436</v>
       </c>
-      <c r="F558" s="0" t="s">
+      <c r="F558" s="1" t="s">
         <v>3437</v>
       </c>
-      <c r="G558" s="0" t="s">
+      <c r="G558" s="1" t="s">
         <v>3438</v>
       </c>
-      <c r="H558" s="0" t="s">
+      <c r="H558" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="I558" s="0" t="s">
+      <c r="I558" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J558" s="0" t="s">
+      <c r="J558" s="1" t="s">
         <v>3440</v>
       </c>
-      <c r="K558" s="0"/>
-      <c r="L558" s="0"/>
+      <c r="L558" s="1"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B559" s="0" t="s">
+      <c r="B559" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="C559" s="0" t="s">
+      <c r="C559" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D559" s="0" t="s">
+      <c r="D559" s="1" t="s">
         <v>3441</v>
       </c>
-      <c r="E559" s="0" t="s">
+      <c r="E559" s="1" t="s">
         <v>3442</v>
       </c>
-      <c r="F559" s="0" t="s">
+      <c r="F559" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="G559" s="0" t="s">
+      <c r="G559" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="H559" s="0" t="s">
+      <c r="H559" s="1" t="s">
         <v>3445</v>
       </c>
-      <c r="I559" s="0" t="s">
+      <c r="I559" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J559" s="0" t="s">
+      <c r="J559" s="1" t="s">
         <v>3446</v>
       </c>
-      <c r="K559" s="0"/>
-      <c r="L559" s="0"/>
+      <c r="L559" s="1"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B560" s="0" t="s">
+      <c r="B560" s="1" t="s">
         <v>3447</v>
       </c>
-      <c r="C560" s="0" t="s">
+      <c r="C560" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D560" s="0" t="s">
+      <c r="D560" s="1" t="s">
         <v>3448</v>
       </c>
-      <c r="E560" s="0" t="s">
+      <c r="E560" s="1" t="s">
         <v>3449</v>
       </c>
-      <c r="F560" s="0" t="s">
+      <c r="F560" s="1" t="s">
         <v>3450</v>
       </c>
-      <c r="G560" s="0" t="s">
+      <c r="G560" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="H560" s="0" t="s">
+      <c r="H560" s="1" t="s">
         <v>3452</v>
       </c>
-      <c r="I560" s="0" t="s">
+      <c r="I560" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J560" s="0" t="s">
+      <c r="J560" s="1" t="s">
         <v>3453</v>
       </c>
-      <c r="K560" s="0"/>
-      <c r="L560" s="0"/>
+      <c r="L560" s="1"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B561" s="0" t="s">
+      <c r="B561" s="1" t="s">
         <v>3454</v>
       </c>
-      <c r="C561" s="0" t="s">
+      <c r="C561" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D561" s="0" t="s">
+      <c r="D561" s="1" t="s">
         <v>3455</v>
       </c>
-      <c r="E561" s="0" t="s">
+      <c r="E561" s="1" t="s">
         <v>3456</v>
       </c>
-      <c r="F561" s="0" t="s">
+      <c r="F561" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="G561" s="0" t="s">
+      <c r="G561" s="1" t="s">
         <v>3458</v>
       </c>
-      <c r="H561" s="0" t="s">
+      <c r="H561" s="1" t="s">
         <v>3459</v>
       </c>
-      <c r="I561" s="0" t="s">
+      <c r="I561" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J561" s="0" t="s">
+      <c r="J561" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="K561" s="0"/>
-      <c r="L561" s="0"/>
+      <c r="L561" s="1"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B562" s="0" t="s">
+      <c r="B562" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="C562" s="0" t="s">
+      <c r="C562" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D562" s="0" t="s">
+      <c r="D562" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="E562" s="0" t="s">
+      <c r="E562" s="1" t="s">
         <v>3462</v>
       </c>
-      <c r="F562" s="0" t="s">
+      <c r="F562" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="G562" s="0" t="s">
+      <c r="G562" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="H562" s="0" t="s">
+      <c r="H562" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="I562" s="0" t="s">
+      <c r="I562" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J562" s="0" t="s">
+      <c r="J562" s="1" t="s">
         <v>3466</v>
       </c>
-      <c r="K562" s="0"/>
-      <c r="L562" s="0"/>
+      <c r="L562" s="1"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
+      <c r="A563" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B563" s="0" t="s">
+      <c r="B563" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="C563" s="0" t="s">
+      <c r="C563" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D563" s="0" t="s">
+      <c r="D563" s="1" t="s">
         <v>3467</v>
       </c>
-      <c r="E563" s="0" t="s">
+      <c r="E563" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="F563" s="0" t="s">
+      <c r="F563" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="G563" s="0" t="s">
+      <c r="G563" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="H563" s="0" t="s">
+      <c r="H563" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="I563" s="0" t="s">
+      <c r="I563" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J563" s="0" t="s">
+      <c r="J563" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="K563" s="0"/>
-      <c r="L563" s="0"/>
+      <c r="L563" s="1"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B564" s="0" t="s">
+      <c r="B564" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="C564" s="0" t="s">
+      <c r="C564" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D564" s="0" t="s">
+      <c r="D564" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="E564" s="0" t="s">
+      <c r="E564" s="1" t="s">
         <v>3474</v>
       </c>
-      <c r="F564" s="0" t="s">
+      <c r="F564" s="1" t="s">
         <v>3475</v>
       </c>
-      <c r="G564" s="0" t="s">
+      <c r="G564" s="1" t="s">
         <v>3476</v>
       </c>
-      <c r="H564" s="0" t="s">
+      <c r="H564" s="1" t="s">
         <v>3477</v>
       </c>
-      <c r="I564" s="0" t="s">
+      <c r="I564" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J564" s="0" t="s">
+      <c r="J564" s="1" t="s">
         <v>3478</v>
       </c>
-      <c r="K564" s="0"/>
-      <c r="L564" s="0"/>
+      <c r="L564" s="1"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
+      <c r="A565" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B565" s="0" t="s">
+      <c r="B565" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="C565" s="0" t="s">
+      <c r="C565" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D565" s="0" t="s">
+      <c r="D565" s="1" t="s">
         <v>3479</v>
       </c>
-      <c r="E565" s="0" t="s">
+      <c r="E565" s="1" t="s">
         <v>3480</v>
       </c>
-      <c r="F565" s="0" t="s">
+      <c r="F565" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="G565" s="0" t="s">
+      <c r="G565" s="1" t="s">
         <v>3482</v>
       </c>
-      <c r="H565" s="0" t="s">
+      <c r="H565" s="1" t="s">
         <v>3483</v>
       </c>
-      <c r="I565" s="0" t="s">
+      <c r="I565" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J565" s="0" t="s">
+      <c r="J565" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="K565" s="0"/>
-      <c r="L565" s="0"/>
+      <c r="L565" s="1"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
+      <c r="A566" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B566" s="0" t="s">
+      <c r="B566" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="C566" s="0" t="s">
+      <c r="C566" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D566" s="0" t="s">
+      <c r="D566" s="1" t="s">
         <v>3486</v>
       </c>
-      <c r="E566" s="0" t="s">
+      <c r="E566" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="F566" s="0" t="s">
+      <c r="F566" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="G566" s="0" t="s">
+      <c r="G566" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="H566" s="0" t="s">
+      <c r="H566" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="I566" s="0" t="s">
+      <c r="I566" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J566" s="0" t="s">
+      <c r="J566" s="1" t="s">
         <v>3491</v>
       </c>
-      <c r="K566" s="0"/>
-      <c r="L566" s="0"/>
+      <c r="L566" s="1"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="0" t="s">
+      <c r="A567" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B567" s="0" t="s">
+      <c r="B567" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="C567" s="0" t="s">
+      <c r="C567" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D567" s="0" t="s">
+      <c r="D567" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="E567" s="0" t="s">
+      <c r="E567" s="1" t="s">
         <v>3493</v>
       </c>
-      <c r="F567" s="0" t="s">
+      <c r="F567" s="1" t="s">
         <v>3494</v>
       </c>
-      <c r="G567" s="0" t="s">
+      <c r="G567" s="1" t="s">
         <v>3495</v>
       </c>
-      <c r="H567" s="0" t="s">
+      <c r="H567" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="I567" s="0" t="s">
+      <c r="I567" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J567" s="0" t="s">
+      <c r="J567" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="K567" s="0"/>
-      <c r="L567" s="0"/>
+      <c r="L567" s="1"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B568" s="0" t="s">
+      <c r="B568" s="1" t="s">
         <v>3498</v>
       </c>
-      <c r="C568" s="0" t="s">
+      <c r="C568" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D568" s="0" t="s">
+      <c r="D568" s="1" t="s">
         <v>3499</v>
       </c>
-      <c r="E568" s="0" t="s">
+      <c r="E568" s="1" t="s">
         <v>3500</v>
       </c>
-      <c r="F568" s="0" t="s">
+      <c r="F568" s="1" t="s">
         <v>3501</v>
       </c>
-      <c r="G568" s="0" t="s">
+      <c r="G568" s="1" t="s">
         <v>3502</v>
       </c>
-      <c r="H568" s="0" t="s">
+      <c r="H568" s="1" t="s">
         <v>3503</v>
       </c>
-      <c r="I568" s="0" t="s">
+      <c r="I568" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J568" s="0" t="s">
+      <c r="J568" s="1" t="s">
         <v>3504</v>
       </c>
-      <c r="K568" s="0"/>
-      <c r="L568" s="0"/>
+      <c r="L568" s="1"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B569" s="0" t="s">
+      <c r="B569" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="C569" s="0" t="s">
+      <c r="C569" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D569" s="0" t="s">
+      <c r="D569" s="1" t="s">
         <v>3506</v>
       </c>
-      <c r="E569" s="0" t="s">
+      <c r="E569" s="1" t="s">
         <v>3507</v>
       </c>
-      <c r="F569" s="0" t="s">
+      <c r="F569" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="G569" s="0" t="s">
+      <c r="G569" s="1" t="s">
         <v>3509</v>
       </c>
-      <c r="H569" s="0" t="s">
+      <c r="H569" s="1" t="s">
         <v>3510</v>
       </c>
-      <c r="I569" s="0" t="s">
+      <c r="I569" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J569" s="0" t="s">
+      <c r="J569" s="1" t="s">
         <v>3511</v>
       </c>
-      <c r="K569" s="0"/>
-      <c r="L569" s="0"/>
+      <c r="L569" s="1"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="0" t="s">
+      <c r="A570" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B570" s="0" t="s">
+      <c r="B570" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="C570" s="0" t="s">
+      <c r="C570" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D570" s="0" t="s">
+      <c r="D570" s="1" t="s">
         <v>3512</v>
       </c>
-      <c r="E570" s="0" t="s">
+      <c r="E570" s="1" t="s">
         <v>3513</v>
       </c>
-      <c r="F570" s="0" t="s">
+      <c r="F570" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="G570" s="0" t="s">
+      <c r="G570" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="H570" s="0" t="s">
+      <c r="H570" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="I570" s="0" t="s">
+      <c r="I570" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J570" s="0" t="s">
+      <c r="J570" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="K570" s="0"/>
-      <c r="L570" s="0"/>
+      <c r="L570" s="1"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="0" t="s">
+      <c r="A571" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B571" s="0" t="s">
+      <c r="B571" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="C571" s="0" t="s">
+      <c r="C571" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D571" s="0" t="s">
+      <c r="D571" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="E571" s="0" t="s">
+      <c r="E571" s="1" t="s">
         <v>3519</v>
       </c>
-      <c r="F571" s="0" t="s">
+      <c r="F571" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="G571" s="0" t="s">
+      <c r="G571" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="H571" s="0" t="s">
+      <c r="H571" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="I571" s="0" t="s">
+      <c r="I571" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J571" s="0" t="s">
+      <c r="J571" s="1" t="s">
         <v>3523</v>
       </c>
-      <c r="K571" s="0"/>
-      <c r="L571" s="0"/>
+      <c r="L571" s="1"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="0" t="s">
+      <c r="A572" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B572" s="0" t="s">
+      <c r="B572" s="1" t="s">
         <v>3524</v>
       </c>
-      <c r="C572" s="0" t="s">
+      <c r="C572" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D572" s="0" t="s">
+      <c r="D572" s="1" t="s">
         <v>3525</v>
       </c>
-      <c r="E572" s="0" t="s">
+      <c r="E572" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="F572" s="0" t="s">
+      <c r="F572" s="1" t="s">
         <v>3527</v>
       </c>
-      <c r="G572" s="0" t="s">
+      <c r="G572" s="1" t="s">
         <v>3528</v>
       </c>
-      <c r="H572" s="0" t="s">
+      <c r="H572" s="1" t="s">
         <v>3529</v>
       </c>
-      <c r="I572" s="0" t="s">
+      <c r="I572" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J572" s="0" t="s">
+      <c r="J572" s="1" t="s">
         <v>3530</v>
       </c>
-      <c r="K572" s="0"/>
-      <c r="L572" s="0"/>
+      <c r="L572" s="1"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B573" s="0" t="s">
+      <c r="B573" s="1" t="s">
         <v>3531</v>
       </c>
-      <c r="C573" s="0" t="s">
+      <c r="C573" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D573" s="0" t="s">
+      <c r="D573" s="1" t="s">
         <v>3532</v>
       </c>
-      <c r="E573" s="0" t="s">
+      <c r="E573" s="1" t="s">
         <v>3533</v>
       </c>
-      <c r="F573" s="0" t="s">
+      <c r="F573" s="1" t="s">
         <v>3534</v>
       </c>
-      <c r="G573" s="0" t="s">
+      <c r="G573" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="H573" s="0" t="s">
+      <c r="H573" s="1" t="s">
         <v>3536</v>
       </c>
-      <c r="I573" s="0" t="s">
+      <c r="I573" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J573" s="0" t="s">
+      <c r="J573" s="1" t="s">
         <v>3537</v>
       </c>
-      <c r="K573" s="0"/>
-      <c r="L573" s="0"/>
+      <c r="L573" s="1"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
+      <c r="A574" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B574" s="0" t="s">
+      <c r="B574" s="1" t="s">
         <v>3531</v>
       </c>
-      <c r="C574" s="0" t="s">
+      <c r="C574" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D574" s="0" t="s">
+      <c r="D574" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="E574" s="0" t="s">
+      <c r="E574" s="1" t="s">
         <v>3539</v>
       </c>
-      <c r="F574" s="0" t="s">
+      <c r="F574" s="1" t="s">
         <v>3540</v>
       </c>
-      <c r="G574" s="0" t="s">
+      <c r="G574" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="H574" s="0" t="s">
+      <c r="H574" s="1" t="s">
         <v>3542</v>
       </c>
-      <c r="I574" s="0" t="s">
+      <c r="I574" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J574" s="0" t="s">
+      <c r="J574" s="1" t="s">
         <v>3543</v>
       </c>
-      <c r="K574" s="0"/>
-      <c r="L574" s="0"/>
+      <c r="L574" s="1"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="0" t="s">
+      <c r="A575" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B575" s="0" t="s">
+      <c r="B575" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="C575" s="0" t="s">
+      <c r="C575" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="D575" s="0" t="s">
+      <c r="D575" s="1" t="s">
         <v>3545</v>
       </c>
-      <c r="E575" s="0" t="s">
+      <c r="E575" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="F575" s="0" t="s">
+      <c r="F575" s="1" t="s">
         <v>3547</v>
       </c>
-      <c r="G575" s="0" t="s">
+      <c r="G575" s="1" t="s">
         <v>3548</v>
       </c>
-      <c r="H575" s="0" t="s">
+      <c r="H575" s="1" t="s">
         <v>3549</v>
       </c>
-      <c r="I575" s="0" t="s">
+      <c r="I575" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J575" s="0" t="s">
+      <c r="J575" s="1" t="s">
         <v>3550</v>
       </c>
-      <c r="K575" s="0"/>
-      <c r="L575" s="0"/>
+      <c r="L575" s="1"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="0" t="s">
+      <c r="A576" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B576" s="0" t="s">
+      <c r="B576" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="C576" s="0" t="s">
+      <c r="C576" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D576" s="0" t="s">
+      <c r="D576" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="E576" s="0" t="s">
+      <c r="E576" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="F576" s="0" t="s">
+      <c r="F576" s="1" t="s">
         <v>3554</v>
       </c>
-      <c r="G576" s="0" t="s">
+      <c r="G576" s="1" t="s">
         <v>3555</v>
       </c>
-      <c r="H576" s="0" t="s">
+      <c r="H576" s="1" t="s">
         <v>3556</v>
       </c>
-      <c r="I576" s="0" t="s">
+      <c r="I576" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J576" s="0" t="s">
+      <c r="J576" s="1" t="s">
         <v>3557</v>
       </c>
-      <c r="K576" s="0"/>
-      <c r="L576" s="0"/>
+      <c r="L576" s="1"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="0" t="s">
+      <c r="A577" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B577" s="0" t="s">
+      <c r="B577" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="C577" s="0" t="s">
+      <c r="C577" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D577" s="0" t="s">
+      <c r="D577" s="1" t="s">
         <v>3558</v>
       </c>
-      <c r="E577" s="0" t="s">
+      <c r="E577" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="F577" s="0" t="s">
+      <c r="F577" s="1" t="s">
         <v>3560</v>
       </c>
-      <c r="G577" s="0" t="s">
+      <c r="G577" s="1" t="s">
         <v>3561</v>
       </c>
-      <c r="H577" s="0" t="s">
+      <c r="H577" s="1" t="s">
         <v>3562</v>
       </c>
-      <c r="I577" s="0" t="s">
+      <c r="I577" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J577" s="0" t="s">
+      <c r="J577" s="1" t="s">
         <v>3563</v>
       </c>
-      <c r="K577" s="0"/>
-      <c r="L577" s="0"/>
+      <c r="L577" s="1"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="0" t="s">
+      <c r="A578" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B578" s="0" t="s">
+      <c r="B578" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="C578" s="0" t="s">
+      <c r="C578" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D578" s="0" t="s">
+      <c r="D578" s="1" t="s">
         <v>3564</v>
       </c>
-      <c r="E578" s="0" t="s">
+      <c r="E578" s="1" t="s">
         <v>3565</v>
       </c>
-      <c r="F578" s="0" t="s">
+      <c r="F578" s="1" t="s">
         <v>3566</v>
       </c>
-      <c r="G578" s="0" t="s">
+      <c r="G578" s="1" t="s">
         <v>3567</v>
       </c>
-      <c r="H578" s="0" t="s">
+      <c r="H578" s="1" t="s">
         <v>3568</v>
       </c>
-      <c r="I578" s="0" t="s">
+      <c r="I578" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J578" s="0" t="s">
+      <c r="J578" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="K578" s="0"/>
-      <c r="L578" s="0"/>
+      <c r="L578" s="1"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="0" t="s">
+      <c r="A579" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B579" s="0" t="s">
+      <c r="B579" s="1" t="s">
         <v>3570</v>
       </c>
-      <c r="C579" s="0" t="s">
+      <c r="C579" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D579" s="0" t="s">
+      <c r="D579" s="1" t="s">
         <v>3571</v>
       </c>
-      <c r="E579" s="0" t="s">
+      <c r="E579" s="1" t="s">
         <v>3572</v>
       </c>
-      <c r="F579" s="0" t="s">
+      <c r="F579" s="1" t="s">
         <v>3573</v>
       </c>
-      <c r="G579" s="0" t="s">
+      <c r="G579" s="1" t="s">
         <v>3574</v>
       </c>
-      <c r="H579" s="0" t="s">
+      <c r="H579" s="1" t="s">
         <v>3575</v>
       </c>
-      <c r="I579" s="0" t="s">
+      <c r="I579" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J579" s="0" t="s">
+      <c r="J579" s="1" t="s">
         <v>3576</v>
       </c>
-      <c r="K579" s="0"/>
-      <c r="L579" s="0"/>
+      <c r="L579" s="1"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="0" t="s">
+      <c r="A580" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B580" s="0" t="s">
+      <c r="B580" s="1" t="s">
         <v>3570</v>
       </c>
-      <c r="C580" s="0" t="s">
+      <c r="C580" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D580" s="0" t="s">
+      <c r="D580" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="E580" s="0" t="s">
+      <c r="E580" s="1" t="s">
         <v>3578</v>
       </c>
-      <c r="F580" s="0" t="s">
+      <c r="F580" s="1" t="s">
         <v>3579</v>
       </c>
-      <c r="G580" s="0" t="s">
+      <c r="G580" s="1" t="s">
         <v>3580</v>
       </c>
-      <c r="H580" s="0" t="s">
+      <c r="H580" s="1" t="s">
         <v>3581</v>
       </c>
-      <c r="I580" s="0" t="s">
+      <c r="I580" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J580" s="0" t="s">
+      <c r="J580" s="1" t="s">
         <v>3582</v>
       </c>
-      <c r="K580" s="0"/>
-      <c r="L580" s="0"/>
+      <c r="L580" s="1"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
+      <c r="A581" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B581" s="0" t="s">
+      <c r="B581" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="C581" s="0" t="s">
+      <c r="C581" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D581" s="0" t="s">
+      <c r="D581" s="1" t="s">
         <v>3583</v>
       </c>
-      <c r="E581" s="0" t="s">
+      <c r="E581" s="1" t="s">
         <v>3584</v>
       </c>
-      <c r="F581" s="0" t="s">
+      <c r="F581" s="1" t="s">
         <v>3585</v>
       </c>
-      <c r="G581" s="0" t="s">
+      <c r="G581" s="1" t="s">
         <v>3586</v>
       </c>
-      <c r="H581" s="0" t="s">
+      <c r="H581" s="1" t="s">
         <v>3587</v>
       </c>
-      <c r="I581" s="0" t="s">
+      <c r="I581" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J581" s="0" t="s">
+      <c r="J581" s="1" t="s">
         <v>3588</v>
       </c>
-      <c r="K581" s="0"/>
-      <c r="L581" s="0"/>
+      <c r="L581" s="1"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="0" t="s">
+      <c r="A582" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B582" s="0" t="s">
+      <c r="B582" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="C582" s="0" t="s">
+      <c r="C582" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D582" s="0" t="s">
+      <c r="D582" s="1" t="s">
         <v>3590</v>
       </c>
-      <c r="E582" s="0" t="s">
+      <c r="E582" s="1" t="s">
         <v>3591</v>
       </c>
-      <c r="F582" s="0" t="s">
+      <c r="F582" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="G582" s="0" t="s">
+      <c r="G582" s="1" t="s">
         <v>3593</v>
       </c>
-      <c r="H582" s="0" t="s">
+      <c r="H582" s="1" t="s">
         <v>3594</v>
       </c>
-      <c r="I582" s="0" t="s">
+      <c r="I582" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J582" s="0" t="s">
+      <c r="J582" s="1" t="s">
         <v>3595</v>
       </c>
-      <c r="K582" s="0"/>
-      <c r="L582" s="0"/>
+      <c r="L582" s="1"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B583" s="0" t="s">
+      <c r="B583" s="1" t="s">
         <v>3596</v>
       </c>
-      <c r="C583" s="0" t="s">
+      <c r="C583" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D583" s="0" t="s">
+      <c r="D583" s="1" t="s">
         <v>3597</v>
       </c>
-      <c r="E583" s="0" t="s">
+      <c r="E583" s="1" t="s">
         <v>3598</v>
       </c>
-      <c r="F583" s="0" t="s">
+      <c r="F583" s="1" t="s">
         <v>3599</v>
       </c>
-      <c r="G583" s="0" t="s">
+      <c r="G583" s="1" t="s">
         <v>3600</v>
       </c>
-      <c r="H583" s="0" t="s">
+      <c r="H583" s="1" t="s">
         <v>3601</v>
       </c>
-      <c r="I583" s="0" t="s">
+      <c r="I583" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J583" s="0" t="s">
+      <c r="J583" s="1" t="s">
         <v>3602</v>
       </c>
-      <c r="K583" s="0"/>
-      <c r="L583" s="0"/>
+      <c r="L583" s="1"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B584" s="0" t="s">
+      <c r="B584" s="1" t="s">
         <v>3596</v>
       </c>
-      <c r="C584" s="0" t="s">
+      <c r="C584" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D584" s="0" t="s">
+      <c r="D584" s="1" t="s">
         <v>3603</v>
       </c>
-      <c r="E584" s="0" t="s">
+      <c r="E584" s="1" t="s">
         <v>3604</v>
       </c>
-      <c r="F584" s="0" t="s">
+      <c r="F584" s="1" t="s">
         <v>3605</v>
       </c>
-      <c r="G584" s="0" t="s">
+      <c r="G584" s="1" t="s">
         <v>3606</v>
       </c>
-      <c r="H584" s="0" t="s">
+      <c r="H584" s="1" t="s">
         <v>3607</v>
       </c>
-      <c r="I584" s="0" t="s">
+      <c r="I584" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J584" s="0" t="s">
+      <c r="J584" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="K584" s="0"/>
-      <c r="L584" s="0"/>
+      <c r="L584" s="1"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B585" s="0" t="s">
+      <c r="B585" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="C585" s="0" t="s">
+      <c r="C585" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D585" s="0" t="s">
+      <c r="D585" s="1" t="s">
         <v>3610</v>
       </c>
-      <c r="E585" s="0" t="s">
+      <c r="E585" s="1" t="s">
         <v>3611</v>
       </c>
-      <c r="F585" s="0" t="s">
+      <c r="F585" s="1" t="s">
         <v>3612</v>
       </c>
-      <c r="G585" s="0" t="s">
+      <c r="G585" s="1" t="s">
         <v>3613</v>
       </c>
-      <c r="H585" s="0" t="s">
+      <c r="H585" s="1" t="s">
         <v>3614</v>
       </c>
-      <c r="I585" s="0" t="s">
+      <c r="I585" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J585" s="0" t="s">
+      <c r="J585" s="1" t="s">
         <v>3615</v>
       </c>
-      <c r="K585" s="0"/>
-      <c r="L585" s="0"/>
+      <c r="L585" s="1"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
+      <c r="A586" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B586" s="0" t="s">
+      <c r="B586" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="C586" s="0" t="s">
+      <c r="C586" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D586" s="0" t="s">
+      <c r="D586" s="1" t="s">
         <v>3617</v>
       </c>
-      <c r="E586" s="0" t="s">
+      <c r="E586" s="1" t="s">
         <v>3618</v>
       </c>
-      <c r="F586" s="0" t="s">
+      <c r="F586" s="1" t="s">
         <v>3619</v>
       </c>
-      <c r="G586" s="0" t="s">
+      <c r="G586" s="1" t="s">
         <v>3620</v>
       </c>
-      <c r="H586" s="0" t="s">
+      <c r="H586" s="1" t="s">
         <v>3621</v>
       </c>
-      <c r="I586" s="0" t="s">
+      <c r="I586" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J586" s="0" t="s">
+      <c r="J586" s="1" t="s">
         <v>3622</v>
       </c>
-      <c r="K586" s="0"/>
-      <c r="L586" s="0"/>
+      <c r="L586" s="1"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B587" s="0" t="s">
+      <c r="B587" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="C587" s="0" t="s">
+      <c r="C587" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D587" s="0" t="s">
+      <c r="D587" s="1" t="s">
         <v>3623</v>
       </c>
-      <c r="E587" s="0" t="s">
+      <c r="E587" s="1" t="s">
         <v>3624</v>
       </c>
-      <c r="F587" s="0" t="s">
+      <c r="F587" s="1" t="s">
         <v>3625</v>
       </c>
-      <c r="G587" s="0" t="s">
+      <c r="G587" s="1" t="s">
         <v>3626</v>
       </c>
-      <c r="H587" s="0" t="s">
+      <c r="H587" s="1" t="s">
         <v>3627</v>
       </c>
-      <c r="I587" s="0" t="s">
+      <c r="I587" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J587" s="0" t="s">
+      <c r="J587" s="1" t="s">
         <v>3628</v>
       </c>
-      <c r="K587" s="0"/>
-      <c r="L587" s="0"/>
+      <c r="L587" s="1"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B588" s="0" t="s">
+      <c r="B588" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="C588" s="0" t="s">
+      <c r="C588" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D588" s="0" t="s">
+      <c r="D588" s="1" t="s">
         <v>3629</v>
       </c>
-      <c r="E588" s="0" t="s">
+      <c r="E588" s="1" t="s">
         <v>3630</v>
       </c>
-      <c r="F588" s="0" t="s">
+      <c r="F588" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="G588" s="0" t="s">
+      <c r="G588" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="H588" s="0" t="s">
+      <c r="H588" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="I588" s="0" t="s">
+      <c r="I588" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J588" s="0" t="s">
+      <c r="J588" s="1" t="s">
         <v>3634</v>
       </c>
-      <c r="K588" s="0"/>
-      <c r="L588" s="0"/>
+      <c r="L588" s="1"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+      <c r="A589" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B589" s="0" t="s">
+      <c r="B589" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="C589" s="0" t="s">
+      <c r="C589" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D589" s="0" t="s">
+      <c r="D589" s="1" t="s">
         <v>3635</v>
       </c>
-      <c r="E589" s="0" t="s">
+      <c r="E589" s="1" t="s">
         <v>3636</v>
       </c>
-      <c r="F589" s="0" t="s">
+      <c r="F589" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="G589" s="0" t="s">
+      <c r="G589" s="1" t="s">
         <v>3638</v>
       </c>
-      <c r="H589" s="0" t="s">
+      <c r="H589" s="1" t="s">
         <v>3639</v>
       </c>
-      <c r="I589" s="0" t="s">
+      <c r="I589" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J589" s="0" t="s">
+      <c r="J589" s="1" t="s">
         <v>3640</v>
       </c>
-      <c r="K589" s="0"/>
-      <c r="L589" s="0"/>
+      <c r="L589" s="1"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B590" s="0" t="s">
+      <c r="B590" s="1" t="s">
         <v>3641</v>
       </c>
-      <c r="C590" s="0" t="s">
+      <c r="C590" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D590" s="0" t="s">
+      <c r="D590" s="1" t="s">
         <v>3642</v>
       </c>
-      <c r="E590" s="0" t="s">
+      <c r="E590" s="1" t="s">
         <v>3643</v>
       </c>
-      <c r="F590" s="0" t="s">
+      <c r="F590" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="G590" s="0" t="s">
+      <c r="G590" s="1" t="s">
         <v>3645</v>
       </c>
-      <c r="H590" s="0" t="s">
+      <c r="H590" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="I590" s="0" t="s">
+      <c r="I590" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J590" s="0" t="s">
+      <c r="J590" s="1" t="s">
         <v>3647</v>
       </c>
-      <c r="K590" s="0"/>
-      <c r="L590" s="0"/>
+      <c r="L590" s="1"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
+      <c r="A591" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B591" s="0" t="s">
+      <c r="B591" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="C591" s="0" t="s">
+      <c r="C591" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D591" s="0" t="s">
+      <c r="D591" s="1" t="s">
         <v>3648</v>
       </c>
-      <c r="E591" s="0" t="s">
+      <c r="E591" s="1" t="s">
         <v>3649</v>
       </c>
-      <c r="F591" s="0" t="s">
+      <c r="F591" s="1" t="s">
         <v>3650</v>
       </c>
-      <c r="G591" s="0" t="s">
+      <c r="G591" s="1" t="s">
         <v>3651</v>
       </c>
-      <c r="H591" s="0" t="s">
+      <c r="H591" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="I591" s="0" t="s">
+      <c r="I591" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J591" s="0" t="s">
+      <c r="J591" s="1" t="s">
         <v>3653</v>
       </c>
-      <c r="K591" s="0"/>
-      <c r="L591" s="0"/>
+      <c r="L591" s="1"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="0" t="s">
+      <c r="A592" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B592" s="0" t="s">
+      <c r="B592" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="C592" s="0" t="s">
+      <c r="C592" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D592" s="0" t="s">
+      <c r="D592" s="1" t="s">
         <v>3655</v>
       </c>
-      <c r="E592" s="0" t="s">
+      <c r="E592" s="1" t="s">
         <v>3656</v>
       </c>
-      <c r="F592" s="0" t="s">
+      <c r="F592" s="1" t="s">
         <v>3657</v>
       </c>
-      <c r="G592" s="0" t="s">
+      <c r="G592" s="1" t="s">
         <v>3658</v>
       </c>
-      <c r="H592" s="0" t="s">
+      <c r="H592" s="1" t="s">
         <v>3659</v>
       </c>
-      <c r="I592" s="0" t="s">
+      <c r="I592" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J592" s="0" t="s">
+      <c r="J592" s="1" t="s">
         <v>3660</v>
       </c>
-      <c r="K592" s="0"/>
-      <c r="L592" s="0"/>
+      <c r="L592" s="1"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="0" t="s">
+      <c r="A593" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B593" s="0" t="s">
+      <c r="B593" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="C593" s="0" t="s">
+      <c r="C593" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D593" s="0" t="s">
+      <c r="D593" s="1" t="s">
         <v>3661</v>
       </c>
-      <c r="E593" s="0" t="s">
+      <c r="E593" s="1" t="s">
         <v>3662</v>
       </c>
-      <c r="F593" s="0" t="s">
+      <c r="F593" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="G593" s="0" t="s">
+      <c r="G593" s="1" t="s">
         <v>3664</v>
       </c>
-      <c r="H593" s="0" t="s">
+      <c r="H593" s="1" t="s">
         <v>3665</v>
       </c>
-      <c r="I593" s="0" t="s">
+      <c r="I593" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J593" s="0" t="s">
+      <c r="J593" s="1" t="s">
         <v>3666</v>
       </c>
-      <c r="K593" s="0"/>
-      <c r="L593" s="0"/>
+      <c r="L593" s="1"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="0" t="s">
+      <c r="A594" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B594" s="0" t="s">
+      <c r="B594" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="C594" s="0" t="s">
+      <c r="C594" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D594" s="0" t="s">
+      <c r="D594" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="E594" s="0" t="s">
+      <c r="E594" s="1" t="s">
         <v>3668</v>
       </c>
-      <c r="F594" s="0" t="s">
+      <c r="F594" s="1" t="s">
         <v>3669</v>
       </c>
-      <c r="G594" s="0" t="s">
+      <c r="G594" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="H594" s="0" t="s">
+      <c r="H594" s="1" t="s">
         <v>3671</v>
       </c>
-      <c r="I594" s="0" t="s">
+      <c r="I594" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J594" s="0" t="s">
+      <c r="J594" s="1" t="s">
         <v>3672</v>
       </c>
-      <c r="K594" s="0"/>
-      <c r="L594" s="0"/>
+      <c r="L594" s="1"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="0" t="s">
+      <c r="A595" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="B595" s="0" t="s">
+      <c r="B595" s="1" t="s">
         <v>3673</v>
       </c>
-      <c r="C595" s="0" t="s">
+      <c r="C595" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="D595" s="0" t="s">
+      <c r="D595" s="1" t="s">
         <v>3674</v>
       </c>
-      <c r="E595" s="0" t="s">
+      <c r="E595" s="1" t="s">
         <v>3675</v>
       </c>
-      <c r="F595" s="0" t="s">
+      <c r="F595" s="1" t="s">
         <v>3676</v>
       </c>
-      <c r="G595" s="0" t="s">
+      <c r="G595" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="H595" s="0" t="s">
+      <c r="H595" s="1" t="s">
         <v>3678</v>
       </c>
-      <c r="I595" s="0" t="s">
+      <c r="I595" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J595" s="0" t="s">
+      <c r="J595" s="1" t="s">
         <v>3679</v>
       </c>
-      <c r="K595" s="0"/>
-      <c r="L595" s="0"/>
+      <c r="L595" s="1"/>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C596" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D596" s="0" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E596" s="0" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F596" s="0" t="s">
+        <v>3685</v>
+      </c>
+      <c r="G596" s="0" t="s">
+        <v>3686</v>
+      </c>
+      <c r="H596" s="0" t="s">
+        <v>3687</v>
+      </c>
+      <c r="I596" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J596" s="0" t="s">
+        <v>3688</v>
+      </c>
+      <c r="K596" s="0"/>
+      <c r="L596" s="0"/>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C597" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D597" s="0" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E597" s="0" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F597" s="0" t="s">
+        <v>3692</v>
+      </c>
+      <c r="G597" s="0" t="s">
+        <v>3693</v>
+      </c>
+      <c r="H597" s="0" t="s">
+        <v>3694</v>
+      </c>
+      <c r="I597" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J597" s="0" t="s">
+        <v>3695</v>
+      </c>
+      <c r="K597" s="0"/>
+      <c r="L597" s="0"/>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E598" s="0" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F598" s="0" t="s">
+        <v>3699</v>
+      </c>
+      <c r="G598" s="0" t="s">
+        <v>3700</v>
+      </c>
+      <c r="H598" s="0" t="s">
+        <v>3701</v>
+      </c>
+      <c r="I598" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J598" s="0" t="s">
+        <v>3702</v>
+      </c>
+      <c r="K598" s="0"/>
+      <c r="L598" s="0"/>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D599" s="0" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E599" s="0" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F599" s="0" t="s">
+        <v>3706</v>
+      </c>
+      <c r="G599" s="0" t="s">
+        <v>3707</v>
+      </c>
+      <c r="H599" s="0" t="s">
+        <v>3708</v>
+      </c>
+      <c r="I599" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J599" s="0" t="s">
+        <v>3709</v>
+      </c>
+      <c r="K599" s="0"/>
+      <c r="L599" s="0"/>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C600" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D600" s="0" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E600" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="F600" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="G600" s="0" t="s">
+        <v>3714</v>
+      </c>
+      <c r="H600" s="0" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I600" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J600" s="0" t="s">
+        <v>3716</v>
+      </c>
+      <c r="K600" s="0"/>
+      <c r="L600" s="0"/>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C601" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D601" s="0" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E601" s="0" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F601" s="0" t="s">
+        <v>3720</v>
+      </c>
+      <c r="G601" s="0" t="s">
+        <v>3721</v>
+      </c>
+      <c r="H601" s="0" t="s">
+        <v>3722</v>
+      </c>
+      <c r="I601" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J601" s="0" t="s">
+        <v>3723</v>
+      </c>
+      <c r="K601" s="0"/>
+      <c r="L601" s="0"/>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C602" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D602" s="0" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E602" s="0" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F602" s="0" t="s">
+        <v>3727</v>
+      </c>
+      <c r="G602" s="0" t="s">
+        <v>3728</v>
+      </c>
+      <c r="H602" s="0" t="s">
+        <v>3729</v>
+      </c>
+      <c r="I602" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J602" s="0" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K602" s="0"/>
+      <c r="L602" s="0"/>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B603" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C603" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D603" s="0" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E603" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F603" s="0" t="s">
+        <v>3734</v>
+      </c>
+      <c r="G603" s="0" t="s">
+        <v>3735</v>
+      </c>
+      <c r="H603" s="0" t="s">
+        <v>3736</v>
+      </c>
+      <c r="I603" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J603" s="0" t="s">
+        <v>3737</v>
+      </c>
+      <c r="K603" s="0"/>
+      <c r="L603" s="0"/>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B604" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C604" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D604" s="0" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E604" s="0" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F604" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="G604" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="H604" s="0" t="s">
+        <v>3741</v>
+      </c>
+      <c r="I604" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J604" s="0" t="s">
+        <v>3742</v>
+      </c>
+      <c r="K604" s="0"/>
+      <c r="L604" s="0"/>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B605" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C605" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D605" s="0" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E605" s="0" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F605" s="0" t="s">
+        <v>3746</v>
+      </c>
+      <c r="G605" s="0" t="s">
+        <v>3747</v>
+      </c>
+      <c r="H605" s="0" t="s">
+        <v>3748</v>
+      </c>
+      <c r="I605" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J605" s="0" t="s">
+        <v>3749</v>
+      </c>
+      <c r="K605" s="0"/>
+      <c r="L605" s="0"/>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E606" s="0" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F606" s="0" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G606" s="0" t="s">
+        <v>3754</v>
+      </c>
+      <c r="H606" s="0" t="s">
+        <v>3755</v>
+      </c>
+      <c r="I606" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J606" s="0" t="s">
+        <v>3756</v>
+      </c>
+      <c r="K606" s="0"/>
+      <c r="L606" s="0"/>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D607" s="0" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E607" s="0" t="s">
+        <v>3760</v>
+      </c>
+      <c r="F607" s="0" t="s">
+        <v>3761</v>
+      </c>
+      <c r="G607" s="0" t="s">
+        <v>3762</v>
+      </c>
+      <c r="H607" s="0" t="s">
+        <v>3763</v>
+      </c>
+      <c r="I607" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J607" s="0" t="s">
+        <v>3764</v>
+      </c>
+      <c r="K607" s="0"/>
+      <c r="L607" s="0"/>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B608" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C608" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D608" s="0" t="s">
+        <v>3765</v>
+      </c>
+      <c r="E608" s="0" t="s">
+        <v>3766</v>
+      </c>
+      <c r="F608" s="0" t="s">
+        <v>3767</v>
+      </c>
+      <c r="G608" s="0" t="s">
+        <v>3768</v>
+      </c>
+      <c r="H608" s="0" t="s">
+        <v>3769</v>
+      </c>
+      <c r="I608" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J608" s="0" t="s">
+        <v>3770</v>
+      </c>
+      <c r="K608" s="0"/>
+      <c r="L608" s="0"/>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B609" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D609" s="0" t="s">
+        <v>3771</v>
+      </c>
+      <c r="E609" s="0" t="s">
+        <v>3772</v>
+      </c>
+      <c r="F609" s="0" t="s">
+        <v>3773</v>
+      </c>
+      <c r="G609" s="0" t="s">
+        <v>3774</v>
+      </c>
+      <c r="H609" s="0" t="s">
+        <v>3775</v>
+      </c>
+      <c r="I609" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J609" s="0" t="s">
+        <v>3776</v>
+      </c>
+      <c r="K609" s="0"/>
+      <c r="L609" s="0"/>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C610" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D610" s="0" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E610" s="0" t="s">
+        <v>3778</v>
+      </c>
+      <c r="F610" s="0" t="s">
+        <v>3779</v>
+      </c>
+      <c r="G610" s="0" t="s">
+        <v>3780</v>
+      </c>
+      <c r="H610" s="0" t="s">
+        <v>3781</v>
+      </c>
+      <c r="I610" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J610" s="0" t="s">
+        <v>3782</v>
+      </c>
+      <c r="K610" s="0"/>
+      <c r="L610" s="0"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B611" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C611" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D611" s="0" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E611" s="0" t="s">
+        <v>3784</v>
+      </c>
+      <c r="F611" s="0" t="s">
+        <v>3785</v>
+      </c>
+      <c r="G611" s="0" t="s">
+        <v>3786</v>
+      </c>
+      <c r="H611" s="0" t="s">
+        <v>3787</v>
+      </c>
+      <c r="I611" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J611" s="0" t="s">
+        <v>3788</v>
+      </c>
+      <c r="K611" s="0"/>
+      <c r="L611" s="0"/>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B612" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C612" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D612" s="0" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E612" s="0" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F612" s="0" t="s">
+        <v>3791</v>
+      </c>
+      <c r="G612" s="0" t="s">
+        <v>3792</v>
+      </c>
+      <c r="H612" s="0" t="s">
+        <v>3793</v>
+      </c>
+      <c r="I612" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J612" s="0" t="s">
+        <v>3794</v>
+      </c>
+      <c r="K612" s="0"/>
+      <c r="L612" s="0"/>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B613" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C613" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D613" s="0" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E613" s="0" t="s">
+        <v>3796</v>
+      </c>
+      <c r="F613" s="0" t="s">
+        <v>3797</v>
+      </c>
+      <c r="G613" s="0" t="s">
+        <v>3798</v>
+      </c>
+      <c r="H613" s="0" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I613" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J613" s="0" t="s">
+        <v>3800</v>
+      </c>
+      <c r="K613" s="0"/>
+      <c r="L613" s="0"/>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D614" s="0" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E614" s="0" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F614" s="0" t="s">
+        <v>3803</v>
+      </c>
+      <c r="G614" s="0" t="s">
+        <v>3804</v>
+      </c>
+      <c r="H614" s="0" t="s">
+        <v>3805</v>
+      </c>
+      <c r="I614" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J614" s="0" t="s">
+        <v>3806</v>
+      </c>
+      <c r="K614" s="0"/>
+      <c r="L614" s="0"/>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B615" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C615" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D615" s="0" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E615" s="0" t="s">
+        <v>3808</v>
+      </c>
+      <c r="F615" s="0" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G615" s="0" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H615" s="0" t="s">
+        <v>3811</v>
+      </c>
+      <c r="I615" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J615" s="0" t="s">
+        <v>3812</v>
+      </c>
+      <c r="K615" s="0"/>
+      <c r="L615" s="0"/>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C616" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D616" s="0" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E616" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F616" s="0" t="s">
+        <v>3815</v>
+      </c>
+      <c r="G616" s="0" t="s">
+        <v>3816</v>
+      </c>
+      <c r="H616" s="0" t="s">
+        <v>3817</v>
+      </c>
+      <c r="I616" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J616" s="0" t="s">
+        <v>3818</v>
+      </c>
+      <c r="K616" s="0"/>
+      <c r="L616" s="0"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B617" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D617" s="0" t="s">
+        <v>3821</v>
+      </c>
+      <c r="E617" s="0" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F617" s="0" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G617" s="0" t="s">
+        <v>3824</v>
+      </c>
+      <c r="H617" s="0" t="s">
+        <v>3825</v>
+      </c>
+      <c r="I617" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J617" s="0" t="s">
+        <v>3826</v>
+      </c>
+      <c r="K617" s="0"/>
+      <c r="L617" s="0"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B618" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C618" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D618" s="0" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E618" s="0" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F618" s="0" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G618" s="0" t="s">
+        <v>3830</v>
+      </c>
+      <c r="H618" s="0" t="s">
+        <v>3831</v>
+      </c>
+      <c r="I618" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J618" s="0" t="s">
+        <v>3832</v>
+      </c>
+      <c r="K618" s="0"/>
+      <c r="L618" s="0"/>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B619" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C619" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D619" s="0" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E619" s="0" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F619" s="0" t="s">
+        <v>3835</v>
+      </c>
+      <c r="G619" s="0" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H619" s="0" t="s">
+        <v>3837</v>
+      </c>
+      <c r="I619" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J619" s="0" t="s">
+        <v>3838</v>
+      </c>
+      <c r="K619" s="0"/>
+      <c r="L619" s="0"/>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B620" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D620" s="0" t="s">
+        <v>3839</v>
+      </c>
+      <c r="E620" s="0" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F620" s="0" t="s">
+        <v>3841</v>
+      </c>
+      <c r="G620" s="0" t="s">
+        <v>3842</v>
+      </c>
+      <c r="H620" s="0" t="s">
+        <v>3843</v>
+      </c>
+      <c r="I620" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J620" s="0" t="s">
+        <v>3844</v>
+      </c>
+      <c r="K620" s="0"/>
+      <c r="L620" s="0"/>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B621" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C621" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D621" s="0" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E621" s="0" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F621" s="0" t="s">
+        <v>3847</v>
+      </c>
+      <c r="G621" s="0" t="s">
+        <v>3848</v>
+      </c>
+      <c r="H621" s="0" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I621" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J621" s="0" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K621" s="0"/>
+      <c r="L621" s="0"/>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D622" s="0" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E622" s="0" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F622" s="0" t="s">
+        <v>3853</v>
+      </c>
+      <c r="G622" s="0" t="s">
+        <v>3854</v>
+      </c>
+      <c r="H622" s="0" t="s">
+        <v>3855</v>
+      </c>
+      <c r="I622" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J622" s="0" t="s">
+        <v>3856</v>
+      </c>
+      <c r="K622" s="0"/>
+      <c r="L622" s="0"/>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C623" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D623" s="0" t="s">
+        <v>3857</v>
+      </c>
+      <c r="E623" s="0" t="s">
+        <v>3858</v>
+      </c>
+      <c r="F623" s="0" t="s">
+        <v>3859</v>
+      </c>
+      <c r="G623" s="0" t="s">
+        <v>3860</v>
+      </c>
+      <c r="H623" s="0" t="s">
+        <v>3861</v>
+      </c>
+      <c r="I623" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J623" s="0" t="s">
+        <v>3862</v>
+      </c>
+      <c r="K623" s="0"/>
+      <c r="L623" s="0"/>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B624" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C624" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D624" s="0" t="s">
+        <v>3863</v>
+      </c>
+      <c r="E624" s="0" t="s">
+        <v>3864</v>
+      </c>
+      <c r="F624" s="0" t="s">
+        <v>3865</v>
+      </c>
+      <c r="G624" s="0" t="s">
+        <v>3866</v>
+      </c>
+      <c r="H624" s="0" t="s">
+        <v>3867</v>
+      </c>
+      <c r="I624" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J624" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="K624" s="0"/>
+      <c r="L624" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$L$624</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="3869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="4029">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -11293,7 +11296,7 @@
     <t xml:space="preserve">Nos termos do **item 7.5, alínea 'g'**, cabe à DGePM ser o contato da MB com Setores da BID e do Governo para assuntos de Offset.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lei nº 12.598 - Produtos e Sistemas de Defesa</t>
+    <t xml:space="preserve">Lei nº 12.598</t>
   </si>
   <si>
     <t xml:space="preserve">Lei - Produtos e Sistemas de Defesa</t>
@@ -11627,6 +11630,486 @@
   </si>
   <si>
     <t xml:space="preserve">Nos termos do **art. 21**, a Lei nº 8.666/1993 será aplicada de forma subsidiária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria nº 223/2016 – Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretrizes Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Portaria nº 223/MB/2016, a qual órgão é atribuída a competência para emitir as Normas para o funcionamento da estrutura de *Offset* na Marinha do Brasil e supervisionar a implementação das Diretrizes aprovadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Estado-Maior da Armada (EMA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Diretoria de Engenharia Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Comando de Operações Navais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º** da Portaria, atribui-se ao EMA a emissão das Normas e a supervisão da implementação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre os objetivos das diretrizes de *Offset* na Marinha, descritos no item 1.1, qual é a finalidade específica relacionada à fabricação e manutenção de produtos do setor naval pelas empresas nacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximizar a importação de peças de reposição para garantir estoque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimizar a dependência tecnológica externa e ampliar o poder de mobilização nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduzir o quadro de pessoal da Base Industrial de Defesa para cortar custos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorizar a aquisição de equipamentos de prateleira sem transferência de tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 1.1, alínea 'b'**, o objetivo é ampliar a capacidade das empresas nacionais visando a minimizar a dependência tecnológica e ampliar o poder de mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das Diretrizes Gerais de *Offset* na Marinha (item 1.2), o que deve ser priorizado com o intuito de elevar o nível de capacitação dos recursos humanos relacionados à Base Industrial de Defesa (BID)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A contratação direta de consultores estrangeiros temporários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aquisição exclusiva de *hardware* sem documentação técnica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transferência de tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aumento das cotas de importação de serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.2, alínea 'e'**, deve-se priorizar a transferência de tecnologia visando à elevação do nível de capacitação dos recursos humanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 899/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política Nacional da Indústria de Defesa – PNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Portaria Normativa nº 899/MD, de 2005, como é definido o conceito de "produto estratégico de defesa"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São exclusivamente armamentos letais produzidos por empresas estatais, cuja tecnologia seja dominada inteiramente pelo setor público.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São bens e serviços que, devido a peculiaridades de obtenção ou emprego, possam comprometer a consecução de objetivos relacionados à segurança ou à defesa do País.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se a qualquer insumo industrial que seja importado pelas Forças Armadas e que necessite de autorização especial da Presidência da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de empresas privadas e organizações civis que participam da distribuição de equipamentos de proteção individual para o setor militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º, inciso II**, produto estratégico de defesa são bens e serviços que pelas peculiaridades de obtenção... possam comprometer... a consecução de objetivos relacionados à segurança ou à defesa do País.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A implementação da Política Nacional da Indústria de Defesa (PNID) estabelece orientações específicas para a atuação das empresas públicas e a condução de ações estratégicas. Assinale a alternativa correta sobre essas diretrizes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As ações estratégicas devem retirar da indústria os riscos inerentes à atividade empresarial, garantindo subsídios estatais plenos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As empresas públicas devem atuar em livre concorrência com o setor privado para forçar a redução de preços dos produtos de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As empresas públicas devem desempenhar suas atividades em complemento às de caráter privado, evitando a concorrência com estas últimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objetivo principal é a estatização imediata de toda a Base Industrial de Defesa (BID) para garantir a soberania nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 5º, inciso III**, as empresas públicas devem desempenhar suas atividades em complemento às de caráter privado, evitando a concorrência com estas últimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 586/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ações Estratégicas para o PNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da conscientização da sociedade sobre a importância da Base Industrial de Defesa (BID), qual mecanismo é identificado explicitamente como instrumento de articulação entre o Ministério da Defesa, os órgãos de Governo e as empresas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Conselho de Segurança Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Fórum das Indústrias de Defesa (FID).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Assessoria Parlamentar do Congresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Secretaria de Produtos Estratégicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º, inciso I, alínea "d"**, a ação estratégica prevê utilizar o Fórum das Indústrias de Defesa (FID) como instrumento de articulação quando oportuno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com o objetivo de diminuir a dependência externa e garantir a sustentabilidade da indústria, qual medida é proposta em relação ao orçamento anual do Ministério da Defesa para investimentos em Pesquisa e Desenvolvimento (P&amp;D)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a parcela destinada a P&amp;D seja considerada impositiva, com percentual fixo da arrecadação prevista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que os recursos sejam provenientes exclusivamente de parcerias com a iniciativa privada estrangeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que o orçamento seja contingenciado conforme a disponibilidade do Tesouro Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que os investimentos em P&amp;D sejam substituídos pela compra direta de pacotes tecnológicos externos ("off-the-shelf").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 2º, inciso II, alínea "i"**, deve-se propor que a parcela do orçamento anual do MD destinada a investimentos para P&amp;D seja considerada impositiva, com percentual fixo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para melhorar a qualidade tecnológica dos produtos estratégicos de defesa, qual papel institucional é proposto para o Ministério da Defesa (MD) no âmbito do sistema de ciência e tecnologia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuar apenas como fiscalizador das agências reguladoras civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser o principal financiador de startups estrangeiras de tecnologia dual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituir-se como órgão central de coordenação do sistema de C,T&amp;I na área de interesse da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegar a coordenação tecnológica integralmente às associações de classe da indústria (ABIMDE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **art. 2º, inciso V, alínea "c"**, propõe-se a instituição do MD como órgão central de coordenação do sistema de ciência, tecnologia e inovação na área de interesse da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visando o aumento da competitividade da BID brasileira para expandir as exportações, qual orientação específica é dada em relação à atuação dos futuros adidos militares brasileiros?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem focar exclusivamente na análise de inteligência militar, evitando assuntos comerciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem divulgar o produto de defesa nacional e institucionalizar o apoio às iniciativas dos empresários da BID nos países onde estiverem acreditados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem proibir a divulgação de produtos nacionais para evitar espionagem industrial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem priorizar a importação de tecnologias estrangeiras em detrimento da venda de produtos nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º, inciso VI, alínea "b"**, a ação estratégica é orientar os futuros adidos militares quanto à divulgação do produto de defesa nacional e apoiar as iniciativas dos empresários da BID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política de Obtenção de Produtos de Defesa (POBPRODE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Art. 6º da POBPRODE, quais são estritamente as modalidades de obtenção de Produtos de Defesa (PRODE) tratadas nesta política?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra, aluguel e comodato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquisição, desenvolvimento e modernização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importação, exportação e nacionalização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa, prototipagem e desativação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 6º**, as modalidades são estritamente as de aquisição, desenvolvimento e modernização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos das definições adotadas pela POBPRODE, o que caracteriza a modalidade de "desenvolvimento"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A compra ou contratação de um PRODE já existente no mercado nacional ou internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A modificação introduzida no PRODE para atualizá-lo e readequá-lo às necessidades operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condução de atividades de PD&amp;I visando aumentar maturidades tecnológicas e reduzir riscos para produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto de organizações estatais e privadas que realizem manutenção de sistemas de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 7º, inciso IV**, desenvolvimento abrange atividades de PD&amp;I visando aumentar maturidades tecnológicas e produtivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o objetivo principal da POBPRODE em relação aos documentos de alto nível da defesa nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir a total independência tecnológica do país em curto prazo, ignorando parcerias externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assegurar que as obtenções estejam alinhadas com a Estratégia Nacional de Defesa, a Política Nacional de Defesa e o Livro Branco da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorizar exclusivamente a aquisição de produtos de prateleira para redução de custos imediatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralizar todas as decisões táticas de emprego da força no Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 8º**, o objetivo é assegurar o alinhamento com a END, a PND e o LBDN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange à abrangência da sistemática de obtenção, a quem cabe a responsabilidade pelo processo de seleção do PRODE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente à Secretaria de Produtos de Defesa (SEPROD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Ministério da Economia, visando o menor preço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Às Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Estado-Maior Conjunto das Forças Armadas, em todos os casos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 11, § 2º**, o processo de seleção do PRODE ficará a cargo das Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da obtenção conjunta de PRODE, qual das atividades abaixo é de competência das Forças Singulares durante o fluxo do processo analítico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise das possibilidades de participação da Base Industrial de Defesa (BID).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otimização das ações orçamentárias pertinentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designação da Força Singular executora do processo de seleção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realização do estudo de viabilidade (aplicabilidade, praticabilidade, custos e riscos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 13, inciso IV**, cabe às Forças Singulares o estudo de viabilidade evidenciando possíveis soluções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação às orientações estratégicas para o fomento à Base Industrial de Defesa (BID), como a POBPRODE trata a participação de microempresas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua participação deve ser estimulada nas obtenções, a título de fomento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas devem ser proibidas de participar de licitações de alta complexidade tecnológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas devem se fundir obrigatoriamente a grandes empresas estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política não faz menção específica a microempresas, focando apenas nas estratégicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 16, inciso IV**, deve-se estimular a participação de médias, pequenas e microempresas a título de fomento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 3.662/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PComTIC Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A PComTIC Defesa aplica-se a quais tipos de contratações realizadas pelos órgãos do Ministério da Defesa e Forças Singulares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas às compras nacionais de produtos de defesa realizadas por inexigibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Às compras e contratações de Produtos de Defesa (PRODE) que impliquem importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente às contratações de serviços de engenharia civil em território nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A todas as compras de bens de consumo comuns, independentemente de importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º, caput**, a PComTIC Defesa aplica-se às compras e contratações de PRODE que impliquem importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as definições da Portaria, o que caracteriza a "compensação direta"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquela que envolve bens e serviços não relacionados ao objeto do contrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prática de troca de mercadorias (barter) sem envolvimento financeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A compensação que envolve bens e serviços diretamente relacionados com o objeto do contrato de importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O investimento financeiro direto no capital social da empresa contratante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 3º, inciso VII**, compensação direta é aquela que envolve bens e serviços diretamente relacionados com o objeto do contrato de importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das alternativas descreve corretamente a medida de compensação industrial denominada "produção sob licença"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção no Brasil de componente de produto manufaturado estrangeiro sob responsabilidade de uma subcontratada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção no Brasil acordada entre governos, envolvendo cessão de conhecimentos técnicos detidos pelo governo estrangeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção no Brasil de produto ou componente sob autorização de empresa estrangeira, em conformidade com a licença e direitos de propriedade intelectual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento e produção em parceria de produto, visando ao suporte logístico durante seu ciclo de vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 3º, inciso XI, alínea 'b', item 2**, produção sob licença é a produção no Brasil sob autorização de empresa estrangeira ou componente protegido por direitos de propriedade intelectual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das medidas de compensação comercial, como é definida a "recompra" (Buy-Back)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordo em que o fornecedor aceita, como pagamento total ou parcial, produtos derivados do produto originalmente importado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento direto do fornecedor na bolsa de valores do país comprador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 3º, inciso XI, alínea 'c', item 3**, recompra refere-se a um acordo para aceitar produtos derivados do produto originalmente importado como pagamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos objetivos centrais da PComTIC Defesa, relacionado à cadeia produtiva, é:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumentar a dependência externa para garantir o alinhamento com potências aliadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar a autossuficiência da cadeia produtiva e diminuir a dependência externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focar exclusivamente na importação de produtos acabados para reduzir custos internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorizar a compra de equipamentos usados para rápida recomposição de frota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 4º, inciso II**, um dos objetivos é buscar a autossuficiência da cadeia produtiva e diminuir a dependência externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem possui competência para aprovar uma modalidade de compensação não prevista expressamente na lista do art. 3º, mediante requerimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comandante da Força Singular contratante, de forma autônoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Secretário de Produtos de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro de Estado da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do Estado-Maior Conjunto das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 6º**, compete ao Ministro de Estado da Defesa aprovar outra modalidade de medida de compensação mediante requerimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que os setores de coordenação da PComTIC nas Forças Singulares devem estabelecer em relação aos créditos de compensação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um sistema de leilão para venda de créditos a empresas privadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um banco de créditos de compensação para registro e contabilização dos créditos excedentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma proibição total de acúmulo de créditos para contratos futuros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transferência automática de créditos para o Tesouro Nacional em moeda corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 9º, inciso III**, devem estabelecer um banco de crédito de compensação para fins de registro e contabilização dos créditos excedentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inclusão de um acordo de compensação torna-se obrigatória nas negociações de contratos de importação de PRODE quando o valor líquido (FOB) for igual ou superior a:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ 10.000.000,00 (dez milhões de dólares).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ 50.000.000,00 (cinquenta milhões de dólares).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ 100.000.000,00 (cem milhões de dólares).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ 1.000.000,00 (um milhão de dólares).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 12**, as negociações com valor igual ou superior a US$ 50.000.000,00 devem incluir, necessariamente, um acordo de compensação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a regra geral sobre o prazo de execução e implementação do acordo de compensação em relação ao contrato principal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O acordo de compensação deve sempre ter metade da duração do contrato principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O prazo deve, sempre que possível, coincidir com a duração do contrato principal associado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O acordo de compensação deve iniciar apenas após o término da vigência do contrato principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há vinculação temporal entre o acordo de compensação e o contrato de aquisição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 19**, o prazo de execução deve, sempre que possível, coincidir com a duração do contrato principal associado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a limitação imposta para a utilização de créditos excedentes de compensação em um novo contrato?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem comprometer mais de 50% do valor total do novo contrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem ser usados integralmente, cobrindo 100% da nova obrigação de compensação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem comprometer mais de 20% do valor a ser compensado no novo contrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só podem ser utilizados se o novo contrato for com um fornecedor diferente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo único do art. 23**, os créditos excedentes não podem comprometer mais de 20% do valor a ser compensado no novo contrato.</t>
   </si>
 </sst>
 </file>
@@ -11725,7 +12208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11742,12 +12225,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -11759,7 +12250,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11935,13 +12447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L624"/>
+  <dimension ref="A1:L660"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A589" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A617" activeCellId="0" sqref="617:624"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A625" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A650" activeCellId="0" sqref="650:660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11958,10 +12470,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -11988,11 +12500,11 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -12023,9 +12535,9 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -12056,9 +12568,9 @@
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -12089,9 +12601,9 @@
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -12122,9 +12634,9 @@
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12155,9 +12667,9 @@
       <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -12188,9 +12700,9 @@
       <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -12221,9 +12733,9 @@
       <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -12254,9 +12766,9 @@
       <c r="J9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -12287,9 +12799,9 @@
       <c r="J10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12320,9 +12832,9 @@
       <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -12355,7 +12867,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -12388,7 +12900,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -12421,7 +12933,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -12454,7 +12966,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -12487,7 +12999,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -12520,7 +13032,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -12553,7 +13065,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -12586,7 +13098,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -12619,7 +13131,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -12652,7 +13164,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
@@ -12685,7 +13197,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -12718,7 +13230,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -12751,7 +13263,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -12784,7 +13296,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -12817,7 +13329,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -12850,7 +13362,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -12883,7 +13395,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -12916,7 +13428,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -12949,7 +13461,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -12982,7 +13494,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -13015,7 +13527,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -13048,7 +13560,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -13081,7 +13593,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -13114,7 +13626,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -13147,7 +13659,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -13180,7 +13692,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -13213,7 +13725,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -13246,7 +13758,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -13279,7 +13791,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -13312,7 +13824,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -13345,7 +13857,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -13378,7 +13890,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -13411,7 +13923,7 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -13444,7 +13956,7 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -13477,7 +13989,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -13510,7 +14022,7 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -13543,7 +14055,7 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -13576,7 +14088,7 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -13609,7 +14121,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
@@ -13642,7 +14154,7 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -13675,7 +14187,7 @@
       </c>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -13708,7 +14220,7 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -13741,7 +14253,7 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -13774,7 +14286,7 @@
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -13807,7 +14319,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -13840,7 +14352,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -13873,7 +14385,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -13906,7 +14418,7 @@
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -13939,7 +14451,7 @@
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -13972,7 +14484,7 @@
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -14005,7 +14517,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -14038,7 +14550,7 @@
       </c>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -14071,7 +14583,7 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -14104,7 +14616,7 @@
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -14137,7 +14649,7 @@
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -14170,7 +14682,7 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -14203,7 +14715,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -14236,7 +14748,7 @@
       </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -14269,7 +14781,7 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -14302,7 +14814,7 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -14335,7 +14847,7 @@
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -14368,7 +14880,7 @@
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -14401,7 +14913,7 @@
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -14434,7 +14946,7 @@
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -14467,7 +14979,7 @@
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -14500,7 +15012,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -14533,7 +15045,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -14566,7 +15078,7 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -14599,7 +15111,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -14632,7 +15144,7 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -14665,7 +15177,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
@@ -14698,7 +15210,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
@@ -14731,7 +15243,7 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
@@ -14764,7 +15276,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>79</v>
       </c>
@@ -14797,7 +15309,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
@@ -14830,7 +15342,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
@@ -14863,7 +15375,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
@@ -14896,7 +15408,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>79</v>
       </c>
@@ -14929,7 +15441,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>79</v>
       </c>
@@ -14962,7 +15474,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>79</v>
       </c>
@@ -14995,7 +15507,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>79</v>
       </c>
@@ -15028,7 +15540,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
@@ -15061,7 +15573,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
@@ -15094,7 +15606,7 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
@@ -15127,7 +15639,7 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
@@ -15160,7 +15672,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
@@ -15193,7 +15705,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
@@ -15226,7 +15738,7 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>79</v>
       </c>
@@ -15259,7 +15771,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
@@ -15292,7 +15804,7 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>79</v>
       </c>
@@ -15325,7 +15837,7 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
@@ -15358,7 +15870,7 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
@@ -15391,7 +15903,7 @@
       </c>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
@@ -15424,7 +15936,7 @@
       </c>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -15457,7 +15969,7 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>79</v>
       </c>
@@ -15490,7 +16002,7 @@
       </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>79</v>
       </c>
@@ -15523,7 +16035,7 @@
       </c>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>79</v>
       </c>
@@ -15556,7 +16068,7 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>79</v>
       </c>
@@ -15589,7 +16101,7 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>79</v>
       </c>
@@ -15622,7 +16134,7 @@
       </c>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>79</v>
       </c>
@@ -15655,7 +16167,7 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>79</v>
       </c>
@@ -15688,7 +16200,7 @@
       </c>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>79</v>
       </c>
@@ -15721,7 +16233,7 @@
       </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
@@ -15754,7 +16266,7 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>79</v>
       </c>
@@ -15787,7 +16299,7 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>79</v>
       </c>
@@ -15820,7 +16332,7 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>79</v>
       </c>
@@ -15853,7 +16365,7 @@
       </c>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>79</v>
       </c>
@@ -15886,7 +16398,7 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>79</v>
       </c>
@@ -15919,7 +16431,7 @@
       </c>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>79</v>
       </c>
@@ -15952,7 +16464,7 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>79</v>
       </c>
@@ -15985,7 +16497,7 @@
       </c>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>79</v>
       </c>
@@ -16018,7 +16530,7 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>79</v>
       </c>
@@ -16051,7 +16563,7 @@
       </c>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>79</v>
       </c>
@@ -16084,7 +16596,7 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>79</v>
       </c>
@@ -16117,7 +16629,7 @@
       </c>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -16150,7 +16662,7 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -16183,7 +16695,7 @@
       </c>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
@@ -16216,7 +16728,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
@@ -16249,7 +16761,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>79</v>
       </c>
@@ -16282,7 +16794,7 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
@@ -16315,7 +16827,7 @@
       </c>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>79</v>
       </c>
@@ -16348,7 +16860,7 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>79</v>
       </c>
@@ -16381,7 +16893,7 @@
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>79</v>
       </c>
@@ -16414,7 +16926,7 @@
       </c>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>79</v>
       </c>
@@ -16447,7 +16959,7 @@
       </c>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>79</v>
       </c>
@@ -16480,7 +16992,7 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>79</v>
       </c>
@@ -16513,7 +17025,7 @@
       </c>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -16546,7 +17058,7 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -16579,7 +17091,7 @@
       </c>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>79</v>
       </c>
@@ -16612,7 +17124,7 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>79</v>
       </c>
@@ -16645,7 +17157,7 @@
       </c>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>79</v>
       </c>
@@ -16678,7 +17190,7 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
@@ -16711,7 +17223,7 @@
       </c>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -16744,7 +17256,7 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>79</v>
       </c>
@@ -16777,7 +17289,7 @@
       </c>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>79</v>
       </c>
@@ -16810,7 +17322,7 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
@@ -16843,7 +17355,7 @@
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>79</v>
       </c>
@@ -16876,7 +17388,7 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>79</v>
       </c>
@@ -16909,7 +17421,7 @@
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>79</v>
       </c>
@@ -16942,7 +17454,7 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>79</v>
       </c>
@@ -16975,7 +17487,7 @@
       </c>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>79</v>
       </c>
@@ -17008,7 +17520,7 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>79</v>
       </c>
@@ -17041,7 +17553,7 @@
       </c>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>79</v>
       </c>
@@ -17074,7 +17586,7 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>79</v>
       </c>
@@ -17107,7 +17619,7 @@
       </c>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>79</v>
       </c>
@@ -17140,7 +17652,7 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>79</v>
       </c>
@@ -17173,7 +17685,7 @@
       </c>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>79</v>
       </c>
@@ -17206,7 +17718,7 @@
       </c>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>79</v>
       </c>
@@ -17239,7 +17751,7 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>79</v>
       </c>
@@ -17272,7 +17784,7 @@
       </c>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>79</v>
       </c>
@@ -17305,7 +17817,7 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>79</v>
       </c>
@@ -17338,7 +17850,7 @@
       </c>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>79</v>
       </c>
@@ -17371,7 +17883,7 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>79</v>
       </c>
@@ -17404,7 +17916,7 @@
       </c>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>79</v>
       </c>
@@ -17437,7 +17949,7 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>79</v>
       </c>
@@ -17470,7 +17982,7 @@
       </c>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>79</v>
       </c>
@@ -17503,7 +18015,7 @@
       </c>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>79</v>
       </c>
@@ -17536,7 +18048,7 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>79</v>
       </c>
@@ -17569,7 +18081,7 @@
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>79</v>
       </c>
@@ -17602,7 +18114,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>79</v>
       </c>
@@ -17635,7 +18147,7 @@
       </c>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>79</v>
       </c>
@@ -17668,7 +18180,7 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>79</v>
       </c>
@@ -17701,7 +18213,7 @@
       </c>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>79</v>
       </c>
@@ -17734,7 +18246,7 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>79</v>
       </c>
@@ -17767,7 +18279,7 @@
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>79</v>
       </c>
@@ -17800,7 +18312,7 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>79</v>
       </c>
@@ -17833,7 +18345,7 @@
       </c>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>79</v>
       </c>
@@ -17866,7 +18378,7 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>79</v>
       </c>
@@ -17899,7 +18411,7 @@
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>79</v>
       </c>
@@ -17932,7 +18444,7 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>79</v>
       </c>
@@ -17965,7 +18477,7 @@
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>79</v>
       </c>
@@ -17998,7 +18510,7 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>79</v>
       </c>
@@ -18031,7 +18543,7 @@
       </c>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>79</v>
       </c>
@@ -18064,7 +18576,7 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>79</v>
       </c>
@@ -18097,7 +18609,7 @@
       </c>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>79</v>
       </c>
@@ -18130,7 +18642,7 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>79</v>
       </c>
@@ -18163,7 +18675,7 @@
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>79</v>
       </c>
@@ -18196,7 +18708,7 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>79</v>
       </c>
@@ -18229,7 +18741,7 @@
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>79</v>
       </c>
@@ -18262,7 +18774,7 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>79</v>
       </c>
@@ -18295,7 +18807,7 @@
       </c>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>79</v>
       </c>
@@ -18328,7 +18840,7 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>79</v>
       </c>
@@ -18361,7 +18873,7 @@
       </c>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>79</v>
       </c>
@@ -18394,7 +18906,7 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>79</v>
       </c>
@@ -18427,7 +18939,7 @@
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>79</v>
       </c>
@@ -18460,7 +18972,7 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>79</v>
       </c>
@@ -18493,7 +19005,7 @@
       </c>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>79</v>
       </c>
@@ -18526,7 +19038,7 @@
       </c>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>79</v>
       </c>
@@ -18559,7 +19071,7 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>79</v>
       </c>
@@ -18592,7 +19104,7 @@
       </c>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>79</v>
       </c>
@@ -18625,7 +19137,7 @@
       </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>79</v>
       </c>
@@ -18658,7 +19170,7 @@
       </c>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>79</v>
       </c>
@@ -18691,7 +19203,7 @@
       </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>79</v>
       </c>
@@ -18724,7 +19236,7 @@
       </c>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>79</v>
       </c>
@@ -18757,7 +19269,7 @@
       </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>79</v>
       </c>
@@ -18790,7 +19302,7 @@
       </c>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>79</v>
       </c>
@@ -18823,7 +19335,7 @@
       </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>79</v>
       </c>
@@ -18856,7 +19368,7 @@
       </c>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>79</v>
       </c>
@@ -18889,7 +19401,7 @@
       </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>79</v>
       </c>
@@ -18922,7 +19434,7 @@
       </c>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
@@ -18955,7 +19467,7 @@
       </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
@@ -18988,7 +19500,7 @@
       </c>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>12</v>
       </c>
@@ -19021,7 +19533,7 @@
       </c>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>12</v>
       </c>
@@ -19054,7 +19566,7 @@
       </c>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>12</v>
       </c>
@@ -19087,7 +19599,7 @@
       </c>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>12</v>
       </c>
@@ -19120,7 +19632,7 @@
       </c>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -19153,7 +19665,7 @@
       </c>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>12</v>
       </c>
@@ -19186,7 +19698,7 @@
       </c>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
@@ -19219,7 +19731,7 @@
       </c>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>12</v>
       </c>
@@ -19252,7 +19764,7 @@
       </c>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>12</v>
       </c>
@@ -19285,7 +19797,7 @@
       </c>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>12</v>
       </c>
@@ -19318,7 +19830,7 @@
       </c>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>12</v>
       </c>
@@ -19351,7 +19863,7 @@
       </c>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>12</v>
       </c>
@@ -19384,7 +19896,7 @@
       </c>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>12</v>
       </c>
@@ -19417,7 +19929,7 @@
       </c>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>12</v>
       </c>
@@ -19450,7 +19962,7 @@
       </c>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
@@ -19483,7 +19995,7 @@
       </c>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
@@ -19516,7 +20028,7 @@
       </c>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>12</v>
       </c>
@@ -19549,7 +20061,7 @@
       </c>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>12</v>
       </c>
@@ -19582,7 +20094,7 @@
       </c>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
@@ -19615,7 +20127,7 @@
       </c>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -19648,7 +20160,7 @@
       </c>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>12</v>
       </c>
@@ -19681,7 +20193,7 @@
       </c>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>12</v>
       </c>
@@ -19714,7 +20226,7 @@
       </c>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19746,7 +20258,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19778,7 +20290,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19810,7 +20322,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19842,7 +20354,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19874,7 +20386,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19906,7 +20418,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19938,7 +20450,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>1417</v>
       </c>
@@ -19970,7 +20482,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20002,7 +20514,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20034,7 +20546,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20066,7 +20578,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20098,7 +20610,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20130,7 +20642,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20162,7 +20674,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20194,7 +20706,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20226,7 +20738,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20258,7 +20770,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20290,7 +20802,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20322,7 +20834,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20354,7 +20866,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20387,7 +20899,7 @@
       </c>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20420,7 +20932,7 @@
       </c>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20453,7 +20965,7 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20486,7 +20998,7 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20519,7 +21031,7 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20552,7 +21064,7 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20585,7 +21097,7 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20618,7 +21130,7 @@
       </c>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20651,7 +21163,7 @@
       </c>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20684,7 +21196,7 @@
       </c>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20717,7 +21229,7 @@
       </c>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20750,7 +21262,7 @@
       </c>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20783,7 +21295,7 @@
       </c>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20816,7 +21328,7 @@
       </c>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20849,7 +21361,7 @@
       </c>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20882,7 +21394,7 @@
       </c>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20915,7 +21427,7 @@
       </c>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20948,7 +21460,7 @@
       </c>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20981,7 +21493,7 @@
       </c>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21014,7 +21526,7 @@
       </c>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21047,7 +21559,7 @@
       </c>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21080,7 +21592,7 @@
       </c>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21113,7 +21625,7 @@
       </c>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21146,7 +21658,7 @@
       </c>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21179,7 +21691,7 @@
       </c>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21212,7 +21724,7 @@
       </c>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21245,7 +21757,7 @@
       </c>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21278,7 +21790,7 @@
       </c>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21311,7 +21823,7 @@
       </c>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21344,7 +21856,7 @@
       </c>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21377,7 +21889,7 @@
       </c>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21410,7 +21922,7 @@
       </c>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21443,7 +21955,7 @@
       </c>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21476,7 +21988,7 @@
       </c>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21509,7 +22021,7 @@
       </c>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21542,7 +22054,7 @@
       </c>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21575,7 +22087,7 @@
       </c>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21608,7 +22120,7 @@
       </c>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21641,7 +22153,7 @@
       </c>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21674,7 +22186,7 @@
       </c>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21707,7 +22219,7 @@
       </c>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21740,7 +22252,7 @@
       </c>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21773,7 +22285,7 @@
       </c>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21806,7 +22318,7 @@
       </c>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21839,7 +22351,7 @@
       </c>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21872,7 +22384,7 @@
       </c>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21905,7 +22417,7 @@
       </c>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21938,7 +22450,7 @@
       </c>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>1417</v>
       </c>
@@ -21971,7 +22483,7 @@
       </c>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22004,7 +22516,7 @@
       </c>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22037,7 +22549,7 @@
       </c>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22070,7 +22582,7 @@
       </c>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22103,7 +22615,7 @@
       </c>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22136,7 +22648,7 @@
       </c>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22169,7 +22681,7 @@
       </c>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22202,7 +22714,7 @@
       </c>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22235,7 +22747,7 @@
       </c>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22268,7 +22780,7 @@
       </c>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22301,7 +22813,7 @@
       </c>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22334,7 +22846,7 @@
       </c>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22367,7 +22879,7 @@
       </c>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22400,7 +22912,7 @@
       </c>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22433,7 +22945,7 @@
       </c>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22466,7 +22978,7 @@
       </c>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22499,7 +23011,7 @@
       </c>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22532,7 +23044,7 @@
       </c>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22565,7 +23077,7 @@
       </c>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22598,7 +23110,7 @@
       </c>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22631,7 +23143,7 @@
       </c>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22664,7 +23176,7 @@
       </c>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22697,7 +23209,7 @@
       </c>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22730,7 +23242,7 @@
       </c>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22763,7 +23275,7 @@
       </c>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22796,7 +23308,7 @@
       </c>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22829,7 +23341,7 @@
       </c>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22862,7 +23374,7 @@
       </c>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22895,7 +23407,7 @@
       </c>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22928,7 +23440,7 @@
       </c>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22961,7 +23473,7 @@
       </c>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>1417</v>
       </c>
@@ -22994,7 +23506,7 @@
       </c>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23027,7 +23539,7 @@
       </c>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23060,7 +23572,7 @@
       </c>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23093,7 +23605,7 @@
       </c>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23126,7 +23638,7 @@
       </c>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23159,7 +23671,7 @@
       </c>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23192,7 +23704,7 @@
       </c>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23225,7 +23737,7 @@
       </c>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23258,7 +23770,7 @@
       </c>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23291,7 +23803,7 @@
       </c>
       <c r="L344" s="1"/>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23324,7 +23836,7 @@
       </c>
       <c r="L345" s="1"/>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23357,7 +23869,7 @@
       </c>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23390,7 +23902,7 @@
       </c>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23423,7 +23935,7 @@
       </c>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23456,7 +23968,7 @@
       </c>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23489,7 +24001,7 @@
       </c>
       <c r="L350" s="1"/>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23522,7 +24034,7 @@
       </c>
       <c r="L351" s="1"/>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23555,7 +24067,7 @@
       </c>
       <c r="L352" s="1"/>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23588,7 +24100,7 @@
       </c>
       <c r="L353" s="1"/>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23621,7 +24133,7 @@
       </c>
       <c r="L354" s="1"/>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23654,7 +24166,7 @@
       </c>
       <c r="L355" s="1"/>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23687,7 +24199,7 @@
       </c>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23720,7 +24232,7 @@
       </c>
       <c r="L357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23753,7 +24265,7 @@
       </c>
       <c r="L358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23786,7 +24298,7 @@
       </c>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23819,7 +24331,7 @@
       </c>
       <c r="L360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23852,7 +24364,7 @@
       </c>
       <c r="L361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23885,7 +24397,7 @@
       </c>
       <c r="L362" s="1"/>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23918,7 +24430,7 @@
       </c>
       <c r="L363" s="1"/>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23951,7 +24463,7 @@
       </c>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>2019</v>
       </c>
@@ -23984,7 +24496,7 @@
       </c>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24017,7 +24529,7 @@
       </c>
       <c r="L366" s="1"/>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24050,7 +24562,7 @@
       </c>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24083,7 +24595,7 @@
       </c>
       <c r="L368" s="1"/>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24116,7 +24628,7 @@
       </c>
       <c r="L369" s="1"/>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24149,7 +24661,7 @@
       </c>
       <c r="L370" s="1"/>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24182,7 +24694,7 @@
       </c>
       <c r="L371" s="1"/>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24215,7 +24727,7 @@
       </c>
       <c r="L372" s="1"/>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24248,7 +24760,7 @@
       </c>
       <c r="L373" s="1"/>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24281,7 +24793,7 @@
       </c>
       <c r="L374" s="1"/>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24314,7 +24826,7 @@
       </c>
       <c r="L375" s="1"/>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24347,7 +24859,7 @@
       </c>
       <c r="L376" s="1"/>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24380,7 +24892,7 @@
       </c>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24413,7 +24925,7 @@
       </c>
       <c r="L378" s="1"/>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24446,7 +24958,7 @@
       </c>
       <c r="L379" s="1"/>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24479,7 +24991,7 @@
       </c>
       <c r="L380" s="1"/>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24512,7 +25024,7 @@
       </c>
       <c r="L381" s="1"/>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24545,7 +25057,7 @@
       </c>
       <c r="L382" s="1"/>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24578,7 +25090,7 @@
       </c>
       <c r="L383" s="1"/>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24611,7 +25123,7 @@
       </c>
       <c r="L384" s="1"/>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24644,7 +25156,7 @@
       </c>
       <c r="L385" s="1"/>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24677,7 +25189,7 @@
       </c>
       <c r="L386" s="1"/>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24710,7 +25222,7 @@
       </c>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24743,7 +25255,7 @@
       </c>
       <c r="L388" s="1"/>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24776,7 +25288,7 @@
       </c>
       <c r="L389" s="1"/>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24809,7 +25321,7 @@
       </c>
       <c r="L390" s="1"/>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24842,7 +25354,7 @@
       </c>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24875,7 +25387,7 @@
       </c>
       <c r="L392" s="1"/>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24908,7 +25420,7 @@
       </c>
       <c r="L393" s="1"/>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24941,7 +25453,7 @@
       </c>
       <c r="L394" s="1"/>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24974,7 +25486,7 @@
       </c>
       <c r="L395" s="1"/>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25007,7 +25519,7 @@
       </c>
       <c r="L396" s="1"/>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25040,7 +25552,7 @@
       </c>
       <c r="L397" s="1"/>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25073,7 +25585,7 @@
       </c>
       <c r="L398" s="1"/>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25106,7 +25618,7 @@
       </c>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25139,7 +25651,7 @@
       </c>
       <c r="L400" s="1"/>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25172,7 +25684,7 @@
       </c>
       <c r="L401" s="1"/>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25205,7 +25717,7 @@
       </c>
       <c r="L402" s="1"/>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25238,7 +25750,7 @@
       </c>
       <c r="L403" s="1"/>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25271,7 +25783,7 @@
       </c>
       <c r="L404" s="1"/>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25304,7 +25816,7 @@
       </c>
       <c r="L405" s="1"/>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25337,7 +25849,7 @@
       </c>
       <c r="L406" s="1"/>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25370,7 +25882,7 @@
       </c>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25403,7 +25915,7 @@
       </c>
       <c r="L408" s="1"/>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25436,7 +25948,7 @@
       </c>
       <c r="L409" s="1"/>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25469,7 +25981,7 @@
       </c>
       <c r="L410" s="1"/>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25502,7 +26014,7 @@
       </c>
       <c r="L411" s="1"/>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25535,7 +26047,7 @@
       </c>
       <c r="L412" s="1"/>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25568,7 +26080,7 @@
       </c>
       <c r="L413" s="1"/>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25601,7 +26113,7 @@
       </c>
       <c r="L414" s="1"/>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25634,7 +26146,7 @@
       </c>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25667,7 +26179,7 @@
       </c>
       <c r="L416" s="1"/>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25700,7 +26212,7 @@
       </c>
       <c r="L417" s="1"/>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25733,7 +26245,7 @@
       </c>
       <c r="L418" s="1"/>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25766,7 +26278,7 @@
       </c>
       <c r="L419" s="1"/>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25799,7 +26311,7 @@
       </c>
       <c r="L420" s="1"/>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25832,7 +26344,7 @@
       </c>
       <c r="L421" s="1"/>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25865,7 +26377,7 @@
       </c>
       <c r="L422" s="1"/>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25898,7 +26410,7 @@
       </c>
       <c r="L423" s="1"/>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25931,7 +26443,7 @@
       </c>
       <c r="L424" s="1"/>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25964,7 +26476,7 @@
       </c>
       <c r="L425" s="1"/>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>2272</v>
       </c>
@@ -25997,7 +26509,7 @@
       </c>
       <c r="L426" s="1"/>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26030,7 +26542,7 @@
       </c>
       <c r="L427" s="1"/>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26063,7 +26575,7 @@
       </c>
       <c r="L428" s="1"/>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26096,7 +26608,7 @@
       </c>
       <c r="L429" s="1"/>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26129,7 +26641,7 @@
       </c>
       <c r="L430" s="1"/>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26162,7 +26674,7 @@
       </c>
       <c r="L431" s="1"/>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26195,7 +26707,7 @@
       </c>
       <c r="L432" s="1"/>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26228,7 +26740,7 @@
       </c>
       <c r="L433" s="1"/>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26261,7 +26773,7 @@
       </c>
       <c r="L434" s="1"/>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26294,7 +26806,7 @@
       </c>
       <c r="L435" s="1"/>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26327,7 +26839,7 @@
       </c>
       <c r="L436" s="1"/>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26360,7 +26872,7 @@
       </c>
       <c r="L437" s="1"/>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26393,7 +26905,7 @@
       </c>
       <c r="L438" s="1"/>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26426,7 +26938,7 @@
       </c>
       <c r="L439" s="1"/>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26459,7 +26971,7 @@
       </c>
       <c r="L440" s="1"/>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26492,7 +27004,7 @@
       </c>
       <c r="L441" s="1"/>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26525,7 +27037,7 @@
       </c>
       <c r="L442" s="1"/>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26558,7 +27070,7 @@
       </c>
       <c r="L443" s="1"/>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26591,7 +27103,7 @@
       </c>
       <c r="L444" s="1"/>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26624,7 +27136,7 @@
       </c>
       <c r="L445" s="1"/>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26657,7 +27169,7 @@
       </c>
       <c r="L446" s="1"/>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26690,7 +27202,7 @@
       </c>
       <c r="L447" s="1"/>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26723,7 +27235,7 @@
       </c>
       <c r="L448" s="1"/>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26756,7 +27268,7 @@
       </c>
       <c r="L449" s="1"/>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26789,7 +27301,7 @@
       </c>
       <c r="L450" s="1"/>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26822,7 +27334,7 @@
       </c>
       <c r="L451" s="1"/>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26855,7 +27367,7 @@
       </c>
       <c r="L452" s="1"/>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26888,7 +27400,7 @@
       </c>
       <c r="L453" s="1"/>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26921,7 +27433,7 @@
       </c>
       <c r="L454" s="1"/>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26954,7 +27466,7 @@
       </c>
       <c r="L455" s="1"/>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>2272</v>
       </c>
@@ -26987,7 +27499,7 @@
       </c>
       <c r="L456" s="1"/>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27020,7 +27532,7 @@
       </c>
       <c r="L457" s="1"/>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27053,7 +27565,7 @@
       </c>
       <c r="L458" s="1"/>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27086,7 +27598,7 @@
       </c>
       <c r="L459" s="1"/>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27119,7 +27631,7 @@
       </c>
       <c r="L460" s="1"/>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27152,7 +27664,7 @@
       </c>
       <c r="L461" s="1"/>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27185,7 +27697,7 @@
       </c>
       <c r="L462" s="1"/>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27218,7 +27730,7 @@
       </c>
       <c r="L463" s="1"/>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27251,7 +27763,7 @@
       </c>
       <c r="L464" s="1"/>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27284,7 +27796,7 @@
       </c>
       <c r="L465" s="1"/>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27317,7 +27829,7 @@
       </c>
       <c r="L466" s="1"/>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27350,7 +27862,7 @@
       </c>
       <c r="L467" s="1"/>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27383,7 +27895,7 @@
       </c>
       <c r="L468" s="1"/>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27416,7 +27928,7 @@
       </c>
       <c r="L469" s="1"/>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27449,7 +27961,7 @@
       </c>
       <c r="L470" s="1"/>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27482,7 +27994,7 @@
       </c>
       <c r="L471" s="1"/>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27515,7 +28027,7 @@
       </c>
       <c r="L472" s="1"/>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27548,7 +28060,7 @@
       </c>
       <c r="L473" s="1"/>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27581,7 +28093,7 @@
       </c>
       <c r="L474" s="1"/>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27614,7 +28126,7 @@
       </c>
       <c r="L475" s="1"/>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27647,7 +28159,7 @@
       </c>
       <c r="L476" s="1"/>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27680,7 +28192,7 @@
       </c>
       <c r="L477" s="1"/>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27713,7 +28225,7 @@
       </c>
       <c r="L478" s="1"/>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27746,7 +28258,7 @@
       </c>
       <c r="L479" s="1"/>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27779,7 +28291,7 @@
       </c>
       <c r="L480" s="1"/>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27812,7 +28324,7 @@
       </c>
       <c r="L481" s="1"/>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27845,7 +28357,7 @@
       </c>
       <c r="L482" s="1"/>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27878,7 +28390,7 @@
       </c>
       <c r="L483" s="1"/>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27911,7 +28423,7 @@
       </c>
       <c r="L484" s="1"/>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27944,7 +28456,7 @@
       </c>
       <c r="L485" s="1"/>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>2272</v>
       </c>
@@ -27977,7 +28489,7 @@
       </c>
       <c r="L486" s="1"/>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28010,7 +28522,7 @@
       </c>
       <c r="L487" s="1"/>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28043,7 +28555,7 @@
       </c>
       <c r="L488" s="1"/>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28076,7 +28588,7 @@
       </c>
       <c r="L489" s="1"/>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28109,7 +28621,7 @@
       </c>
       <c r="L490" s="1"/>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28142,7 +28654,7 @@
       </c>
       <c r="L491" s="1"/>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28175,7 +28687,7 @@
       </c>
       <c r="L492" s="1"/>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28208,7 +28720,7 @@
       </c>
       <c r="L493" s="1"/>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28241,7 +28753,7 @@
       </c>
       <c r="L494" s="1"/>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28274,7 +28786,7 @@
       </c>
       <c r="L495" s="1"/>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28307,7 +28819,7 @@
       </c>
       <c r="L496" s="1"/>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28340,7 +28852,7 @@
       </c>
       <c r="L497" s="1"/>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28373,7 +28885,7 @@
       </c>
       <c r="L498" s="1"/>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28406,7 +28918,7 @@
       </c>
       <c r="L499" s="1"/>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28439,7 +28951,7 @@
       </c>
       <c r="L500" s="1"/>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28472,7 +28984,7 @@
       </c>
       <c r="L501" s="1"/>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28505,7 +29017,7 @@
       </c>
       <c r="L502" s="1"/>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28538,7 +29050,7 @@
       </c>
       <c r="L503" s="1"/>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28571,7 +29083,7 @@
       </c>
       <c r="L504" s="1"/>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28604,7 +29116,7 @@
       </c>
       <c r="L505" s="1"/>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28637,7 +29149,7 @@
       </c>
       <c r="L506" s="1"/>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28670,7 +29182,7 @@
       </c>
       <c r="L507" s="1"/>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28703,7 +29215,7 @@
       </c>
       <c r="L508" s="1"/>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28736,7 +29248,7 @@
       </c>
       <c r="L509" s="1"/>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28769,7 +29281,7 @@
       </c>
       <c r="L510" s="1"/>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28802,7 +29314,7 @@
       </c>
       <c r="L511" s="1"/>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28835,7 +29347,7 @@
       </c>
       <c r="L512" s="1"/>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28868,7 +29380,7 @@
       </c>
       <c r="L513" s="1"/>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28901,7 +29413,7 @@
       </c>
       <c r="L514" s="1"/>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28934,7 +29446,7 @@
       </c>
       <c r="L515" s="1"/>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
         <v>2272</v>
       </c>
@@ -28967,7 +29479,7 @@
       </c>
       <c r="L516" s="1"/>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29000,7 +29512,7 @@
       </c>
       <c r="L517" s="1"/>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29033,7 +29545,7 @@
       </c>
       <c r="L518" s="1"/>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29066,7 +29578,7 @@
       </c>
       <c r="L519" s="1"/>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29099,7 +29611,7 @@
       </c>
       <c r="L520" s="1"/>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29132,7 +29644,7 @@
       </c>
       <c r="L521" s="1"/>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29165,7 +29677,7 @@
       </c>
       <c r="L522" s="1"/>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29198,7 +29710,7 @@
       </c>
       <c r="L523" s="1"/>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29231,7 +29743,7 @@
       </c>
       <c r="L524" s="1"/>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29264,7 +29776,7 @@
       </c>
       <c r="L525" s="1"/>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29297,7 +29809,7 @@
       </c>
       <c r="L526" s="1"/>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29330,7 +29842,7 @@
       </c>
       <c r="L527" s="1"/>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29363,7 +29875,7 @@
       </c>
       <c r="L528" s="1"/>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29396,7 +29908,7 @@
       </c>
       <c r="L529" s="1"/>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29429,7 +29941,7 @@
       </c>
       <c r="L530" s="1"/>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29462,7 +29974,7 @@
       </c>
       <c r="L531" s="1"/>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29495,7 +30007,7 @@
       </c>
       <c r="L532" s="1"/>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29528,7 +30040,7 @@
       </c>
       <c r="L533" s="1"/>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29561,7 +30073,7 @@
       </c>
       <c r="L534" s="1"/>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29594,7 +30106,7 @@
       </c>
       <c r="L535" s="1"/>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29627,7 +30139,7 @@
       </c>
       <c r="L536" s="1"/>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29660,7 +30172,7 @@
       </c>
       <c r="L537" s="1"/>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29693,7 +30205,7 @@
       </c>
       <c r="L538" s="1"/>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29726,7 +30238,7 @@
       </c>
       <c r="L539" s="1"/>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29759,7 +30271,7 @@
       </c>
       <c r="L540" s="1"/>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29792,7 +30304,7 @@
       </c>
       <c r="L541" s="1"/>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29825,7 +30337,7 @@
       </c>
       <c r="L542" s="1"/>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29858,7 +30370,7 @@
       </c>
       <c r="L543" s="1"/>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29891,7 +30403,7 @@
       </c>
       <c r="L544" s="1"/>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29924,7 +30436,7 @@
       </c>
       <c r="L545" s="1"/>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29957,7 +30469,7 @@
       </c>
       <c r="L546" s="1"/>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
         <v>2272</v>
       </c>
@@ -29990,7 +30502,7 @@
       </c>
       <c r="L547" s="1"/>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30023,7 +30535,7 @@
       </c>
       <c r="L548" s="1"/>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30056,7 +30568,7 @@
       </c>
       <c r="L549" s="1"/>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30089,7 +30601,7 @@
       </c>
       <c r="L550" s="1"/>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30122,7 +30634,7 @@
       </c>
       <c r="L551" s="1"/>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30155,7 +30667,7 @@
       </c>
       <c r="L552" s="1"/>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30188,7 +30700,7 @@
       </c>
       <c r="L553" s="1"/>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30221,7 +30733,7 @@
       </c>
       <c r="L554" s="1"/>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
         <v>2272</v>
       </c>
@@ -30254,7 +30766,7 @@
       </c>
       <c r="L555" s="1"/>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30287,7 +30799,7 @@
       </c>
       <c r="L556" s="1"/>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30320,7 +30832,7 @@
       </c>
       <c r="L557" s="1"/>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30353,7 +30865,7 @@
       </c>
       <c r="L558" s="1"/>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30386,7 +30898,7 @@
       </c>
       <c r="L559" s="1"/>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30419,7 +30931,7 @@
       </c>
       <c r="L560" s="1"/>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30452,7 +30964,7 @@
       </c>
       <c r="L561" s="1"/>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30485,7 +30997,7 @@
       </c>
       <c r="L562" s="1"/>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30518,7 +31030,7 @@
       </c>
       <c r="L563" s="1"/>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30551,7 +31063,7 @@
       </c>
       <c r="L564" s="1"/>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30584,7 +31096,7 @@
       </c>
       <c r="L565" s="1"/>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30617,7 +31129,7 @@
       </c>
       <c r="L566" s="1"/>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30650,7 +31162,7 @@
       </c>
       <c r="L567" s="1"/>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30683,7 +31195,7 @@
       </c>
       <c r="L568" s="1"/>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30716,7 +31228,7 @@
       </c>
       <c r="L569" s="1"/>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30749,7 +31261,7 @@
       </c>
       <c r="L570" s="1"/>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30782,7 +31294,7 @@
       </c>
       <c r="L571" s="1"/>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30815,7 +31327,7 @@
       </c>
       <c r="L572" s="1"/>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30848,7 +31360,7 @@
       </c>
       <c r="L573" s="1"/>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30881,7 +31393,7 @@
       </c>
       <c r="L574" s="1"/>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30914,7 +31426,7 @@
       </c>
       <c r="L575" s="1"/>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30947,7 +31459,7 @@
       </c>
       <c r="L576" s="1"/>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
         <v>3421</v>
       </c>
@@ -30980,7 +31492,7 @@
       </c>
       <c r="L577" s="1"/>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31013,7 +31525,7 @@
       </c>
       <c r="L578" s="1"/>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31046,7 +31558,7 @@
       </c>
       <c r="L579" s="1"/>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31079,7 +31591,7 @@
       </c>
       <c r="L580" s="1"/>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31112,7 +31624,7 @@
       </c>
       <c r="L581" s="1"/>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31145,7 +31657,7 @@
       </c>
       <c r="L582" s="1"/>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31178,7 +31690,7 @@
       </c>
       <c r="L583" s="1"/>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31211,7 +31723,7 @@
       </c>
       <c r="L584" s="1"/>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31244,7 +31756,7 @@
       </c>
       <c r="L585" s="1"/>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31277,7 +31789,7 @@
       </c>
       <c r="L586" s="1"/>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31310,7 +31822,7 @@
       </c>
       <c r="L587" s="1"/>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31343,7 +31855,7 @@
       </c>
       <c r="L588" s="1"/>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31376,7 +31888,7 @@
       </c>
       <c r="L589" s="1"/>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31409,7 +31921,7 @@
       </c>
       <c r="L590" s="1"/>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31442,7 +31954,7 @@
       </c>
       <c r="L591" s="1"/>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31475,7 +31987,7 @@
       </c>
       <c r="L592" s="1"/>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31508,7 +32020,7 @@
       </c>
       <c r="L593" s="1"/>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31541,7 +32053,7 @@
       </c>
       <c r="L594" s="1"/>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
         <v>3421</v>
       </c>
@@ -31574,993 +32086,2195 @@
       </c>
       <c r="L595" s="1"/>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="0" t="s">
+    <row r="596" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B596" s="0" t="s">
+      <c r="B596" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C596" s="0" t="s">
+      <c r="C596" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D596" s="0" t="s">
+      <c r="D596" s="1" t="s">
         <v>3683</v>
       </c>
-      <c r="E596" s="0" t="s">
+      <c r="E596" s="1" t="s">
         <v>3684</v>
       </c>
-      <c r="F596" s="0" t="s">
+      <c r="F596" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="G596" s="0" t="s">
+      <c r="G596" s="1" t="s">
         <v>3686</v>
       </c>
-      <c r="H596" s="0" t="s">
+      <c r="H596" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="I596" s="0" t="s">
+      <c r="I596" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J596" s="0" t="s">
+      <c r="J596" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="K596" s="0"/>
-      <c r="L596" s="0"/>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="0" t="s">
+      <c r="L596" s="1"/>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B597" s="0" t="s">
+      <c r="B597" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C597" s="0" t="s">
+      <c r="C597" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D597" s="0" t="s">
+      <c r="D597" s="1" t="s">
         <v>3690</v>
       </c>
-      <c r="E597" s="0" t="s">
+      <c r="E597" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="F597" s="0" t="s">
+      <c r="F597" s="1" t="s">
         <v>3692</v>
       </c>
-      <c r="G597" s="0" t="s">
+      <c r="G597" s="1" t="s">
         <v>3693</v>
       </c>
-      <c r="H597" s="0" t="s">
+      <c r="H597" s="1" t="s">
         <v>3694</v>
       </c>
-      <c r="I597" s="0" t="s">
+      <c r="I597" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J597" s="0" t="s">
+      <c r="J597" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="K597" s="0"/>
-      <c r="L597" s="0"/>
-    </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="0" t="s">
+      <c r="L597" s="1"/>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B598" s="0" t="s">
+      <c r="B598" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C598" s="0" t="s">
+      <c r="C598" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D598" s="0" t="s">
+      <c r="D598" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="E598" s="0" t="s">
+      <c r="E598" s="1" t="s">
         <v>3698</v>
       </c>
-      <c r="F598" s="0" t="s">
+      <c r="F598" s="1" t="s">
         <v>3699</v>
       </c>
-      <c r="G598" s="0" t="s">
+      <c r="G598" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="H598" s="0" t="s">
+      <c r="H598" s="1" t="s">
         <v>3701</v>
       </c>
-      <c r="I598" s="0" t="s">
+      <c r="I598" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J598" s="0" t="s">
+      <c r="J598" s="1" t="s">
         <v>3702</v>
       </c>
-      <c r="K598" s="0"/>
-      <c r="L598" s="0"/>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="0" t="s">
+      <c r="L598" s="1"/>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B599" s="0" t="s">
+      <c r="B599" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C599" s="0" t="s">
+      <c r="C599" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D599" s="0" t="s">
+      <c r="D599" s="1" t="s">
         <v>3704</v>
       </c>
-      <c r="E599" s="0" t="s">
+      <c r="E599" s="1" t="s">
         <v>3705</v>
       </c>
-      <c r="F599" s="0" t="s">
+      <c r="F599" s="1" t="s">
         <v>3706</v>
       </c>
-      <c r="G599" s="0" t="s">
+      <c r="G599" s="1" t="s">
         <v>3707</v>
       </c>
-      <c r="H599" s="0" t="s">
+      <c r="H599" s="1" t="s">
         <v>3708</v>
       </c>
-      <c r="I599" s="0" t="s">
+      <c r="I599" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J599" s="0" t="s">
+      <c r="J599" s="1" t="s">
         <v>3709</v>
       </c>
-      <c r="K599" s="0"/>
-      <c r="L599" s="0"/>
-    </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="0" t="s">
+      <c r="L599" s="1"/>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B600" s="0" t="s">
+      <c r="B600" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C600" s="0" t="s">
+      <c r="C600" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D600" s="0" t="s">
+      <c r="D600" s="1" t="s">
         <v>3711</v>
       </c>
-      <c r="E600" s="0" t="s">
+      <c r="E600" s="1" t="s">
         <v>3712</v>
       </c>
-      <c r="F600" s="0" t="s">
+      <c r="F600" s="1" t="s">
         <v>3713</v>
       </c>
-      <c r="G600" s="0" t="s">
+      <c r="G600" s="1" t="s">
         <v>3714</v>
       </c>
-      <c r="H600" s="0" t="s">
+      <c r="H600" s="1" t="s">
         <v>3715</v>
       </c>
-      <c r="I600" s="0" t="s">
+      <c r="I600" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J600" s="0" t="s">
+      <c r="J600" s="1" t="s">
         <v>3716</v>
       </c>
-      <c r="K600" s="0"/>
-      <c r="L600" s="0"/>
-    </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="L600" s="1"/>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B601" s="0" t="s">
+      <c r="B601" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C601" s="0" t="s">
+      <c r="C601" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D601" s="0" t="s">
+      <c r="D601" s="1" t="s">
         <v>3718</v>
       </c>
-      <c r="E601" s="0" t="s">
+      <c r="E601" s="1" t="s">
         <v>3719</v>
       </c>
-      <c r="F601" s="0" t="s">
+      <c r="F601" s="1" t="s">
         <v>3720</v>
       </c>
-      <c r="G601" s="0" t="s">
+      <c r="G601" s="1" t="s">
         <v>3721</v>
       </c>
-      <c r="H601" s="0" t="s">
+      <c r="H601" s="1" t="s">
         <v>3722</v>
       </c>
-      <c r="I601" s="0" t="s">
+      <c r="I601" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J601" s="0" t="s">
+      <c r="J601" s="1" t="s">
         <v>3723</v>
       </c>
-      <c r="K601" s="0"/>
-      <c r="L601" s="0"/>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="0" t="s">
+      <c r="L601" s="1"/>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B602" s="0" t="s">
+      <c r="B602" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C602" s="0" t="s">
+      <c r="C602" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D602" s="0" t="s">
+      <c r="D602" s="1" t="s">
         <v>3725</v>
       </c>
-      <c r="E602" s="0" t="s">
+      <c r="E602" s="1" t="s">
         <v>3726</v>
       </c>
-      <c r="F602" s="0" t="s">
+      <c r="F602" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="G602" s="0" t="s">
+      <c r="G602" s="1" t="s">
         <v>3728</v>
       </c>
-      <c r="H602" s="0" t="s">
+      <c r="H602" s="1" t="s">
         <v>3729</v>
       </c>
-      <c r="I602" s="0" t="s">
+      <c r="I602" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J602" s="0" t="s">
+      <c r="J602" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="K602" s="0"/>
-      <c r="L602" s="0"/>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="L602" s="1"/>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B603" s="0" t="s">
+      <c r="B603" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C603" s="0" t="s">
+      <c r="C603" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D603" s="0" t="s">
+      <c r="D603" s="1" t="s">
         <v>3732</v>
       </c>
-      <c r="E603" s="0" t="s">
+      <c r="E603" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="F603" s="0" t="s">
+      <c r="F603" s="1" t="s">
         <v>3734</v>
       </c>
-      <c r="G603" s="0" t="s">
+      <c r="G603" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="H603" s="0" t="s">
+      <c r="H603" s="1" t="s">
         <v>3736</v>
       </c>
-      <c r="I603" s="0" t="s">
+      <c r="I603" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J603" s="0" t="s">
+      <c r="J603" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="K603" s="0"/>
-      <c r="L603" s="0"/>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="0" t="s">
+      <c r="L603" s="1"/>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B604" s="0" t="s">
+      <c r="B604" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="C604" s="0" t="s">
+      <c r="C604" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D604" s="0" t="s">
+      <c r="D604" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="E604" s="0" t="s">
+      <c r="E604" s="1" t="s">
         <v>3740</v>
       </c>
-      <c r="F604" s="0" t="s">
+      <c r="F604" s="1" t="s">
         <v>3713</v>
       </c>
-      <c r="G604" s="0" t="s">
+      <c r="G604" s="1" t="s">
         <v>3712</v>
       </c>
-      <c r="H604" s="0" t="s">
+      <c r="H604" s="1" t="s">
         <v>3741</v>
       </c>
-      <c r="I604" s="0" t="s">
+      <c r="I604" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J604" s="0" t="s">
+      <c r="J604" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="K604" s="0"/>
-      <c r="L604" s="0"/>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="L604" s="1"/>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B605" s="0" t="s">
+      <c r="B605" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="C605" s="0" t="s">
+      <c r="C605" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D605" s="0" t="s">
+      <c r="D605" s="1" t="s">
         <v>3744</v>
       </c>
-      <c r="E605" s="0" t="s">
+      <c r="E605" s="1" t="s">
         <v>3745</v>
       </c>
-      <c r="F605" s="0" t="s">
+      <c r="F605" s="1" t="s">
         <v>3746</v>
       </c>
-      <c r="G605" s="0" t="s">
+      <c r="G605" s="1" t="s">
         <v>3747</v>
       </c>
-      <c r="H605" s="0" t="s">
+      <c r="H605" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="I605" s="0" t="s">
+      <c r="I605" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J605" s="0" t="s">
+      <c r="J605" s="1" t="s">
         <v>3749</v>
       </c>
-      <c r="K605" s="0"/>
-      <c r="L605" s="0"/>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="L605" s="1"/>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="B606" s="0" t="s">
+      <c r="B606" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="C606" s="0" t="s">
+      <c r="C606" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="D606" s="0" t="s">
+      <c r="D606" s="1" t="s">
         <v>3751</v>
       </c>
-      <c r="E606" s="0" t="s">
+      <c r="E606" s="1" t="s">
         <v>3752</v>
       </c>
-      <c r="F606" s="0" t="s">
+      <c r="F606" s="1" t="s">
         <v>3753</v>
       </c>
-      <c r="G606" s="0" t="s">
+      <c r="G606" s="1" t="s">
         <v>3754</v>
       </c>
-      <c r="H606" s="0" t="s">
+      <c r="H606" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="I606" s="0" t="s">
+      <c r="I606" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J606" s="0" t="s">
+      <c r="J606" s="1" t="s">
         <v>3756</v>
       </c>
-      <c r="K606" s="0"/>
-      <c r="L606" s="0"/>
+      <c r="L606" s="1"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
+      <c r="A607" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B607" s="0" t="s">
+      <c r="B607" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C607" s="0" t="s">
+      <c r="C607" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D607" s="0" t="s">
+      <c r="D607" s="1" t="s">
         <v>3759</v>
       </c>
-      <c r="E607" s="0" t="s">
+      <c r="E607" s="1" t="s">
         <v>3760</v>
       </c>
-      <c r="F607" s="0" t="s">
+      <c r="F607" s="1" t="s">
         <v>3761</v>
       </c>
-      <c r="G607" s="0" t="s">
+      <c r="G607" s="1" t="s">
         <v>3762</v>
       </c>
-      <c r="H607" s="0" t="s">
+      <c r="H607" s="1" t="s">
         <v>3763</v>
       </c>
-      <c r="I607" s="0" t="s">
+      <c r="I607" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J607" s="0" t="s">
+      <c r="J607" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="K607" s="0"/>
-      <c r="L607" s="0"/>
+      <c r="L607" s="1"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B608" s="0" t="s">
+      <c r="B608" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C608" s="0" t="s">
+      <c r="C608" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D608" s="0" t="s">
+      <c r="D608" s="1" t="s">
         <v>3765</v>
       </c>
-      <c r="E608" s="0" t="s">
+      <c r="E608" s="1" t="s">
         <v>3766</v>
       </c>
-      <c r="F608" s="0" t="s">
+      <c r="F608" s="1" t="s">
         <v>3767</v>
       </c>
-      <c r="G608" s="0" t="s">
+      <c r="G608" s="1" t="s">
         <v>3768</v>
       </c>
-      <c r="H608" s="0" t="s">
+      <c r="H608" s="1" t="s">
         <v>3769</v>
       </c>
-      <c r="I608" s="0" t="s">
+      <c r="I608" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J608" s="0" t="s">
+      <c r="J608" s="1" t="s">
         <v>3770</v>
       </c>
-      <c r="K608" s="0"/>
-      <c r="L608" s="0"/>
+      <c r="L608" s="1"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
+      <c r="A609" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B609" s="0" t="s">
+      <c r="B609" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C609" s="0" t="s">
+      <c r="C609" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D609" s="0" t="s">
+      <c r="D609" s="1" t="s">
         <v>3771</v>
       </c>
-      <c r="E609" s="0" t="s">
+      <c r="E609" s="1" t="s">
         <v>3772</v>
       </c>
-      <c r="F609" s="0" t="s">
+      <c r="F609" s="1" t="s">
         <v>3773</v>
       </c>
-      <c r="G609" s="0" t="s">
+      <c r="G609" s="1" t="s">
         <v>3774</v>
       </c>
-      <c r="H609" s="0" t="s">
+      <c r="H609" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="I609" s="0" t="s">
+      <c r="I609" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J609" s="0" t="s">
+      <c r="J609" s="1" t="s">
         <v>3776</v>
       </c>
-      <c r="K609" s="0"/>
-      <c r="L609" s="0"/>
+      <c r="L609" s="1"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C610" s="0" t="s">
+      <c r="C610" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D610" s="0" t="s">
+      <c r="D610" s="1" t="s">
         <v>3777</v>
       </c>
-      <c r="E610" s="0" t="s">
+      <c r="E610" s="1" t="s">
         <v>3778</v>
       </c>
-      <c r="F610" s="0" t="s">
+      <c r="F610" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="G610" s="0" t="s">
+      <c r="G610" s="1" t="s">
         <v>3780</v>
       </c>
-      <c r="H610" s="0" t="s">
+      <c r="H610" s="1" t="s">
         <v>3781</v>
       </c>
-      <c r="I610" s="0" t="s">
+      <c r="I610" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J610" s="0" t="s">
+      <c r="J610" s="1" t="s">
         <v>3782</v>
       </c>
-      <c r="K610" s="0"/>
-      <c r="L610" s="0"/>
+      <c r="L610" s="1"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
+      <c r="A611" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B611" s="0" t="s">
+      <c r="B611" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C611" s="0" t="s">
+      <c r="C611" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D611" s="0" t="s">
+      <c r="D611" s="1" t="s">
         <v>3783</v>
       </c>
-      <c r="E611" s="0" t="s">
+      <c r="E611" s="1" t="s">
         <v>3784</v>
       </c>
-      <c r="F611" s="0" t="s">
+      <c r="F611" s="1" t="s">
         <v>3785</v>
       </c>
-      <c r="G611" s="0" t="s">
+      <c r="G611" s="1" t="s">
         <v>3786</v>
       </c>
-      <c r="H611" s="0" t="s">
+      <c r="H611" s="1" t="s">
         <v>3787</v>
       </c>
-      <c r="I611" s="0" t="s">
+      <c r="I611" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J611" s="0" t="s">
+      <c r="J611" s="1" t="s">
         <v>3788</v>
       </c>
-      <c r="K611" s="0"/>
-      <c r="L611" s="0"/>
+      <c r="L611" s="1"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="0" t="s">
+      <c r="A612" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B612" s="0" t="s">
+      <c r="B612" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C612" s="0" t="s">
+      <c r="C612" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D612" s="0" t="s">
+      <c r="D612" s="1" t="s">
         <v>3789</v>
       </c>
-      <c r="E612" s="0" t="s">
+      <c r="E612" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="F612" s="0" t="s">
+      <c r="F612" s="1" t="s">
         <v>3791</v>
       </c>
-      <c r="G612" s="0" t="s">
+      <c r="G612" s="1" t="s">
         <v>3792</v>
       </c>
-      <c r="H612" s="0" t="s">
+      <c r="H612" s="1" t="s">
         <v>3793</v>
       </c>
-      <c r="I612" s="0" t="s">
+      <c r="I612" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J612" s="0" t="s">
+      <c r="J612" s="1" t="s">
         <v>3794</v>
       </c>
-      <c r="K612" s="0"/>
-      <c r="L612" s="0"/>
+      <c r="L612" s="1"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
+      <c r="A613" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B613" s="0" t="s">
+      <c r="B613" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C613" s="0" t="s">
+      <c r="C613" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D613" s="0" t="s">
+      <c r="D613" s="1" t="s">
         <v>3795</v>
       </c>
-      <c r="E613" s="0" t="s">
+      <c r="E613" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="F613" s="0" t="s">
+      <c r="F613" s="1" t="s">
         <v>3797</v>
       </c>
-      <c r="G613" s="0" t="s">
+      <c r="G613" s="1" t="s">
         <v>3798</v>
       </c>
-      <c r="H613" s="0" t="s">
+      <c r="H613" s="1" t="s">
         <v>3799</v>
       </c>
-      <c r="I613" s="0" t="s">
+      <c r="I613" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J613" s="0" t="s">
+      <c r="J613" s="1" t="s">
         <v>3800</v>
       </c>
-      <c r="K613" s="0"/>
-      <c r="L613" s="0"/>
+      <c r="L613" s="1"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
+      <c r="A614" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B614" s="0" t="s">
+      <c r="B614" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="C614" s="0" t="s">
+      <c r="C614" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D614" s="0" t="s">
+      <c r="D614" s="1" t="s">
         <v>3801</v>
       </c>
-      <c r="E614" s="0" t="s">
+      <c r="E614" s="1" t="s">
         <v>3802</v>
       </c>
-      <c r="F614" s="0" t="s">
+      <c r="F614" s="1" t="s">
         <v>3803</v>
       </c>
-      <c r="G614" s="0" t="s">
+      <c r="G614" s="1" t="s">
         <v>3804</v>
       </c>
-      <c r="H614" s="0" t="s">
+      <c r="H614" s="1" t="s">
         <v>3805</v>
       </c>
-      <c r="I614" s="0" t="s">
+      <c r="I614" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J614" s="0" t="s">
+      <c r="J614" s="1" t="s">
         <v>3806</v>
       </c>
-      <c r="K614" s="0"/>
-      <c r="L614" s="0"/>
+      <c r="L614" s="1"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
+      <c r="A615" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B615" s="0" t="s">
+      <c r="B615" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="C615" s="0" t="s">
+      <c r="C615" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D615" s="0" t="s">
+      <c r="D615" s="1" t="s">
         <v>3807</v>
       </c>
-      <c r="E615" s="0" t="s">
+      <c r="E615" s="1" t="s">
         <v>3808</v>
       </c>
-      <c r="F615" s="0" t="s">
+      <c r="F615" s="1" t="s">
         <v>3809</v>
       </c>
-      <c r="G615" s="0" t="s">
+      <c r="G615" s="1" t="s">
         <v>3810</v>
       </c>
-      <c r="H615" s="0" t="s">
+      <c r="H615" s="1" t="s">
         <v>3811</v>
       </c>
-      <c r="I615" s="0" t="s">
+      <c r="I615" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J615" s="0" t="s">
+      <c r="J615" s="1" t="s">
         <v>3812</v>
       </c>
-      <c r="K615" s="0"/>
-      <c r="L615" s="0"/>
+      <c r="L615" s="1"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
+      <c r="A616" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="B616" s="0" t="s">
+      <c r="B616" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="C616" s="0" t="s">
+      <c r="C616" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="D616" s="0" t="s">
+      <c r="D616" s="1" t="s">
         <v>3813</v>
       </c>
-      <c r="E616" s="0" t="s">
+      <c r="E616" s="1" t="s">
         <v>3814</v>
       </c>
-      <c r="F616" s="0" t="s">
+      <c r="F616" s="1" t="s">
         <v>3815</v>
       </c>
-      <c r="G616" s="0" t="s">
+      <c r="G616" s="1" t="s">
         <v>3816</v>
       </c>
-      <c r="H616" s="0" t="s">
+      <c r="H616" s="1" t="s">
         <v>3817</v>
       </c>
-      <c r="I616" s="0" t="s">
+      <c r="I616" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J616" s="0" t="s">
+      <c r="J616" s="1" t="s">
         <v>3818</v>
       </c>
-      <c r="K616" s="0"/>
-      <c r="L616" s="0"/>
-    </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
+      <c r="L616" s="1"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B617" s="0" t="s">
+      <c r="B617" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C617" s="0" t="s">
+      <c r="C617" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D617" s="0" t="s">
+      <c r="D617" s="1" t="s">
         <v>3821</v>
       </c>
-      <c r="E617" s="0" t="s">
+      <c r="E617" s="1" t="s">
         <v>3822</v>
       </c>
-      <c r="F617" s="0" t="s">
+      <c r="F617" s="1" t="s">
         <v>3823</v>
       </c>
-      <c r="G617" s="0" t="s">
+      <c r="G617" s="1" t="s">
         <v>3824</v>
       </c>
-      <c r="H617" s="0" t="s">
+      <c r="H617" s="1" t="s">
         <v>3825</v>
       </c>
-      <c r="I617" s="0" t="s">
+      <c r="I617" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J617" s="0" t="s">
+      <c r="J617" s="1" t="s">
         <v>3826</v>
       </c>
-      <c r="K617" s="0"/>
-      <c r="L617" s="0"/>
-    </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
+      <c r="L617" s="1"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B618" s="0" t="s">
+      <c r="B618" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C618" s="0" t="s">
+      <c r="C618" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D618" s="0" t="s">
+      <c r="D618" s="1" t="s">
         <v>3827</v>
       </c>
-      <c r="E618" s="0" t="s">
+      <c r="E618" s="1" t="s">
         <v>3828</v>
       </c>
-      <c r="F618" s="0" t="s">
+      <c r="F618" s="1" t="s">
         <v>3829</v>
       </c>
-      <c r="G618" s="0" t="s">
+      <c r="G618" s="1" t="s">
         <v>3830</v>
       </c>
-      <c r="H618" s="0" t="s">
+      <c r="H618" s="1" t="s">
         <v>3831</v>
       </c>
-      <c r="I618" s="0" t="s">
+      <c r="I618" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J618" s="0" t="s">
+      <c r="J618" s="1" t="s">
         <v>3832</v>
       </c>
-      <c r="K618" s="0"/>
-      <c r="L618" s="0"/>
-    </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
+      <c r="L618" s="1"/>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B619" s="0" t="s">
+      <c r="B619" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C619" s="0" t="s">
+      <c r="C619" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D619" s="0" t="s">
+      <c r="D619" s="1" t="s">
         <v>3833</v>
       </c>
-      <c r="E619" s="0" t="s">
+      <c r="E619" s="1" t="s">
         <v>3834</v>
       </c>
-      <c r="F619" s="0" t="s">
+      <c r="F619" s="1" t="s">
         <v>3835</v>
       </c>
-      <c r="G619" s="0" t="s">
+      <c r="G619" s="1" t="s">
         <v>3836</v>
       </c>
-      <c r="H619" s="0" t="s">
+      <c r="H619" s="1" t="s">
         <v>3837</v>
       </c>
-      <c r="I619" s="0" t="s">
+      <c r="I619" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J619" s="0" t="s">
+      <c r="J619" s="1" t="s">
         <v>3838</v>
       </c>
-      <c r="K619" s="0"/>
-      <c r="L619" s="0"/>
-    </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+      <c r="L619" s="1"/>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B620" s="0" t="s">
+      <c r="B620" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C620" s="0" t="s">
+      <c r="C620" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D620" s="0" t="s">
+      <c r="D620" s="1" t="s">
         <v>3839</v>
       </c>
-      <c r="E620" s="0" t="s">
+      <c r="E620" s="1" t="s">
         <v>3840</v>
       </c>
-      <c r="F620" s="0" t="s">
+      <c r="F620" s="1" t="s">
         <v>3841</v>
       </c>
-      <c r="G620" s="0" t="s">
+      <c r="G620" s="1" t="s">
         <v>3842</v>
       </c>
-      <c r="H620" s="0" t="s">
+      <c r="H620" s="1" t="s">
         <v>3843</v>
       </c>
-      <c r="I620" s="0" t="s">
+      <c r="I620" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J620" s="0" t="s">
+      <c r="J620" s="1" t="s">
         <v>3844</v>
       </c>
-      <c r="K620" s="0"/>
-      <c r="L620" s="0"/>
-    </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
+      <c r="L620" s="1"/>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B621" s="0" t="s">
+      <c r="B621" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C621" s="0" t="s">
+      <c r="C621" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D621" s="0" t="s">
+      <c r="D621" s="1" t="s">
         <v>3845</v>
       </c>
-      <c r="E621" s="0" t="s">
+      <c r="E621" s="1" t="s">
         <v>3846</v>
       </c>
-      <c r="F621" s="0" t="s">
+      <c r="F621" s="1" t="s">
         <v>3847</v>
       </c>
-      <c r="G621" s="0" t="s">
+      <c r="G621" s="1" t="s">
         <v>3848</v>
       </c>
-      <c r="H621" s="0" t="s">
+      <c r="H621" s="1" t="s">
         <v>3849</v>
       </c>
-      <c r="I621" s="0" t="s">
+      <c r="I621" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J621" s="0" t="s">
+      <c r="J621" s="1" t="s">
         <v>3850</v>
       </c>
-      <c r="K621" s="0"/>
-      <c r="L621" s="0"/>
-    </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
+      <c r="L621" s="1"/>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B622" s="0" t="s">
+      <c r="B622" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C622" s="0" t="s">
+      <c r="C622" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D622" s="0" t="s">
+      <c r="D622" s="1" t="s">
         <v>3851</v>
       </c>
-      <c r="E622" s="0" t="s">
+      <c r="E622" s="1" t="s">
         <v>3852</v>
       </c>
-      <c r="F622" s="0" t="s">
+      <c r="F622" s="1" t="s">
         <v>3853</v>
       </c>
-      <c r="G622" s="0" t="s">
+      <c r="G622" s="1" t="s">
         <v>3854</v>
       </c>
-      <c r="H622" s="0" t="s">
+      <c r="H622" s="1" t="s">
         <v>3855</v>
       </c>
-      <c r="I622" s="0" t="s">
+      <c r="I622" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J622" s="0" t="s">
+      <c r="J622" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="K622" s="0"/>
-      <c r="L622" s="0"/>
-    </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="0" t="s">
+      <c r="L622" s="1"/>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B623" s="0" t="s">
+      <c r="B623" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C623" s="0" t="s">
+      <c r="C623" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D623" s="0" t="s">
+      <c r="D623" s="1" t="s">
         <v>3857</v>
       </c>
-      <c r="E623" s="0" t="s">
+      <c r="E623" s="1" t="s">
         <v>3858</v>
       </c>
-      <c r="F623" s="0" t="s">
+      <c r="F623" s="1" t="s">
         <v>3859</v>
       </c>
-      <c r="G623" s="0" t="s">
+      <c r="G623" s="1" t="s">
         <v>3860</v>
       </c>
-      <c r="H623" s="0" t="s">
+      <c r="H623" s="1" t="s">
         <v>3861</v>
       </c>
-      <c r="I623" s="0" t="s">
+      <c r="I623" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J623" s="0" t="s">
+      <c r="J623" s="1" t="s">
         <v>3862</v>
       </c>
-      <c r="K623" s="0"/>
-      <c r="L623" s="0"/>
-    </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
+      <c r="L623" s="1"/>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="B624" s="0" t="s">
+      <c r="B624" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C624" s="0" t="s">
+      <c r="C624" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D624" s="0" t="s">
+      <c r="D624" s="1" t="s">
         <v>3863</v>
       </c>
-      <c r="E624" s="0" t="s">
+      <c r="E624" s="1" t="s">
         <v>3864</v>
       </c>
-      <c r="F624" s="0" t="s">
+      <c r="F624" s="1" t="s">
         <v>3865</v>
       </c>
-      <c r="G624" s="0" t="s">
+      <c r="G624" s="1" t="s">
         <v>3866</v>
       </c>
-      <c r="H624" s="0" t="s">
+      <c r="H624" s="1" t="s">
         <v>3867</v>
       </c>
-      <c r="I624" s="0" t="s">
+      <c r="I624" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J624" s="0" t="s">
+      <c r="J624" s="1" t="s">
         <v>3868</v>
       </c>
-      <c r="K624" s="0"/>
-      <c r="L624" s="0"/>
+      <c r="L624" s="1"/>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D625" s="0" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F625" s="0" t="s">
+        <v>3873</v>
+      </c>
+      <c r="G625" s="0" t="s">
+        <v>3874</v>
+      </c>
+      <c r="H625" s="0" t="s">
+        <v>3875</v>
+      </c>
+      <c r="I625" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J625" s="0" t="s">
+        <v>3876</v>
+      </c>
+      <c r="K625" s="0"/>
+      <c r="L625" s="0"/>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D626" s="0" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E626" s="0" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F626" s="0" t="s">
+        <v>3879</v>
+      </c>
+      <c r="G626" s="0" t="s">
+        <v>3880</v>
+      </c>
+      <c r="H626" s="0" t="s">
+        <v>3881</v>
+      </c>
+      <c r="I626" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J626" s="0" t="s">
+        <v>3882</v>
+      </c>
+      <c r="K626" s="0"/>
+      <c r="L626" s="0"/>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B627" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E627" s="0" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F627" s="0" t="s">
+        <v>3885</v>
+      </c>
+      <c r="G627" s="0" t="s">
+        <v>3886</v>
+      </c>
+      <c r="H627" s="0" t="s">
+        <v>3887</v>
+      </c>
+      <c r="I627" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J627" s="0" t="s">
+        <v>3888</v>
+      </c>
+      <c r="K627" s="0"/>
+      <c r="L627" s="0"/>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B628" s="0" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C628" s="0" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D628" s="0" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E628" s="0" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F628" s="0" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G628" s="0" t="s">
+        <v>3895</v>
+      </c>
+      <c r="H628" s="0" t="s">
+        <v>3896</v>
+      </c>
+      <c r="I628" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J628" s="0" t="s">
+        <v>3897</v>
+      </c>
+      <c r="K628" s="0"/>
+      <c r="L628" s="0"/>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D629" s="0" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E629" s="0" t="s">
+        <v>3900</v>
+      </c>
+      <c r="F629" s="0" t="s">
+        <v>3901</v>
+      </c>
+      <c r="G629" s="0" t="s">
+        <v>3902</v>
+      </c>
+      <c r="H629" s="0" t="s">
+        <v>3903</v>
+      </c>
+      <c r="I629" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J629" s="0" t="s">
+        <v>3904</v>
+      </c>
+      <c r="K629" s="0"/>
+      <c r="L629" s="0"/>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F630" s="0" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G630" s="0" t="s">
+        <v>3910</v>
+      </c>
+      <c r="H630" s="0" t="s">
+        <v>3911</v>
+      </c>
+      <c r="I630" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J630" s="0" t="s">
+        <v>3912</v>
+      </c>
+      <c r="K630" s="0"/>
+      <c r="L630" s="0"/>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E631" s="0" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F631" s="0" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G631" s="0" t="s">
+        <v>3916</v>
+      </c>
+      <c r="H631" s="0" t="s">
+        <v>3917</v>
+      </c>
+      <c r="I631" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J631" s="0" t="s">
+        <v>3918</v>
+      </c>
+      <c r="K631" s="0"/>
+      <c r="L631" s="0"/>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>3919</v>
+      </c>
+      <c r="E632" s="0" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F632" s="0" t="s">
+        <v>3921</v>
+      </c>
+      <c r="G632" s="0" t="s">
+        <v>3922</v>
+      </c>
+      <c r="H632" s="0" t="s">
+        <v>3923</v>
+      </c>
+      <c r="I632" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J632" s="0" t="s">
+        <v>3924</v>
+      </c>
+      <c r="K632" s="0"/>
+      <c r="L632" s="0"/>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C633" s="0" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D633" s="0" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E633" s="0" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F633" s="0" t="s">
+        <v>3927</v>
+      </c>
+      <c r="G633" s="0" t="s">
+        <v>3928</v>
+      </c>
+      <c r="H633" s="0" t="s">
+        <v>3929</v>
+      </c>
+      <c r="I633" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J633" s="0" t="s">
+        <v>3930</v>
+      </c>
+      <c r="K633" s="0"/>
+      <c r="L633" s="0"/>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>3933</v>
+      </c>
+      <c r="E634" s="0" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F634" s="0" t="s">
+        <v>3935</v>
+      </c>
+      <c r="G634" s="0" t="s">
+        <v>3936</v>
+      </c>
+      <c r="H634" s="0" t="s">
+        <v>3937</v>
+      </c>
+      <c r="I634" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J634" s="0" t="s">
+        <v>3938</v>
+      </c>
+      <c r="K634" s="0"/>
+      <c r="L634" s="0"/>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D635" s="0" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E635" s="0" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F635" s="0" t="s">
+        <v>3941</v>
+      </c>
+      <c r="G635" s="0" t="s">
+        <v>3942</v>
+      </c>
+      <c r="H635" s="0" t="s">
+        <v>3943</v>
+      </c>
+      <c r="I635" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J635" s="0" t="s">
+        <v>3944</v>
+      </c>
+      <c r="K635" s="0"/>
+      <c r="L635" s="0"/>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D636" s="0" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E636" s="0" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F636" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="G636" s="0" t="s">
+        <v>3948</v>
+      </c>
+      <c r="H636" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I636" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J636" s="0" t="s">
+        <v>3950</v>
+      </c>
+      <c r="K636" s="0"/>
+      <c r="L636" s="0"/>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C637" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D637" s="0" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E637" s="0" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F637" s="0" t="s">
+        <v>3953</v>
+      </c>
+      <c r="G637" s="0" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H637" s="0" t="s">
+        <v>3955</v>
+      </c>
+      <c r="I637" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J637" s="0" t="s">
+        <v>3956</v>
+      </c>
+      <c r="K637" s="0"/>
+      <c r="L637" s="0"/>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D638" s="0" t="s">
+        <v>3957</v>
+      </c>
+      <c r="E638" s="0" t="s">
+        <v>3958</v>
+      </c>
+      <c r="F638" s="0" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G638" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="H638" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="I638" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J638" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="K638" s="0"/>
+      <c r="L638" s="0"/>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D639" s="0" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E639" s="0" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F639" s="0" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G639" s="0" t="s">
+        <v>3966</v>
+      </c>
+      <c r="H639" s="0" t="s">
+        <v>3967</v>
+      </c>
+      <c r="I639" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J639" s="0" t="s">
+        <v>3968</v>
+      </c>
+      <c r="K639" s="0"/>
+      <c r="L639" s="0"/>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D640" s="0" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E640" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F640" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="G640" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="H640" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="I640" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J640" s="0" t="s">
+        <v>3976</v>
+      </c>
+      <c r="K640" s="0"/>
+      <c r="L640" s="0"/>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E641" s="0" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F641" s="0" t="s">
+        <v>3979</v>
+      </c>
+      <c r="G641" s="0" t="s">
+        <v>3980</v>
+      </c>
+      <c r="H641" s="0" t="s">
+        <v>3981</v>
+      </c>
+      <c r="I641" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J641" s="0" t="s">
+        <v>3982</v>
+      </c>
+      <c r="K641" s="0"/>
+      <c r="L641" s="0"/>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>3983</v>
+      </c>
+      <c r="E642" s="0" t="s">
+        <v>3984</v>
+      </c>
+      <c r="F642" s="0" t="s">
+        <v>3985</v>
+      </c>
+      <c r="G642" s="0" t="s">
+        <v>3986</v>
+      </c>
+      <c r="H642" s="0" t="s">
+        <v>3987</v>
+      </c>
+      <c r="I642" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J642" s="0" t="s">
+        <v>3988</v>
+      </c>
+      <c r="K642" s="0"/>
+      <c r="L642" s="0"/>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E643" s="0" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F643" s="0" t="s">
+        <v>3699</v>
+      </c>
+      <c r="G643" s="0" t="s">
+        <v>3990</v>
+      </c>
+      <c r="H643" s="0" t="s">
+        <v>3991</v>
+      </c>
+      <c r="I643" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J643" s="0" t="s">
+        <v>3992</v>
+      </c>
+      <c r="K643" s="0"/>
+      <c r="L643" s="0"/>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C644" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D644" s="0" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E644" s="0" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F644" s="0" t="s">
+        <v>3995</v>
+      </c>
+      <c r="G644" s="0" t="s">
+        <v>3996</v>
+      </c>
+      <c r="H644" s="0" t="s">
+        <v>3997</v>
+      </c>
+      <c r="I644" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J644" s="0" t="s">
+        <v>3998</v>
+      </c>
+      <c r="K644" s="0"/>
+      <c r="L644" s="0"/>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C645" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E645" s="0" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F645" s="0" t="s">
+        <v>4001</v>
+      </c>
+      <c r="G645" s="0" t="s">
+        <v>4002</v>
+      </c>
+      <c r="H645" s="0" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I645" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J645" s="0" t="s">
+        <v>4004</v>
+      </c>
+      <c r="K645" s="0"/>
+      <c r="L645" s="0"/>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C646" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D646" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E646" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="F646" s="0" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G646" s="0" t="s">
+        <v>4008</v>
+      </c>
+      <c r="H646" s="0" t="s">
+        <v>4009</v>
+      </c>
+      <c r="I646" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J646" s="0" t="s">
+        <v>4010</v>
+      </c>
+      <c r="K646" s="0"/>
+      <c r="L646" s="0"/>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C647" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E647" s="0" t="s">
+        <v>4012</v>
+      </c>
+      <c r="F647" s="0" t="s">
+        <v>4013</v>
+      </c>
+      <c r="G647" s="0" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H647" s="0" t="s">
+        <v>4015</v>
+      </c>
+      <c r="I647" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J647" s="0" t="s">
+        <v>4016</v>
+      </c>
+      <c r="K647" s="0"/>
+      <c r="L647" s="0"/>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D648" s="0" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E648" s="0" t="s">
+        <v>4018</v>
+      </c>
+      <c r="F648" s="0" t="s">
+        <v>4019</v>
+      </c>
+      <c r="G648" s="0" t="s">
+        <v>4020</v>
+      </c>
+      <c r="H648" s="0" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I648" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J648" s="0" t="s">
+        <v>4022</v>
+      </c>
+      <c r="K648" s="0"/>
+      <c r="L648" s="0"/>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>4023</v>
+      </c>
+      <c r="E649" s="0" t="s">
+        <v>4024</v>
+      </c>
+      <c r="F649" s="0" t="s">
+        <v>4025</v>
+      </c>
+      <c r="G649" s="0" t="s">
+        <v>4026</v>
+      </c>
+      <c r="H649" s="0" t="s">
+        <v>4027</v>
+      </c>
+      <c r="I649" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J649" s="0" t="s">
+        <v>4028</v>
+      </c>
+      <c r="K649" s="0"/>
+      <c r="L649" s="0"/>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J650" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="K650" s="0"/>
+      <c r="L650" s="0"/>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J651" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="K651" s="0"/>
+      <c r="L651" s="0"/>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J652" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="K652" s="0"/>
+      <c r="L652" s="0"/>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J653" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="K653" s="0"/>
+      <c r="L653" s="0"/>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J654" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="K654" s="0"/>
+      <c r="L654" s="0"/>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J655" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="K655" s="0"/>
+      <c r="L655" s="0"/>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J656" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K656" s="0"/>
+      <c r="L656" s="0"/>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>3734</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J657" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="K657" s="0"/>
+      <c r="L657" s="0"/>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J658" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="K658" s="0"/>
+      <c r="L658" s="0"/>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J659" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="K659" s="0"/>
+      <c r="L659" s="0"/>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J660" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="K660" s="0"/>
+      <c r="L660" s="0"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L624">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Lei nº 12.598 - Produtos e Sistemas de Defesa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -32568,5 +34282,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="4029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="4922">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -12110,6 +12110,2685 @@
   </si>
   <si>
     <t xml:space="preserve">Conforme o **parágrafo único do art. 23**, os créditos excedentes não podem comprometer mais de 20% do valor a ser compensado no novo contrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 - Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a conceituação apresentada no Capítulo 1, qual é a finalidade da Mobilização Nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir integralmente a Logística Nacional em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementar a Logística Nacional para capacitar o país a realizar ações estratégicas de Defesa diante de agressão estrangeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar exclusivamente os recursos da Marinha do Brasil sem interação com outros órgãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privatizar os setores de defesa para garantir maior eficiência econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.1**, a Mobilização tem a finalidade de complementar a Logística quando se esgotar a capacidade desta no atendimento das necessidades requeridas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é estruturado o Subsistema Setorial de Mobilização Militar (SISMOMIL) dentro do Sistema Nacional de Mobilização (SINAMOB)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É coordenado pelo Exército Brasileiro e composto apenas pelas forças terrestres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É dirigido pelo Ministério da Justiça e integra as polícias estaduais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sob a direção e coordenação do Ministério da Defesa, é composto por este e pelas Forças Armadas através de seus respectivos sistemas (SIMOMAR, SIMOBE, SISMAERO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um órgão independente que reporta diretamente ao Congresso Nacional, sem vínculo com o Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **página 2**, o SISMOMIL fica sob a direção e coordenação do MD, e compõem esse subsistema as Forças Armadas por intermédio de seus respectivos Sistemas de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo as definições do Capítulo 1, o que constitui o "Potencial Nacional"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade imediata que a nação tem para alcançar os Objetivos Nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto de bens e serviços de defesa já produzidos e estocados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto de recursos humanos e meios em estado latente, passíveis de serem transformados em poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soma exclusiva das forças militares ativas em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **subitem 1.2.5**, Potencial Nacional é o conjunto de recursos humanos e dos meios de que dispõe a nação, em estado latente, passíveis de serem transformados em poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual termo define a característica que permite a uma força variar seu poder de combate pelo acréscimo ou supressão de estruturas ou meios adicionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elasticidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipótese de Emprego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logística Reversa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos da definição do **subitem 1.2.7**, Elasticidade é a característica que permite variar o poder de combate pelo acréscimo ou supressão de estruturas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que define a "Mobilização Marítima" no contexto das definições apresentadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O recrutamento de civis para atuar na marinha mercante em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto de atividades sistêmicas empreendidas rotineiramente na MB para prever e planejar a complementação da logística da Força Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A requisição imediata de todos os portos nacionais pelo Exército.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O deslocamento da esquadra para águas internacionais sem planejamento prévio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **subitem 1.2.16**, Mobilização Marítima é o conjunto de atividades sistêmicas, empreendidas rotineiramente na MB, relativas à previsão das necessidades de complementação da logística da Força Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é caracterizada a "Fase de Preparo" da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela celeridade e compulsoriedade das ações após a decretação de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela realização de ações estratégicas mediante planejamento contínuo e permanente desde a situação de normalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo acionamento imediato da totalidade dos recursos do Poder Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela desmobilização dos recursos militares para economia de verbas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.4.1**, o Preparo da Mobilização consiste na realização de ações estratégicas, por meio de um planejamento adequado, desenvolvido desde a situação de normalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é considerado o produto final da fase de preparo da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decretação do Estado de Sítio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O levantamento das Carências Logísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano Nacional de Mobilização (PNM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consolidação da Base Industrial de Defesa (BID).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto na **página 17 (item 1.4.1)**, o produto final da fase de preparo será o Plano Nacional de Mobilização (PNM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza a "Fase de Execução" da Mobilização e como ela é iniciada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteriza-se pelo planejamento lento e é iniciada pelo Congresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteriza-se pela celeridade e compulsoriedade, iniciando-se por ato do Poder Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteriza-se por testes simulados e inicia-se por ordem do Comandante da Marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteriza-se pela diplomacia e inicia-se após referendo popular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.4.2**, a Execução é caracterizada pela celeridade e compulsoriedade, e terá início por ato do Poder Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre os métodos para obtenção de recursos de "Pessoal" listados para situações de mobilização, qual das opções abaixo é citada no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confisco e Requisição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrendamento mercantil e Troca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de talentos e Convocação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doação e Empréstimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a lista na alínea 'b' da **página 19**, são métodos para pessoal: banco de talentos, concurso, contratação, convocação, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No âmbito externo da Mobilização na Expressão Política, qual é o objetivo descrito?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adequar a atividade legislativa à situação de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empregar recursos diplomáticos para angariar apoio internacional e minimizar pressões externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlar a inflação decorrente do conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivar a população através de propaganda psicológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto do **item 1.5.1**, no âmbito externo deve empregar os recursos diplomáticos para angariar o apoio da comunidade internacional e minimizar as pressões externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Expressão Política, qual atividade é destacada como responsabilidade do Poder Legislativo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condução e fiscalização do processo administrativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dinamização do processo de aplicação das leis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adequação da legislação e a elaboração de novos instrumentos legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cadastramento industrial para conversão de linhas de produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a alínea 'b' do **item 1.5.1**, compete ao Poder Legislativo a adequação da legislação e a elaboração de novos instrumentos legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é definida a "Mobilização Industrial" dentro da Expressão Econômica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estatização de todas as indústrias de bens de consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um conjunto de atividades para adequar a capacidade industrial da nação ao atendimento das necessidades militares e civis em emergências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proibição da produção de bens civis para focar apenas em armamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transferência de todo o parque industrial para zonas seguras no interior do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **item 1.5.2 (Página 22)**, a Mobilização Industrial visa adequar a capacidade industrial da nação ao atendimento das necessidades militares e civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é apontado como o "grande desafio" da Mobilização Industrial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rápida adaptação da indústria para a produção de itens militares, paralelamente ao atendimento das necessidades civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A total eliminação da dependência de insumos externos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A conversão de indústrias de base em indústrias de serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aumento da carga tributária para financiar a guerra sem gerar inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto na **página 23 (item 1.5.2)**, o grande desafio será a rápida adaptação da indústria para a produção de itens de interesse militar, paralelamente ao atendimento das necessidades civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o objetivo principal da Mobilização na Expressão Psicossocial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir o fluxo financeiro para o esforço de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formação e a consolidação de uma Mentalidade de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O recrutamento obrigatório de jovens para as Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adaptação do parque industrial para produção bélica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.5.3**, o objetivo da Mobilização Psicossocial é a formação e a consolidação de uma Mentalidade de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual medida é destacada para a Mobilização na Expressão Científica e Tecnológica visando contribuir com a defesa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução de investimentos em tecnologias de alto custo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento da infraestrutura de ciência e tecnologia, incluindo a nuclear, para internalizar produtos estratégicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra exclusiva de pacotes tecnológicos fechados do exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foco apenas em tecnologias de uso civil, descartando o uso dual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a alínea 'a' do **item 1.5.5**, destaca-se o desenvolvimento da infraestrutura de ciência e tecnologia, incluindo a nuclear, com o intuito de internalizar no país os produtos de alto conteúdo tecnológico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da Mobilização na Área de Segurança, qual atividade é especificamente atribuída à Marinha do Brasil (MB)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policiamento ostensivo nas grandes capitais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle de tráfego aéreo em zonas de combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provimento da proteção e da segurança das vias navegáveis interiores, portos e Linhas de Comunicação Marítimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão dos órgãos de defesa civil estaduais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a alínea 'b' do **item 1.6**, compete à MB o provimento da proteção e da segurança das vias navegáveis interiores / Linhas de Comunicação Marítimas (LCM), dos portos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 - O Sistema de Mobilização Marítima - SIMOMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do sistema de informações logísticas das Forças Armadas (Sistema APOLO), qual é a denominação específica do módulo dedicado à integração de dados e informações para a Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGLMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEMOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISLOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISMOMIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.1**, o Sistema APOLO contém um módulo dedicado à Mobilização, qual seja o Módulo de Empresas Mobilizáveis (MODEMOB).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre os propósitos estabelecidos para o SIMOMAR, qual deles visa contribuir diretamente para o retorno à estrutura de paz após o fim das hostilidades?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecipar o estabelecimento de prioridades para o atendimento das necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitar a transição da Estrutura Naval de Paz para a de Guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar a destinação dos recursos mobilizados após cessados os motivos da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibilitar a estimativa dos custos para a execução da Mobilização Marítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 2.2.2, alínea 'c'**, um dos propósitos é gerenciar a destinação dos recursos mobilizados após cessados os motivos, contribuindo para o retorno à estrutura de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual princípio do SIMOMAR destaca a necessidade de os órgãos de Mobilização se adaptarem rapidamente a situações de emergência devido ao dinamismo da conjuntura?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interoperabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexibilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 2.2.3, alínea 'g'**, a flexibilidade refere-se à possibilidade de adoção de soluções alternativas e adaptação às mudanças e situações decorrentes do dinamismo da conjuntura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para assegurar a convergência de esforços para o objetivo estabelecido no SIMOMAR, o princípio da "unidade de direção" requer a existência de:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma autoridade central com cadeia e relações de comando apropriados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma rede descentralizada de órgãos autônomos para agilizar decisões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um sistema puramente horizontal sem hierarquia definida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma doutrina flexível que permita múltiplos objetivos simultâneos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2.3, alínea 'o'**, uma eficiente unidade de direção requer uma autoridade central e uma organização com cadeia e relações de comando apropriados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na estrutura do SIMOMAR, qual órgão exerce a função de Órgão Central de Direção (OCD), competindo-lhe orientar e supervisionar o sistema?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Defesa (MD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Diretoria-Geral do Material da Marinha (DGMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comando de Operações Navais (ComOpNav).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2.4** e o **Quadro 1**, o Órgão Central de Direção (OCD) é o Estado-Maior da Armada (EMA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a responsabilidade dos Órgãos de Gerenciamento Setorial (OGS) em relação à Lista de Carências do seu respectivo setor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas validar a lista enviada pelo Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar a lista sugerindo alternativas para o equacionamento das carências identificadas e encaminhá-la ao OCD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar a compra imediata de todos os itens da lista sem consulta prévia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferir a responsabilidade de elaboração da lista para os Órgãos Técnicos exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.3.2, alínea 'e'**, compete aos OGS elaborar a Lista de Carências do setor, sugerindo alternativas para o equacionamento, e encaminhá-la ao OCD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No âmbito das competências dos Órgãos Técnicos (OT), qual ação deve ser realizada em relação às empresas fornecedoras de material de sua jurisdição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter atualizado um banco de dados com as empresas, considerando sua capacidade de produção e adaptação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proibir o cadastro de empresas que prestam serviços de manutenção para o setor civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegar a gestão do banco de dados inteiramente aos Órgãos de Execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar apenas o cadastro financeiro das empresas, sem avaliar capacidade técnica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 2.3.3, alíneas 'c' e 'd'**, compete aos OT manter atualizado um banco de dados e efetuar o acompanhamento e avaliação das empresas mobilizáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que compete aos Órgãos de Execução (OE) em relação às Empresas de Interesse da Mobilização (EIMOB) em sua área de responsabilidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar leis de incentivo fiscal para as empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificar as EIMOB e realizar visitas para levantar capacidades de produção e atualizar o banco de dados do MODEMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas utilizar os dados fornecidos pelos OGS, sem realizar visitas de campo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir a política nacional de mobilização industrial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.3.4, alínea 'd'**, compete aos OE identificar as EIMOB, realizando visitas às instalações para levantar capacidades e atualizar o banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além das competências gerais de OGS, qual tarefa específica cabe ao Setor do Material, sob direção da DGMM, em relação aos navios mercantes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recrutar a tripulação necessária para a operação dos navios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar projetos de modificação e/ou adaptação para que se tornem úteis à Mobilização Marítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlar as rotas comerciais para evitar áreas de conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar o cadastro de aquaviários disponíveis na região.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.5, alínea 'b'**, compete à DGMM elaborar projetos de modificação e/ou adaptação de navios mercantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual setor, sob direção da Secretaria-Geral da Marinha (SGM), é responsável por coordenar a catalogação de materiais críticos e estratégicos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor Operativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de Material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor da SGM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de Ciência e Tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.6, alínea 'b'**, compete ao Setor da SGM coordenar a catalogação dos materiais críticos e estratégicos e estabelecer níveis adequados de reservas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange ao Setor de Ciência, Tecnologia e Inovação (DGDNTM), qual é a competência relacionada ao desenvolvimento tecnológico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompanhar o desenvolvimento de tecnologias de uso dual que possam ser úteis à Força Naval em uma Hipótese de Emprego (HE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver exclusivamente tecnologias nucleares para propulsão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focar apenas na compra de tecnologias estrangeiras já consolidadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignorar tecnologias civis, focando apenas em pesquisa estritamente militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 2.9, alínea 'b'**, compete à DGDNTM acompanhar o desenvolvimento de tecnologias de uso dual que possam ser úteis à Força Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Quadro 2, que apresenta os setores de competência dos OGS, qual órgão é responsável pelo Setor de Pessoal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Quadro 2**, o OGS responsável pelo Setor de PESSOAL é a DGPM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 - Desmobilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o texto caracteriza o planejamento da Fase de Preparo da Desmobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser iniciado apenas após o término das hostilidades, dado que é impossível prever o cenário pós-conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É planejado de modo contínuo, metódico e permanente, desde a situação de normalidade, sendo coerente com o planejamento da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocorre de forma isolada, sem relação com os planos de Mobilização, focando apenas na redução de custos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consiste exclusivamente na desativação imediata de toda a estrutura logística militar assim que a guerra é declarada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.1**, a Fase de Preparo da Desmobilização é planejada de modo contínuo, metódico e permanente, consoante às normas da Fase de Preparo da Mobilização, desde a situação de normalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da Desmobilização nas Expressões do Poder Nacional, qual medida específica corresponde à **Expressão Econômica**?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspensão progressiva das restrições à liberdade individual e coletiva e produção de novos instrumentos legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução dos meios e efetivos às proporções compatíveis com as exigências da Defesa em situação normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconversão das atividades produtivas ao ritmo normal, cancelamento oportuno de contratos de emergência e suspensão gradativa dos racionamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reintegração da força de trabalho às condições normais do mercado de trabalho e amparo aos desincorporados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **alínea 'a' do item 3.2**, na Expressão Econômica destacam-se a reconversão das atividades produtivas, cancelamento oportuno dos contratos [...] e suspensão gradativa dos racionamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o item 3.3, qual é a diretriz para o planejamento da Desmobilização Marítima?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O planejamento deve ser ignorado em tempo de paz, pois é impossível prever as ações necessárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um plano específico e detalhado é elaborado integralmente antes do conflito e permanece imutável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devido à complexidade, um plano específico só é viável ao iniciar os preparativos para o retorno à normalidade, mas ações preparatórias devem constar no Plano de Mobilização Marítima desde a paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano de Desmobilização Marítima é um documento independente que não possui vínculo com o Plano de Desmobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3**, devido à complexidade [...], a elaboração de um plano específico somente será viável quando o país já estiver iniciando os preparativos [...], mas não se pode deixar de iniciar o planejamento [...] desde o tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD-41-M-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Estratégia Nacional de Defesa (END), como a capacidade de mobilização nacional é considerada no contexto das relações internacionais e do poder combatente das Forças Armadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como um mecanismo puramente diplomático para evitar conflitos armados sem uso de força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como um fator de dissuasão que confere elasticidade na expansão do poder combatente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como uma medida econômica para reduzir os gastos com a Logística Militar em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como uma estratégia exclusiva para a defesa de fronteiras terrestres, sem relação com serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.3.1**, a END apresenta a capacidade de mobilização como fator de dissuasão que confere elasticidade na expansão do poder combatente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a relação fundamental estabelecida entre a Logística Nacional e a Mobilização Nacional quando os meios logísticos se tornam insuficientes para a Defesa Nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização substitui permanentemente a Logística, tornando-a obsoleta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística é o ponto de partida para a Mobilização, que busca obter meios não disponíveis de imediato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística e a Mobilização são sistemas excludentes que não operam sobre o mesmo Poder Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização atua apenas na fase de desmobilização, sem relação com a obtenção de meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.1.1**, a Logística é o ponto de partida para a Mobilização quando os meios logísticos se tornam insuficientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em situação de normalidade (paz), qual é a limitação do Estado em relação à obtenção de recursos do setor privado para ações de Logística ou preparo da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado pode confiscar bens privados livremente para fins de estoque estratégico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado deve respeitar as leis de mercado e não pode obrigar o setor privado a atender suas encomendas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado pode intervir na produção das empresas, mas apenas nas estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado possui poder ilimitado de requisição administrativa, independentemente de decreto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.1.6**, em normalidade, o Estado respeita as leis de mercado e não está capacitado a obrigar o setor privado a atender suas encomendas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal distinção na forma de obtenção de recursos entre a Mobilização e a Logística tradicional, conforme a metodologia de obtenção de recursos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização depende exclusivamente de doações voluntárias da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística permite o confisco de bens, enquanto a Mobilização exige compra à vista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Mobilização, o Estado adquire a capacidade de obrigar o fornecimento de bens e serviços, nos limites da lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização utiliza apenas recursos externos, enquanto a Logística usa recursos internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2.4**, na Mobilização o Estado adquire a capacidade de obrigar o fornecimento de bens e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é definida a "Mobilização Total" para fins de aplicação da Doutrina de Mobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a emergência exige o acionamento apenas dos recursos da Expressão Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando são utilizados apenas recursos financeiros do Tesouro Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a emergência exige o acionamento da totalidade dos recursos do Poder Nacional e do Potencial Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o decreto de mobilização abrange apenas uma região geográfica do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.2.1.1**, Mobilização Total ocorre quando a emergência exige o acionamento da totalidade dos recursos do Poder e Potencial Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das alternativas abaixo é citada como um exemplo de atividade básica a ser empreendida durante a fase de preparo da Mobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocação imediata de todos os reservistas para combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocação de encomendas educativas nas indústrias da Base Industrial de Defesa (BID).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção compulsória em todas as indústrias civis do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confisco de propriedades rurais para treinamento militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.2.5, alínea 'a'**, a colocação de encomendas educativas na BID é uma atividade da fase de preparo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza a finalidade principal da fase de execução da Mobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O planejamento teórico das hipóteses de emprego sem movimentação de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transferência compulsória e acelerada de recursos do Poder e Potencial Nacional para a Expressão Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A desativação de unidades militares para economia de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A realização exclusiva de exercícios simulados de gabinete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.3.1**, a execução visa transferir compulsória e aceleradamente recursos para a Expressão Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual órgão exerce as responsabilidades de Secretaria-Executiva do Sistema de Mobilização Militar (SISMOMIL)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior do Exército.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Defesa, como Órgão de Direção Setorial da Expressão Militar (ODSEM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Escola Superior de Guerra (ESG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gabinete de Segurança Institucional (GSI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.2.1**, compete ao Ministério da Defesa exercer as responsabilidades de Secretaria-Executiva do SISMOMIL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a competência do Conselho de Coordenação (CONCOORD) quando convocado pelo ODSEM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir sobre a declaração de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apreciar assuntos de Mobilização e Desmobilização que envolvam interesse de mais de uma Força Singular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar diretamente a compra de armamentos para as Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomear os Comandantes de Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.2.4**, o CONCOORD aprecia assuntos que envolvam interesse de mais de uma Força Singular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O planejamento da Mobilização Militar deve ter como referência qual instrumento levantado por ocasião dos planejamentos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As notícias veiculadas pela mídia internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Listas de Necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O orçamento anual aprovado pelo Congresso em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As opiniões pessoais dos comandantes táticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.1.2**, o planejamento terá como referência as Listas de Necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual documento consolida os Planos de Mobilização das Forças Armadas no nível subsetorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano de Defesa Nacional (PDN).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano Subsetorial de Mobilização Militar (PSMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Estratégia Nacional de Defesa (END).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Livro Branco de Defesa Nacional (LBDN).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.2.7**, o planejamento será consubstanciado no Plano Subsetorial de Mobilização Militar (PSMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após a decretação de Mobilização Nacional pelo Presidente da República, qual é o próximo passo administrativo do Ministério da Defesa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguardar novas instruções do Congresso Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitir a Diretriz de Mobilização com orientações para as Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar empréstimos internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolver o Conselho de Coordenação (CONCOORD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.2.9**, após o decreto presidencial, o MD emitirá sua Diretriz de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quem cabe estabelecer o momento do início da execução do Plano de Desmobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Congresso Nacional, mediante votação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Órgão de Direção Setorial da Expressão Militar (ODSEM), após examinar propostas das Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aos Comandantes de Teatro de Operações, autonomamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Ministério da Economia, exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.1**, cabe ao ODSEM estabelecer o momento do início da execução do Plano de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das opções abaixo é um exemplo de ação de Desmobilização Militar citada na doutrina?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de novos comandos e unidades militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensificação da produção da Base Industrial de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinção de comandos, unidades militares e serviços criados em razão do esforço de mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocação de mais recursos humanos para reserva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.3, alínea 'e'**, a extinção de comandos criados para a mobilização é uma ação de desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a responsabilidade específica da Escola Superior de Guerra (ESG) no contexto das disposições finais sobre Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar a compra de equipamentos de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver, em seus cursos e estágios, assuntos e trabalhos referentes à Mobilização e Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comandar as operações de mobilização no terreno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditar as contas do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.1.4**, a ESG deverá desenvolver assuntos e trabalhos referentes à Mobilização e Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Concepção Lógica do SISMOMIL, o que significa a sigla EIDN?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresas Internacionais de Defesa Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Empresas de Interesse da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia de Integração da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola de Inteligência de Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a tabela do **Anexo B**, EIDN significa Sistema de Empresas de Interesse da Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o Glossário define a "Capacidade de Mobilização Nacional"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quantidade total de armas que um país possui em estoque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O grau de aptidão da Nação para passar da situação de paz para a de guerra com eficácia e mínimo transtorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de exportar produtos de defesa para países aliados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número total de militares na ativa durante o tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Anexo C (Glossário)**, é o grau de aptidão da Nação para passar da paz para a guerra com eficácia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são "Encomendas Educativas" no contexto da Mobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livros e manuais doutrinários comprados para as escolas militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itens destinados a empresas de interesse da defesa para manter sua produção e capacitação com recursos da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedidos de suprimentos feitos por universidades federais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordens verbais dadas por instrutores durante exercícios de campo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Anexo C (Glossário)**, são itens destinados a empresas para manter produção e capacitação com recursos da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em qual fase da logística ocorre o maior esforço da mobilização, segundo o glossário?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinação das Necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição de "Obtenção" no **Anexo C (Glossário)**, o maior esforço da mobilização dar-se-á nesta fase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a função do Sistema Georreferenciado de Monitoramento e Apoio à Decisão da Presidência da República (GEOPR)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitorar satélites meteorológicos exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servir como ferramenta baseada em TI para assessoramento de decisões na Presidência da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlar o tráfego aéreo civil em tempo real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar a folha de pagamento dos militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Anexo C (Glossário)**, o GEOPR é uma ferramenta de TI para assessoramento de decisões na Presidência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD-41-M-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 - Fundamentos Básicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a finalidade principal da publicação MD-41-M-02 no contexto do Ministério da Defesa e das Forças Singulares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer as normas de engajamento para conflitos internacionais e operações de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir a estrutura organizacional de combate das Forças Singulares em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular os fundamentos doutrinários que orientam os processos relativos à Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir a legislação vigente sobre o Serviço Militar Obrigatório e a convocação de reservistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.1**, a finalidade é regular os fundamentos doutrinários que orientam os processos relativos à Mobilização Militar no âmbito do MD e das FS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os fundamentos básicos, quais parâmetros podem qualificar a expressão "agressão estrangeira" além da invasão territorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas ataques diretos a instalações militares e bases navais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameaças ou atos lesivos à soberania nacional, à integridade territorial, ao povo brasileiro ou às instituições nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente declarações formais de guerra por nações estrangeiras reconhecidas pela ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqueios econômicos e sanções comerciais impostas por blocos econômicos rivais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.1.1.1**, são parâmetros ameaças ou atos lesivos à soberania, integridade territorial, ao povo ou às instituições, ainda que não signifiquem invasão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística e a Mobilização possuem interfaces, mas distinguem-se em aspectos fundamentais. Qual das alternativas apresenta corretamente essas diferenças?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística é compulsória e célere, enquanto a Mobilização depende de processos licitatórios longos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização foca apenas na distribuição, enquanto a Logística foca apenas na obtenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferenciam-se na forma de obtenção dos meios, na oportunidade da provisão, no caráter compulsório e na maior celeridade inerentes à Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há diferença prática, pois a Mobilização é apenas um sinônimo para a Logística de Guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.1.7**, elas se diferenciam na forma de obtenção, oportunidade da provisão, caráter compulsório e maior celeridade da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é classificado, do ponto de vista da essencialidade, um item que é essencial e específico às Forças Armadas, selecionado para produção prioritária, cuja falta diminui significativamente a capacidade operativa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item de Sobrevivência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item de Prateleira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Secundário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.4.3, alínea "a"**, o Item de Mobilização é essencial e específico às FA, selecionado para produção prioritária, acelerada e compulsória.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Função Logística Engenharia engloba um conjunto específico de atividades. Qual é o objetivo principal desta função?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar a manutenção corretiva de viaturas e armamentos pesados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter e adequar a infraestrutura física e as instalações existentes às necessidades das Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar o fluxo de transporte de suprimentos entre as bases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prover recursos financeiros para a aquisição de novos meios de combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.5.4**, o objetivo é obter e adequar a infraestrutura física e as instalações existentes às necessidades das Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Função Logística Recursos Humanos gerencia o pessoal, mas possui limitações em seu escopo. Quais áreas **não** fazem parte desta função logística?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamento de necessidades e procura de pessoal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissão e preparação de recursos humanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutenção do moral e do bem-estar da tropa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disciplina, justiça militar, prisioneiros de guerra e civis internados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.5.6.2**, disciplina, justiça militar, prisioneiros de guerra e civis internados não fazem parte da Função Logística Recursos Humanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do Sistema Nacional de Mobilização (SINAMOB), qual órgão atua como órgão central, responsável por orientar, supervisionar e conduzir as atividades do Sistema?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior Conjunto das Forças Armadas (EMCFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Presidência da República diretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.6.3**, o órgão central do SINAMOB é o Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre a Desmobilização Nacional e sua relação com o planejamento da Mobilização, é correto afirmar que:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano de Desmobilização só é elaborado após o término do conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Desmobilização ocorre de forma abrupta para economizar recursos estatais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada Plano Nacional de Mobilização será elaborado, simultaneamente, o correspondente Plano Nacional de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Desmobilização dispensa planejamento prévio, sendo uma consequência natural da paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.7.3**, para cada Plano Nacional de Mobilização será elaborado, simultaneamente, o correspondente Plano Nacional de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante o retorno gradual à situação de normalidade (Desmobilização), como são tratadas as questões relativas aos recursos que foram mobilizados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os recursos são confiscados permanentemente pelo Estado como espólio de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atos normativos regularão as medidas de garantias, como reparações ou indenizações devidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há previsão de indenização, pois o serviço à pátria é obrigatório e gratuito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As reparações são definidas exclusivamente por tribunais internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.7.5**, atos normativos regularão as medidas de garantias, quais sejam, reparações ou indenizações devidas aos recursos mobilizados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 - Mobilização Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em uma situação de emergência decorrente de agressão estrangeira, qual órgão é responsável por conduzir a Mobilização Industrial, em ligação com a Secretaria de Produtos de Defesa (SEPROD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Economia, de forma independente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior Conjunto das Forças Armadas, isoladamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Subsistema Setorial de Mobilização Econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O comando de cada Força Singular, individualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.1.3**, a Mobilização Industrial será conduzida pelo Subsistema Setorial de Mobilização Econômica, em ligação com a SEPROD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os conceitos básicos da Mobilização Industrial, o que caracteriza uma "Empresa Mobilizável" (EIMOB)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser uma empresa estatal com exclusividade na produção de armamentos nucleares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser uma pessoa jurídica que, em caso de Mobilização, tenha capacidade técnica e estrutural de fornecer produtos ou serviços às Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser qualquer empresa cadastrada no SISCADE, independentemente de sua capacidade produtiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser uma empresa voltada exclusivamente para a exportação de tecnologia dual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 3.2.6**, EIMOB é a empresa que, em caso de Mobilização, tenha capacidade técnica e estrutural de fornecer produtos, serviços, instalações ou pessoal às FA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da produção industrial para a mobilização, como são definidos os "Insumos Estratégicos"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São aqueles indispensáveis cuja produção nacional garante o suprimento adequado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São insumos obtidos facilmente no mercado interno, sem necessidade de estocagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São aqueles que podem ser obtidos no País, embora com dificuldades logísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São os de mais difícil obtenção, normalmente importados, exigindo estocagem prévia em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.2.7.4, alínea 'a'**, insumos estratégicos são os de mais difícil obtenção, normalmente importados e que precisam ser estocados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que um Produto de Defesa (PRODE) seja classificado como Produto Estratégico de Defesa (PED), quais critérios devem ser avaliados conforme a legislação e o manual citado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo benefício, validade do produto e facilidade de transporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conteúdo tecnológico, dificuldade de obtenção e imprescindibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origem nacional, sustentabilidade ambiental e preço de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de exportação, design inovador e aceitação internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 3.3.1**, um PED é todo PRODE avaliado pelos critérios de conteúdo tecnológico, dificuldade de obtenção e imprescindibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O critério de "Imprescindibilidade" na avaliação de um Produto Estratégico de Defesa (PED) é mensurado observando-se concomitantemente quais métricas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidade Produtiva e Disponibilidade Logística.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domínio Tecnológico e Ciclo Tecnológico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessidade Estratégica e Necessidade Tática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo de Aquisição e Tempo de Vida Útil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.5**, a imprescindibilidade é avaliada observando-se duas métricas: Necessidade Estratégica e Necessidade Tática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 - Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em um cenário de escalada de crise em direção a um conflito armado, qual é a relação funcional estabelecida entre a Mobilização Militar e a Logística?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização Militar substitui integralmente a Logística Militar, assumindo todas as suas funções de suprimento desde o tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização Militar atua de forma independente, focando exclusivamente na convocação de pessoal civil, sem interface com recursos materiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização Militar deve valer-se da Mobilização Nacional para a complementação da Logística, buscando recursos nas demais Expressões do Poder Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Logística Militar absorve a Mobilização Nacional, tornando-se a única responsável pela obtenção de recursos no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.1.2**, a Mobilização Militar precisará valer-se da Mobilização Nacional para a complementação da Logística, buscando nas demais Expressões do Poder Nacional os recursos logísticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O planejamento e a execução das atividades de Mobilização Militar devem ser pautados por princípios básicos específicos. Assinale a alternativa que apresenta corretamente quatro desses princípios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanência, Flexibilidade, Economia e Improbidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenação, Controle, Oportunidade e Prioridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigidez, Centralização, Economia e Cooperação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oportunidade, Prioridade, Cooperação e Isolamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 4.3**, são princípios básicos: permanência, flexibilidade, economia, coordenação, controle, oportunidade, prioridade e cooperação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da relação entre Logística Militar e Mobilização Militar, em que momento se inicia o processo da Mobilização Militar na fase de preparo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imediatamente após a declaração formal de guerra, independentemente da capacidade logística instalada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir do momento em que o atendimento das necessidades identificadas não puder ser realizado pela Logística Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente quando houver a ruptura total das linhas de suprimento internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneamente ao início do ano fiscal, para fins de alocação orçamentária preventiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.5.4**, o processo tem início a partir do momento em que o atendimento das necessidades identificadas não puder ser realizado pela Logística Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando a necessidade de fazer face a uma agressão estrangeira, em quais níveis de planejamento das operações conjuntas a Mobilização Militar deverá estar integrada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas no planejamento estratégico, devido à sua natureza política e de longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente nos planejamentos operacional e tático, onde ocorre o emprego efetivo dos meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos planejamentos estratégicos, operacionais e táticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas no nível tático, focando na reposição imediata de perdas em combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.6.3**, a Mobilização Militar deverá fazer parte dos planejamentos estratégicos, operacionais e táticos das operações conjuntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 - Sistema de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre a concepção do funcionamento do Sistema de Mobilização Militar (SISMOMIL) e sua relação com o Ministério da Defesa (MD), assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SISMOMIL subordina-se hierarquicamente aos demais subsistemas do SINAMOB para garantir a execução das tarefas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SISMOMIL fundamenta-se em ligações sistêmicas entre seus componentes, sob coordenação do MD, sem vínculos de subordinação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SISMOMIL atua exclusivamente na execução da desmobilização, deixando o planejamento a cargo do Ministério do Planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coordenação do SISMOMIL é realizada pelos Comandos das Forças Singulares, sem interferência do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.1.2**, a concepção do funcionamento do SISMOMIL fundamenta-se em ligações sistêmicas entre seus componentes, sob coordenação do MD, sem vínculos de subordinação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No âmbito do Sistema de Mobilização Marítima (SIMOMAR), diversos órgãos atuam como Líderes de Subsistema (ODSL). Qual órgão é responsável pela coordenação dos subsistemas de Recursos Humanos e Saúde?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria-Geral da Marinha (SGM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando de Operações Navais (ComOpNav).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretoria-Geral do Material da Marinha (DGMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretoria-Geral do Pessoal da Marinha (DGPM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 5.3.2, alíneas 'a' e 'b'**, a Diretoria-Geral do Pessoal da Marinha (DGPM) é o ODSL para Recursos Humanos e Saúde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a estrutura do Sistema de Mobilização do Exército (SIMOBE), qual órgão desempenha a função de Órgão Central?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando Logístico (COLOG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado-Maior do Exército (EME).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento-Geral do Pessoal (DGP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando de Operações Terrestres (COTER).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.3.3, alínea 'a'**, o órgão central do SIMOBE é o Estado-Maior do Exército (EME).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a apreciação de assuntos específicos de Mobilização Militar que envolvam o interesse de mais de uma Força Singular, qual órgão colegiado deve ser convocado pelo Órgão de Direção Setorial da Expressão Militar (ODSEM)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho de Defesa Nacional (CDN).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comitê de Chefes de Estado-Maior das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho de Coordenação (CONCOORD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabinete de Segurança Institucional (GSI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.4.3**, cabe ao ODSEM convocar e reunir o Conselho de Coordenação (CONCOORD) para assuntos que envolvam interesse de mais de uma FS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das ferramentas de apoio à decisão do SISMOMIL, qual funcionalidade do Sistema de Apoio à Decisão Logística e de Mobilização de Defesa (SADLMD) contém a base de dados das Empresas de Interesse da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SisGEODEF (Sistema de Geoinformação de Defesa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISLOGD (Sistema de Logística de Defesa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEMOB (Módulo de Empresas Mobilizáveis).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMOBE (Sistema de Mobilização do Exército).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.5.4**, destaca-se o Módulo de Empresas Mobilizáveis (MODEMOB), que contém a base de dados das Empresas de Interesse da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 6 - Documentação de Mobilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Política de Mobilização Nacional (PMN), aprovada pelo Decreto nº 7.194/2010, possui um objetivo central em relação ao Estado brasileiro. Qual é esse objetivo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar o Sistema Nacional de Mobilização (SINAMOB) e extinguir a Logística Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer a concepção tática para o emprego das Forças Armadas em operações de garantia da lei e da ordem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulsionar o Estado brasileiro para o preparo e a execução da mobilização nacional e da consequente desmobilização nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir o orçamento anual destinado exclusivamente à compra de material bélico no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.1.3**, a PMN consiste no conjunto de orientações com o objetivo de impulsionar o Estado brasileiro para o preparo e a execução da mobilização nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversas publicações normatizam a Mobilização Militar. Qual é a função específica do Manual para o Planejamento da Mobilização Militar (MD41-M-03)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer a doutrina básica de guerra naval e operações anfíbias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular os fundamentos doutrinários que orientam os processos relativos à Mobilização Militar no âmbito da Administração Central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer normas e procedimentos para a elaboração dos Planos de Mobilização das Forças Armadas e do Ministério da Defesa (AEMM e PSMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar as diretrizes governamentais para a política externa de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 6.1.12**, o MD41-M-03 estabelece normas e procedimentos para a elaboração dos Planos de Mobilização das Forças Armadas e do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do planejamento logístico e de mobilização, o que caracteriza a "Lista de Necessidades" (LN)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o documento que lista apenas as necessidades não passíveis de atendimento pela Logística, sendo a matéria-prima da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o documento que relaciona demandas de toda ordem para atender às operações planejadas, sendo considerada a matéria-prima da Logística.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma lista de verificação utilizada exclusivamente para auditoria de empresas civis de interesse da mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o inventário de bens apreendidos durante operações de combate para uso posterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 6.2.3**, a LN relaciona as demandas de toda ordem para atender às operações planejadas e é a matéria prima da Logística.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é constituída a Lista de Necessidades Final (LNF) no processo de planejamento de uma operação conjunta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela consolidação das LN confeccionadas nas três fases do planejamento (LNI, LNC e LNS) em uma única lista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela soma das necessidades de deslocamento estratégico com as necessidades de desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através da aprovação direta do Presidente da República, sem passar pelos níveis tático e operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente pelas necessidades levantadas na fase de planejamento estratégico (LNI), descartando as fases subsequentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.3.4**, a LNF contém a consolidação das LN confeccionadas nas três fases do planejamento (LNI, LNC e LNS) em uma única lista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a definição de "Lista de Carências" (LC) e qual a sua importância para o sistema de mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a lista que contém apenas os recursos financeiros disponíveis para investimento imediato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o documento obtido do confronto entre necessidades e disponibilidades, listando as necessidades não passíveis de atendimento pela Logística, sendo a matéria-prima da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o documento que relaciona todos os itens que a Logística conseguiu suprir com sucesso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a relação de pessoal militar dispensado do serviço ativo por motivos de saúde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 6.2.4.1**, a LC lista as necessidades não passíveis de atendimento pela Logística das FS e pelo MD, sendo a matéria prima da Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Apêndice Estratégico de Mobilização Militar (AEMM) é um documento fundamental elaborado pela Subchefia de Mobilização do EMCFA. Qual é a sua finalidade principal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir os Planos de Mobilização das Forças Singulares em caso de falha no planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidar os Planos de Mobilização Marítima, Terrestre e Aeroespacial referentes ao PEECFA, listando as carências logísticas e especificando ações de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular o cadastramento de empresas civis para a produção de alimentos em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer a hierarquia de comando das Forças Singulares durante paradas militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.6.1**, o AEMM consolida os Planos de Mobilização das Forças referentes ao PEECFA e lista as carências logísticas das FS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 7 - Atribuições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme as atribuições do Ministério da Defesa no contexto da Mobilização Militar, a quem cabe reunir o Conselho de Coordenação da Mobilização Militar e qual é a sua composição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabe ao EMCFA reunir o conselho, composto exclusivamente pelos Comandantes de Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabe ao Ministério da Defesa reunir o conselho, composto por representantes dos Estados-Maiores das FS e do EMCFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabe à Chefia de Logística reunir o conselho, composto por membros do Ministério do Planejamento e da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabe ao Presidente da República reunir o conselho, composto pelos Ministros de Estado e Chefes de Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.2.2, alínea 'c'**, incumbe ao MD reunir o Conselho de Coordenação, composto por representantes dos Estados-Maiores das FS e do EMCFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a incumbência imediata do Ministro da Defesa após a decretação da Mobilização Nacional pelo Presidente da República?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar as Listas de Necessidades Finais para envio aos Comandos Operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocar a reserva e iniciar os exercícios de adestramento logístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprovar e assinar a Diretriz de Mobilização Militar, possibilitando o início da fase de execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assinar o Plano Nacional de Mobilização e submetê-lo ao Congresso Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 7.2.3, alínea 'a'**, após a decretação da Mobilização Nacional, incumbe ao Ministro aprovar e assinar a Diretriz de Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as atribuições da Subchefia de Mobilização (integrante da CHELOG), destaca-se a responsabilidade pela elaboração de qual documento de nível nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano Setorial de Logística Conjunta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Doutrina Militar de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano de Articulação e Equipamento de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.2.7, alínea 'c'**, incumbe à Subchefia de Mobilização elaborar o Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onde deve ser realizado o cadastramento e credenciamento de Empresas de Interesse da Mobilização, conforme coordenação da Seção de Coordenação da Mobilização Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Sistema de Cadastramento Unificado de Fornecedores (SICAF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Módulo de Empresas Mobilizáveis do Sistema de Apoio à Decisão Logística e de Mobilização de Defesa (Sistema APOLO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No banco de dados exclusivo da Confederação Nacional da Indústria (CNI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Sistema Integrado de Comércio Exterior (SISCOMEX).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 7.2.8, alínea 'h'**, o cadastramento ocorre no Módulo de Empresas Mobilizáveis do Sistema APOLO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual órgão é responsável por elaborar o Apêndice Estratégico de Administração Financeira (AEAF), somando os custos das Listas de Carências e Listas de Necessidades Atendidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Chefia de Operações Conjuntas (CHOC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Subchefia de Logística Estratégica (SUBLOGE/CHELOG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Centro de Coordenação de Logística e Mobilização (CCLM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior Conjunto Estratégico (EMCjE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.2.9, alínea 'n'** (em conjunto com as alíneas k, l, m), cabe à Subchefia de Logística Estratégica elaborar o AEAF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante o planejamento tático, a quem incumbe elaborar a Lista de Necessidades Suplementar (LNS), consolidando as necessidades das Forças Componentes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Comando Logístico Componente do Comando Operacional ativado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Seção de Logística e Mobilização (D-4) do EMCj Op.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Centro de Coordenação de Logística e Mobilização (CCLM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aos Estados-Maiores das Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 7.2.13, alínea 'a'**, incumbe ao Comando Logístico Componente elaborar a Lista de Necessidades Suplementar (LNS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a responsabilidade dos Estados-Maiores das Forças Singulares em relação ao Plano de Mobilização da Força (P Mob Mar/Ter/Aepc)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas aprovar o plano elaborado pelo Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar e assinar o plano, consolidando os planos dos ODS, e submetê-lo à aprovação do Comandante da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar o plano diretamente ao Presidente da República, sem passar pelo EMCFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegar a elaboração integral do plano aos Comandos Operacionais ativados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.2.15, alínea 'h'**, cabe ao EM da FS elaborar e assinar o P Mob, consolidando os planos dos ODS, e submetê-lo à aprovação do Cmt FS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao receberem as Listas de Necessidades do Planejamento (LNP) dos Estados-Maiores, qual ação deve ser realizada pelos Órgãos de Direção Setorial (ODS) das Forças Singulares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhá-las imediatamente ao Ministério da Fazenda para previsão orçamentária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivá-las até a decretação oficial da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depurá-las, confrontando as necessidades com as disponibilidades logísticas da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar imediatamente a Lista de Necessidades Finais (LNF) sem análise prévia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 7.2.16, alínea 'a'**, os ODS devem depurar as listas, confrontando-as com as disponibilidades logísticas para verificar o que pode ser atendido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 8 - Desmobilização militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação às fases e ao planejamento da Desmobilização Militar, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O planejamento da Desmobilização deve iniciar-se apenas após o término das hostilidades, para garantir a segurança das operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Desmobilização Militar é planejada em três fases distintas: Preparo, Execução e Consolidação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sucesso da Desmobilização Militar está condicionado ao seu planejamento, que deve ter início concomitantemente com o da Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Desmobilização trata-se de um simples retorno às condições anteriores à Mobilização, dispensando planejamentos complexos de manutenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 8.1.2**, o sucesso da Desmobilização Militar estará condicionado ao seu planejamento, que terá início concomitantemente com o da Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das competências estabelecidas para a Desmobilização Militar, qual é a atribuição específica do Ministério da Defesa como Órgão de Direção Setorial da Expressão Militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejar a desmobilização das indústrias militares e de interesse militar em sua área de jurisdição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidar, no Plano de Desmobilização Militar, as ações de Desmobilização previstas nos planejamentos elaborados pelas Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reestruturar e rearticular diretamente as Forças Singulares para atender às necessidades táticas imediatas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar o licenciamento dos efetivos excedentes e a revisão de contratos de nível operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 8.3.3.1, alínea "c"**, cabe ao Ministério da Defesa consolidar, no Plano de Desmobilização Militar, as ações de Desmobilização previstas nos planejamentos elaborados pelas FA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Capítulo IX (Disposições Finais) destaca a importância do ensino sobre Mobilização. Qual recomendação é feita às instituições de ensino militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que excluam o tema Mobilização dos currículos de formação básica, focando apenas na especialização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que verifiquem a viabilidade de incluírem, em seus currículos, assuntos relacionados à Mobilização e à Desmobilização Militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que criem escolas exclusivas para o estudo da Desmobilização, separadas das escolas de Altos Estudos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que priorizem o ensino tático em detrimento do planejamento estratégico de mobilização nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 9.3**, é recomendável que as Escolas de Formação, de Aperfeiçoamento e de Altos Estudos das FA verifiquem a viabilidade de incluírem assuntos relacionados à Mobilização e à Desmobilização Militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Anexo de Abreviaturas e Siglas do manual, qual é o significado correto da sigla "CONCOORD"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho de Cooperação Regional de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando de Coordenação de Operações Navais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho de Coordenação da Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confederação de Ordenamento da Reserva de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a lista de siglas da **página 57**, CONCOORD significa Conselho de Coordenação da Mobilização Militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O manual apresenta siglas específicas relacionadas à logística e produtos de defesa. O que significa a sigla "SisCaPED"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Capacitação de Pessoal de Engenharia e Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Cadastramento de Produtos e Empresas de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Controle de Aquisições e Projetos Estratégicos de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Catalogação de Peças e Equipamentos de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a lista de siglas da **página 58**, SisCaPED significa Sistema de Cadastramento de Produtos e Empresas de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD-41-M-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 - Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a finalidade das normas de mobilização, como são denominados os documentos de planejamento elaborados pelo Ministério da Defesa (MD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plano de Mobilização Marítima (P Mob Mar) e Plano de Mobilização Terrestre (P Mob Ter).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apêndice Estratégico de Mobilização Militar (AEMM) e Plano Setorial de Mobilização Militar (PSMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plano Nacional de Mobilização (PNM) e Plano de Articulação e Equipamento de Defesa (PAED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades Finais (LNF) e Lista de Carências Final (LCF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.1**, os planos do MD são denominados Apêndice Estratégico de Mobilização Militar (AEMM) e Plano Setorial de Mobilização Militar (PSMM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a meta da Mobilização Militar aplicada no campo da defesa nacional, conforme as disposições gerais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduzir o efetivo militar em tempos de paz para economizar recursos públicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir a diplomacia estatal através do uso imediato da força bruta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumentar o poder de permanência em ação das FA, com a finalidade de propiciar o poder dissuasório do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir a autonomia tecnológica da Base Industrial de Defesa sem depender de recursos externos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.1.1**, a meta é aumentar o poder de permanência em ação das FA, com a finalidade de propiciar o poder dissuasório do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do planejamento de mobilização, como são definidas as "carências logísticas"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São os recursos logísticos existentes nos estoques que excedem a necessidade operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São recursos logísticos extraídos das necessidades logísticas, não passíveis de obtenção pelo escalão considerado e encaminhados ao escalão superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São as demandas atendidas prontamente pela logística orgânica da Força Singular sem necessidade de apoio externo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São exclusivamente os recursos financeiros bloqueados pelo Ministério da Economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição do **item 2.1.15**, carências são recursos extraídos das necessidades, não passíveis de obtenção pelo escalão considerado, encaminhados ao superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como devem ser implementadas as ações planejadas na fase do Preparo durante a fase da Execução da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De modo gradual e voluntário, conforme a disponibilidade orçamentária de cada Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De modo acelerado e compulsório, após a decretação da Mobilização Nacional e expedição da ordem pelo MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas após a confirmação do início das hostilidades pelo Conselho de Segurança da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma descentralizada, a critério exclusivo dos Comandantes de Organizações Militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 2.2.3**, as ações serão implementadas de modo acelerado e compulsório após a decretação da Mobilização Nacional e ordem do MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o horizonte temporal considerado para a efetividade dos planejamentos de mobilização, sujeito a ajustes conforme a análise da situação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De até 1 (um) ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De até 3 (três) anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De até 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De até 10 (dez) anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2.15**, o horizonte temporal de até 3 (três) anos é o tempo considerado para a efetividade dos planejamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das bases para o planejamento da mobilização, como é definida a "interoperabilidade"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de sistemas ou Forças intercambiarem serviços ou informações sem comprometer funcionalidades, otimizando recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de uma Força Singular atuar isoladamente sem necessidade de comunicação com as demais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo de estatização de empresas privadas para produção exclusiva de material de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padronização absoluta de todos os calibres e equipamentos entre as três Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.3.4**, entende-se por interoperabilidade a capacidade de intercambiar serviços/informações sem comprometer funcionalidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual lista resulta da consolidação das necessidades das fases de planejamento (LNI, LNC e LNS) realizada pelos Comandos Logísticos dos Comandos Operacionais ativados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades do Planejamento (LNP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades do Deslocamento Estratégico (LNDE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades Final (LNF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Carências Final das Forças Singulares (LCFFS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.4.1, alínea 'd'**, a depuração e consolidação das LNI, LNC e LNS resulta na Lista de Necessidades Final (LNF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que ocorre com as carências não atendidas no âmbito do Ministério da Defesa após a consolidação dos planos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São descartadas e consideradas inatingíveis para a operação militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São devolvidas às Forças Singulares para serem resolvidas com recursos próprios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São consolidadas no Plano Setorial de Mobilização Militar (PSMM) para busca de solução pelo SINAMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São transformadas automaticamente em projetos de longo prazo no PAED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 2.1.17** e **item 2.4.1, alínea 'm', subitem 4**, as carências não atendidas no MD compõem o PSMM para busca de solução pelo SINAMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal diferença entre o Plano de Articulação e de Equipamento de Defesa (PAED) e os Planos de Mobilização Militar quanto ao objetivo temporal e escopo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED foca em curto prazo para emergências, enquanto os Planos de Mobilização visam o longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED é um plano logístico estratégico (visão de futuro), enquanto os Planos de Mobilização buscam atender carências em curto prazo para situações emergenciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambos os planos possuem exatamente o mesmo horizonte temporal e finalidade, sendo redundantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED trata exclusivamente de recursos humanos, enquanto a Mobilização trata de material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.5.2**, o PAED é estratégico (visão de futuro) e os Planos de Mobilização buscam atender carências em curto período de tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à base doutrinária, qual é a distinção entre o PAED e os Planos de Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED baseia-se no emprego das FA, enquanto a Mobilização baseia-se na Estratégia Nacional de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED baseia-se na Constituição Federal, enquanto a Mobilização baseia-se apenas em portarias ministeriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PAED tem como base a Estratégia Nacional de Defesa (END), enquanto os Planos de Mobilização têm como base o emprego das FA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há distinção, pois ambos baseiam-se exclusivamente no Livro Branco de Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.5.7, alínea 'c'**, o PAED tem como base a END, enquanto os Planos de Mobilização têm como base o emprego das FA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a padronização estabelecida para o corpo dos planos, como deve ser composto o título de um Plano de Mobilização de uma Força Singular (FS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo nome da Força Singular seguido apenas do ano de vigência do plano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelas palavras PLANO DE MOBILIZAÇÃO (MARÍTIMA, TERRESTRE ou AEROESPACIAL) mais seu código, formado pela letra da Força e o código do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente pelo código do Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA), sem menção à Força específica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo nome do Comandante da Força seguido do código de catalogação do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.1.1**, o título será composto pelas palavras do plano mais seu código, formado pela letra referente à Força seguida do código do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Fase de Preparo da Mobilização, diversas ações gerais são planejadas. O que o manual estabelece sobre as "encomendas educativas"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser evitadas para não comprometer o orçamento destinado à manutenção de pessoal na ativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser direcionadas exclusivamente a empresas estrangeiras para garantir a transferência de tecnologia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve-se propor sua colocação nas empresas da Base Industrial de Defesa (BID), prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São restritas à compra de material de escritório e suprimentos administrativos de baixo custo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 3.3.5.1, alínea "c"**, deve-se propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e nas ED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de Execução da Mobilização, qual é o objetivo das campanhas psicossociais a serem desenvolvidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter o apoio no País e no exterior aos objetivos idealizados nos planejamentos de emprego das FS para atender à emergência configurada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recrutar compulsoriamente jovens universitários para o serviço burocrático nas capitais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desinformar o oponente através de notícias falsas disseminadas exclusivamente em território inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir a reeleição dos governantes durante o período de exceção e crise militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.6, alínea "b"**, desenvolvem-se campanhas psicossociais visando obter o apoio no País e no exterior aos objetivos idealizados nos planejamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As ações da fase de Preparo da Desmobilização devem ser planejadas com antecedência. Qual das alternativas abaixo descreve corretamente uma atividade prevista para esta fase?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar a desmobilização total das tropas antes mesmo do fim das hostilidades para economizar recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propor legislações e normas específicas, visando dar suporte jurídico às atividades da Desmobilização, inclusive a proposta de minuta de texto do decreto de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignorar as carências incluídas no Plano de Mobilização, focando apenas nos novos contratos de aquisição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter a prioridade máxima de investimento nas indústrias de defesa, proibindo qualquer previsão de retorno à normalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 3.3.7, alínea "b"**, deve-se propor legislações e normas, inclusive a proposta de minuta de texto do decreto de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como devem ser tratadas as demandas identificadas pelas Forças Singulares que podem ser atendidas no prazo de até 3 (três) anos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser obrigatoriamente incluídas como "Carências de Mobilização" no P Mob da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser descartadas, pois o planejamento de mobilização foca apenas no longo prazo (acima de 5 anos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não serão consideradas carências de mobilização e comporão um planejamento logístico encaminhado ao MD independentemente dos planos de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serão tratadas como "Carências Emergenciais" e exigirão a edição imediata de um Decreto de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.3.9.3**, as demandas atendíveis em até 3 anos não serão consideradas carências e comporão um planejamento logístico encaminhado ao MD de forma independente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são as autoridades responsáveis pela assinatura do Plano de Mobilização da Força Singular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas o Ministro da Defesa, dispensando a assinatura dos Comandantes de Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do Estado-Maior da FS, contendo a assinatura, em anuência, do Comandante da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O chefe da seção de logística e o oficial de mobilização da unidade mais antiga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Presidente da República e o Presidente do Congresso Nacional, em conjunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 3.3.12**, o plano deverá ser assinado pelo Chefe do Estado-Maior da FS e conterá a assinatura, em anuência, do Comandante da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Apêndice Estratégico de Mobilização Militar (AEMM) é um documento fundamental na estrutura de planejamento do EMCFA. Quem é o responsável pela sua elaboração e o que ele consolida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É elaborado pela Chefia de Operações Conjuntas (CHOC) e consolida os planos de logística das Forças Auxiliares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É elaborado pela Subchefia de Mobilização (SUBMOB) e consolida os Planos de Mobilização Marítima, Terrestre e Aeroespacial referentes ao PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É elaborado pelo Ministério da Economia e consolida o orçamento da defesa para os próximos cinco anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É elaborado pelos Comandos das Forças Singulares individualmente e consolida apenas as necessidades de pessoal civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.1.1**, o AEMM é elaborado pela Subchefia de Mobilização (SUBMOB) e consolida os Planos de Mobilização Marítima, Terrestre e Aeroespacial referentes ao PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase do Preparo da Mobilização, diversas ações devem ser planejadas em relação à Base Industrial de Defesa (BID). Qual das alternativas abaixo descreve corretamente uma dessas ações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propor a estatização imediata de todas as Empresas de Defesa (ED) para controle total do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proibir a exportação de produtos de defesa para garantir o estoque nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspender contratos com a iniciativa privada para focar na produção interna dos arsenais de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.3.4.1, alínea "c"**, deve-se propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e nas ED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o objetivo da criação e manutenção de um Banco de Talentos (BT) na fase de Preparo da Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar apenas militares da ativa com especializações raras para missões no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar empresas estrangeiras dispostas a investir na infraestrutura nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar pessoas, reservistas ou não, com qualificações específicas para viabilizar convocações abrigadas pela Lei do Serviço Militar ou por Decreto de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar a propriedade intelectual de inovações tecnológicas desenvolvidas no meio civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.3.4.1, alínea "f"**, o BT serve para cadastrar pessoas, reservistas ou não, para viabilizar convocações abrigadas pela LSM ou por Decreto de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir da decretação da Mobilização Nacional, inicia-se a fase de Execução. Qual medida pode ser proposta em relação às empresas que possuem capacidade de atender carências logísticas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O confisco sumário de todos os bens da empresa sem direito a indenização posterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dissolução da diretoria da empresa e sua substituição por oficiais generais da reserva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A eventual intervenção em empresas, em conformidade com os entendimentos realizados na fase do Preparo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A isenção total de impostos para empresas que não participam do esforço de mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 4.3.5, alínea "d"**, pode-se propor eventual intervenção em empresas que possuam capacidade de atender as carências constantes da Lista de Carências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com a proximidade do fim dos motivos que determinaram a Mobilização, inicia-se a Execução da Desmobilização. Como as atividades dessa fase devem ser postas em prática e por quê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma imediata e abrupta, para cessar os gastos públicos o mais rápido possível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma descentralizada, permitindo que cada Força Singular decida seu próprio ritmo de desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma sigilosa, para evitar que a população perceba a redução do efetivo militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.3.7**, as atividades serão postas em prática de forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do AEMM, qual é o critério temporal para que uma demanda identificada NÃO seja considerada uma carência de mobilização, mas sim parte do planejamento logístico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a demanda puder ser atendida no prazo de até 1 (um) ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a demanda puder ser atendida no prazo de até 3 (três) anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a demanda exigir importação de tecnologia sensível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a demanda ultrapassar o custo de 5% do orçamento anual da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 4.3.8.3**, as demandas identificadas que podem ser atendidas no prazo de até 3 (três) anos não serão consideradas carências e comporão um planejamento logístico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 - Plano Setorial de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as considerações iniciais sobre o Plano Setorial de Mobilização Militar (PSMM), qual é a autoridade responsável pela sua aprovação antes do envio à Secretaria Executiva do SINAMOB?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe de Logística e Mobilização (CHELOG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro de Estado da Defesa (Min Def).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Presidente da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.1.5**, após a sua aprovação pelo Ministro de Estado da Defesa (Min Def), o PSMM será enviado à Secretaria Executiva do SINAMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange à elaboração das Listas de Carências (LC) que integram o PSMM, qual dado financeiro deve constar obrigatoriamente como fator de planejamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo estimado total, correspondente ao somatório dos custos estimados de todas as carências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O custo unitário de cada item, sem a necessidade de totalização global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O valor de mercado internacional dos itens, desconsiderando impostos nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas o custo de manutenção dos equipamentos, excluindo a aquisição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 5.3.4.3**, a LC deverá conter o custo estimado total, como fator de planejamento, que é o valor correspondente ao somatório dos custos estimados de todas as carências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de Execução da Mobilização, como devem ser empreendidas as ações planejadas anteriormente na fase de Preparo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma voluntária e negociada com o setor privado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De modo acelerado e compulsório, podendo ser replanejadas se necessário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De maneira gradativa e sequencial, para evitar choques na economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente por meio de novos contratos, descartando o planejamento prévio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.3.6**, a partir da decretação da Mobilização Nacional, as ações serão empreendidas de modo acelerado e compulsório.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferentemente da Mobilização, a fase de Execução da Desmobilização Militar possui características específicas para garantir o retorno à normalidade. Como essa execução deve ser iniciada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma imediata e total, assim que cessarem os motivos da mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma acelerada e compulsória, para liberar recursos rapidamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma descentralizada, ficando a critério de cada Força Singular sem coordenação central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 5.3.9**, a execução da Desmobilização Militar será iniciada de forma ordenada e gradativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 6 - Disposições Finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange à preparação da estrutura de mobilização, a quem cabe a responsabilidade de planejar exercícios com o objetivo de treinar e capacitar a elaboração dos Planos de Mobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aos Comandos das Forças Singulares, de forma independente e descentralizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao EMCFA, por meio da Chefia de Logística e Mobilização (CHELOG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Escola Superior de Guerra (ESG), como órgão central de doutrina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Ministro da Defesa, diretamente, sem delegação a órgãos subordinados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.3**, o EMCFA, por meio da CHELOG, planejará exercícios de mobilização com o objetivo de treinar e capacitar a estrutura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Disposições Finais do manual preveem a possibilidade de revisões futuras no documento. Qual é o contexto específico citado que poderia motivar tais revisões?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A necessidade de adequação às normas internacionais da ONU sobre desarmamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aprovação das normas do Planejamento Baseado em Capacidades (PBC) e do Plano de Articulação e de Equipamento de Defesa (PAED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solicitação exclusiva do Congresso Nacional para redução de efetivos em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A extinção das empresas estratégicas de defesa listadas nos anexos do manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 6.4.2**, este manual poderá sofrer revisões em virtude da aprovação das normas do PBC e do PAED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre os Planos de Mobilização das Forças Singulares (P Mob Mar, P Mob Ter e P Mob Aepc), quem são os responsáveis pela sua elaboração e qual é o foco principal de suas ações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São elaborados pelo Ministério da Defesa para definir a estratégia nacional de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São elaborados pelos Órgãos de Direção Setorial (ODS) visando apenas a desmobilização de pessoal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São elaborados pelos Órgãos de Direção Geral (EMA, EME e EMAER) para atender às carências, ou seja, necessidades não atendidas pela Logística da Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São elaborados pelos Comandos Operacionais para definir as necessidades táticas imediatas do Teatro de Operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.1 do Anexo I**, são documentos elaborados pelos Órgãos de Direção Geral (EMA, EME e EMAER) destinados ao atendimento das respectivas carências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a função do Apêndice Estratégico de Mobilização Militar (AEMM) em relação ao planejamento conjunto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele consolida os Planos de Mobilização das Forças Singulares e lista as carências logísticas para integrar o Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele substitui o Plano Setorial de Mobilização Militar, sendo o documento final de solicitação de recursos ao Congresso Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele serve exclusivamente para planejar a desmobilização de hospitais de campanha, sem relação com o PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele é um documento tático elaborado pelos Comandos de Área para distribuição interna de suprimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 1.1 do Anexo II**, o AEMM consolida os planos das FS, lista carências e especifica ações referentes ao PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a finalidade precípua do Plano Setorial de Mobilização Militar (PSMM) junto ao Sistema Nacional de Mobilização (SINAMOB)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar ao SINAMOB que todas as necessidades das Forças Armadas foram supridas internamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentar as carências logísticas das Forças Armadas não factíveis de obtenção no âmbito do Ministério da Defesa, para solução junto aos demais subsistemas do SINAMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar ao SINAMOB a autorização para iniciar exercícios de adestramento básico nas Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegar ao SINAMOB a responsabilidade total pelo comando das operações militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 1 do Modelo do PSMM (Anexo III)**, a finalidade é apresentar carências não factíveis no MD para solução junto aos subsistemas do SINAMOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as listas de necessidades visando efetivar o PEECFA, qual lista consolida a Lista de Necessidades Final (LNF) com as Listas de Necessidades do Deslocamento Estratégico (LNDE) e torna-se ostensiva após descaracterização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades Inicial (LNI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades Suplementar (LNS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Carências Logísticas (LCL).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1, alínea 'a', subitem 6 do Anexo IV**, a LNP conterá a consolidação das LNF com as LNDE e resultará nas listas ostensivas após descaracterização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange à atribuição de códigos do PEECFA às Listas de Necessidades (LN), qual é a regra aplicada às listas classificadas quanto ao grau de sigilo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas devem receber um código provisório gerado aleatoriamente pelo sistema de inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas não recebem o código do PEECFA que lhes deu origem, pois já se constituem como parte intrínseca dos documentos daquele plano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas recebem obrigatoriamente o código do PEECFA em marca d'água para garantir a rastreabilidade externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas recebem o código do Plano Setorial de Mobilização Militar, e não do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 2.4 do Anexo IV**, as LN classificadas não recebem o código do PEECFA, pois já são parte intrínseca dos documentos do plano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o modelo para as Listas de Necessidades (LN), como é definida a prioridade "Alta" para uma necessidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O não atendimento dificulta o sucesso da missão, mas permite sua continuidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O não atendimento não inviabiliza a operação, sendo apenas desejável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O não atendimento poderá inviabilizar a missão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O não atendimento acarreta apenas prejuízos financeiros, sem impacto operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 11 do modelo (Tabela de Necessidades)**, Prioridade Alta significa que o não atendimento poderá inviabilizar a missão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para evitar confusões na classificação de necessidades, onde deve ser classificado um material de transporte (ex: navios, aviões e viaturas) quando este representa uma necessidade de meio e não de serviço?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Função Logística Transporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Função Logística Suprimento, Classe IX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Função Logística Manutenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Função Logística Engenharia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a **Observação (3), alínea 'c' do Anexo IV**, quando se tratar de necessidade de material de transporte, deve ser classificado na função logística Suprimento, Classe IX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a classificação quanto ao grau de sigilo das Listas de Carências (LC) e qual é o critério para sua composição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São ultrassecretas e contêm apenas necessidades de inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São ostensivas (sem classificação) e contêm demandas que ultrapassam a capacidade logística das Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São confidenciais e contêm necessidades que podem ser atendidas internamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São reservadas e tratam exclusivamente de mobilização de recursos humanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.1 do Anexo V**, as LC são oriundas das LN, sem classificação quanto ao grau de sigilo, contendo demandas que ultrapassam a capacidade logística.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na planilha para confronto de necessidades (Anexo VI), como é calculada a coluna de Carências (C)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = Necessidades (N) - Disponibilidades (D) apenas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = Necessidades (N) + Projetos (P).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = Necessidades (N) - [Disponibilidades (D) + Projetos (P) + Outros (O)].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = Disponibilidades (D) - Necessidades (N).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **fórmula na coluna C e a Obs 'a' do Anexo VI**, as carências são obtidas abatendo-se das necessidades as disponibilidades, projetos e outros (C=N-(D+P+O)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei nº 11.631/2007 - Lei de Mobilização Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei de Mobilização Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A execução da Mobilização Nacional é caracterizada pela celeridade e compulsoriedade. De acordo com a Lei nº 11.631/2007, qual é o requisito formal exigido para que ela seja decretada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato exclusivo do Comandante Supremo das Forças Armadas, dispensando autorização legislativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato do Poder Executivo autorizado pelo Congresso Nacional ou referendado por ele, quando no intervalo das sessões legislativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato conjunto dos Ministros de Estado integrantes do Conselho de Defesa Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto Legislativo emanado diretamente do Presidente do Senado Federal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 4º, caput**, a execução será decretada por ato do Poder Executivo autorizado pelo Congresso Nacional ou referendado por ele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sistema Nacional de Mobilização (SINAMOB) é composto por diversos ministérios e órgãos da Presidência. Qual órgão é designado pela lei como o órgão central do sistema?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gabinete de Segurança Institucional da Presidência da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Justiça, responsável pela segurança jurídica das ações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Casa Civil da Presidência da República, responsável pela coordenação interministerial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 6º, parágrafo único**, o Sinamob tem como órgão central o Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 6.592/2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto Mobilização Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o Decreto nº 6.592/2008, a Mobilização Nacional é decretada pelo Presidente da República em caso de agressão estrangeira. Em quais fases ela se subdivide?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase de planejamento e fase de execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase do preparo e fase da execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase de mobilização industrial e fase de mobilização humana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase de dissuasão e fase de combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 2º, § 3º**, a Mobilização Nacional subdivide-se na fase do preparo e na da execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sistema Nacional de Mobilização (SINAMOB) normatizará as ações dos órgãos integrantes baseando-se em três documentos principais. Quais são eles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Constituição Federal, o Código Penal Militar e a Diretriz de Logística.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Política de Defesa, a Estratégia Nacional e o Livro Branco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Política de Mobilização Nacional, as Diretrizes Governamentais de Mobilização Nacional e o Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Plano Plurianual, a Lei de Diretrizes Orçamentárias e a Lei Orçamentária Anual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 7º, incisos I, II e III**, a base normativa compõe-se da Política de Mobilização Nacional, das Diretrizes Governamentais e do Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a organização dos Órgãos de Direção Setorial, qual órgão exerce a direção do Subsistema Setorial de Mobilização de Inteligência?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Agência Brasileira de Inteligência (ABIN), de forma autônoma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Defesa, através da Chefia de Inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Justiça e Segurança Pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **art. 9º, inciso X**, o Subsistema Setorial de Mobilização de Inteligência fica sob a direção do Gabinete de Segurança Institucional da Presidência da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o objetivo específico do Subsistema Setorial de Mobilização Psicológica, conforme definido no decreto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporcionar à população as necessidades sociais mínimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar as atividades de Segurança Pública voltadas para a Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivar, informar e preparar a sociedade para o enfrentamento de agressão estrangeira, agindo para obter opinião pública favorável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adequar a estrutura econômica do País às necessidades de Mobilização Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 10, inciso VII**, o objetivo é motivar, informar e preparar a sociedade e agir para a obtenção da opinião pública favorável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comitê do SINAMOB é presidido pelo Ministro de Estado da Defesa. Quem é o responsável por substituí-lo em suas ausências e impedimentos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro da Casa Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do Estado-Maior Conjunto das Forças Armadas do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro da Justiça e Segurança Pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Secretário-Executivo do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 13, § 1º**, o substituto é o Chefe do Estado-Maior Conjunto das Forças Armadas do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como são tomadas as deliberações do Comitê do SINAMOB e como é resolvido um eventual empate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por maioria absoluta, sem voto de desempate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por consenso unânime entre todos os ministros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por maioria simples de votos, cabendo ao Presidente utilizar o voto de qualidade para fins de desempate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por dois terços dos votos dos membros titulares presentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **art. 17**, o Comitê deliberará por maioria simples, cabendo ao Presidente o voto de qualidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem exerce a função de Secretário-Executivo da Secretaria-Executiva do Comitê do SINAMOB?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Ministro de Estado escolhido por sorteio anual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministro da Economia ou seu representante legal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um servidor civil de carreira do Ministério do Planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um oficial general da área de Mobilização Nacional do Estado-Maior Conjunto das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 21, § 2º**, a função será exercida por oficial general da área de Mobilização Nacional do EMCFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compete ao Órgão Central do SINAMOB consolidar e compatibilizar os Planos Setoriais. Qual é o documento resultante dessa consolidação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Diretriz Setorial de Mobilização Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Doutrina Básica de Mobilização Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proposta de Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Política de Mobilização Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **art. 22, inciso IV**, compete ao Órgão Central consolidar os Planos Setoriais em proposta de Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de preparo, o governo pode utilizar medidas de incentivo para desenvolver a infraestrutura e inovação. Quais modalidades de incentivo são citadas no decreto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a doação de terrenos da União.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condições favoráveis de crédito, isenções/reduções tributárias e bolsas de estudos/capacitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalização forçada de empresas estrangeiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissão de moeda e congelamento de preços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 25, parágrafo único**, as medidas podem contemplar crédito favorável, isenções tributárias e bolsas de estudos/capacitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o Presidente da República decreta a Mobilização Nacional, o ato deve fixar diversos elementos. Qual das alternativas abaixo NÃO consta explicitamente como item obrigatório nesse ato?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O âmbito e os objetivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nomeação imediata de novos Ministros de Estado para todas as pastas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A especificação do espaço geográfico do território nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As condições de convocação de cidadãos e entes federados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **art. 29**, a nomeação de ministros não está listada; o artigo cita âmbito, objetivos, espaço geográfico, condições de convocação, entre outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação ao planejamento da Desmobilização Nacional, qual é o momento adequado para a elaboração do Plano Nacional de Desmobilização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente após o fim do conflito ou agressão estrangeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneamente à elaboração de cada Plano Nacional de Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de execução da desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinco anos após a aprovação da Política de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **art. 32**, para cada Plano Nacional de Mobilização será elaborado, simultaneamente, o correspondente Plano Nacional de Desmobilização.</t>
   </si>
 </sst>
 </file>
@@ -12450,10 +15129,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L660"/>
+  <dimension ref="A1:L803"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A625" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A650" activeCellId="0" sqref="650:660"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A778" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A791" activeCellId="0" sqref="A791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33044,854 +35723,829 @@
       <c r="L624" s="1"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="1" t="s">
         <v>3869</v>
       </c>
-      <c r="B625" s="0" t="s">
+      <c r="B625" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C625" s="0" t="s">
+      <c r="C625" s="1" t="s">
         <v>3870</v>
       </c>
-      <c r="D625" s="0" t="s">
+      <c r="D625" s="1" t="s">
         <v>3871</v>
       </c>
-      <c r="E625" s="0" t="s">
+      <c r="E625" s="1" t="s">
         <v>3872</v>
       </c>
-      <c r="F625" s="0" t="s">
+      <c r="F625" s="1" t="s">
         <v>3873</v>
       </c>
-      <c r="G625" s="0" t="s">
+      <c r="G625" s="1" t="s">
         <v>3874</v>
       </c>
-      <c r="H625" s="0" t="s">
+      <c r="H625" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="I625" s="0" t="s">
+      <c r="I625" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J625" s="0" t="s">
+      <c r="J625" s="1" t="s">
         <v>3876</v>
       </c>
-      <c r="K625" s="0"/>
-      <c r="L625" s="0"/>
+      <c r="L625" s="1"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="1" t="s">
         <v>3869</v>
       </c>
-      <c r="B626" s="0" t="s">
+      <c r="B626" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C626" s="0" t="s">
+      <c r="C626" s="1" t="s">
         <v>3870</v>
       </c>
-      <c r="D626" s="0" t="s">
+      <c r="D626" s="1" t="s">
         <v>3877</v>
       </c>
-      <c r="E626" s="0" t="s">
+      <c r="E626" s="1" t="s">
         <v>3878</v>
       </c>
-      <c r="F626" s="0" t="s">
+      <c r="F626" s="1" t="s">
         <v>3879</v>
       </c>
-      <c r="G626" s="0" t="s">
+      <c r="G626" s="1" t="s">
         <v>3880</v>
       </c>
-      <c r="H626" s="0" t="s">
+      <c r="H626" s="1" t="s">
         <v>3881</v>
       </c>
-      <c r="I626" s="0" t="s">
+      <c r="I626" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J626" s="0" t="s">
+      <c r="J626" s="1" t="s">
         <v>3882</v>
       </c>
-      <c r="K626" s="0"/>
-      <c r="L626" s="0"/>
+      <c r="L626" s="1"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="1" t="s">
         <v>3869</v>
       </c>
-      <c r="B627" s="0" t="s">
+      <c r="B627" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C627" s="0" t="s">
+      <c r="C627" s="1" t="s">
         <v>3870</v>
       </c>
-      <c r="D627" s="0" t="s">
+      <c r="D627" s="1" t="s">
         <v>3883</v>
       </c>
-      <c r="E627" s="0" t="s">
+      <c r="E627" s="1" t="s">
         <v>3884</v>
       </c>
-      <c r="F627" s="0" t="s">
+      <c r="F627" s="1" t="s">
         <v>3885</v>
       </c>
-      <c r="G627" s="0" t="s">
+      <c r="G627" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="H627" s="0" t="s">
+      <c r="H627" s="1" t="s">
         <v>3887</v>
       </c>
-      <c r="I627" s="0" t="s">
+      <c r="I627" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J627" s="0" t="s">
+      <c r="J627" s="1" t="s">
         <v>3888</v>
       </c>
-      <c r="K627" s="0"/>
-      <c r="L627" s="0"/>
+      <c r="L627" s="1"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="0" t="s">
+      <c r="A628" s="1" t="s">
         <v>3889</v>
       </c>
-      <c r="B628" s="0" t="s">
+      <c r="B628" s="1" t="s">
         <v>3890</v>
       </c>
-      <c r="C628" s="0" t="s">
+      <c r="C628" s="1" t="s">
         <v>3891</v>
       </c>
-      <c r="D628" s="0" t="s">
+      <c r="D628" s="1" t="s">
         <v>3892</v>
       </c>
-      <c r="E628" s="0" t="s">
+      <c r="E628" s="1" t="s">
         <v>3893</v>
       </c>
-      <c r="F628" s="0" t="s">
+      <c r="F628" s="1" t="s">
         <v>3894</v>
       </c>
-      <c r="G628" s="0" t="s">
+      <c r="G628" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="H628" s="0" t="s">
+      <c r="H628" s="1" t="s">
         <v>3896</v>
       </c>
-      <c r="I628" s="0" t="s">
+      <c r="I628" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J628" s="0" t="s">
+      <c r="J628" s="1" t="s">
         <v>3897</v>
       </c>
-      <c r="K628" s="0"/>
-      <c r="L628" s="0"/>
+      <c r="L628" s="1"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="1" t="s">
         <v>3889</v>
       </c>
-      <c r="B629" s="0" t="s">
+      <c r="B629" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="C629" s="0" t="s">
+      <c r="C629" s="1" t="s">
         <v>3891</v>
       </c>
-      <c r="D629" s="0" t="s">
+      <c r="D629" s="1" t="s">
         <v>3899</v>
       </c>
-      <c r="E629" s="0" t="s">
+      <c r="E629" s="1" t="s">
         <v>3900</v>
       </c>
-      <c r="F629" s="0" t="s">
+      <c r="F629" s="1" t="s">
         <v>3901</v>
       </c>
-      <c r="G629" s="0" t="s">
+      <c r="G629" s="1" t="s">
         <v>3902</v>
       </c>
-      <c r="H629" s="0" t="s">
+      <c r="H629" s="1" t="s">
         <v>3903</v>
       </c>
-      <c r="I629" s="0" t="s">
+      <c r="I629" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J629" s="0" t="s">
+      <c r="J629" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="K629" s="0"/>
-      <c r="L629" s="0"/>
+      <c r="L629" s="1"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="B630" s="0" t="s">
+      <c r="B630" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C630" s="0" t="s">
+      <c r="C630" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="D630" s="0" t="s">
+      <c r="D630" s="1" t="s">
         <v>3907</v>
       </c>
-      <c r="E630" s="0" t="s">
+      <c r="E630" s="1" t="s">
         <v>3908</v>
       </c>
-      <c r="F630" s="0" t="s">
+      <c r="F630" s="1" t="s">
         <v>3909</v>
       </c>
-      <c r="G630" s="0" t="s">
+      <c r="G630" s="1" t="s">
         <v>3910</v>
       </c>
-      <c r="H630" s="0" t="s">
+      <c r="H630" s="1" t="s">
         <v>3911</v>
       </c>
-      <c r="I630" s="0" t="s">
+      <c r="I630" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J630" s="0" t="s">
+      <c r="J630" s="1" t="s">
         <v>3912</v>
       </c>
-      <c r="K630" s="0"/>
-      <c r="L630" s="0"/>
+      <c r="L630" s="1"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
+      <c r="A631" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="B631" s="0" t="s">
+      <c r="B631" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C631" s="0" t="s">
+      <c r="C631" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="D631" s="0" t="s">
+      <c r="D631" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="E631" s="0" t="s">
+      <c r="E631" s="1" t="s">
         <v>3914</v>
       </c>
-      <c r="F631" s="0" t="s">
+      <c r="F631" s="1" t="s">
         <v>3915</v>
       </c>
-      <c r="G631" s="0" t="s">
+      <c r="G631" s="1" t="s">
         <v>3916</v>
       </c>
-      <c r="H631" s="0" t="s">
+      <c r="H631" s="1" t="s">
         <v>3917</v>
       </c>
-      <c r="I631" s="0" t="s">
+      <c r="I631" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J631" s="0" t="s">
+      <c r="J631" s="1" t="s">
         <v>3918</v>
       </c>
-      <c r="K631" s="0"/>
-      <c r="L631" s="0"/>
+      <c r="L631" s="1"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
+      <c r="A632" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="B632" s="0" t="s">
+      <c r="B632" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C632" s="0" t="s">
+      <c r="C632" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="D632" s="0" t="s">
+      <c r="D632" s="1" t="s">
         <v>3919</v>
       </c>
-      <c r="E632" s="0" t="s">
+      <c r="E632" s="1" t="s">
         <v>3920</v>
       </c>
-      <c r="F632" s="0" t="s">
+      <c r="F632" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="G632" s="0" t="s">
+      <c r="G632" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="H632" s="0" t="s">
+      <c r="H632" s="1" t="s">
         <v>3923</v>
       </c>
-      <c r="I632" s="0" t="s">
+      <c r="I632" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J632" s="0" t="s">
+      <c r="J632" s="1" t="s">
         <v>3924</v>
       </c>
-      <c r="K632" s="0"/>
-      <c r="L632" s="0"/>
+      <c r="L632" s="1"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
+      <c r="A633" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="B633" s="0" t="s">
+      <c r="B633" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C633" s="0" t="s">
+      <c r="C633" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="D633" s="0" t="s">
+      <c r="D633" s="1" t="s">
         <v>3925</v>
       </c>
-      <c r="E633" s="0" t="s">
+      <c r="E633" s="1" t="s">
         <v>3926</v>
       </c>
-      <c r="F633" s="0" t="s">
+      <c r="F633" s="1" t="s">
         <v>3927</v>
       </c>
-      <c r="G633" s="0" t="s">
+      <c r="G633" s="1" t="s">
         <v>3928</v>
       </c>
-      <c r="H633" s="0" t="s">
+      <c r="H633" s="1" t="s">
         <v>3929</v>
       </c>
-      <c r="I633" s="0" t="s">
+      <c r="I633" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J633" s="0" t="s">
+      <c r="J633" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="K633" s="0"/>
-      <c r="L633" s="0"/>
+      <c r="L633" s="1"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="A634" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B634" s="0" t="s">
+      <c r="B634" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C634" s="0" t="s">
+      <c r="C634" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D634" s="0" t="s">
+      <c r="D634" s="1" t="s">
         <v>3933</v>
       </c>
-      <c r="E634" s="0" t="s">
+      <c r="E634" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="F634" s="0" t="s">
+      <c r="F634" s="1" t="s">
         <v>3935</v>
       </c>
-      <c r="G634" s="0" t="s">
+      <c r="G634" s="1" t="s">
         <v>3936</v>
       </c>
-      <c r="H634" s="0" t="s">
+      <c r="H634" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="I634" s="0" t="s">
+      <c r="I634" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J634" s="0" t="s">
+      <c r="J634" s="1" t="s">
         <v>3938</v>
       </c>
-      <c r="K634" s="0"/>
-      <c r="L634" s="0"/>
+      <c r="L634" s="1"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
+      <c r="A635" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B635" s="0" t="s">
+      <c r="B635" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C635" s="0" t="s">
+      <c r="C635" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D635" s="0" t="s">
+      <c r="D635" s="1" t="s">
         <v>3939</v>
       </c>
-      <c r="E635" s="0" t="s">
+      <c r="E635" s="1" t="s">
         <v>3940</v>
       </c>
-      <c r="F635" s="0" t="s">
+      <c r="F635" s="1" t="s">
         <v>3941</v>
       </c>
-      <c r="G635" s="0" t="s">
+      <c r="G635" s="1" t="s">
         <v>3942</v>
       </c>
-      <c r="H635" s="0" t="s">
+      <c r="H635" s="1" t="s">
         <v>3943</v>
       </c>
-      <c r="I635" s="0" t="s">
+      <c r="I635" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J635" s="0" t="s">
+      <c r="J635" s="1" t="s">
         <v>3944</v>
       </c>
-      <c r="K635" s="0"/>
-      <c r="L635" s="0"/>
+      <c r="L635" s="1"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
+      <c r="A636" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B636" s="0" t="s">
+      <c r="B636" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C636" s="0" t="s">
+      <c r="C636" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D636" s="0" t="s">
+      <c r="D636" s="1" t="s">
         <v>3945</v>
       </c>
-      <c r="E636" s="0" t="s">
+      <c r="E636" s="1" t="s">
         <v>3946</v>
       </c>
-      <c r="F636" s="0" t="s">
+      <c r="F636" s="1" t="s">
         <v>3947</v>
       </c>
-      <c r="G636" s="0" t="s">
+      <c r="G636" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="H636" s="0" t="s">
+      <c r="H636" s="1" t="s">
         <v>3949</v>
       </c>
-      <c r="I636" s="0" t="s">
+      <c r="I636" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J636" s="0" t="s">
+      <c r="J636" s="1" t="s">
         <v>3950</v>
       </c>
-      <c r="K636" s="0"/>
-      <c r="L636" s="0"/>
+      <c r="L636" s="1"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="0" t="s">
+      <c r="A637" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B637" s="0" t="s">
+      <c r="B637" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C637" s="0" t="s">
+      <c r="C637" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D637" s="0" t="s">
+      <c r="D637" s="1" t="s">
         <v>3951</v>
       </c>
-      <c r="E637" s="0" t="s">
+      <c r="E637" s="1" t="s">
         <v>3952</v>
       </c>
-      <c r="F637" s="0" t="s">
+      <c r="F637" s="1" t="s">
         <v>3953</v>
       </c>
-      <c r="G637" s="0" t="s">
+      <c r="G637" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H637" s="0" t="s">
+      <c r="H637" s="1" t="s">
         <v>3955</v>
       </c>
-      <c r="I637" s="0" t="s">
+      <c r="I637" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J637" s="0" t="s">
+      <c r="J637" s="1" t="s">
         <v>3956</v>
       </c>
-      <c r="K637" s="0"/>
-      <c r="L637" s="0"/>
+      <c r="L637" s="1"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
+      <c r="A638" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B638" s="0" t="s">
+      <c r="B638" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C638" s="0" t="s">
+      <c r="C638" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D638" s="0" t="s">
+      <c r="D638" s="1" t="s">
         <v>3957</v>
       </c>
-      <c r="E638" s="0" t="s">
+      <c r="E638" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="F638" s="0" t="s">
+      <c r="F638" s="1" t="s">
         <v>3959</v>
       </c>
-      <c r="G638" s="0" t="s">
+      <c r="G638" s="1" t="s">
         <v>3960</v>
       </c>
-      <c r="H638" s="0" t="s">
+      <c r="H638" s="1" t="s">
         <v>3961</v>
       </c>
-      <c r="I638" s="0" t="s">
+      <c r="I638" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J638" s="0" t="s">
+      <c r="J638" s="1" t="s">
         <v>3962</v>
       </c>
-      <c r="K638" s="0"/>
-      <c r="L638" s="0"/>
+      <c r="L638" s="1"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="0" t="s">
+      <c r="A639" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B639" s="0" t="s">
+      <c r="B639" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C639" s="0" t="s">
+      <c r="C639" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="D639" s="0" t="s">
+      <c r="D639" s="1" t="s">
         <v>3963</v>
       </c>
-      <c r="E639" s="0" t="s">
+      <c r="E639" s="1" t="s">
         <v>3964</v>
       </c>
-      <c r="F639" s="0" t="s">
+      <c r="F639" s="1" t="s">
         <v>3965</v>
       </c>
-      <c r="G639" s="0" t="s">
+      <c r="G639" s="1" t="s">
         <v>3966</v>
       </c>
-      <c r="H639" s="0" t="s">
+      <c r="H639" s="1" t="s">
         <v>3967</v>
       </c>
-      <c r="I639" s="0" t="s">
+      <c r="I639" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J639" s="0" t="s">
+      <c r="J639" s="1" t="s">
         <v>3968</v>
       </c>
-      <c r="K639" s="0"/>
-      <c r="L639" s="0"/>
+      <c r="L639" s="1"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
+      <c r="A640" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B640" s="0" t="s">
+      <c r="B640" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C640" s="0" t="s">
+      <c r="C640" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D640" s="0" t="s">
+      <c r="D640" s="1" t="s">
         <v>3971</v>
       </c>
-      <c r="E640" s="0" t="s">
+      <c r="E640" s="1" t="s">
         <v>3972</v>
       </c>
-      <c r="F640" s="0" t="s">
+      <c r="F640" s="1" t="s">
         <v>3973</v>
       </c>
-      <c r="G640" s="0" t="s">
+      <c r="G640" s="1" t="s">
         <v>3974</v>
       </c>
-      <c r="H640" s="0" t="s">
+      <c r="H640" s="1" t="s">
         <v>3975</v>
       </c>
-      <c r="I640" s="0" t="s">
+      <c r="I640" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J640" s="0" t="s">
+      <c r="J640" s="1" t="s">
         <v>3976</v>
       </c>
-      <c r="K640" s="0"/>
-      <c r="L640" s="0"/>
+      <c r="L640" s="1"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="0" t="s">
+      <c r="A641" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B641" s="0" t="s">
+      <c r="B641" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C641" s="0" t="s">
+      <c r="C641" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D641" s="0" t="s">
+      <c r="D641" s="1" t="s">
         <v>3977</v>
       </c>
-      <c r="E641" s="0" t="s">
+      <c r="E641" s="1" t="s">
         <v>3978</v>
       </c>
-      <c r="F641" s="0" t="s">
+      <c r="F641" s="1" t="s">
         <v>3979</v>
       </c>
-      <c r="G641" s="0" t="s">
+      <c r="G641" s="1" t="s">
         <v>3980</v>
       </c>
-      <c r="H641" s="0" t="s">
+      <c r="H641" s="1" t="s">
         <v>3981</v>
       </c>
-      <c r="I641" s="0" t="s">
+      <c r="I641" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J641" s="0" t="s">
+      <c r="J641" s="1" t="s">
         <v>3982</v>
       </c>
-      <c r="K641" s="0"/>
-      <c r="L641" s="0"/>
+      <c r="L641" s="1"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
+      <c r="A642" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B642" s="0" t="s">
+      <c r="B642" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C642" s="0" t="s">
+      <c r="C642" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D642" s="0" t="s">
+      <c r="D642" s="1" t="s">
         <v>3983</v>
       </c>
-      <c r="E642" s="0" t="s">
+      <c r="E642" s="1" t="s">
         <v>3984</v>
       </c>
-      <c r="F642" s="0" t="s">
+      <c r="F642" s="1" t="s">
         <v>3985</v>
       </c>
-      <c r="G642" s="0" t="s">
+      <c r="G642" s="1" t="s">
         <v>3986</v>
       </c>
-      <c r="H642" s="0" t="s">
+      <c r="H642" s="1" t="s">
         <v>3987</v>
       </c>
-      <c r="I642" s="0" t="s">
+      <c r="I642" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J642" s="0" t="s">
+      <c r="J642" s="1" t="s">
         <v>3988</v>
       </c>
-      <c r="K642" s="0"/>
-      <c r="L642" s="0"/>
+      <c r="L642" s="1"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="0" t="s">
+      <c r="A643" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B643" s="0" t="s">
+      <c r="B643" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C643" s="0" t="s">
+      <c r="C643" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D643" s="0" t="s">
+      <c r="D643" s="1" t="s">
         <v>3989</v>
       </c>
-      <c r="E643" s="0" t="s">
+      <c r="E643" s="1" t="s">
         <v>3698</v>
       </c>
-      <c r="F643" s="0" t="s">
+      <c r="F643" s="1" t="s">
         <v>3699</v>
       </c>
-      <c r="G643" s="0" t="s">
+      <c r="G643" s="1" t="s">
         <v>3990</v>
       </c>
-      <c r="H643" s="0" t="s">
+      <c r="H643" s="1" t="s">
         <v>3991</v>
       </c>
-      <c r="I643" s="0" t="s">
+      <c r="I643" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J643" s="0" t="s">
+      <c r="J643" s="1" t="s">
         <v>3992</v>
       </c>
-      <c r="K643" s="0"/>
-      <c r="L643" s="0"/>
+      <c r="L643" s="1"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="0" t="s">
+      <c r="A644" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B644" s="0" t="s">
+      <c r="B644" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C644" s="0" t="s">
+      <c r="C644" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D644" s="0" t="s">
+      <c r="D644" s="1" t="s">
         <v>3993</v>
       </c>
-      <c r="E644" s="0" t="s">
+      <c r="E644" s="1" t="s">
         <v>3994</v>
       </c>
-      <c r="F644" s="0" t="s">
+      <c r="F644" s="1" t="s">
         <v>3995</v>
       </c>
-      <c r="G644" s="0" t="s">
+      <c r="G644" s="1" t="s">
         <v>3996</v>
       </c>
-      <c r="H644" s="0" t="s">
+      <c r="H644" s="1" t="s">
         <v>3997</v>
       </c>
-      <c r="I644" s="0" t="s">
+      <c r="I644" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J644" s="0" t="s">
+      <c r="J644" s="1" t="s">
         <v>3998</v>
       </c>
-      <c r="K644" s="0"/>
-      <c r="L644" s="0"/>
+      <c r="L644" s="1"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
+      <c r="A645" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B645" s="0" t="s">
+      <c r="B645" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C645" s="0" t="s">
+      <c r="C645" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D645" s="0" t="s">
+      <c r="D645" s="1" t="s">
         <v>3999</v>
       </c>
-      <c r="E645" s="0" t="s">
+      <c r="E645" s="1" t="s">
         <v>4000</v>
       </c>
-      <c r="F645" s="0" t="s">
+      <c r="F645" s="1" t="s">
         <v>4001</v>
       </c>
-      <c r="G645" s="0" t="s">
+      <c r="G645" s="1" t="s">
         <v>4002</v>
       </c>
-      <c r="H645" s="0" t="s">
+      <c r="H645" s="1" t="s">
         <v>4003</v>
       </c>
-      <c r="I645" s="0" t="s">
+      <c r="I645" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J645" s="0" t="s">
+      <c r="J645" s="1" t="s">
         <v>4004</v>
       </c>
-      <c r="K645" s="0"/>
-      <c r="L645" s="0"/>
+      <c r="L645" s="1"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
+      <c r="A646" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B646" s="0" t="s">
+      <c r="B646" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C646" s="0" t="s">
+      <c r="C646" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D646" s="0" t="s">
+      <c r="D646" s="1" t="s">
         <v>4005</v>
       </c>
-      <c r="E646" s="0" t="s">
+      <c r="E646" s="1" t="s">
         <v>4006</v>
       </c>
-      <c r="F646" s="0" t="s">
+      <c r="F646" s="1" t="s">
         <v>4007</v>
       </c>
-      <c r="G646" s="0" t="s">
+      <c r="G646" s="1" t="s">
         <v>4008</v>
       </c>
-      <c r="H646" s="0" t="s">
+      <c r="H646" s="1" t="s">
         <v>4009</v>
       </c>
-      <c r="I646" s="0" t="s">
+      <c r="I646" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J646" s="0" t="s">
+      <c r="J646" s="1" t="s">
         <v>4010</v>
       </c>
-      <c r="K646" s="0"/>
-      <c r="L646" s="0"/>
+      <c r="L646" s="1"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
+      <c r="A647" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B647" s="0" t="s">
+      <c r="B647" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C647" s="0" t="s">
+      <c r="C647" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D647" s="0" t="s">
+      <c r="D647" s="1" t="s">
         <v>4011</v>
       </c>
-      <c r="E647" s="0" t="s">
+      <c r="E647" s="1" t="s">
         <v>4012</v>
       </c>
-      <c r="F647" s="0" t="s">
+      <c r="F647" s="1" t="s">
         <v>4013</v>
       </c>
-      <c r="G647" s="0" t="s">
+      <c r="G647" s="1" t="s">
         <v>4014</v>
       </c>
-      <c r="H647" s="0" t="s">
+      <c r="H647" s="1" t="s">
         <v>4015</v>
       </c>
-      <c r="I647" s="0" t="s">
+      <c r="I647" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J647" s="0" t="s">
+      <c r="J647" s="1" t="s">
         <v>4016</v>
       </c>
-      <c r="K647" s="0"/>
-      <c r="L647" s="0"/>
+      <c r="L647" s="1"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="0" t="s">
+      <c r="A648" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B648" s="0" t="s">
+      <c r="B648" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="C648" s="0" t="s">
+      <c r="C648" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D648" s="0" t="s">
+      <c r="D648" s="1" t="s">
         <v>4017</v>
       </c>
-      <c r="E648" s="0" t="s">
+      <c r="E648" s="1" t="s">
         <v>4018</v>
       </c>
-      <c r="F648" s="0" t="s">
+      <c r="F648" s="1" t="s">
         <v>4019</v>
       </c>
-      <c r="G648" s="0" t="s">
+      <c r="G648" s="1" t="s">
         <v>4020</v>
       </c>
-      <c r="H648" s="0" t="s">
+      <c r="H648" s="1" t="s">
         <v>4021</v>
       </c>
-      <c r="I648" s="0" t="s">
+      <c r="I648" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J648" s="0" t="s">
+      <c r="J648" s="1" t="s">
         <v>4022</v>
       </c>
-      <c r="K648" s="0"/>
-      <c r="L648" s="0"/>
+      <c r="L648" s="1"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+      <c r="A649" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B649" s="0" t="s">
+      <c r="B649" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="C649" s="0" t="s">
+      <c r="C649" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="D649" s="0" t="s">
+      <c r="D649" s="1" t="s">
         <v>4023</v>
       </c>
-      <c r="E649" s="0" t="s">
+      <c r="E649" s="1" t="s">
         <v>4024</v>
       </c>
-      <c r="F649" s="0" t="s">
+      <c r="F649" s="1" t="s">
         <v>4025</v>
       </c>
-      <c r="G649" s="0" t="s">
+      <c r="G649" s="1" t="s">
         <v>4026</v>
       </c>
-      <c r="H649" s="0" t="s">
+      <c r="H649" s="1" t="s">
         <v>4027</v>
       </c>
-      <c r="I649" s="0" t="s">
+      <c r="I649" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J649" s="0" t="s">
+      <c r="J649" s="1" t="s">
         <v>4028</v>
       </c>
-      <c r="K649" s="0"/>
-      <c r="L649" s="0"/>
+      <c r="L649" s="1"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
@@ -33924,8 +36578,7 @@
       <c r="J650" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="K650" s="0"/>
-      <c r="L650" s="0"/>
+      <c r="L650" s="1"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
@@ -33958,8 +36611,7 @@
       <c r="J651" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="K651" s="0"/>
-      <c r="L651" s="0"/>
+      <c r="L651" s="1"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
@@ -33992,8 +36644,7 @@
       <c r="J652" s="1" t="s">
         <v>3702</v>
       </c>
-      <c r="K652" s="0"/>
-      <c r="L652" s="0"/>
+      <c r="L652" s="1"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
@@ -34026,8 +36677,7 @@
       <c r="J653" s="1" t="s">
         <v>3709</v>
       </c>
-      <c r="K653" s="0"/>
-      <c r="L653" s="0"/>
+      <c r="L653" s="1"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
@@ -34060,8 +36710,7 @@
       <c r="J654" s="1" t="s">
         <v>3716</v>
       </c>
-      <c r="K654" s="0"/>
-      <c r="L654" s="0"/>
+      <c r="L654" s="1"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
@@ -34094,8 +36743,7 @@
       <c r="J655" s="1" t="s">
         <v>3723</v>
       </c>
-      <c r="K655" s="0"/>
-      <c r="L655" s="0"/>
+      <c r="L655" s="1"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
@@ -34128,8 +36776,7 @@
       <c r="J656" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="K656" s="0"/>
-      <c r="L656" s="0"/>
+      <c r="L656" s="1"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
@@ -34162,8 +36809,7 @@
       <c r="J657" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="K657" s="0"/>
-      <c r="L657" s="0"/>
+      <c r="L657" s="1"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
@@ -34196,8 +36842,7 @@
       <c r="J658" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="K658" s="0"/>
-      <c r="L658" s="0"/>
+      <c r="L658" s="1"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
@@ -34230,8 +36875,7 @@
       <c r="J659" s="1" t="s">
         <v>3749</v>
       </c>
-      <c r="K659" s="0"/>
-      <c r="L659" s="0"/>
+      <c r="L659" s="1"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
@@ -34264,8 +36908,4737 @@
       <c r="J660" s="1" t="s">
         <v>3756</v>
       </c>
-      <c r="K660" s="0"/>
-      <c r="L660" s="0"/>
+      <c r="L660" s="1"/>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J661" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="L661" s="1"/>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J662" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="L662" s="1"/>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J663" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="L663" s="1"/>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J664" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="L664" s="1"/>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J665" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="L665" s="1"/>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J666" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="L666" s="1"/>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J667" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="L667" s="1"/>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J668" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="L668" s="1"/>
+    </row>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J669" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="L669" s="1"/>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J670" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="L670" s="1"/>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J671" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="L671" s="1"/>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="L672" s="1"/>
+    </row>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="L673" s="1"/>
+    </row>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>4111</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J674" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="L674" s="1"/>
+    </row>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>4117</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>4120</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>4121</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J675" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="L675" s="1"/>
+    </row>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>4127</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J676" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="L676" s="1"/>
+    </row>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>4132</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>4133</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>4135</v>
+      </c>
+      <c r="L677" s="1"/>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>4137</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>4139</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>4140</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="L678" s="1"/>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>4145</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>4148</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="L679" s="1"/>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>4151</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="L680" s="1"/>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J681" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="L681" s="1"/>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>4166</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>4169</v>
+      </c>
+      <c r="L682" s="1"/>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>4175</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>4176</v>
+      </c>
+      <c r="L683" s="1"/>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>4181</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>4183</v>
+      </c>
+      <c r="L684" s="1"/>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>4186</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>4189</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>4190</v>
+      </c>
+      <c r="L685" s="1"/>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>4192</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>4195</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>4197</v>
+      </c>
+      <c r="L686" s="1"/>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>4199</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>4201</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>4202</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>4204</v>
+      </c>
+      <c r="L687" s="1"/>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>4207</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>4208</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>4209</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>4210</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>4211</v>
+      </c>
+      <c r="L688" s="1"/>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="L689" s="1"/>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>4225</v>
+      </c>
+      <c r="L690" s="1"/>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>4228</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J691" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="L691" s="1"/>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>4237</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="L692" s="1"/>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="H693" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J693" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="L693" s="1"/>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J694" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="L694" s="1"/>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J695" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="L695" s="1"/>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J696" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="L696" s="1"/>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J697" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="L697" s="1"/>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>4272</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>4273</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J698" s="1" t="s">
+        <v>4275</v>
+      </c>
+      <c r="L698" s="1"/>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>4279</v>
+      </c>
+      <c r="H699" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J699" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="L699" s="1"/>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J700" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="L700" s="1"/>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J701" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="L701" s="1"/>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J702" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="L702" s="1"/>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="L703" s="1"/>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J704" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="L704" s="1"/>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="H705" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J705" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="L705" s="1"/>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="H706" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J706" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="L706" s="1"/>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="H707" s="1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J707" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="L707" s="1"/>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J708" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="L708" s="1"/>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="H709" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J709" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="L709" s="1"/>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="H710" s="1" t="s">
+        <v>4346</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J710" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="L710" s="1"/>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J711" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="L711" s="1"/>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J712" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="L712" s="1"/>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>4363</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>4366</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J713" s="1" t="s">
+        <v>4367</v>
+      </c>
+      <c r="L713" s="1"/>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>4369</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>4371</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J714" s="1" t="s">
+        <v>4373</v>
+      </c>
+      <c r="L714" s="1"/>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>4375</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="L715" s="1"/>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="L716" s="1"/>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="L717" s="1"/>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="L718" s="1"/>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J719" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="L719" s="1"/>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="G720" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J720" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="L720" s="1"/>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="G721" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="H721" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="I721" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J721" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="L721" s="1"/>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="H722" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J722" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="L722" s="1"/>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="L723" s="1"/>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="G724" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="H724" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="I724" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J724" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="L724" s="1"/>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="G725" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="H725" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J725" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="L725" s="1"/>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="G726" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="H726" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="I726" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J726" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="L726" s="1"/>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="G727" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="H727" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="I727" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J727" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="L727" s="1"/>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="G728" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="H728" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="I728" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J728" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="L728" s="1"/>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="G729" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="H729" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="I729" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J729" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="L729" s="1"/>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="G730" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="H730" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="I730" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J730" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="L730" s="1"/>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>4474</v>
+      </c>
+      <c r="G731" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="H731" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="I731" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J731" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="L731" s="1"/>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="G732" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="H732" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="I732" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J732" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="L732" s="1"/>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="H733" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="I733" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J733" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="L733" s="1"/>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="G734" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="H734" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="I734" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J734" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="L734" s="1"/>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="G735" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="H735" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="I735" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J735" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="L735" s="1"/>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="G736" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="H736" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="I736" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J736" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="L736" s="1"/>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="G737" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="H737" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="I737" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J737" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="L737" s="1"/>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="G738" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="H738" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="I738" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J738" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="L738" s="1"/>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="G739" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="H739" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="I739" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J739" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="L739" s="1"/>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="G740" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="H740" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="I740" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J740" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="L740" s="1"/>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G741" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="H741" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="I741" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J741" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="L741" s="1"/>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="G742" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="H742" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="I742" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J742" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="L742" s="1"/>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G743" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="H743" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="I743" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J743" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="L743" s="1"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="G744" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="H744" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="I744" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J744" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="L744" s="1"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="G745" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="H745" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="I745" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J745" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="L745" s="1"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H746" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="I746" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J746" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="L746" s="1"/>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>4570</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="H747" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="I747" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J747" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="L747" s="1"/>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="H748" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="I748" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J748" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="L748" s="1"/>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="H749" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="I749" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J749" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="L749" s="1"/>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="H750" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J750" s="1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="L750" s="1"/>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="H751" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="I751" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J751" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="L751" s="1"/>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="G752" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="H752" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="I752" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J752" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="L752" s="1"/>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="G753" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="H753" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="I753" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J753" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="L753" s="1"/>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="G754" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="H754" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="I754" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J754" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="L754" s="1"/>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="G755" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="H755" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="I755" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J755" s="1" t="s">
+        <v>4627</v>
+      </c>
+      <c r="L755" s="1"/>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="G756" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="H756" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="I756" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J756" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="L756" s="1"/>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="G757" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="H757" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="I757" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J757" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="L757" s="1"/>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G758" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="H758" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="I758" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J758" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="L758" s="1"/>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="G759" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="H759" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="I759" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J759" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="L759" s="1"/>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="G760" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="H760" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="I760" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J760" s="1" t="s">
+        <v>4657</v>
+      </c>
+      <c r="L760" s="1"/>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>4660</v>
+      </c>
+      <c r="G761" s="1" t="s">
+        <v>4661</v>
+      </c>
+      <c r="H761" s="1" t="s">
+        <v>4662</v>
+      </c>
+      <c r="I761" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J761" s="1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="L761" s="1"/>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="G762" s="1" t="s">
+        <v>4667</v>
+      </c>
+      <c r="H762" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="I762" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J762" s="1" t="s">
+        <v>4669</v>
+      </c>
+      <c r="L762" s="1"/>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="G763" s="1" t="s">
+        <v>4673</v>
+      </c>
+      <c r="H763" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="I763" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J763" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="L763" s="1"/>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>4678</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>4679</v>
+      </c>
+      <c r="G764" s="1" t="s">
+        <v>4680</v>
+      </c>
+      <c r="H764" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="I764" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J764" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="L764" s="1"/>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>4683</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>4684</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="G765" s="1" t="s">
+        <v>4686</v>
+      </c>
+      <c r="H765" s="1" t="s">
+        <v>4687</v>
+      </c>
+      <c r="I765" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J765" s="1" t="s">
+        <v>4688</v>
+      </c>
+      <c r="L765" s="1"/>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="G766" s="1" t="s">
+        <v>4692</v>
+      </c>
+      <c r="H766" s="1" t="s">
+        <v>4693</v>
+      </c>
+      <c r="I766" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J766" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="L766" s="1"/>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>4697</v>
+      </c>
+      <c r="G767" s="1" t="s">
+        <v>4698</v>
+      </c>
+      <c r="H767" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="I767" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J767" s="1" t="s">
+        <v>4700</v>
+      </c>
+      <c r="L767" s="1"/>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>4702</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>4703</v>
+      </c>
+      <c r="G768" s="1" t="s">
+        <v>4704</v>
+      </c>
+      <c r="H768" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="I768" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J768" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="L768" s="1"/>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>4709</v>
+      </c>
+      <c r="G769" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="H769" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="I769" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J769" s="1" t="s">
+        <v>4712</v>
+      </c>
+      <c r="L769" s="1"/>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>4715</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="G770" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="H770" s="1" t="s">
+        <v>4718</v>
+      </c>
+      <c r="I770" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J770" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="L770" s="1"/>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>4722</v>
+      </c>
+      <c r="G771" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="H771" s="1" t="s">
+        <v>4724</v>
+      </c>
+      <c r="I771" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J771" s="1" t="s">
+        <v>4725</v>
+      </c>
+      <c r="L771" s="1"/>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="G772" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="H772" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="I772" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J772" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="L772" s="1"/>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>4733</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>4734</v>
+      </c>
+      <c r="G773" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="H773" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="I773" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J773" s="1" t="s">
+        <v>4737</v>
+      </c>
+      <c r="L773" s="1"/>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>4739</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="G774" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="H774" s="1" t="s">
+        <v>4742</v>
+      </c>
+      <c r="I774" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J774" s="1" t="s">
+        <v>4743</v>
+      </c>
+      <c r="L774" s="1"/>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>4745</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="G775" s="1" t="s">
+        <v>4747</v>
+      </c>
+      <c r="H775" s="1" t="s">
+        <v>4748</v>
+      </c>
+      <c r="I775" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J775" s="1" t="s">
+        <v>4749</v>
+      </c>
+      <c r="L775" s="1"/>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>4751</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>4752</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>4753</v>
+      </c>
+      <c r="G776" s="1" t="s">
+        <v>4754</v>
+      </c>
+      <c r="H776" s="1" t="s">
+        <v>4755</v>
+      </c>
+      <c r="I776" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J776" s="1" t="s">
+        <v>4756</v>
+      </c>
+      <c r="L776" s="1"/>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>4757</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>4759</v>
+      </c>
+      <c r="G777" s="1" t="s">
+        <v>4760</v>
+      </c>
+      <c r="H777" s="1" t="s">
+        <v>4761</v>
+      </c>
+      <c r="I777" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J777" s="1" t="s">
+        <v>4762</v>
+      </c>
+      <c r="L777" s="1"/>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>4763</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>4764</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="G778" s="1" t="s">
+        <v>4766</v>
+      </c>
+      <c r="H778" s="1" t="s">
+        <v>4767</v>
+      </c>
+      <c r="I778" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J778" s="1" t="s">
+        <v>4768</v>
+      </c>
+      <c r="L778" s="1"/>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>4771</v>
+      </c>
+      <c r="G779" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="H779" s="1" t="s">
+        <v>4772</v>
+      </c>
+      <c r="I779" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J779" s="1" t="s">
+        <v>4773</v>
+      </c>
+      <c r="L779" s="1"/>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>4775</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>4776</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>4777</v>
+      </c>
+      <c r="G780" s="1" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H780" s="1" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I780" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J780" s="1" t="s">
+        <v>4780</v>
+      </c>
+      <c r="L780" s="1"/>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>4783</v>
+      </c>
+      <c r="G781" s="1" t="s">
+        <v>4784</v>
+      </c>
+      <c r="H781" s="1" t="s">
+        <v>4785</v>
+      </c>
+      <c r="I781" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J781" s="1" t="s">
+        <v>4786</v>
+      </c>
+      <c r="L781" s="1"/>
+    </row>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>4788</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>4789</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>4790</v>
+      </c>
+      <c r="G782" s="1" t="s">
+        <v>4791</v>
+      </c>
+      <c r="H782" s="1" t="s">
+        <v>4792</v>
+      </c>
+      <c r="I782" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J782" s="1" t="s">
+        <v>4793</v>
+      </c>
+      <c r="L782" s="1"/>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>4794</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>4795</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>4796</v>
+      </c>
+      <c r="G783" s="1" t="s">
+        <v>4797</v>
+      </c>
+      <c r="H783" s="1" t="s">
+        <v>4798</v>
+      </c>
+      <c r="I783" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J783" s="1" t="s">
+        <v>4799</v>
+      </c>
+      <c r="L783" s="1"/>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>4802</v>
+      </c>
+      <c r="G784" s="1" t="s">
+        <v>4803</v>
+      </c>
+      <c r="H784" s="1" t="s">
+        <v>4804</v>
+      </c>
+      <c r="I784" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J784" s="1" t="s">
+        <v>4805</v>
+      </c>
+      <c r="L784" s="1"/>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>4806</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>4808</v>
+      </c>
+      <c r="G785" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="H785" s="1" t="s">
+        <v>4809</v>
+      </c>
+      <c r="I785" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J785" s="1" t="s">
+        <v>4810</v>
+      </c>
+      <c r="L785" s="1"/>
+    </row>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>4813</v>
+      </c>
+      <c r="G786" s="1" t="s">
+        <v>4814</v>
+      </c>
+      <c r="H786" s="1" t="s">
+        <v>4815</v>
+      </c>
+      <c r="I786" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J786" s="1" t="s">
+        <v>4816</v>
+      </c>
+      <c r="L786" s="1"/>
+    </row>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>4819</v>
+      </c>
+      <c r="G787" s="1" t="s">
+        <v>4820</v>
+      </c>
+      <c r="H787" s="1" t="s">
+        <v>4821</v>
+      </c>
+      <c r="I787" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J787" s="1" t="s">
+        <v>4822</v>
+      </c>
+      <c r="L787" s="1"/>
+    </row>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>4823</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>4824</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G788" s="1" t="s">
+        <v>4826</v>
+      </c>
+      <c r="H788" s="1" t="s">
+        <v>4827</v>
+      </c>
+      <c r="I788" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J788" s="1" t="s">
+        <v>4828</v>
+      </c>
+      <c r="L788" s="1"/>
+    </row>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>4829</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>4830</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>4831</v>
+      </c>
+      <c r="G789" s="1" t="s">
+        <v>4832</v>
+      </c>
+      <c r="H789" s="1" t="s">
+        <v>4833</v>
+      </c>
+      <c r="I789" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J789" s="1" t="s">
+        <v>4834</v>
+      </c>
+      <c r="L789" s="1"/>
+    </row>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>4837</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>4838</v>
+      </c>
+      <c r="G790" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="H790" s="1" t="s">
+        <v>4840</v>
+      </c>
+      <c r="I790" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J790" s="1" t="s">
+        <v>4841</v>
+      </c>
+      <c r="L790" s="1"/>
+    </row>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>4843</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>4845</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>4846</v>
+      </c>
+      <c r="G791" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="H791" s="1" t="s">
+        <v>4848</v>
+      </c>
+      <c r="I791" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J791" s="1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="L791" s="1"/>
+    </row>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>4843</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>4850</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>4851</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>4852</v>
+      </c>
+      <c r="G792" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="H792" s="1" t="s">
+        <v>4853</v>
+      </c>
+      <c r="I792" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J792" s="1" t="s">
+        <v>4854</v>
+      </c>
+      <c r="L792" s="1"/>
+    </row>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C793" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D793" s="0" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>4858</v>
+      </c>
+      <c r="F793" s="0" t="s">
+        <v>4859</v>
+      </c>
+      <c r="G793" s="0" t="s">
+        <v>4860</v>
+      </c>
+      <c r="H793" s="0" t="s">
+        <v>4861</v>
+      </c>
+      <c r="I793" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J793" s="0" t="s">
+        <v>4862</v>
+      </c>
+      <c r="K793" s="0"/>
+      <c r="L793" s="0"/>
+    </row>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B794" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C794" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D794" s="0" t="s">
+        <v>4863</v>
+      </c>
+      <c r="E794" s="0" t="s">
+        <v>4864</v>
+      </c>
+      <c r="F794" s="0" t="s">
+        <v>4865</v>
+      </c>
+      <c r="G794" s="0" t="s">
+        <v>4866</v>
+      </c>
+      <c r="H794" s="0" t="s">
+        <v>4867</v>
+      </c>
+      <c r="I794" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J794" s="0" t="s">
+        <v>4868</v>
+      </c>
+      <c r="K794" s="0"/>
+      <c r="L794" s="0"/>
+    </row>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B795" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C795" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D795" s="0" t="s">
+        <v>4869</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>4870</v>
+      </c>
+      <c r="F795" s="0" t="s">
+        <v>4871</v>
+      </c>
+      <c r="G795" s="0" t="s">
+        <v>4872</v>
+      </c>
+      <c r="H795" s="0" t="s">
+        <v>4851</v>
+      </c>
+      <c r="I795" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J795" s="0" t="s">
+        <v>4873</v>
+      </c>
+      <c r="K795" s="0"/>
+      <c r="L795" s="0"/>
+    </row>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B796" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C796" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D796" s="0" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E796" s="0" t="s">
+        <v>4875</v>
+      </c>
+      <c r="F796" s="0" t="s">
+        <v>4876</v>
+      </c>
+      <c r="G796" s="0" t="s">
+        <v>4877</v>
+      </c>
+      <c r="H796" s="0" t="s">
+        <v>4878</v>
+      </c>
+      <c r="I796" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J796" s="0" t="s">
+        <v>4879</v>
+      </c>
+      <c r="K796" s="0"/>
+      <c r="L796" s="0"/>
+    </row>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B797" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C797" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D797" s="0" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F797" s="0" t="s">
+        <v>4882</v>
+      </c>
+      <c r="G797" s="0" t="s">
+        <v>4883</v>
+      </c>
+      <c r="H797" s="0" t="s">
+        <v>4884</v>
+      </c>
+      <c r="I797" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J797" s="0" t="s">
+        <v>4885</v>
+      </c>
+      <c r="K797" s="0"/>
+      <c r="L797" s="0"/>
+    </row>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B798" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C798" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D798" s="0" t="s">
+        <v>4886</v>
+      </c>
+      <c r="E798" s="0" t="s">
+        <v>4887</v>
+      </c>
+      <c r="F798" s="0" t="s">
+        <v>4888</v>
+      </c>
+      <c r="G798" s="0" t="s">
+        <v>4889</v>
+      </c>
+      <c r="H798" s="0" t="s">
+        <v>4890</v>
+      </c>
+      <c r="I798" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J798" s="0" t="s">
+        <v>4891</v>
+      </c>
+      <c r="K798" s="0"/>
+      <c r="L798" s="0"/>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B799" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D799" s="0" t="s">
+        <v>4892</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>4893</v>
+      </c>
+      <c r="F799" s="0" t="s">
+        <v>4894</v>
+      </c>
+      <c r="G799" s="0" t="s">
+        <v>4895</v>
+      </c>
+      <c r="H799" s="0" t="s">
+        <v>4896</v>
+      </c>
+      <c r="I799" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J799" s="0" t="s">
+        <v>4897</v>
+      </c>
+      <c r="K799" s="0"/>
+      <c r="L799" s="0"/>
+    </row>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B800" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C800" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D800" s="0" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>4899</v>
+      </c>
+      <c r="F800" s="0" t="s">
+        <v>4900</v>
+      </c>
+      <c r="G800" s="0" t="s">
+        <v>4901</v>
+      </c>
+      <c r="H800" s="0" t="s">
+        <v>4902</v>
+      </c>
+      <c r="I800" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J800" s="0" t="s">
+        <v>4903</v>
+      </c>
+      <c r="K800" s="0"/>
+      <c r="L800" s="0"/>
+    </row>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B801" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C801" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D801" s="0" t="s">
+        <v>4904</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>4905</v>
+      </c>
+      <c r="F801" s="0" t="s">
+        <v>4906</v>
+      </c>
+      <c r="G801" s="0" t="s">
+        <v>4907</v>
+      </c>
+      <c r="H801" s="0" t="s">
+        <v>4908</v>
+      </c>
+      <c r="I801" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J801" s="0" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K801" s="0"/>
+      <c r="L801" s="0"/>
+    </row>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B802" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D802" s="0" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>4911</v>
+      </c>
+      <c r="F802" s="0" t="s">
+        <v>4912</v>
+      </c>
+      <c r="G802" s="0" t="s">
+        <v>4913</v>
+      </c>
+      <c r="H802" s="0" t="s">
+        <v>4914</v>
+      </c>
+      <c r="I802" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J802" s="0" t="s">
+        <v>4915</v>
+      </c>
+      <c r="K802" s="0"/>
+      <c r="L802" s="0"/>
+    </row>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B803" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C803" s="0" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D803" s="0" t="s">
+        <v>4916</v>
+      </c>
+      <c r="E803" s="0" t="s">
+        <v>4917</v>
+      </c>
+      <c r="F803" s="0" t="s">
+        <v>4918</v>
+      </c>
+      <c r="G803" s="0" t="s">
+        <v>4919</v>
+      </c>
+      <c r="H803" s="0" t="s">
+        <v>4920</v>
+      </c>
+      <c r="I803" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J803" s="0" t="s">
+        <v>4921</v>
+      </c>
+      <c r="K803" s="0"/>
+      <c r="L803" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="4922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="4979">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -14789,6 +14789,177 @@
   </si>
   <si>
     <t xml:space="preserve">De acordo com o **art. 32**, para cada Plano Nacional de Mobilização será elaborado, simultaneamente, o correspondente Plano Nacional de Desmobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 - Planejamento da Mobilização Marítima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do planejamento da Mobilização Marítima, como são tratadas as necessidades identificadas nas Listas de Necessidades (LN) que não podem ser atendidas pela Logística das Forças Singulares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São descartadas imediatamente, pois a Mobilização trata apenas de recursos financeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornam-se objeto de estudo da Mobilização, passando a ser consideradas como Carências Logísticas que integrarão a Lista de Carências (LC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São transferidas automaticamente para a Lista de Necessidades Atendidas (LNA) para aquisição futura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São devolvidas ao Estado-Maior Conjunto das Forças Armadas (EMCFA) para revisão estratégica sem compor novas listas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.1**, as necessidades não atendidas pela Logística tornam-se objeto de estudo da Mobilização, consideradas Carências Logísticas que integrarão a Lista de Carências (LC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnicamente, em que momento se inicia o planejamento da Mobilização no âmbito militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneamente ao início do planejamento da Operação Conjunta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas quando decretada a Mobilização Nacional pelo Presidente da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após o término do planejamento da Operação Conjunta ou de qualquer outro exercício militar referente a uma Hipótese de Emprego (HE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase de execução da operação militar, quando os recursos logísticos se esgotam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.2**, o planejamento da Mobilização se inicia após o término do planejamento da Operação Conjunta ou de exercício militar referente a uma HE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a fase inicial do planejamento da Mobilização Marítima, qual é uma restrição importante quanto à incorporação de ações logísticas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização deve assumir imediatamente a manutenção dos níveis de estoque de material de toda a Força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não é possível incorporar ou transferir ações de caráter eminentemente logístico para a responsabilidade da Mobilização, como a manutenção adequada dos níveis de estoque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mobilização deve focar exclusivamente na obtenção de recursos humanos, deixando os materiais para a logística convencional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas as ações logísticas, sem exceção, são transferidas para a responsabilidade do Sistema de Mobilização Marítima (SIMOMAR).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 4.2, alínea 'b' (na pág. 45)**, não é possível incorporar ou transferir ações de caráter eminentemente logístico, como a manutenção de estoques, para a Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual Lista de Necessidades é elaborada pelo nível estratégico durante a confecção do Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Necessidades Complementar (LNC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.3.1**, a Lista de Necessidades Inicial (LNI) é elaborada pelo nível estratégico durante a confecção do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual característica distingue a Lista de Necessidades Suplementar (LNS), elaborada no nível tático?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela é restrita apenas aos recursos financeiros disponíveis no orçamento anual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela inclui necessidades oriundas de OM de pequeno escalão e não possui restrições de quantidade ou recursos, focando no cumprimento da missão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela consolida todas as listas anteriores e é elaborada exclusivamente pelo Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela reflete apenas as necessidades de deslocamento estratégico, ignorando o apoio de fogo e logística de saúde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.3.3**, na LNS não há restrição, todos os recursos podem ser relacionados na quantidade necessária, incluindo necessidades de OM de pequeno escalão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é responsável por analisar e consolidar as Listas de Necessidades Finais (LNF) e as Listas de Necessidades de Deslocamento Estratégico (LNDE) para gerar a Lista de Necessidades de Planejamento (LNP)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Comandos dos Distritos Navais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado-Maior Conjunto das Forças Armadas (EMCFA), em conjunto com representantes das Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Secretaria de Produtos de Defesa (SEPROD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.3.6**, o EMCFA, em conjunto com representantes dos Estados-Maiores das Forças Singulares, analisará e consolidará as listas, resultando na LNP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como devem ser tratadas as novas necessidades que surgem durante a fase de análise e confronto de disponibilidade realizada pelos Órgãos de Direção Setorial (ODS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser ignoradas para não atrasar o planejamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem iniciar um novo processo de planejamento do zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem receber o mesmo tratamento das demais, com numeração igual à original seguida de uma letra (ex: MB-28A).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser encaminhadas diretamente ao Ministério da Defesa sem passar pelo ODS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.4**, as novas necessidades devem ter o mesmo tratamento, recebendo numeração igual à original seguida de uma letra (sequência alfabética).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao elaborar sugestões de ações para a Fase de Preparo da Mobilização, por que é vantajoso indicar Produtos Estratégicos de Defesa (PED) de "uso dual"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque são produtos exclusivos para uso militar e garantem sigilo absoluto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque são mais baratos, embora tenham qualidade inferior aos produtos civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque atendem a um mercado maior que o militar, oferecendo melhores condições de produção duradoura e mantendo a indústria civil preparada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque sua produção independe da Base Industrial de Defesa (BID).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 4.5, alínea 'b' (na pág. 50)**, produtos de uso dual são vantajosos pois atendem a um mercado maior e mantêm a indústria civil preparada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das alternativas abaixo apresenta uma medida que pode ser contemplada nas sugestões de soluções para a Fase de Execução da Mobilização, conforme previsto na Lei nº 11.631/2007?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dissolução imediata do Congresso Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intervenção nos fatores de produção públicos e privados e a requisição de bens e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A privatização de todas as empresas estatais de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A suspensão total de todos os direitos constitucionais dos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.5 (lista de medidas na pág. 51)**, as sugestões podem contemplar a intervenção nos fatores de produção e a requisição de bens e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que assegura a "realimentação do Sistema" de Mobilização Marítima, permitindo que os planos acompanhem as transformações do ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rigidez dos planos que impede qualquer alteração após sua aprovação inicial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A realização de revisões periódicas, exercícios conjuntos e jogos de guerra voltados para a Mobilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A extinção das listas de carências após o primeiro ano de vigência do plano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A centralização de todas as decisões no Ministério da Economia, sem consulta às Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.6**, a realimentação é assegurada por revisões periódicas, exercícios conjuntos e jogos de guerra, permitindo um planejamento cíclico.</t>
   </si>
 </sst>
 </file>
@@ -15129,10 +15300,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L803"/>
+  <dimension ref="A1:L813"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A778" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A791" activeCellId="0" sqref="A791"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A771" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A804" activeCellId="0" sqref="804:813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41267,378 +41438,707 @@
       <c r="L792" s="1"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="0" t="s">
+      <c r="A793" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B793" s="0" t="s">
+      <c r="B793" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C793" s="0" t="s">
+      <c r="C793" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D793" s="0" t="s">
+      <c r="D793" s="1" t="s">
         <v>4857</v>
       </c>
-      <c r="E793" s="0" t="s">
+      <c r="E793" s="1" t="s">
         <v>4858</v>
       </c>
-      <c r="F793" s="0" t="s">
+      <c r="F793" s="1" t="s">
         <v>4859</v>
       </c>
-      <c r="G793" s="0" t="s">
+      <c r="G793" s="1" t="s">
         <v>4860</v>
       </c>
-      <c r="H793" s="0" t="s">
+      <c r="H793" s="1" t="s">
         <v>4861</v>
       </c>
-      <c r="I793" s="0" t="s">
+      <c r="I793" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J793" s="0" t="s">
+      <c r="J793" s="1" t="s">
         <v>4862</v>
       </c>
-      <c r="K793" s="0"/>
-      <c r="L793" s="0"/>
+      <c r="L793" s="1"/>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="0" t="s">
+      <c r="A794" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B794" s="0" t="s">
+      <c r="B794" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="C794" s="0" t="s">
+      <c r="C794" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D794" s="0" t="s">
+      <c r="D794" s="1" t="s">
         <v>4863</v>
       </c>
-      <c r="E794" s="0" t="s">
+      <c r="E794" s="1" t="s">
         <v>4864</v>
       </c>
-      <c r="F794" s="0" t="s">
+      <c r="F794" s="1" t="s">
         <v>4865</v>
       </c>
-      <c r="G794" s="0" t="s">
+      <c r="G794" s="1" t="s">
         <v>4866</v>
       </c>
-      <c r="H794" s="0" t="s">
+      <c r="H794" s="1" t="s">
         <v>4867</v>
       </c>
-      <c r="I794" s="0" t="s">
+      <c r="I794" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J794" s="0" t="s">
+      <c r="J794" s="1" t="s">
         <v>4868</v>
       </c>
-      <c r="K794" s="0"/>
-      <c r="L794" s="0"/>
+      <c r="L794" s="1"/>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="0" t="s">
+      <c r="A795" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B795" s="0" t="s">
+      <c r="B795" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C795" s="0" t="s">
+      <c r="C795" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D795" s="0" t="s">
+      <c r="D795" s="1" t="s">
         <v>4869</v>
       </c>
-      <c r="E795" s="0" t="s">
+      <c r="E795" s="1" t="s">
         <v>4870</v>
       </c>
-      <c r="F795" s="0" t="s">
+      <c r="F795" s="1" t="s">
         <v>4871</v>
       </c>
-      <c r="G795" s="0" t="s">
+      <c r="G795" s="1" t="s">
         <v>4872</v>
       </c>
-      <c r="H795" s="0" t="s">
+      <c r="H795" s="1" t="s">
         <v>4851</v>
       </c>
-      <c r="I795" s="0" t="s">
+      <c r="I795" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J795" s="0" t="s">
+      <c r="J795" s="1" t="s">
         <v>4873</v>
       </c>
-      <c r="K795" s="0"/>
-      <c r="L795" s="0"/>
+      <c r="L795" s="1"/>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="0" t="s">
+      <c r="A796" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B796" s="0" t="s">
+      <c r="B796" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C796" s="0" t="s">
+      <c r="C796" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D796" s="0" t="s">
+      <c r="D796" s="1" t="s">
         <v>4874</v>
       </c>
-      <c r="E796" s="0" t="s">
+      <c r="E796" s="1" t="s">
         <v>4875</v>
       </c>
-      <c r="F796" s="0" t="s">
+      <c r="F796" s="1" t="s">
         <v>4876</v>
       </c>
-      <c r="G796" s="0" t="s">
+      <c r="G796" s="1" t="s">
         <v>4877</v>
       </c>
-      <c r="H796" s="0" t="s">
+      <c r="H796" s="1" t="s">
         <v>4878</v>
       </c>
-      <c r="I796" s="0" t="s">
+      <c r="I796" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J796" s="0" t="s">
+      <c r="J796" s="1" t="s">
         <v>4879</v>
       </c>
-      <c r="K796" s="0"/>
-      <c r="L796" s="0"/>
+      <c r="L796" s="1"/>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="0" t="s">
+      <c r="A797" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B797" s="0" t="s">
+      <c r="B797" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C797" s="0" t="s">
+      <c r="C797" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D797" s="0" t="s">
+      <c r="D797" s="1" t="s">
         <v>4880</v>
       </c>
-      <c r="E797" s="0" t="s">
+      <c r="E797" s="1" t="s">
         <v>4881</v>
       </c>
-      <c r="F797" s="0" t="s">
+      <c r="F797" s="1" t="s">
         <v>4882</v>
       </c>
-      <c r="G797" s="0" t="s">
+      <c r="G797" s="1" t="s">
         <v>4883</v>
       </c>
-      <c r="H797" s="0" t="s">
+      <c r="H797" s="1" t="s">
         <v>4884</v>
       </c>
-      <c r="I797" s="0" t="s">
+      <c r="I797" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J797" s="0" t="s">
+      <c r="J797" s="1" t="s">
         <v>4885</v>
       </c>
-      <c r="K797" s="0"/>
-      <c r="L797" s="0"/>
+      <c r="L797" s="1"/>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="0" t="s">
+      <c r="A798" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B798" s="0" t="s">
+      <c r="B798" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C798" s="0" t="s">
+      <c r="C798" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D798" s="0" t="s">
+      <c r="D798" s="1" t="s">
         <v>4886</v>
       </c>
-      <c r="E798" s="0" t="s">
+      <c r="E798" s="1" t="s">
         <v>4887</v>
       </c>
-      <c r="F798" s="0" t="s">
+      <c r="F798" s="1" t="s">
         <v>4888</v>
       </c>
-      <c r="G798" s="0" t="s">
+      <c r="G798" s="1" t="s">
         <v>4889</v>
       </c>
-      <c r="H798" s="0" t="s">
+      <c r="H798" s="1" t="s">
         <v>4890</v>
       </c>
-      <c r="I798" s="0" t="s">
+      <c r="I798" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J798" s="0" t="s">
+      <c r="J798" s="1" t="s">
         <v>4891</v>
       </c>
-      <c r="K798" s="0"/>
-      <c r="L798" s="0"/>
+      <c r="L798" s="1"/>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="0" t="s">
+      <c r="A799" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B799" s="0" t="s">
+      <c r="B799" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C799" s="0" t="s">
+      <c r="C799" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D799" s="0" t="s">
+      <c r="D799" s="1" t="s">
         <v>4892</v>
       </c>
-      <c r="E799" s="0" t="s">
+      <c r="E799" s="1" t="s">
         <v>4893</v>
       </c>
-      <c r="F799" s="0" t="s">
+      <c r="F799" s="1" t="s">
         <v>4894</v>
       </c>
-      <c r="G799" s="0" t="s">
+      <c r="G799" s="1" t="s">
         <v>4895</v>
       </c>
-      <c r="H799" s="0" t="s">
+      <c r="H799" s="1" t="s">
         <v>4896</v>
       </c>
-      <c r="I799" s="0" t="s">
+      <c r="I799" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J799" s="0" t="s">
+      <c r="J799" s="1" t="s">
         <v>4897</v>
       </c>
-      <c r="K799" s="0"/>
-      <c r="L799" s="0"/>
+      <c r="L799" s="1"/>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="0" t="s">
+      <c r="A800" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B800" s="0" t="s">
+      <c r="B800" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C800" s="0" t="s">
+      <c r="C800" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D800" s="0" t="s">
+      <c r="D800" s="1" t="s">
         <v>4898</v>
       </c>
-      <c r="E800" s="0" t="s">
+      <c r="E800" s="1" t="s">
         <v>4899</v>
       </c>
-      <c r="F800" s="0" t="s">
+      <c r="F800" s="1" t="s">
         <v>4900</v>
       </c>
-      <c r="G800" s="0" t="s">
+      <c r="G800" s="1" t="s">
         <v>4901</v>
       </c>
-      <c r="H800" s="0" t="s">
+      <c r="H800" s="1" t="s">
         <v>4902</v>
       </c>
-      <c r="I800" s="0" t="s">
+      <c r="I800" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J800" s="0" t="s">
+      <c r="J800" s="1" t="s">
         <v>4903</v>
       </c>
-      <c r="K800" s="0"/>
-      <c r="L800" s="0"/>
+      <c r="L800" s="1"/>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="0" t="s">
+      <c r="A801" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B801" s="0" t="s">
+      <c r="B801" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="C801" s="0" t="s">
+      <c r="C801" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D801" s="0" t="s">
+      <c r="D801" s="1" t="s">
         <v>4904</v>
       </c>
-      <c r="E801" s="0" t="s">
+      <c r="E801" s="1" t="s">
         <v>4905</v>
       </c>
-      <c r="F801" s="0" t="s">
+      <c r="F801" s="1" t="s">
         <v>4906</v>
       </c>
-      <c r="G801" s="0" t="s">
+      <c r="G801" s="1" t="s">
         <v>4907</v>
       </c>
-      <c r="H801" s="0" t="s">
+      <c r="H801" s="1" t="s">
         <v>4908</v>
       </c>
-      <c r="I801" s="0" t="s">
+      <c r="I801" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J801" s="0" t="s">
+      <c r="J801" s="1" t="s">
         <v>4909</v>
       </c>
-      <c r="K801" s="0"/>
-      <c r="L801" s="0"/>
+      <c r="L801" s="1"/>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="0" t="s">
+      <c r="A802" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B802" s="0" t="s">
+      <c r="B802" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="C802" s="0" t="s">
+      <c r="C802" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D802" s="0" t="s">
+      <c r="D802" s="1" t="s">
         <v>4910</v>
       </c>
-      <c r="E802" s="0" t="s">
+      <c r="E802" s="1" t="s">
         <v>4911</v>
       </c>
-      <c r="F802" s="0" t="s">
+      <c r="F802" s="1" t="s">
         <v>4912</v>
       </c>
-      <c r="G802" s="0" t="s">
+      <c r="G802" s="1" t="s">
         <v>4913</v>
       </c>
-      <c r="H802" s="0" t="s">
+      <c r="H802" s="1" t="s">
         <v>4914</v>
       </c>
-      <c r="I802" s="0" t="s">
+      <c r="I802" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J802" s="0" t="s">
+      <c r="J802" s="1" t="s">
         <v>4915</v>
       </c>
-      <c r="K802" s="0"/>
-      <c r="L802" s="0"/>
+      <c r="L802" s="1"/>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="0" t="s">
+      <c r="A803" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B803" s="0" t="s">
+      <c r="B803" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="C803" s="0" t="s">
+      <c r="C803" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="D803" s="0" t="s">
+      <c r="D803" s="1" t="s">
         <v>4916</v>
       </c>
-      <c r="E803" s="0" t="s">
+      <c r="E803" s="1" t="s">
         <v>4917</v>
       </c>
-      <c r="F803" s="0" t="s">
+      <c r="F803" s="1" t="s">
         <v>4918</v>
       </c>
-      <c r="G803" s="0" t="s">
+      <c r="G803" s="1" t="s">
         <v>4919</v>
       </c>
-      <c r="H803" s="0" t="s">
+      <c r="H803" s="1" t="s">
         <v>4920</v>
       </c>
-      <c r="I803" s="0" t="s">
+      <c r="I803" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J803" s="0" t="s">
+      <c r="J803" s="1" t="s">
         <v>4921</v>
       </c>
-      <c r="K803" s="0"/>
-      <c r="L803" s="0"/>
+      <c r="L803" s="1"/>
+    </row>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B804" s="0" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C804" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D804" s="0" t="s">
+        <v>4923</v>
+      </c>
+      <c r="E804" s="0" t="s">
+        <v>4924</v>
+      </c>
+      <c r="F804" s="0" t="s">
+        <v>4925</v>
+      </c>
+      <c r="G804" s="0" t="s">
+        <v>4926</v>
+      </c>
+      <c r="H804" s="0" t="s">
+        <v>4927</v>
+      </c>
+      <c r="I804" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J804" s="0" t="s">
+        <v>4928</v>
+      </c>
+      <c r="K804" s="0"/>
+      <c r="L804" s="0"/>
+    </row>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B805" s="0" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C805" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D805" s="0" t="s">
+        <v>4929</v>
+      </c>
+      <c r="E805" s="0" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F805" s="0" t="s">
+        <v>4931</v>
+      </c>
+      <c r="G805" s="0" t="s">
+        <v>4932</v>
+      </c>
+      <c r="H805" s="0" t="s">
+        <v>4933</v>
+      </c>
+      <c r="I805" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J805" s="0" t="s">
+        <v>4934</v>
+      </c>
+      <c r="K805" s="0"/>
+      <c r="L805" s="0"/>
+    </row>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B806" s="0" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C806" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D806" s="0" t="s">
+        <v>4935</v>
+      </c>
+      <c r="E806" s="0" t="s">
+        <v>4936</v>
+      </c>
+      <c r="F806" s="0" t="s">
+        <v>4937</v>
+      </c>
+      <c r="G806" s="0" t="s">
+        <v>4938</v>
+      </c>
+      <c r="H806" s="0" t="s">
+        <v>4939</v>
+      </c>
+      <c r="I806" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J806" s="0" t="s">
+        <v>4940</v>
+      </c>
+      <c r="K806" s="0"/>
+      <c r="L806" s="0"/>
+    </row>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B807" s="0" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C807" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D807" s="0" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>4942</v>
+      </c>
+      <c r="F807" s="0" t="s">
+        <v>4808</v>
+      </c>
+      <c r="G807" s="0" t="s">
+        <v>4807</v>
+      </c>
+      <c r="H807" s="0" t="s">
+        <v>4655</v>
+      </c>
+      <c r="I807" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J807" s="0" t="s">
+        <v>4943</v>
+      </c>
+      <c r="K807" s="0"/>
+      <c r="L807" s="0"/>
+    </row>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>4944</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>4945</v>
+      </c>
+      <c r="F808" s="0" t="s">
+        <v>4946</v>
+      </c>
+      <c r="G808" s="0" t="s">
+        <v>4947</v>
+      </c>
+      <c r="H808" s="0" t="s">
+        <v>4948</v>
+      </c>
+      <c r="I808" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J808" s="0" t="s">
+        <v>4949</v>
+      </c>
+      <c r="K808" s="0"/>
+      <c r="L808" s="0"/>
+    </row>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B809" s="0" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D809" s="0" t="s">
+        <v>4950</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F809" s="0" t="s">
+        <v>4951</v>
+      </c>
+      <c r="G809" s="0" t="s">
+        <v>4952</v>
+      </c>
+      <c r="H809" s="0" t="s">
+        <v>4953</v>
+      </c>
+      <c r="I809" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J809" s="0" t="s">
+        <v>4954</v>
+      </c>
+      <c r="K809" s="0"/>
+      <c r="L809" s="0"/>
+    </row>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B810" s="0" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C810" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D810" s="0" t="s">
+        <v>4955</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>4956</v>
+      </c>
+      <c r="F810" s="0" t="s">
+        <v>4957</v>
+      </c>
+      <c r="G810" s="0" t="s">
+        <v>4958</v>
+      </c>
+      <c r="H810" s="0" t="s">
+        <v>4959</v>
+      </c>
+      <c r="I810" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J810" s="0" t="s">
+        <v>4960</v>
+      </c>
+      <c r="K810" s="0"/>
+      <c r="L810" s="0"/>
+    </row>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B811" s="0" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C811" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D811" s="0" t="s">
+        <v>4961</v>
+      </c>
+      <c r="E811" s="0" t="s">
+        <v>4962</v>
+      </c>
+      <c r="F811" s="0" t="s">
+        <v>4963</v>
+      </c>
+      <c r="G811" s="0" t="s">
+        <v>4964</v>
+      </c>
+      <c r="H811" s="0" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I811" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J811" s="0" t="s">
+        <v>4966</v>
+      </c>
+      <c r="K811" s="0"/>
+      <c r="L811" s="0"/>
+    </row>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B812" s="0" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D812" s="0" t="s">
+        <v>4967</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>4968</v>
+      </c>
+      <c r="F812" s="0" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G812" s="0" t="s">
+        <v>4970</v>
+      </c>
+      <c r="H812" s="0" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I812" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J812" s="0" t="s">
+        <v>4972</v>
+      </c>
+      <c r="K812" s="0"/>
+      <c r="L812" s="0"/>
+    </row>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B813" s="0" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D813" s="0" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E813" s="0" t="s">
+        <v>4974</v>
+      </c>
+      <c r="F813" s="0" t="s">
+        <v>4975</v>
+      </c>
+      <c r="G813" s="0" t="s">
+        <v>4976</v>
+      </c>
+      <c r="H813" s="0" t="s">
+        <v>4977</v>
+      </c>
+      <c r="I813" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J813" s="0" t="s">
+        <v>4978</v>
+      </c>
+      <c r="K813" s="0"/>
+      <c r="L813" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -14551,7 +14551,7 @@
     <t xml:space="preserve">Conforme a **fórmula na coluna C e a Obs 'a' do Anexo VI**, as carências são obtidas abatendo-se das necessidades as disponibilidades, projetos e outros (C=N-(D+P+O)).</t>
   </si>
   <si>
-    <t xml:space="preserve">Lei nº 11.631/2007 - Lei de Mobilização Nacional</t>
+    <t xml:space="preserve">Lei nº 11.631/2007</t>
   </si>
   <si>
     <t xml:space="preserve">Lei de Mobilização Nacional</t>
@@ -15009,12 +15009,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -15058,7 +15064,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15091,6 +15097,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15117,6 +15127,66 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -15302,8 +15372,8 @@
   </sheetPr>
   <dimension ref="A1:L813"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A771" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A804" activeCellId="0" sqref="804:813"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A765" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A791" activeCellId="0" sqref="A791:A792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41372,7 +41442,7 @@
       <c r="L790" s="1"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="8" t="s">
         <v>4842</v>
       </c>
       <c r="B791" s="1" t="s">
@@ -41405,7 +41475,7 @@
       <c r="L791" s="1"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="8" t="s">
         <v>4842</v>
       </c>
       <c r="B792" s="1" t="s">
@@ -41801,344 +41871,334 @@
       <c r="L803" s="1"/>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="0" t="s">
+      <c r="A804" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B804" s="0" t="s">
+      <c r="B804" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="C804" s="0" t="s">
+      <c r="C804" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D804" s="0" t="s">
+      <c r="D804" s="1" t="s">
         <v>4923</v>
       </c>
-      <c r="E804" s="0" t="s">
+      <c r="E804" s="1" t="s">
         <v>4924</v>
       </c>
-      <c r="F804" s="0" t="s">
+      <c r="F804" s="1" t="s">
         <v>4925</v>
       </c>
-      <c r="G804" s="0" t="s">
+      <c r="G804" s="1" t="s">
         <v>4926</v>
       </c>
-      <c r="H804" s="0" t="s">
+      <c r="H804" s="1" t="s">
         <v>4927</v>
       </c>
-      <c r="I804" s="0" t="s">
+      <c r="I804" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J804" s="0" t="s">
+      <c r="J804" s="1" t="s">
         <v>4928</v>
       </c>
-      <c r="K804" s="0"/>
-      <c r="L804" s="0"/>
+      <c r="L804" s="1"/>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="0" t="s">
+      <c r="A805" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B805" s="0" t="s">
+      <c r="B805" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="C805" s="0" t="s">
+      <c r="C805" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D805" s="0" t="s">
+      <c r="D805" s="1" t="s">
         <v>4929</v>
       </c>
-      <c r="E805" s="0" t="s">
+      <c r="E805" s="1" t="s">
         <v>4930</v>
       </c>
-      <c r="F805" s="0" t="s">
+      <c r="F805" s="1" t="s">
         <v>4931</v>
       </c>
-      <c r="G805" s="0" t="s">
+      <c r="G805" s="1" t="s">
         <v>4932</v>
       </c>
-      <c r="H805" s="0" t="s">
+      <c r="H805" s="1" t="s">
         <v>4933</v>
       </c>
-      <c r="I805" s="0" t="s">
+      <c r="I805" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J805" s="0" t="s">
+      <c r="J805" s="1" t="s">
         <v>4934</v>
       </c>
-      <c r="K805" s="0"/>
-      <c r="L805" s="0"/>
+      <c r="L805" s="1"/>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="0" t="s">
+      <c r="A806" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B806" s="0" t="s">
+      <c r="B806" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="C806" s="0" t="s">
+      <c r="C806" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D806" s="0" t="s">
+      <c r="D806" s="1" t="s">
         <v>4935</v>
       </c>
-      <c r="E806" s="0" t="s">
+      <c r="E806" s="1" t="s">
         <v>4936</v>
       </c>
-      <c r="F806" s="0" t="s">
+      <c r="F806" s="1" t="s">
         <v>4937</v>
       </c>
-      <c r="G806" s="0" t="s">
+      <c r="G806" s="1" t="s">
         <v>4938</v>
       </c>
-      <c r="H806" s="0" t="s">
+      <c r="H806" s="1" t="s">
         <v>4939</v>
       </c>
-      <c r="I806" s="0" t="s">
+      <c r="I806" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J806" s="0" t="s">
+      <c r="J806" s="1" t="s">
         <v>4940</v>
       </c>
-      <c r="K806" s="0"/>
-      <c r="L806" s="0"/>
+      <c r="L806" s="1"/>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="0" t="s">
+      <c r="A807" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B807" s="0" t="s">
+      <c r="B807" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="C807" s="0" t="s">
+      <c r="C807" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D807" s="0" t="s">
+      <c r="D807" s="1" t="s">
         <v>4941</v>
       </c>
-      <c r="E807" s="0" t="s">
+      <c r="E807" s="1" t="s">
         <v>4942</v>
       </c>
-      <c r="F807" s="0" t="s">
+      <c r="F807" s="1" t="s">
         <v>4808</v>
       </c>
-      <c r="G807" s="0" t="s">
+      <c r="G807" s="1" t="s">
         <v>4807</v>
       </c>
-      <c r="H807" s="0" t="s">
+      <c r="H807" s="1" t="s">
         <v>4655</v>
       </c>
-      <c r="I807" s="0" t="s">
+      <c r="I807" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J807" s="0" t="s">
+      <c r="J807" s="1" t="s">
         <v>4943</v>
       </c>
-      <c r="K807" s="0"/>
-      <c r="L807" s="0"/>
+      <c r="L807" s="1"/>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="0" t="s">
+      <c r="A808" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B808" s="0" t="s">
+      <c r="B808" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="C808" s="0" t="s">
+      <c r="C808" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D808" s="0" t="s">
+      <c r="D808" s="1" t="s">
         <v>4944</v>
       </c>
-      <c r="E808" s="0" t="s">
+      <c r="E808" s="1" t="s">
         <v>4945</v>
       </c>
-      <c r="F808" s="0" t="s">
+      <c r="F808" s="1" t="s">
         <v>4946</v>
       </c>
-      <c r="G808" s="0" t="s">
+      <c r="G808" s="1" t="s">
         <v>4947</v>
       </c>
-      <c r="H808" s="0" t="s">
+      <c r="H808" s="1" t="s">
         <v>4948</v>
       </c>
-      <c r="I808" s="0" t="s">
+      <c r="I808" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J808" s="0" t="s">
+      <c r="J808" s="1" t="s">
         <v>4949</v>
       </c>
-      <c r="K808" s="0"/>
-      <c r="L808" s="0"/>
+      <c r="L808" s="1"/>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="0" t="s">
+      <c r="A809" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B809" s="0" t="s">
+      <c r="B809" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="C809" s="0" t="s">
+      <c r="C809" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D809" s="0" t="s">
+      <c r="D809" s="1" t="s">
         <v>4950</v>
       </c>
-      <c r="E809" s="0" t="s">
+      <c r="E809" s="1" t="s">
         <v>3754</v>
       </c>
-      <c r="F809" s="0" t="s">
+      <c r="F809" s="1" t="s">
         <v>4951</v>
       </c>
-      <c r="G809" s="0" t="s">
+      <c r="G809" s="1" t="s">
         <v>4952</v>
       </c>
-      <c r="H809" s="0" t="s">
+      <c r="H809" s="1" t="s">
         <v>4953</v>
       </c>
-      <c r="I809" s="0" t="s">
+      <c r="I809" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J809" s="0" t="s">
+      <c r="J809" s="1" t="s">
         <v>4954</v>
       </c>
-      <c r="K809" s="0"/>
-      <c r="L809" s="0"/>
+      <c r="L809" s="1"/>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="0" t="s">
+      <c r="A810" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B810" s="0" t="s">
+      <c r="B810" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="C810" s="0" t="s">
+      <c r="C810" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D810" s="0" t="s">
+      <c r="D810" s="1" t="s">
         <v>4955</v>
       </c>
-      <c r="E810" s="0" t="s">
+      <c r="E810" s="1" t="s">
         <v>4956</v>
       </c>
-      <c r="F810" s="0" t="s">
+      <c r="F810" s="1" t="s">
         <v>4957</v>
       </c>
-      <c r="G810" s="0" t="s">
+      <c r="G810" s="1" t="s">
         <v>4958</v>
       </c>
-      <c r="H810" s="0" t="s">
+      <c r="H810" s="1" t="s">
         <v>4959</v>
       </c>
-      <c r="I810" s="0" t="s">
+      <c r="I810" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J810" s="0" t="s">
+      <c r="J810" s="1" t="s">
         <v>4960</v>
       </c>
-      <c r="K810" s="0"/>
-      <c r="L810" s="0"/>
+      <c r="L810" s="1"/>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="0" t="s">
+      <c r="A811" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B811" s="0" t="s">
+      <c r="B811" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="C811" s="0" t="s">
+      <c r="C811" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D811" s="0" t="s">
+      <c r="D811" s="1" t="s">
         <v>4961</v>
       </c>
-      <c r="E811" s="0" t="s">
+      <c r="E811" s="1" t="s">
         <v>4962</v>
       </c>
-      <c r="F811" s="0" t="s">
+      <c r="F811" s="1" t="s">
         <v>4963</v>
       </c>
-      <c r="G811" s="0" t="s">
+      <c r="G811" s="1" t="s">
         <v>4964</v>
       </c>
-      <c r="H811" s="0" t="s">
+      <c r="H811" s="1" t="s">
         <v>4965</v>
       </c>
-      <c r="I811" s="0" t="s">
+      <c r="I811" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J811" s="0" t="s">
+      <c r="J811" s="1" t="s">
         <v>4966</v>
       </c>
-      <c r="K811" s="0"/>
-      <c r="L811" s="0"/>
+      <c r="L811" s="1"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="0" t="s">
+      <c r="A812" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B812" s="0" t="s">
+      <c r="B812" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="C812" s="0" t="s">
+      <c r="C812" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D812" s="0" t="s">
+      <c r="D812" s="1" t="s">
         <v>4967</v>
       </c>
-      <c r="E812" s="0" t="s">
+      <c r="E812" s="1" t="s">
         <v>4968</v>
       </c>
-      <c r="F812" s="0" t="s">
+      <c r="F812" s="1" t="s">
         <v>4969</v>
       </c>
-      <c r="G812" s="0" t="s">
+      <c r="G812" s="1" t="s">
         <v>4970</v>
       </c>
-      <c r="H812" s="0" t="s">
+      <c r="H812" s="1" t="s">
         <v>4971</v>
       </c>
-      <c r="I812" s="0" t="s">
+      <c r="I812" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J812" s="0" t="s">
+      <c r="J812" s="1" t="s">
         <v>4972</v>
       </c>
-      <c r="K812" s="0"/>
-      <c r="L812" s="0"/>
+      <c r="L812" s="1"/>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="0" t="s">
+      <c r="A813" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B813" s="0" t="s">
+      <c r="B813" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="C813" s="0" t="s">
+      <c r="C813" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="D813" s="0" t="s">
+      <c r="D813" s="1" t="s">
         <v>4973</v>
       </c>
-      <c r="E813" s="0" t="s">
+      <c r="E813" s="1" t="s">
         <v>4974</v>
       </c>
-      <c r="F813" s="0" t="s">
+      <c r="F813" s="1" t="s">
         <v>4975</v>
       </c>
-      <c r="G813" s="0" t="s">
+      <c r="G813" s="1" t="s">
         <v>4976</v>
       </c>
-      <c r="H813" s="0" t="s">
+      <c r="H813" s="1" t="s">
         <v>4977</v>
       </c>
-      <c r="I813" s="0" t="s">
+      <c r="I813" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J813" s="0" t="s">
+      <c r="J813" s="1" t="s">
         <v>4978</v>
       </c>
-      <c r="K813" s="0"/>
-      <c r="L813" s="0"/>
+      <c r="L813" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="4979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="5314">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -14960,6 +14960,1011 @@
   </si>
   <si>
     <t xml:space="preserve">Nos termos do **item 4.6**, a realimentação é assegurada por revisões periódicas, exercícios conjuntos e jogos de guerra, permitindo um planejamento cíclico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 1º Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Política Nacional de Defesa (PND), como é definida a "crise" no contexto do preparo e emprego?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um estado de guerra declarada que exige a mobilização total dos recursos nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um conflito posicionado entre a paz e a guerra que exige uma administração para permitir uma evolução favorável aos interesses nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma situação de normalidade onde ocorrem pequenas tensões diplomáticas sem risco de agravamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O emprego imediato do Poder Militar explorando a plenitude de sua violência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.1.4**, a crise é um conflito posicionado entre a paz e a guerra que exige administração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza legalmente a "Situação de Não-Normalidade" descrita na doutrina de emprego das Forças Armadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A plena vigência das garantias individuais e a manutenção da ordem pública pelo Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A atuação de forças oponentes que não ameaçam a estabilidade institucional do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intervenção da União nos Estados, ou a decretação do estado de defesa ou do estado de sítio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A elaboração exclusiva do PEECFA por órgãos civis sem assessoramento militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.2.1.2**, a situação de não-normalidade caracteriza-se pela intervenção da União, estado de defesa ou sítio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a definição de "Conflito Armado" adotada no texto, diferenciando-o da guerra sob a perspectiva jurídica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurso utilizado por grupos politicamente organizados que empregam a violência armada para solucionar contenciosos ou impor sua vontade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação em que o Estado declara guerra formalmente a outra nação soberana, seguindo todos os protocolos da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de tensão diplomática sem o uso de violência física ou armamentos letais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação de garantia da lei e da ordem em situação de normalidade institucional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.2.2.2**, o conflito armado é o recurso de grupos politicamente organizados que usam violência armada para impor vontade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o conceito central da "Concepção de Emprego Conjunto" das Forças Armadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão estanque das responsabilidades de cada Força para evitar interferências mútuas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A visualização de como a interoperabilidade poderá ser alcançada para aplicar a expressão Militar do Poder Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A subordinação de todas as Forças Singulares ao Ministério da Justiça em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O emprego isolado de cada Força Singular para garantir a especialização tática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.3.2**, a concepção de emprego conjunto é a visualização de como a interoperabilidade poderá ser alcançada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Nível Operacional, como é tratada a atividade de inteligência durante o planejamento da campanha?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É centralizada exclusivamente na ABIN, sem participação das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É intensificada pela integração dos conhecimentos do SIOP, SINDE e SISBIN para suprir necessidades do exame de situação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É dispensada, uma vez que o Nível Estratégico já forneceu todos os dados necessários na DMED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foca apenas na atualização de dados administrativos das Zonas de Defesa, sem relação com o Teatro de Operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 2.6.2**, no Nível Operacional a inteligência é intensificada pela integração do SIOP, SINDE e SISBIN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre o planejamento no Nível Tático realizado pelas Forças Componentes, é correto afirmar que:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve aguardar a conclusão total e aprovação do plano operacional para ser iniciado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É de responsabilidade exclusiva do Ministro da Defesa e não dos Comandantes das Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode ocorrer de maneira paralela e simultânea ao planejamento do nível acima, dependendo da dinâmica dos fatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não permite ajustes no plano operacional, mesmo que os exames de situação táticos indiquem necessidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.7.3**, o planejamento tático pode ocorrer de maneira paralela e simultânea ao planejamento do nível acima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as competências do Ministro da Defesa (Min Def) no emprego conjunto, destaca-se:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir, em última instância, sobre a declaração de guerra sem consultar o Presidente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjudicar meios aos Comandos Operacionais, considerando as necessidades dos Comandantes e disponibilidades das Forças.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumir o comando tático das batalhas e engajamentos no terreno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar pessoalmente os Planos Táticos das Forças Componentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.8.2, alínea 'f'**, cabe ao Min Def adjudicar meios aos Comandos Operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é uma das atribuições específicas do Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornecer apoio logístico direto às unidades táticas no terreno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar o deslocamento e a concentração estratégica dos meios adjudicados pelas Forças Singulares por meio do CCLM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir sobre a ativação de Comandos Operacionais sem consultar o Ministro da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comandar diretamente as Forças Componentes no nível tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.8.5, alínea 'i'**, cabe ao CEMCFA coordenar o deslocamento e a concentração estratégica dos meios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem assessora a elaboração da minuta da Diretriz Presidencial de Emprego de Defesa (DPED)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gabinete de Segurança Institucional (GSI/PR), ouvido o Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Chefia de Logística (CHELOG) de forma isolada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Congresso Nacional, por meio de votação em plenário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Comandantes das Forças Componentes no nível tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.9.2.1**, a minuta da DPED é feita com assessoramento do GSI/PR, ouvido o MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual documento o Ministro da Defesa emite para determinar a confecção ou atualização do PEECFA em casos de crise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretriz de Planejamento Estratégico Militar (DPEM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretriz Ministerial de Emprego de Defesa (DMED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretriz Presidencial de Emprego de Defesa (DPED).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito Preliminar da Operação (CPO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 2.9.4**, cabe ao Ministro da Defesa emitir uma DMED para determinar a confecção/atualização do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza a Diretriz de Planejamento Estratégico Militar (DPEM)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um documento político emitido pelo Presidente da República para declarar guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um documento administrativo do CEMCFA, sem forma rígida, para orientar a elaboração do PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um plano tático detalhado para o emprego de frações de combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a ordem final de engajamento para as Forças Especiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 2.9.5.1**, a DPEM é um documento administrativo do CEMCFA, sem forma rígida, para orientar o PEECFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. III - Operações Conjuntas das Forças Armadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a doutrina apresentada, quais são os únicos Comandos Operacionais Conjuntos que possuem caráter permanente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando do Teatro de Operações (Cmdo TO) e Comando da Zona de Defesa (Cmdo ZD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando de Operações Aeroespaciais (COMAE) e Comando de Defesa Cibernética (ComDCiber).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado-Maior Conjunto (EMCFA) e Comando de Operações Navais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forças de Paz e Forças Expedicionárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.1.4**, o COMAE e o ComDCiber são os únicos Comandos Operacionais Conjuntos permanentes; os demais são temporários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é definida a "Zona de Defesa (ZD)" dentro do contexto das áreas de responsabilidade dos Comandos Operacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a área de combate principal onde ocorrem as operações de grande vulto e o apoio logístico pesado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um espaço geográfico fora do território nacional destinado a operações de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a parte do território nacional (Zona do Interior) onde um Comando planejará e coordenará ações de defesa territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a área de administração naval restrita às bases portuárias em tempo de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 3.3.5.1**, a Zona de Defesa é parte do território nacional (Zona do Interior) para ações de defesa territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que se entende por "Estado Final Desejado (EFD)" no planejamento das operações conjuntas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A destruição total da capacidade econômica do inimigo, independentemente dos objetivos políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação política ou militar a ser alcançada ao final das operações, indicando se o efeito desejado foi obtido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A assinatura formal de rendição incondicional por todas as forças oponentes no Teatro de Operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O momento exato em que a Força Aérea conquista a superioridade aérea total sobre o território inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 3.4.3**, o EFD é a situação política ou militar a ser alcançada ao final das operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à subordinação dos meios, qual é a distinção feita entre "Comando Operacional" e "Controle Operacional"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando Operacional refere-se a meios efetivamente adjudicados, enquanto Controle Operacional refere-se a meios para missões ou tarefas específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando Operacional aplica-se apenas a forças terrestres, enquanto Controle Operacional aplica-se a forças navais e aéreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há distinção doutrinária, sendo os termos intercambiáveis em operações conjuntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Operacional implica autoridade total administrativa e logística, enquanto Comando Operacional é restrito ao emprego tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 3.4.14**, meios sob Comando Operacional são efetivamente adjudicados, e sob Controle Operacional são para missões específicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. IV - Comando Operacional Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a estrutura do Comando Operacional, como é definida a "Força-Tarefa" (FT)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma força composta exclusivamente por elementos de uma única força singular para fins administrativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma força organizada com comando próprio, para cumprimento de missão específica, com objetivos e duração limitados no tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma estrutura permanente de comando que gerencia a logística nacional em tempos de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a força responsável exclusivamente pela defesa cibernética, sem meios adjudicados das forças singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.1.3.3**, a Força-Tarefa tem comando próprio, missão específica e duração limitada no tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que a organização por "Forças Conjuntas Componentes" deve ser priorizada, sempre que possível, em relação às Forças Singulares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque proporciona maior flexibilidade, distribuição balanceada de meios e aumenta a sinergia de emprego nas três dimensões da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque garante que cada comandante conheça profundamente os meios subordinados apenas nos aspectos administrativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque reduz a necessidade de coordenação, permitindo que cada Força atue isoladamente sem interferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque simplifica a cadeia de comando ao eliminar o Nível Operacional e reportar-se diretamente ao Nível Político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 4.1.5**, a organização conjunta proporciona flexibilidade, equilíbrio e sinergia nas três dimensões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre os aspectos que o Comando Operacional Conjunto deve observar, como é definida a "Flexibilidade"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação que visa ao entrosamento de diferentes setores para evitar duplicidade de ações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de agir de maneira descentralizada, mantendo as características de cada Força Componente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade de organizar os meios para atender às diferentes fases de um plano, face aos óbices reinantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observância estrita dos preceitos da doutrina de emprego singular de cada força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.2.3, alínea 'c'**, flexibilidade é a capacidade de organizar meios para atender a diferentes fases face aos óbices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a diretriz doutrinária a respeito do comando direto de meios ou forças militares pelo Comandante Operacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve comandar diretamente todos os meios táticos para garantir a unidade de comando absoluta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não possui autoridade para comandar meios, limitando-se apenas ao assessoramento político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A princípio, não deverá comandar diretamente, salvo em situações temporárias e excepcionais que representem vantagens operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve delegar todo o comando operacional ao Chefe do Estado-Maior Conjunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 4.3.4**, a princípio não deve comandar diretamente, salvo em situações excepcionais com vantagens operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das alternativas abaixo corresponde a uma atribuição específica do Comandante Logístico Componente (C Log Cte)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabelecer e disseminar as Regras de Engajamento no Nível Operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentar ao Comandante Operacional, para aprovação, a Lista de Necessidades Final (LNF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir sobre a ativação de Forças de Operações Especiais em território inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessorar diretamente o Ministro da Defesa sobre questões orçamentárias de longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 4.5.1, alínea 'e'**, compete ao C Log Cte apresentar a consolidação das listas na Lista de Necessidades Final (LNF).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. V - Estado-Maior Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao propor o Chefe do Estado-Maior Conjunto (EMCj) ao CEMCFA, qual critério principal o Comandante Operacional deve observar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A antiguidade absoluta entre todos os oficiais generais disponíveis no Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A predominância das operações no Teatro de Operações ou Área de Operações (TO/A Op).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O rodízio obrigatório entre as três Forças Singulares, independentemente da natureza da missão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A experiência prévia do oficial em missões de paz da ONU, exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.1.3**, o comandante deve atentar para a predominância das operações no TO/A Op ao propor o Chefe do EMCj.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o objetivo principal das reuniões formais realizadas no âmbito do Estado-Maior Conjunto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas repassar avisos administrativos gerais sem impacto nas operações táticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viabilizar a tomada de decisões que resultem em ações a serem executadas pelas Forças Componentes e que requeiram coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar adestramento físico dos oficiais do Estado-Maior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir a cadeia de comando formal por decisões colegiadas de consenso obrigatório.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 5.2.3**, o objetivo principal é viabilizar a tomada de decisões que resultem em ações que requeiram coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as atribuições do Chefe do EMCj, qual das opções abaixo descreve corretamente sua função em relação às reuniões formais do Comando Operacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presidir apenas as reuniões informais, delegando as formais aos Chefes de Seção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar as reuniões formais que têm por finalidade a aprovação da Ordem de Coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar a ata das reuniões sem participar das discussões decisórias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetar qualquer decisão tomada pelo Comandante Operacional durante as reuniões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 5.3.1, alínea 'e'**, compete ao Chefe do EMCj coordenar as reuniões formais para aprovação da Ordem de Coordenação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quem compete coordenar as atividades de meteorologia e oceanografia (METOC) entre os elementos dos demais Estados-Maiores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Pessoal (D-1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Inteligência (D-2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Logística (D-4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Comunicação Social (D-7).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.3.4, alínea 's'**, é atribuição do Chefe da Seção de Inteligência (D-2) coordenar as atividades de METOC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual Seção do EMCj é responsável por ativar a Subseção de Guerra Cibernética (SGC) em sua estrutura para coordenar o emprego dessa capacidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Inteligência (D-2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Operações (D-3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Comando e Controle (D-6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Operações de Informação (D-8).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 5.3.5, alínea 'o'**, o Chefe da Seção de Operações (D-3) deve ativar a Subseção de Guerra Cibernética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gerenciamento do Risco Operacional (GRO) é uma atribuição específica de qual chefe de seção do EMCj?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe da Seção de Planejamento (D-5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe da Seção de Operações (D-3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe da Seção de Inteligência (D-2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe da Seção de Assuntos Civis (D-9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.3.7, alínea 'l'**, realizar o Gerenciamento do Risco Operacional (GRO) é atribuição da Seção de Planejamento (D-5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quem compete planejar as atividades de Guerra Eletrônica, em coordenação com as demais seções do EMCj?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Operações (D-3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Comando e Controle (D-6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Chefe da Seção de Operações de Informação (D-8).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 5.3.8, alínea 'h'**, planejar as atividades de Guerra Eletrônica é atribuição do Chefe da Seção de Comando e Controle (D-6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual seção tem a atribuição de verificar os serviços públicos e infraestruturas críticas a serem preservados no TO/A Op?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Logística e Mobilização (D-4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Planejamento (D-5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Assuntos Civis (D-9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção de Administração Financeira (D-10).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 5.3.11, alínea 'e'**, verificar serviços públicos e infraestruturas críticas é atribuição da Seção de Assuntos Civis (D-9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que o EMCFA auxilia na estruturação inicial do EMCj de um Comando Operacional ativado em meio a uma crise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque os Comandantes Operacionais não possuem autoridade para estruturar seus Estados-Maiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devido à inexistência de comandos operacionais conjuntos permanentemente ativados desde o tempo de paz que gerenciem todo o ciclo operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a legislação proíbe a criação de estruturas *ad hoc* durante conflitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para garantir que apenas civis ocupem as funções de chefia nas seções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 5.4.1**, a inexistência de comandos operacionais conjuntos permanentemente ativados em tempo de paz impede o gerenciamento imediato, exigindo auxílio do EMCFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. VI - Comando de Operações AeroEspaciais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a concepção de emprego descrita no texto, qual é a natureza e o status de ativação do Comando de Operações Aeroespaciais (COMAE)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um comando temporário, ativado apenas em caso de guerra declarada, com sede no Rio de Janeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um órgão de assessoria política do Ministério da Defesa, sem comando de tropas ou meios aéreos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um Comando Operacional Conjunto, ativado permanentemente, com sede no Distrito Federal e órgão central do SISDABRA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um comando logístico exclusivo da Força Aérea Brasileira, focado apenas no transporte de carga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 6.2.1**, o COMAE é um Comando Operacional Conjunto, ativado permanentemente, com sede no DF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à cadeia de comando, a quem o COMAE fica diretamente subordinado quando atua como Comando Operacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre ao Comandante da Aeronáutica, independentemente se em paz ou em conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Comandante Supremo quando em situação de conflito e ao Comandante da Aeronáutica em tempo de paz, ambos via Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretamente ao Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA) em qualquer situação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aos Comandantes das três Forças Singulares simultaneamente, através de um conselho diretor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 6.2.6.2**, subordina-se ao Comandante Supremo em conflito e ao Cmt da Aeronáutica na paz, via MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o requisito específico estabelecido para a designação do Comandante do COMAE na sua estrutura organizacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode ser qualquer Oficial-General de quatro estrelas, alternando-se entre Marinha, Exército e Aeronáutica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser um Oficial-General do último posto do quadro de oficiais aviadores da Força Aérea Brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser um civil especialista em defesa aeroespacial indicado pelo Presidente da República.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser o Chefe de Operações Conjuntas do Ministério da Defesa, acumulando as funções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **item 6.3.2**, o Comandante é um Oficial-General do último posto do quadro de oficiais aviadores da FAB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. VII - Comando de Zona de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estabelecimento de uma Zona de Defesa (ZD) envolve a análise de condicionantes, vantagens e desvantagens. Qual das alternativas abaixo apresenta, respectivamente, uma vantagem e uma desvantagem explicitamente listadas na doutrina para o estabelecimento de uma ZD?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de comando / Divisão ou dispersão de esforços pelas Forças Singulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maior prontidão / Centralização excessiva dos meios logísticos no TO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praticidade da implementação / Sobreposição com tarefas do COMAE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança das instalações / Perda de flexibilidade no nível tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os **itens 7.1.5 (a)** e **7.1.6 (a)**, a unidade de comando é uma vantagem, enquanto a divisão/dispersão de esforços pelas Forças Singulares é uma desvantagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os conceitos fundamentais apresentados no Capítulo VII, como é definida a "Defesa Territorial" (Def Ter)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o conjunto de todas as operações militares realizadas dentro do Teatro de Operações (TO) visando a derrota do inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a estrutura logística responsável exclusivamente pelo suprimento de munição para a Zona do Interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o conjunto de medidas e ações no território nacional, excluídas as do TO e as do COMAE, visando à proteção do território e recursos contra agressões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma operação singular da Força Terrestre destinada a ocupar áreas de fronteira em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 7.2.1**, Defesa Territorial é o conjunto de medidas no território nacional, excluídas as dos TO e do COMAE, visando à proteção contra agressões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A estrutura da Zona de Defesa é flexível. No entanto, a constituição de uma Força Aérea da Zona de Defesa (FAZD) exige precauções específicas. Qual é a condicionante doutrinária para a criação de uma FAZD?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser criada automaticamente sempre que houver uma Zona de Defesa, independentemente dos meios disponíveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser precedida de análise minuciosa das possibilidades do inimigo, para que o COMAE mantenha liberdade de ação para otimizar o emprego dos meios, prioritariamente no TO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depende exclusivamente da autorização dos governadores estaduais onde a FAZD será baseada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só pode ser constituída se houver superioridade aérea total declarada sobre todo o território nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.3.4**, a constituição de uma FAZD deve ser precedida de análise para garantir que o COMAE tenha liberdade de ação para otimizar o emprego dos meios, prioritariamente no TO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre a ativação da Zona de Defesa e a relação de comando com os meios existentes na área, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ativação de uma ZD implica a subordinação automática e imediata de todas as organizações militares das Forças Singulares sediadas na área ao Comandante da ZD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os meios da ZD só podem ser ativados após o término das operações no Teatro de Operações (TO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ativação não implica subordinação automática; os meios serão adjudicados pelo Ministro da Defesa, mediante proposta do Com ZD, conforme planejamentos e disponibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Organizações Militares de Guarda Territorial são constituídas exclusivamente por militares da ativa, sendo vedado o uso de reservistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 7.6.2.2**, a ativação não implica subordinação automática; os meios serão adjudicados pelo Ministro da Defesa mediante proposta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como devem proceder as Organizações Militares (OM) das Forças Armadas situadas em uma Zona de Defesa, mas que não foram adjudicadas para a Defesa Territorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem suspender suas atividades e aguardar ordens diretas do Ministério da Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuam no cumprimento de suas missões originais e exercem a autodefesa de suas instalações, devendo coordenar seus planos de defesa com o Cmdo ZD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passam automaticamente para o comando do órgão de segurança pública mais próximo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser evacuadas imediatamente para a Zona do Interior para evitar fratricídio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 7.6.2.4**, as OM não adjudicadas continuam suas missões, exercem a autodefesa e devem coordenar com o Cmdo ZD os respectivos planos de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. VIII - Comando de Defesa Cibernética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Doutrina de Operações Conjuntas, qual é a natureza organizacional e a missão do Comando de Defesa Cibernética (ComDCiber)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma estrutura temporária ativada apenas em tempos de crise, subordinada diretamente ao Ministério das Comunicações, com foco exclusivo em segurança da informação civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um Comando Operacional Conjunto, permanentemente ativado, pertencente à estrutura regimental do Exército Brasileiro, que atua como órgão central do Sistema Militar de Defesa Cibernética (SMDC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma organização independente das Forças Singulares, focada apenas na elaboração de doutrina teórica, sem competência para executar atividades ou integrar capacidades cibernéticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um departamento da Força Aérea Brasileira responsável apenas pela defesa de ativos espaciais, não possuindo capacidade interagências ou atribuição de planejamento conjunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 8.1.1**, o ComDCiber é um Comando Operacional Conjunto, permanentemente ativado, pertencente à estrutura do Exército, com a missão de planejar e executar atividades como órgão central do SMDC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. X - Logística e Mobilização nas Operações Conjuntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Chefe do Centro de Coordenação Civil-Militar (C³M) possui diversas atribuições críticas para o sucesso das operações. Em relação aos civis sob administração militar (refugiados, evacuados, etc.), qual é a sua responsabilidade específica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir unilateralmente sobre a expulsão de civis da área de operações sem consultar o comando superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar com o Chefe da D-9 do EMCj o andamento das atividades de assuntos civis, particularmente no que se refere aos refugiados e evacuados não-combatentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegar toda a responsabilidade de gestão de civis para as Organizações Não-Governamentais, eximindo-se de qualquer controle militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reportar-se exclusivamente à D-4 Logística, ignorando as demais seções do Estado-Maior Conjunto (EMCj) para assuntos civis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 10.5.12.4 (d)**, compete ao Chefe do C³M coordenar com o Ch D-9 do EMCj o andamento das atividades referentes a civis sob administração militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Centro de Coordenação Civil-Militar é estruturado em grupos funcionais. Qual das seguintes competências é atribuída especificamente ao Grupo de Assuntos de Governo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter o cadastro de Organizações Não Governamentais (ONG) e descrever suas possibilidades de apoio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar a ligação com as autoridades judiciárias e da polícia judiciária na área de responsabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar a manutenção do funcionamento das infraestruturas críticas mínimas de interesse do C Op, inclusive serviços públicos essenciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessorar sobre o controle de zoonoses e normas ambientais na área de operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 10.5.12.5.1 (d)**, cabe ao Grupo de Assuntos de Governo coordenar a manutenção do funcionamento das infraestruturas críticas mínimas e serviços públicos essenciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Grupo de Mobilização de Recursos Logísticos desempenha um papel vital na sustentação das operações. Qual é uma de suas principais competências em relação ao Sistema Nacional de Mobilização (SINAMOB)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenar, junto ao SINAMOB, a mobilização na área da Área de Reunião Principal (ARP), contando com representantes de órgãos de governo e empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobilizar exclusivamente recursos humanos para combate, ignorando a logística de materiais e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir o SINAMOB na decretação de mobilização nacional, assumindo controle total das indústrias federais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar o banco de talentos de recursos humanos civis para recompletamento de quadros militares especializados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 10.5.12.5.4 (c)**, compete a este grupo coordenar, junto ao SINAMOB, a mobilização na área da ARP, contando com representantes de órgãos e empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Grupo de Meio Ambiente atua para minimizar os efeitos adversos das operações militares. Dentre suas competências, destaca-se:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A elaboração do Anexo de Assuntos Jurídicos ao Plano de Operações Logísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cadastramento de empresas para fornecimento de munição e armamento pesado no Sistema APOLO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O assessoramento quanto ao estabelecimento de medidas para a mitigação dos impactos e a realização da recuperação do meio ambiente ao término da operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coordenação direta com o Poder Judiciário para evitar processos legais contra o Comando Operacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 10.5.12.5.6 (c)**, é competência do Grupo de Meio Ambiente assessorar quanto à mitigação dos impactos e na realização da recuperação do meio ambiente ao término da operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. XI - Comando e Controle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da Doutrina para o Sistema Militar de Comando e Controle, como são definidos e diferenciados os conceitos de "processo" e "procedimento"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo é uma ação isolada de comando, enquanto procedimento refere-se exclusivamente à manobra logística de materiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimento é o ato de decidir, enquanto processo é a execução física da ordem dada pelo comandante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimento é uma maneira particular de obter um objetivo específico, ao passo que processo é o conjunto de procedimentos encadeados para atingir uma meta desejada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambos são sinônimos absolutos na literatura científica militar e podem ser usados de forma intercambiável sem distinção de escopo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 11.1.3**, procedimento é uma maneira particular de se obter um objetivo específico, e processo é o conjunto de procedimentos encadeados de forma a se atingir uma meta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre as Relações de Comando, assinale a alternativa que define corretamente o "Comando Operacional".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a autoridade que permite adjudicar meios, organizar forças e atribuir missões, mas normalmente não inclui autoridade sobre administração e instrução interna, salvo solicitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a autoridade restrita ao controle de movimentos e manobras dentro da área de operações, sem poder para atribuir missões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a autoridade que confere poder total, incluindo administração, logística, instrução e adestramento de todas as unidades subordinadas obrigatoriamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a autoridade para empregar componentes separadamente e efetuar o controle logístico das forças de outras nações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 11.3.2 (a)**, o comando operacional permite adjudicar meios e atribuir missões, mas não inclui, normalmente, autoridade nos assuntos de administração e instrução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "Consciência Situacional" é um conceito central no processo de tomada de decisão. Como a doutrina a define?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a capacidade de interceptar todas as comunicações do inimigo sem que ele perceba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a percepção precisa dos fatores e condições que afetam a execução da tarefa, sendo a perfeita sintonia entre a situação percebida e a situação real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o acúmulo de dados brutos sobre o terreno e o clima, independentemente de sua análise ou relevância para o decisor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a autoridade delegada para controlar administrativamente as forças de reserva durante o combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 11.4.1**, a Consciência Situacional é a percepção precisa dos fatores e condições que afetam a execução da tarefa, sendo a perfeita sintonia entre a situação percebida e a real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sistema Militar de Comando e Controle (SISMC²) fornece os recursos necessários ao funcionamento da Estrutura Militar de Defesa. Quem é responsável pela sua gestão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ministério da Defesa, por intermédio do Estado-Maior Conjunto das Forças Armadas (EMCFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comando de Operações Terrestres (COTer), em sistema de rodízio anual com a Marinha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gabinete de Segurança Institucional (GSI) da Presidência da República, exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Forças Singulares, de maneira independente, sem coordenação centralizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 11.6.2.1**, o SISMC² é gerido pelo MD, por intermédio do Estado-Maior Conjunto das Forças Armadas (EMCFA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A doutrina estabelece a necessidade de redundância para os Centros de Comando e Controle (CC²) do SISMC². Onde funcionará o CC² alternativo do Centro de C² do Ministério da Defesa (CC2MD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Comando de Operações Aeroespaciais (COMAE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em uma instalação civil secreta designada pela Presidência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Centro de C² da Força Terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Navio-Capitânia da Esquadra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 11.6.2.6**, o CC² alternativo do CC2MD funcionará no CC² da Força Terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o fluxo correto das informações geradas no nível tático para o acompanhamento da operação no nível estratégico (CC2MD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As informações vão diretamente do nível tático para o Ministério da Defesa, sem passar pelos Comandos Operacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As informações são enviadas aos CC² das Forças Componentes, que processam e remetem ao C Op; este avalia e repassa o que for relevante ao CC2MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As informações ficam restritas ao nível tático e só são relatadas após o fim da missão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As informações são enviadas diretamente para a mídia e órgãos civis, que informam o CC2MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **item 11.6.2.12**, as informações vão do nível tático para a Força Componente, desta para o CC² do C Op e, após avaliação, o relevante segue para o CC2MD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sistema de Planejamento Operacional Militar (SIPLOM) é uma ferramenta importante no contexto do SISMC². Qual é a sua principal funcionalidade descrita na doutrina?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlar exclusivamente o fluxo de e-mails administrativos das Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar a folha de pagamento e os recursos humanos das tropas em operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoiar o processo de tomada de decisão, permitindo jogos de guerra e o confronto de Linhas de Ação contra as possibilidades do inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituir a Rede Operacional de Defesa (ROD) em caso de falha dos satélites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 11.6.3.5 (2)**, o SIPLOM é um sistema de apoio à decisão que permite jogos de guerra e confronto de Linhas de Ação desde o exame de situação até o controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comando Operacional pode utilizar meios civis, governamentais ou a Internet para estabelecer enlaces entre os CC²?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, é estritamente proibido o uso de qualquer meio não militar em operações conjuntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, esses meios podem ser utilizados, desde que obedeçam rigorosamente às Instruções de Segurança da Informação empregadas pelo C Op.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, mas apenas para comunicação com a imprensa, sendo vedado para enlaces entre CC².</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, pois a Rede Operacional de Defesa (ROD) impede tecnicamente a conexão com a Internet civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos dos **itens 11.7.3.1 e 11.7.3.2**, meios civis e a Internet são passíveis de utilização, desde que obedeçam rigorosamente às Instruções de Segurança da Informação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. XIV - As Operações de Informação nas Operações Conjuntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das Operações de Informação, a Comunicação Estratégica (Com Estrt) é essencial para a interação civil-militar. Assinale a alternativa correta sobre sua definição e abrangência segundo a doutrina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Com Estrt restringe-se às ações táticas de guerra eletrônica, não possuindo relação com a estratégia nacional ou com narrativas de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Com Estrt é definida como uma abordagem conjunta de governo para comunicar temas harmonizados com a estratégia nacional, condicionada desde o nível político, podendo sua execução alcançar o nível tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O engajamento das Operações de Informação no contexto da Com Estrt é definido exclusivamente após o término do conflito, não sendo considerado durante o exame de situação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A influência na dimensão informacional limita-se às forças em oposição, sendo irrelevante considerar atores como ONGs, empresas privadas ou instituições civis de Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 14.2.5.3**, a Com Estrt é uma abordagem conjunta de governo harmonizada com a estratégia nacional, e o **item 14.2.5.4** estabelece que seu esforço é condicionado do nível político até regulações no nível tático.</t>
   </si>
 </sst>
 </file>
@@ -15064,7 +16069,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15099,6 +16104,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -15370,10 +16379,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L813"/>
+  <dimension ref="A1:L864"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A765" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A791" activeCellId="0" sqref="A791:A792"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A840" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A864" activeCellId="0" sqref="864:864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42199,6 +43208,1740 @@
         <v>4978</v>
       </c>
       <c r="L813" s="1"/>
+    </row>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B814" s="9" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C814" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D814" s="9" t="s">
+        <v>4981</v>
+      </c>
+      <c r="E814" s="9" t="s">
+        <v>4982</v>
+      </c>
+      <c r="F814" s="9" t="s">
+        <v>4983</v>
+      </c>
+      <c r="G814" s="9" t="s">
+        <v>4984</v>
+      </c>
+      <c r="H814" s="9" t="s">
+        <v>4985</v>
+      </c>
+      <c r="I814" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J814" s="9" t="s">
+        <v>4986</v>
+      </c>
+      <c r="K814" s="0"/>
+      <c r="L814" s="0"/>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B815" s="9" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C815" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D815" s="9" t="s">
+        <v>4987</v>
+      </c>
+      <c r="E815" s="9" t="s">
+        <v>4988</v>
+      </c>
+      <c r="F815" s="9" t="s">
+        <v>4989</v>
+      </c>
+      <c r="G815" s="9" t="s">
+        <v>4990</v>
+      </c>
+      <c r="H815" s="9" t="s">
+        <v>4991</v>
+      </c>
+      <c r="I815" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J815" s="9" t="s">
+        <v>4992</v>
+      </c>
+      <c r="K815" s="0"/>
+      <c r="L815" s="0"/>
+    </row>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B816" s="9" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C816" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D816" s="9" t="s">
+        <v>4993</v>
+      </c>
+      <c r="E816" s="9" t="s">
+        <v>4994</v>
+      </c>
+      <c r="F816" s="9" t="s">
+        <v>4995</v>
+      </c>
+      <c r="G816" s="9" t="s">
+        <v>4996</v>
+      </c>
+      <c r="H816" s="9" t="s">
+        <v>4997</v>
+      </c>
+      <c r="I816" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J816" s="9" t="s">
+        <v>4998</v>
+      </c>
+      <c r="K816" s="0"/>
+      <c r="L816" s="0"/>
+    </row>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B817" s="9" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C817" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D817" s="9" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E817" s="9" t="s">
+        <v>5000</v>
+      </c>
+      <c r="F817" s="9" t="s">
+        <v>5001</v>
+      </c>
+      <c r="G817" s="9" t="s">
+        <v>5002</v>
+      </c>
+      <c r="H817" s="9" t="s">
+        <v>5003</v>
+      </c>
+      <c r="I817" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J817" s="9" t="s">
+        <v>5004</v>
+      </c>
+      <c r="K817" s="0"/>
+      <c r="L817" s="0"/>
+    </row>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B818" s="9" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C818" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D818" s="9" t="s">
+        <v>5005</v>
+      </c>
+      <c r="E818" s="9" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F818" s="9" t="s">
+        <v>5007</v>
+      </c>
+      <c r="G818" s="9" t="s">
+        <v>5008</v>
+      </c>
+      <c r="H818" s="9" t="s">
+        <v>5009</v>
+      </c>
+      <c r="I818" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J818" s="9" t="s">
+        <v>5010</v>
+      </c>
+      <c r="K818" s="0"/>
+      <c r="L818" s="0"/>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B819" s="9" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C819" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D819" s="9" t="s">
+        <v>5011</v>
+      </c>
+      <c r="E819" s="9" t="s">
+        <v>5012</v>
+      </c>
+      <c r="F819" s="9" t="s">
+        <v>5013</v>
+      </c>
+      <c r="G819" s="9" t="s">
+        <v>5014</v>
+      </c>
+      <c r="H819" s="9" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I819" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J819" s="9" t="s">
+        <v>5016</v>
+      </c>
+      <c r="K819" s="0"/>
+      <c r="L819" s="0"/>
+    </row>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B820" s="9" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C820" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D820" s="9" t="s">
+        <v>5017</v>
+      </c>
+      <c r="E820" s="9" t="s">
+        <v>5018</v>
+      </c>
+      <c r="F820" s="9" t="s">
+        <v>5019</v>
+      </c>
+      <c r="G820" s="9" t="s">
+        <v>5020</v>
+      </c>
+      <c r="H820" s="9" t="s">
+        <v>5021</v>
+      </c>
+      <c r="I820" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J820" s="9" t="s">
+        <v>5022</v>
+      </c>
+      <c r="K820" s="0"/>
+      <c r="L820" s="0"/>
+    </row>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B821" s="9" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C821" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D821" s="9" t="s">
+        <v>5023</v>
+      </c>
+      <c r="E821" s="9" t="s">
+        <v>5024</v>
+      </c>
+      <c r="F821" s="9" t="s">
+        <v>5025</v>
+      </c>
+      <c r="G821" s="9" t="s">
+        <v>5026</v>
+      </c>
+      <c r="H821" s="9" t="s">
+        <v>5027</v>
+      </c>
+      <c r="I821" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J821" s="9" t="s">
+        <v>5028</v>
+      </c>
+      <c r="K821" s="0"/>
+      <c r="L821" s="0"/>
+    </row>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B822" s="9" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C822" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D822" s="9" t="s">
+        <v>5029</v>
+      </c>
+      <c r="E822" s="9" t="s">
+        <v>5030</v>
+      </c>
+      <c r="F822" s="9" t="s">
+        <v>5031</v>
+      </c>
+      <c r="G822" s="9" t="s">
+        <v>5032</v>
+      </c>
+      <c r="H822" s="9" t="s">
+        <v>5033</v>
+      </c>
+      <c r="I822" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J822" s="9" t="s">
+        <v>5034</v>
+      </c>
+      <c r="K822" s="0"/>
+      <c r="L822" s="0"/>
+    </row>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B823" s="9" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C823" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D823" s="9" t="s">
+        <v>5035</v>
+      </c>
+      <c r="E823" s="9" t="s">
+        <v>5036</v>
+      </c>
+      <c r="F823" s="9" t="s">
+        <v>5037</v>
+      </c>
+      <c r="G823" s="9" t="s">
+        <v>5038</v>
+      </c>
+      <c r="H823" s="9" t="s">
+        <v>5039</v>
+      </c>
+      <c r="I823" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J823" s="9" t="s">
+        <v>5040</v>
+      </c>
+      <c r="K823" s="0"/>
+      <c r="L823" s="0"/>
+    </row>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B824" s="9" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C824" s="9" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>5041</v>
+      </c>
+      <c r="E824" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="F824" s="9" t="s">
+        <v>5043</v>
+      </c>
+      <c r="G824" s="9" t="s">
+        <v>5044</v>
+      </c>
+      <c r="H824" s="9" t="s">
+        <v>5045</v>
+      </c>
+      <c r="I824" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J824" s="9" t="s">
+        <v>5046</v>
+      </c>
+      <c r="K824" s="0"/>
+      <c r="L824" s="0"/>
+    </row>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B825" s="9" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C825" s="9" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D825" s="9" t="s">
+        <v>5048</v>
+      </c>
+      <c r="E825" s="9" t="s">
+        <v>5049</v>
+      </c>
+      <c r="F825" s="9" t="s">
+        <v>5050</v>
+      </c>
+      <c r="G825" s="9" t="s">
+        <v>5051</v>
+      </c>
+      <c r="H825" s="9" t="s">
+        <v>5052</v>
+      </c>
+      <c r="I825" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J825" s="9" t="s">
+        <v>5053</v>
+      </c>
+      <c r="K825" s="0"/>
+      <c r="L825" s="0"/>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B826" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C826" s="9" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D826" s="9" t="s">
+        <v>5054</v>
+      </c>
+      <c r="E826" s="9" t="s">
+        <v>5055</v>
+      </c>
+      <c r="F826" s="9" t="s">
+        <v>5056</v>
+      </c>
+      <c r="G826" s="9" t="s">
+        <v>5057</v>
+      </c>
+      <c r="H826" s="9" t="s">
+        <v>5058</v>
+      </c>
+      <c r="I826" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J826" s="9" t="s">
+        <v>5059</v>
+      </c>
+      <c r="K826" s="0"/>
+      <c r="L826" s="0"/>
+    </row>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B827" s="9" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C827" s="9" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D827" s="9" t="s">
+        <v>5060</v>
+      </c>
+      <c r="E827" s="9" t="s">
+        <v>5061</v>
+      </c>
+      <c r="F827" s="9" t="s">
+        <v>5062</v>
+      </c>
+      <c r="G827" s="9" t="s">
+        <v>5063</v>
+      </c>
+      <c r="H827" s="9" t="s">
+        <v>5064</v>
+      </c>
+      <c r="I827" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J827" s="9" t="s">
+        <v>5065</v>
+      </c>
+      <c r="K827" s="0"/>
+      <c r="L827" s="0"/>
+    </row>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B828" s="9" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C828" s="9" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D828" s="9" t="s">
+        <v>5066</v>
+      </c>
+      <c r="E828" s="9" t="s">
+        <v>5067</v>
+      </c>
+      <c r="F828" s="9" t="s">
+        <v>5068</v>
+      </c>
+      <c r="G828" s="9" t="s">
+        <v>5069</v>
+      </c>
+      <c r="H828" s="9" t="s">
+        <v>5070</v>
+      </c>
+      <c r="I828" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J828" s="9" t="s">
+        <v>5071</v>
+      </c>
+      <c r="K828" s="0"/>
+      <c r="L828" s="0"/>
+    </row>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B829" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C829" s="9" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>5073</v>
+      </c>
+      <c r="E829" s="9" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F829" s="9" t="s">
+        <v>5075</v>
+      </c>
+      <c r="G829" s="9" t="s">
+        <v>5076</v>
+      </c>
+      <c r="H829" s="9" t="s">
+        <v>5077</v>
+      </c>
+      <c r="I829" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J829" s="9" t="s">
+        <v>5078</v>
+      </c>
+      <c r="K829" s="0"/>
+      <c r="L829" s="0"/>
+    </row>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B830" s="9" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C830" s="9" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>5079</v>
+      </c>
+      <c r="E830" s="9" t="s">
+        <v>5080</v>
+      </c>
+      <c r="F830" s="9" t="s">
+        <v>5081</v>
+      </c>
+      <c r="G830" s="9" t="s">
+        <v>5082</v>
+      </c>
+      <c r="H830" s="9" t="s">
+        <v>5083</v>
+      </c>
+      <c r="I830" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J830" s="9" t="s">
+        <v>5084</v>
+      </c>
+      <c r="K830" s="0"/>
+      <c r="L830" s="0"/>
+    </row>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B831" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>5085</v>
+      </c>
+      <c r="E831" s="9" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F831" s="9" t="s">
+        <v>5087</v>
+      </c>
+      <c r="G831" s="9" t="s">
+        <v>5088</v>
+      </c>
+      <c r="H831" s="9" t="s">
+        <v>5089</v>
+      </c>
+      <c r="I831" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J831" s="9" t="s">
+        <v>5090</v>
+      </c>
+      <c r="K831" s="0"/>
+      <c r="L831" s="0"/>
+    </row>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B832" s="9" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C832" s="9" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D832" s="9" t="s">
+        <v>5091</v>
+      </c>
+      <c r="E832" s="9" t="s">
+        <v>5092</v>
+      </c>
+      <c r="F832" s="9" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G832" s="9" t="s">
+        <v>5094</v>
+      </c>
+      <c r="H832" s="9" t="s">
+        <v>5095</v>
+      </c>
+      <c r="I832" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J832" s="9" t="s">
+        <v>5096</v>
+      </c>
+      <c r="K832" s="0"/>
+      <c r="L832" s="0"/>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B833" s="9" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C833" s="9" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>5097</v>
+      </c>
+      <c r="E833" s="9" t="s">
+        <v>5098</v>
+      </c>
+      <c r="F833" s="9" t="s">
+        <v>5099</v>
+      </c>
+      <c r="G833" s="9" t="s">
+        <v>5100</v>
+      </c>
+      <c r="H833" s="9" t="s">
+        <v>5101</v>
+      </c>
+      <c r="I833" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J833" s="9" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K833" s="0"/>
+      <c r="L833" s="0"/>
+    </row>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B834" s="9" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>5104</v>
+      </c>
+      <c r="E834" s="9" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F834" s="9" t="s">
+        <v>5106</v>
+      </c>
+      <c r="G834" s="9" t="s">
+        <v>5107</v>
+      </c>
+      <c r="H834" s="9" t="s">
+        <v>5108</v>
+      </c>
+      <c r="I834" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J834" s="9" t="s">
+        <v>5109</v>
+      </c>
+      <c r="K834" s="0"/>
+      <c r="L834" s="0"/>
+    </row>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B835" s="9" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>5110</v>
+      </c>
+      <c r="E835" s="9" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F835" s="9" t="s">
+        <v>5112</v>
+      </c>
+      <c r="G835" s="9" t="s">
+        <v>5113</v>
+      </c>
+      <c r="H835" s="9" t="s">
+        <v>5114</v>
+      </c>
+      <c r="I835" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J835" s="9" t="s">
+        <v>5115</v>
+      </c>
+      <c r="K835" s="0"/>
+      <c r="L835" s="0"/>
+    </row>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B836" s="9" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>5116</v>
+      </c>
+      <c r="E836" s="9" t="s">
+        <v>5117</v>
+      </c>
+      <c r="F836" s="9" t="s">
+        <v>5118</v>
+      </c>
+      <c r="G836" s="9" t="s">
+        <v>5119</v>
+      </c>
+      <c r="H836" s="9" t="s">
+        <v>5120</v>
+      </c>
+      <c r="I836" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J836" s="9" t="s">
+        <v>5121</v>
+      </c>
+      <c r="K836" s="0"/>
+      <c r="L836" s="0"/>
+    </row>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B837" s="9" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D837" s="9" t="s">
+        <v>5122</v>
+      </c>
+      <c r="E837" s="9" t="s">
+        <v>5123</v>
+      </c>
+      <c r="F837" s="9" t="s">
+        <v>5124</v>
+      </c>
+      <c r="G837" s="9" t="s">
+        <v>5125</v>
+      </c>
+      <c r="H837" s="9" t="s">
+        <v>5126</v>
+      </c>
+      <c r="I837" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J837" s="9" t="s">
+        <v>5127</v>
+      </c>
+      <c r="K837" s="0"/>
+      <c r="L837" s="0"/>
+    </row>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B838" s="9" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C838" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D838" s="9" t="s">
+        <v>5128</v>
+      </c>
+      <c r="E838" s="9" t="s">
+        <v>5129</v>
+      </c>
+      <c r="F838" s="9" t="s">
+        <v>5130</v>
+      </c>
+      <c r="G838" s="9" t="s">
+        <v>5131</v>
+      </c>
+      <c r="H838" s="9" t="s">
+        <v>5132</v>
+      </c>
+      <c r="I838" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J838" s="9" t="s">
+        <v>5133</v>
+      </c>
+      <c r="K838" s="0"/>
+      <c r="L838" s="0"/>
+    </row>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B839" s="9" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C839" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>5134</v>
+      </c>
+      <c r="E839" s="9" t="s">
+        <v>5135</v>
+      </c>
+      <c r="F839" s="9" t="s">
+        <v>5136</v>
+      </c>
+      <c r="G839" s="9" t="s">
+        <v>5137</v>
+      </c>
+      <c r="H839" s="9" t="s">
+        <v>5138</v>
+      </c>
+      <c r="I839" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J839" s="9" t="s">
+        <v>5139</v>
+      </c>
+      <c r="K839" s="0"/>
+      <c r="L839" s="0"/>
+    </row>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B840" s="9" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C840" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>5140</v>
+      </c>
+      <c r="E840" s="9" t="s">
+        <v>5141</v>
+      </c>
+      <c r="F840" s="9" t="s">
+        <v>5142</v>
+      </c>
+      <c r="G840" s="9" t="s">
+        <v>5124</v>
+      </c>
+      <c r="H840" s="9" t="s">
+        <v>5143</v>
+      </c>
+      <c r="I840" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J840" s="9" t="s">
+        <v>5144</v>
+      </c>
+      <c r="K840" s="0"/>
+      <c r="L840" s="0"/>
+    </row>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B841" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C841" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E841" s="9" t="s">
+        <v>5146</v>
+      </c>
+      <c r="F841" s="9" t="s">
+        <v>5147</v>
+      </c>
+      <c r="G841" s="9" t="s">
+        <v>5148</v>
+      </c>
+      <c r="H841" s="9" t="s">
+        <v>5149</v>
+      </c>
+      <c r="I841" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J841" s="9" t="s">
+        <v>5150</v>
+      </c>
+      <c r="K841" s="0"/>
+      <c r="L841" s="0"/>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B842" s="9" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C842" s="9" t="s">
+        <v>5103</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>5151</v>
+      </c>
+      <c r="E842" s="9" t="s">
+        <v>5152</v>
+      </c>
+      <c r="F842" s="9" t="s">
+        <v>5153</v>
+      </c>
+      <c r="G842" s="9" t="s">
+        <v>5154</v>
+      </c>
+      <c r="H842" s="9" t="s">
+        <v>5155</v>
+      </c>
+      <c r="I842" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J842" s="9" t="s">
+        <v>5156</v>
+      </c>
+      <c r="K842" s="0"/>
+      <c r="L842" s="0"/>
+    </row>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B843" s="9" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D843" s="9" t="s">
+        <v>5158</v>
+      </c>
+      <c r="E843" s="9" t="s">
+        <v>5159</v>
+      </c>
+      <c r="F843" s="9" t="s">
+        <v>5160</v>
+      </c>
+      <c r="G843" s="9" t="s">
+        <v>5161</v>
+      </c>
+      <c r="H843" s="9" t="s">
+        <v>5162</v>
+      </c>
+      <c r="I843" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J843" s="9" t="s">
+        <v>5163</v>
+      </c>
+      <c r="K843" s="0"/>
+      <c r="L843" s="0"/>
+    </row>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B844" s="9" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C844" s="9" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>5164</v>
+      </c>
+      <c r="E844" s="9" t="s">
+        <v>5165</v>
+      </c>
+      <c r="F844" s="9" t="s">
+        <v>5166</v>
+      </c>
+      <c r="G844" s="9" t="s">
+        <v>5167</v>
+      </c>
+      <c r="H844" s="9" t="s">
+        <v>5168</v>
+      </c>
+      <c r="I844" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J844" s="9" t="s">
+        <v>5169</v>
+      </c>
+      <c r="K844" s="0"/>
+      <c r="L844" s="0"/>
+    </row>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B845" s="9" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C845" s="9" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D845" s="9" t="s">
+        <v>5170</v>
+      </c>
+      <c r="E845" s="9" t="s">
+        <v>5171</v>
+      </c>
+      <c r="F845" s="9" t="s">
+        <v>5172</v>
+      </c>
+      <c r="G845" s="9" t="s">
+        <v>5173</v>
+      </c>
+      <c r="H845" s="9" t="s">
+        <v>5174</v>
+      </c>
+      <c r="I845" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J845" s="9" t="s">
+        <v>5175</v>
+      </c>
+      <c r="K845" s="0"/>
+      <c r="L845" s="0"/>
+    </row>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B846" s="9" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C846" s="9" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D846" s="9" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E846" s="9" t="s">
+        <v>5179</v>
+      </c>
+      <c r="F846" s="9" t="s">
+        <v>5180</v>
+      </c>
+      <c r="G846" s="9" t="s">
+        <v>5181</v>
+      </c>
+      <c r="H846" s="9" t="s">
+        <v>5182</v>
+      </c>
+      <c r="I846" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J846" s="9" t="s">
+        <v>5183</v>
+      </c>
+      <c r="K846" s="0"/>
+      <c r="L846" s="0"/>
+    </row>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B847" s="9" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C847" s="9" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D847" s="9" t="s">
+        <v>5185</v>
+      </c>
+      <c r="E847" s="9" t="s">
+        <v>5186</v>
+      </c>
+      <c r="F847" s="9" t="s">
+        <v>5187</v>
+      </c>
+      <c r="G847" s="9" t="s">
+        <v>5188</v>
+      </c>
+      <c r="H847" s="9" t="s">
+        <v>5189</v>
+      </c>
+      <c r="I847" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J847" s="9" t="s">
+        <v>5190</v>
+      </c>
+      <c r="K847" s="0"/>
+      <c r="L847" s="0"/>
+    </row>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B848" s="9" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C848" s="9" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D848" s="9" t="s">
+        <v>5192</v>
+      </c>
+      <c r="E848" s="9" t="s">
+        <v>5193</v>
+      </c>
+      <c r="F848" s="9" t="s">
+        <v>5194</v>
+      </c>
+      <c r="G848" s="9" t="s">
+        <v>5195</v>
+      </c>
+      <c r="H848" s="9" t="s">
+        <v>5196</v>
+      </c>
+      <c r="I848" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J848" s="9" t="s">
+        <v>5197</v>
+      </c>
+      <c r="K848" s="0"/>
+      <c r="L848" s="0"/>
+    </row>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B849" s="9" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C849" s="9" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D849" s="9" t="s">
+        <v>5199</v>
+      </c>
+      <c r="E849" s="9" t="s">
+        <v>5200</v>
+      </c>
+      <c r="F849" s="9" t="s">
+        <v>5201</v>
+      </c>
+      <c r="G849" s="9" t="s">
+        <v>5202</v>
+      </c>
+      <c r="H849" s="9" t="s">
+        <v>5203</v>
+      </c>
+      <c r="I849" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J849" s="9" t="s">
+        <v>5204</v>
+      </c>
+      <c r="K849" s="0"/>
+      <c r="L849" s="0"/>
+    </row>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B850" s="9" t="s">
+        <v>5205</v>
+      </c>
+      <c r="C850" s="9" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>5206</v>
+      </c>
+      <c r="E850" s="9" t="s">
+        <v>5207</v>
+      </c>
+      <c r="F850" s="9" t="s">
+        <v>5208</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>5209</v>
+      </c>
+      <c r="H850" s="9" t="s">
+        <v>5210</v>
+      </c>
+      <c r="I850" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J850" s="9" t="s">
+        <v>5211</v>
+      </c>
+      <c r="K850" s="0"/>
+      <c r="L850" s="0"/>
+    </row>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B851" s="9" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C851" s="9" t="s">
+        <v>5213</v>
+      </c>
+      <c r="D851" s="9" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E851" s="9" t="s">
+        <v>5215</v>
+      </c>
+      <c r="F851" s="9" t="s">
+        <v>5216</v>
+      </c>
+      <c r="G851" s="9" t="s">
+        <v>5217</v>
+      </c>
+      <c r="H851" s="9" t="s">
+        <v>5218</v>
+      </c>
+      <c r="I851" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J851" s="9" t="s">
+        <v>5219</v>
+      </c>
+      <c r="K851" s="0"/>
+      <c r="L851" s="0"/>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B852" s="9" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C852" s="9" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D852" s="9" t="s">
+        <v>5222</v>
+      </c>
+      <c r="E852" s="9" t="s">
+        <v>5223</v>
+      </c>
+      <c r="F852" s="9" t="s">
+        <v>5224</v>
+      </c>
+      <c r="G852" s="9" t="s">
+        <v>5225</v>
+      </c>
+      <c r="H852" s="9" t="s">
+        <v>5226</v>
+      </c>
+      <c r="I852" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J852" s="9" t="s">
+        <v>5227</v>
+      </c>
+      <c r="K852" s="0"/>
+      <c r="L852" s="0"/>
+    </row>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B853" s="9" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C853" s="9" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D853" s="9" t="s">
+        <v>5229</v>
+      </c>
+      <c r="E853" s="9" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F853" s="9" t="s">
+        <v>5231</v>
+      </c>
+      <c r="G853" s="9" t="s">
+        <v>5232</v>
+      </c>
+      <c r="H853" s="9" t="s">
+        <v>5233</v>
+      </c>
+      <c r="I853" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J853" s="9" t="s">
+        <v>5234</v>
+      </c>
+      <c r="K853" s="0"/>
+      <c r="L853" s="0"/>
+    </row>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B854" s="9" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C854" s="9" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D854" s="9" t="s">
+        <v>5236</v>
+      </c>
+      <c r="E854" s="9" t="s">
+        <v>5237</v>
+      </c>
+      <c r="F854" s="9" t="s">
+        <v>5238</v>
+      </c>
+      <c r="G854" s="9" t="s">
+        <v>5239</v>
+      </c>
+      <c r="H854" s="9" t="s">
+        <v>5240</v>
+      </c>
+      <c r="I854" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J854" s="9" t="s">
+        <v>5241</v>
+      </c>
+      <c r="K854" s="0"/>
+      <c r="L854" s="0"/>
+    </row>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B855" s="9" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C855" s="9" t="s">
+        <v>5221</v>
+      </c>
+      <c r="D855" s="9" t="s">
+        <v>5243</v>
+      </c>
+      <c r="E855" s="9" t="s">
+        <v>5244</v>
+      </c>
+      <c r="F855" s="9" t="s">
+        <v>5245</v>
+      </c>
+      <c r="G855" s="9" t="s">
+        <v>5246</v>
+      </c>
+      <c r="H855" s="9" t="s">
+        <v>5247</v>
+      </c>
+      <c r="I855" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J855" s="9" t="s">
+        <v>5248</v>
+      </c>
+      <c r="K855" s="0"/>
+      <c r="L855" s="0"/>
+    </row>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B856" s="9" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C856" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D856" s="9" t="s">
+        <v>5251</v>
+      </c>
+      <c r="E856" s="9" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F856" s="9" t="s">
+        <v>5253</v>
+      </c>
+      <c r="G856" s="9" t="s">
+        <v>5254</v>
+      </c>
+      <c r="H856" s="9" t="s">
+        <v>5255</v>
+      </c>
+      <c r="I856" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J856" s="9" t="s">
+        <v>5256</v>
+      </c>
+      <c r="K856" s="0"/>
+      <c r="L856" s="0"/>
+    </row>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B857" s="9" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C857" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D857" s="9" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E857" s="9" t="s">
+        <v>5259</v>
+      </c>
+      <c r="F857" s="9" t="s">
+        <v>5260</v>
+      </c>
+      <c r="G857" s="9" t="s">
+        <v>5261</v>
+      </c>
+      <c r="H857" s="9" t="s">
+        <v>5262</v>
+      </c>
+      <c r="I857" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J857" s="9" t="s">
+        <v>5263</v>
+      </c>
+      <c r="K857" s="0"/>
+      <c r="L857" s="0"/>
+    </row>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B858" s="9" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C858" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D858" s="9" t="s">
+        <v>5265</v>
+      </c>
+      <c r="E858" s="9" t="s">
+        <v>5266</v>
+      </c>
+      <c r="F858" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="G858" s="9" t="s">
+        <v>5268</v>
+      </c>
+      <c r="H858" s="9" t="s">
+        <v>5269</v>
+      </c>
+      <c r="I858" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J858" s="9" t="s">
+        <v>5270</v>
+      </c>
+      <c r="K858" s="0"/>
+      <c r="L858" s="0"/>
+    </row>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B859" s="9" t="s">
+        <v>5271</v>
+      </c>
+      <c r="C859" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D859" s="9" t="s">
+        <v>5272</v>
+      </c>
+      <c r="E859" s="9" t="s">
+        <v>5273</v>
+      </c>
+      <c r="F859" s="9" t="s">
+        <v>5274</v>
+      </c>
+      <c r="G859" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="H859" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="I859" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J859" s="9" t="s">
+        <v>5277</v>
+      </c>
+      <c r="K859" s="0"/>
+      <c r="L859" s="0"/>
+    </row>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B860" s="9" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C860" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D860" s="9" t="s">
+        <v>5279</v>
+      </c>
+      <c r="E860" s="9" t="s">
+        <v>5280</v>
+      </c>
+      <c r="F860" s="9" t="s">
+        <v>5281</v>
+      </c>
+      <c r="G860" s="9" t="s">
+        <v>5282</v>
+      </c>
+      <c r="H860" s="9" t="s">
+        <v>5283</v>
+      </c>
+      <c r="I860" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J860" s="9" t="s">
+        <v>5284</v>
+      </c>
+      <c r="K860" s="0"/>
+      <c r="L860" s="0"/>
+    </row>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B861" s="9" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C861" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D861" s="9" t="s">
+        <v>5286</v>
+      </c>
+      <c r="E861" s="9" t="s">
+        <v>5287</v>
+      </c>
+      <c r="F861" s="9" t="s">
+        <v>5288</v>
+      </c>
+      <c r="G861" s="9" t="s">
+        <v>5289</v>
+      </c>
+      <c r="H861" s="9" t="s">
+        <v>5290</v>
+      </c>
+      <c r="I861" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J861" s="9" t="s">
+        <v>5291</v>
+      </c>
+      <c r="K861" s="0"/>
+      <c r="L861" s="0"/>
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B862" s="9" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C862" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D862" s="9" t="s">
+        <v>5293</v>
+      </c>
+      <c r="E862" s="9" t="s">
+        <v>5294</v>
+      </c>
+      <c r="F862" s="9" t="s">
+        <v>5295</v>
+      </c>
+      <c r="G862" s="9" t="s">
+        <v>5296</v>
+      </c>
+      <c r="H862" s="9" t="s">
+        <v>5297</v>
+      </c>
+      <c r="I862" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J862" s="9" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K862" s="0"/>
+      <c r="L862" s="0"/>
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B863" s="9" t="s">
+        <v>5299</v>
+      </c>
+      <c r="C863" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D863" s="9" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E863" s="9" t="s">
+        <v>5301</v>
+      </c>
+      <c r="F863" s="9" t="s">
+        <v>5302</v>
+      </c>
+      <c r="G863" s="9" t="s">
+        <v>5303</v>
+      </c>
+      <c r="H863" s="9" t="s">
+        <v>5304</v>
+      </c>
+      <c r="I863" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J863" s="9" t="s">
+        <v>5305</v>
+      </c>
+      <c r="K863" s="0"/>
+      <c r="L863" s="0"/>
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="9" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B864" s="9" t="s">
+        <v>5306</v>
+      </c>
+      <c r="C864" s="9" t="s">
+        <v>5307</v>
+      </c>
+      <c r="D864" s="9" t="s">
+        <v>5308</v>
+      </c>
+      <c r="E864" s="9" t="s">
+        <v>5309</v>
+      </c>
+      <c r="F864" s="9" t="s">
+        <v>5310</v>
+      </c>
+      <c r="G864" s="9" t="s">
+        <v>5311</v>
+      </c>
+      <c r="H864" s="9" t="s">
+        <v>5312</v>
+      </c>
+      <c r="I864" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J864" s="9" t="s">
+        <v>5313</v>
+      </c>
+      <c r="K864" s="0"/>
+      <c r="L864" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="5314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10092" uniqueCount="6238">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -15965,6 +15965,2778 @@
   </si>
   <si>
     <t xml:space="preserve">Conforme o **item 14.2.5.3**, a Com Estrt é uma abordagem conjunta de governo harmonizada com a estratégia nacional, e o **item 14.2.5.4** estabelece que seu esforço é condicionado do nível político até regulações no nível tático.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 849/1993 – Protocolo II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocolo II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Artigo 1º, qual das situações abaixo está EXCLUÍDA do campo de aplicação material do Protocolo II?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos entre Forças Armadas e grupos armados organizados sob comando responsável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situações de tensões internas e distúrbios internos, tais como motins e atos esporádicos de violência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos em que grupos dissidentes exercem controle territorial que permita operações contínuas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos armados que não estiverem cobertos pelo Protocolo I ocorridos no território de uma Alta Parte Contratante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 1º, § 2º**, o Protocolo não se aplica a tensões internas, motins e atos esporádicos de violência, que não são considerados conflitos armados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o princípio da não-intervenção estabelecido no Artigo 3º, o que é vedado invocar o Protocolo para justificar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proteção de feridos e enfermos por organizações humanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intervenção, direta ou indireta, no conflito armado ou nos assuntos internos ou externos da Alta Parte Contratante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A responsabilidade de grupos dissidentes em aplicar as normas humanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A defesa da unidade nacional por meios legítimos pelo governo estabelecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 3º, § 2º**, nenhuma disposição poderá ser invocada como justificativa para intervir nos assuntos internos ou externos do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à proteção da população civil prevista no Artigo 13, quando os civis perdem a proteção contra os perigos das operações militares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando se recusam a abandonar áreas de conflito após aviso prévio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando expressam apoio político a grupos dissidentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvo se participarem diretamente das hostilidades e enquanto durar essa participação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a força militar ocupante decreta lei marcial na região.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 13, § 3º**, civis gozarão da proteção salvo se participarem diretamente das hostilidades e enquanto durar essa participação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 14 estabelece uma proibição específica quanto aos métodos de combate e bens indispensáveis. Qual é essa proibição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibido utilizar minas terrestres em zonas agrícolas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibido utilizar contra os civis a fome como método de combate, atacando bens como reservas de água e colheitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibido importar alimentos durante o conflito armado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibido o racionamento de víveres pelas forças governamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 14**, é proibido utilizar contra os civis a fome como método de combate, bem como atacar bens indispensáveis à sobrevivência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o Artigo 15, sob que condição obras como represas e centrais nucleares não podem ser objeto de ataque, mesmo sendo objetivos militares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o ataque possa acarretar a liberação de forças perigosas e causar perdas importantes na população civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando estiverem localizadas em zonas desmilitarizadas acordadas verbalmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando não estiverem sendo utilizadas para produção de energia para o esforço de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando forem consideradas patrimônio histórico pela UNESCO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 15**, tais obras não serão objeto de ataques quando possam acarretar a liberação de forças perigosas e causar perdas importantes na população civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Artigo 17, em quais circunstâncias excepcionais pode-se ordenar o deslocamento da população civil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para punir a população por colaborar com grupos dissidentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas para facilitar a logística de transporte de tropas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A não ser que assim o exijam a segurança dos civis ou razões militares imperiosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre que o governo central perder o controle administrativo da região.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 17, § 1º**, não se poderá ordenar o deslocamento a não ser que assim o exijam a segurança dos civis ou razões militares imperiosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Artigo 18, qual é o requisito para a organização de ações de socorro em favor da população civil que padece de privações extremas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser realizadas exclusivamente por militares e sem interferência externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser organizadas com o consentimento da Alta Parte Contratante e ter caráter exclusivamente humanitário e imparcial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem ser impostas por outros Estados sem necessidade de autorização local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem priorizar o atendimento aos combatentes feridos antes da população civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 18, § 2º**, as ações de socorro serão organizadas com o consentimento da Alta Parte Contratante e terão caráter humanitário e imparcial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as Disposições Finais (Artigo 20), qual foi o prazo estabelecido para a abertura de assinatura do Protocolo II?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo esteve aberto à assinatura imediatamente após a Conferência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo esteve aberto seis meses após a assinatura da Ata Final e permaneceu aberto por doze meses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo só pôde ser assinado após a ratificação de todos os membros da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo não teve prazo limite, permanecendo aberto indefinidamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 20**, o Protocolo estará aberto à assinatura seis meses após a Ata Final e permanecerá aberto durante doze meses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 849/1993 – Protocolo I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocolo I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os princípios gerais do Protocolo I, qual é o status jurídico das pessoas civis e combatentes em casos não previstos explicitamente no acordo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficam sem proteção legal até nova resolução da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanecem sob a proteção dos princípios do Direito Internacional, da humanidade e da consciência pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São submetidos exclusivamente à legislação interna do país ocupante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependem da boa vontade do comandante militar local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 1º, § 2º**, nos casos não previstos, as pessoas permanecem sob a proteção dos princípios de humanidade e ditames da consciência pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Artigo 22, como devem ser tratados os feridos, enfermos e náufragos civis encontrados a bordo de navios-hospitais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem ser capturados no mar e feitos prisioneiros de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser entregues imediatamente à Parte adversa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não poderão ser entregues a uma Parte adversa nem capturados no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser desembarcados em porto neutro obrigatoriamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 22, § 1º, alínea 'd'**, essas pessoas civis não poderão ser entregues a uma Parte adversa nem capturadas no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que ocorre juridicamente se um navio sanitário recusar inequivocamente obedecer a uma ordem de parada dada por um navio de guerra, conforme o Artigo 23?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio mantém sua proteção, mas paga multa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ato constitui um ato prejudicial ao inimigo, fazendo cessar a proteção outorgada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio de guerra deve apenas seguir o navio sanitário sem interferir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tripulação perde seus direitos civis permanentemente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 23, § 3º**, toda negativa inequívoca de obedecer a uma ordem constituirá um ato prejudicial ao inimigo, cessando a proteção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a distinção fundamental entre "perfídia" e "estratagema" estabelecida no Artigo 37?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambos são proibidos pelo Direito Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A perfídia apela à boa-fé para trair (proibida), enquanto o estratagema visa induzir a erro sem violar normas (permitido).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A perfídia é permitida em casos extremos, e o estratagema é sempre proibido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratagemas envolvem o uso de emblemas da ONU, enquanto perfídia envolve camuflagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 37, §§ 1º e 2º**, a perfídia é proibida por apelar à boa-fé (traição), enquanto estratagemas (como camuflagem) não são proibidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando uma pessoa é considerada "fora de combate" e, portanto, imune a ataques?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas quando está ferida e inconsciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando está em poder da Parte adversa, expressa intenção de render-se ou está incapacitada e se abstém de atos hostis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando perde sua arma, mesmo que tente fugir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando pertence a uma unidade logística, não combatente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 41, § 2º**, uma pessoa está fora de combate se está em poder do inimigo, rende-se ou está incapacitada, abstendo-se de atos hostis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a natureza das hostilidades impedir que um combatente se distinga da população civil pelo uniforme, o que ele deve fazer para manter seu estatuto de combatente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portar suas armas abertamente durante o engajamento e no desdobramento visível prévio ao ataque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gritar sua identificação antes de abrir fogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar uma braçadeira de cor viva em qualquer braço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portar documento de identidade militar no bolso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 44, § 3º**, o combatente conserva sua condição se portar armas abertamente durante o engajamento e deslocamento visível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a situação de um membro das Forças Armadas que recolhe informações em território controlado pelo adversário usando seu uniforme?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É considerado espião e perde o direito a ser prisioneiro de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não é considerado espião e mantém seus direitos de combatente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É considerado mercenário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser tratado como civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 46, § 2º**, não se considerará que realiza espionagem o membro que recolhe informação envergando o uniforme de suas Forças Armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o status jurídico dos mercenários segundo o Protocolo I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Têm direito ao estatuto de prisioneiro de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São equiparados a combatentes regulares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não têm direito ao estatuto de combatente ou de prisioneiro de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São protegidos como pessoal sanitário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 47, § 1º**, os mercenários não terão direito ao estatuto de combatente ou de prisioneiro de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a "Norma Fundamental" estabelecida no Artigo 48 para proteção da população civil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Partes devem distinguir sempre entre população civil e combatentes, dirigindo operações apenas contra objetivos militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Partes podem atacar civis se houver vantagem militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distinção só é necessária em guerras declaradas formalmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os bens civis podem ser atacados se estiverem vazios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 48**, as Partes devem sempre fazer distinção entre população civil/bens civis e combatentes/objetivos militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza um "ataque indiscriminado", proibido pelo Artigo 51?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques realizados exclusivamente por forças aéreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques que não se dirigem a um objetivo militar específico ou usam meios cujos efeitos não podem ser limitados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques contra instalações militares camufladas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques que causam qualquer tipo de dano material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 51, § 4º**, são indiscriminados os ataques não dirigidos a objetivo específico ou que empregam meios de efeitos ilimitados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de dúvida se um bem normalmente civil (como uma escola) está sendo usado para fins militares, qual deve ser a presunção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presume-se que é um objetivo militar legítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presume-se que não está sendo utilizado para fins militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decisão cabe ao comandante local sem restrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O bem perde qualquer proteção automaticamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 52, § 3º**, em caso de dúvida, será presumido que o bem não está sendo utilizado para contribuir com a ação militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É permitido destruir bens indispensáveis à sobrevivência da população civil (como colheitas e água) para privá-la de sustento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, se for para provocar o deslocamento da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, é proibido atacar ou destruir tais bens com a intenção de privar a população de sua subsistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, se os bens estiverem em território inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, exceto se a população for hostil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 54, § 2º**, é proibido atacar ou destruir bens indispensáveis com a intenção de privar a população civil de sua subsistência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando cessa a proteção especial conferida a represas e diques?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imediatamente após o início das hostilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente se forem usados para funções distintas das normais, em apoio regular e direto a operações militares, sendo o ataque o único meio de parar tal apoio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre que houver tropas inimigas a menos de 5km.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunca, a proteção é absoluta em qualquer circunstância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 56, § 2º, alínea 'a'**, a proteção cessa se a obra for usada em apoio significativo e direto a operações militares e o ataque for o único meio viável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual precaução deve ser tomada se um ataque planejado for causar danos civis excessivos em relação à vantagem militar concreta prevista?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ataque deve ser cancelado ou suspenso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ataque deve prosseguir, mas com aviso prévio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ataque deve ser realizado apenas com armas leves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve-se solicitar autorização ao Conselho de Segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 57, § 2º, alínea 'b'**, o ataque será cancelado ou suspenso se for previsível que causará danos excessivos (desproporcionais).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presença de forças policiais impede que uma localidade seja declarada "não defendida"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, qualquer força armada impede a declaração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, se retidas com a única finalidade de manter a ordem pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, a menos que estejam desarmadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, desde que submetidas ao comando militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 59, § 3º**, a presença de forças policiais para manter a ordem pública não contraria as condições de localidade não defendida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é estabelecida uma "zona desmilitarizada" segundo o Protocolo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por declaração unilateral de uma das Partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediante acordo expresso (verbal ou escrito) entre as Partes em conflito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por imposição de um Estado neutro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automaticamente, em áreas de hospitais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 60, § 2º**, o acordo será expresso e poderá ser concluído verbalmente ou por escrito entre as Partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o dever das Partes em conflito em relação ao Comitê Internacional da Cruz Vermelha (CICV)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem dar todas as facilidades possíveis para que desempenhe suas tarefas humanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem apenas garantir a segurança de seus escritórios, sem facilitar acesso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem vetar qualquer atividade humanitária sem justificativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem tratar o CICV como uma agência de notícias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 81, § 1º**, as Partes darão ao CICV todas as facilidades possíveis para desempenhar suas tarefas humanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das condutas abaixo é classificada como "infração grave" ao Protocolo I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso de estratagemas de guerra como camuflagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A demora injustificável na repatriação de prisioneiros de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A destruição de equipamento militar do adversário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A captura de combatentes inimigos em combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Art. 85, § 4º, alínea 'b'**, a demora injustificável na repatriação de prisioneiros de guerra constitui infração grave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um superior hierárquico pode ser responsabilizado por infrações cometidas por seus subordinados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, a responsabilidade penal é sempre individual e intransferível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, se sabia da infração e não tomou medidas para impedir ou reprimir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas se ele deu a ordem por escrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, mas apenas em casos de genocídio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Art. 86, § 2º**, o superior é responsável se sabia ou tinha informações e não tomou medidas para impedir ou reprimir a infração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 42.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feridos, Enfermos e Náufragos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as disposições gerais da Convenção (Art. 2º), em qual das situações abaixo a convenção **não** deixaria de ser aplicada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas em caso de guerra declarada formalmente por ambas as partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de ocupação de território, desde que haja resistência militar armada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em conflito armado onde o estado de guerra não é reconhecido por uma das partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas quando todas as potências em luta forem signatárias, sem exceção de reciprocidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 2º**, a Convenção aplica-se mesmo que o estado de guerra não seja reconhecido por uma das Partes Contratantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o Artigo 13, a população de um território não ocupado que pega em armas espontaneamente ao se aproximar o inimigo é protegida pela Convenção, desde que cumpra certas condições. Quais são elas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter um comando responsável e usar uniforme militar completo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portar armas ostensivamente e respeitar as leis e costumes de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter autorização prévia do governo local e usar emblema distintivo fixo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertencer a uma milícia organizada e ter treinamento militar comprovado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 13, item 6**, a população espontânea é protegida se portar armas ostensivamente e respeitar as leis e costumes de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Artigo 22, qual das circunstâncias abaixo **priva** uma unidade sanitária da proteção assegurada pela Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pessoal da unidade estar armado para defesa própria ou dos feridos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presença de armas portáteis e munições recolhidas dos feridos e ainda não entregues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A utilização da unidade para armazenar material bélico ofensivo e estratégico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A extensão da atividade humanitária da unidade a civis feridos ou enfermos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por exclusão e interpretação do **Artigo 22**, que lista fatos que **não** privam a unidade de proteção (como defesa própria, armas recolhidas ou atendimento a civis), o uso para fins bélicos ofensivos privaria a proteção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que uma sociedade de socorro de um país neutro possa prestar concurso a uma das Partes em luta, conforme o Artigo 27, é necessário:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a autorização da Cruz Vermelha Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O consentimento prévio de seu próprio governo e a autorização da Parte em luta interessada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A notificação à ONU e a aprovação de todos os países beligerantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a autorização do comandante militar da zona de operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 27**, exige-se o consentimento prévio de seu próprio governo e a autorização da Parte em luta interessada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o status jurídico do pessoal sanitário permanente (Art. 24 e 26) quando cai em poder da Parte adversária, segundo o Artigo 28?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São considerados prisioneiros de guerra e devem ser tratados como combatentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser libertados imediatamente e repatriados sem condições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não são considerados prisioneiros de guerra, mas sim pessoal "retido" para exercer suas funções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdem qualquer proteção especial e são julgados pelas leis do país captor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 28**, os membros do pessoal assim retidos não serão considerados prisioneiros de guerra, continuando a exercer suas funções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação ao pessoal de sociedades de países neutros (Art. 27) que cai em poder da Parte adversária, o Artigo 32 estabelece que:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles podem ser retidos se houver necessidade urgente de médicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles devem ser tratados como mercenários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles não poderão ser retidos e devem ser autorizados a voltar ao seu país assim que possível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles devem ser integrados ao serviço de saúde da Parte captora obrigatoriamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 32**, as pessoas mencionadas no artigo 27 não poderão ser retidas e serão autorizadas a voltar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como são considerados os bens móveis e imóveis das sociedades de socorros (como a Cruz Vermelha) segundo o Artigo 34?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriedade pública do Estado onde se encontram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriedade privada, sujeita a requisição apenas em caso de necessidade urgente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espólio de guerra, podendo ser confiscados livremente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriedade internacional inviolável, imune a qualquer requisição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 34**, tais bens serão considerados propriedade privada e o direito de requisição só se exerce em necessidade urgente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que ocorre, segundo o Artigo 36, se uma aeronave sanitária fizer uma aterrissagem fortuita em território inimigo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave é liberada, mas a carga é confiscada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tripulação é liberada, mas os feridos tornam-se prisioneiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os feridos, enfermos e a tripulação serão tratados como prisioneiros de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave e seus ocupantes podem prosseguir voo após inspeção sumária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 36**, em caso de aterrissagem fortuita em território inimigo, os feridos e tripulação serão tratados como prisioneiros de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a identificação correta para o pessoal sanitário auxiliar (Art. 25) enquanto desempenha suas funções, conforme o Artigo 41?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braçadeira com a cruz vermelha de dimensões normais e carteira de identidade especial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braçadeira branca com emblema distintivo de dimensões reduzidas no centro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a carteira de identidade militar padrão, sem braçadeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniforme branco completo com o emblema nas costas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 41**, o pessoal auxiliar usará uma braçadeira branca com o emblema distintivo de dimensões reduzidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Artigo 42, que bandeira uma unidade sanitária deve hastear caso caia em poder do inimigo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bandeira nacional da Parte a que pertence e a da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bandeira da Parte captora (inimiga).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a bandeira da Convenção (pavilhão distintivo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma bandeira, para evitar ataques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 42**, as unidades sanitárias que caírem em poder do inimigo só hastearão a bandeira da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 1533/1995 - CNUDM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte I - Introdução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as definições estabelecidas no Artigo 1 da Convenção, como se diferencia juridicamente o termo "alijamento" de outras formas de descarte ou poluição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "alijamento" inclui todo tipo de lançamento de detritos no mar, inclusive aqueles resultantes da exploração normal de embarcações e plataformas, sem exceções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de "alijamento" refere-se exclusivamente à poluição causada pela introdução de energia no meio marinho, não abrangendo o afundamento físico de embarcações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O termo "alijamento" abrange o afundamento deliberado de embarcações ou plataformas, mas exclui o depósito de matérias para fins outros que não o simples lançamento, desde que não contrarie a Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A definição de "alijamento" aplica-se apenas a lançamentos feitos a partir de navios, excluindo expressamente aeronaves e construções fixas no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 1, parágrafo 1, subitem 5, alíneas 'a' e 'b'**, o alijamento inclui o afundamento deliberado, mas exclui o depósito de matérias para outros fins que não o simples lançamento (subitem 5.b.ii).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte II - Mar Territorial e Zona Contígua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação ao traçado das linhas de base para medição da largura do mar territorial, quando é permitido o uso do método das linhas de base retas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre que o Estado costeiro desejar ampliar sua soberania sobre o alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas em costas com deltas, proibindo-se o uso em áreas com franja de ilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a costa apresentar recortes profundos e reentrâncias ou existir uma franja de ilhas ao longo da costa na sua proximidade imediata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente quando houver recifes visíveis na baixa-mar, independentemente da configuração da costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 7, parágrafo 1**, o método de linhas de base retas pode ser adotado onde a costa apresente recortes profundos ou franja de ilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o critério técnico estabelecido pela Convenção para que uma reentrância na costa seja juridicamente considerada uma "baía"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distância entre os pontos de entrada deve ser superior a 24 milhas marítimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sua superfície deve ser igual ou superior à de um semicírculo que tenha por diâmetro a linha traçada através da entrada da referida reentrância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reentrância deve conter instalações portuárias permanentes ou ancoradouros reconhecidos internacionalmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser reconhecida historicamente como tal por pelo menos três Estados vizinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 10, parágrafo 2**, uma reentrância não será considerada baía se sua superfície não for igual ou superior à de um semicírculo com diâmetro na entrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como deve ser realizada a delimitação do mar territorial entre Estados com costas adjacentes ou situadas frente a frente, na ausência de acordo em contrário?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela linha mediana cujos pontos são equidistantes dos pontos mais próximos das linhas de base de cada Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela extensão máxima de 12 milhas para o Estado com maior população costeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através de uma linha reta traçada a partir da capital de cada Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela divisão proporcional à área de terra firme de cada país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 15**, salvo acordo ou títulos históricos, nenhum Estado pode estender seu mar territorial além da linha mediana equidistante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual das seguintes atividades, se realizada por um navio estrangeiro no mar territorial, torna a sua passagem "não inocente" (prejudicial à paz, boa ordem ou segurança)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O lançamento, pouso ou recebimento a bordo de qualquer aeronave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A navegação contínua e rápida sem parar em instalações portuárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comunicação via rádio com as autoridades portuárias do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O transporte de cargas comerciais destinadas a outro Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 19, parágrafo 2, alínea 'e'**, o lançamento, pouso ou recebimento de aeronaves é considerado prejudicial à paz, boa ordem ou segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange aos deveres do Estado costeiro em relação à passagem inocente, o que é vedado a este Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exigir que navios utilizem rotas marítimas específicas para segurança da navegação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar publicidade aos perigos que ameacem a navegação em seu mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impor obrigações que tenham, na prática, o efeito de negar ou dificultar o direito de passagem inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adotar leis e regulamentos sobre a preservação do meio ambiente marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 24, parágrafo 1, alínea 'a'**, o Estado costeiro não deve impor obrigações que, na prática, neguem ou dificultem o direito de passagem inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em que situação o Estado costeiro pode suspender temporariamente o exercício do direito de passagem inocente de navios estrangeiros em determinadas áreas do seu mar territorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando desejar cobrar taxas de passagem para aumentar a arrecadação fiscal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a medida for indispensável para proteger a sua segurança, como para exercícios com armas, após devida publicidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A qualquer momento, sem necessidade de justificativa ou publicidade prévia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas em relação a navios mercantes que transportem produtos concorrentes aos nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 25, parágrafo 3**, a suspensão temporária é permitida se indispensável à segurança (ex: exercícios com armas) e após publicidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a extensão máxima e a finalidade da Zona Contígua segundo a Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estende-se até 200 milhas marítimas, visando a exploração econômica exclusiva dos recursos vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não pode exceder 12 milhas marítimas, sendo uma zona de soberania absoluta igual ao mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estende-se até 24 milhas marítimas das linhas de base, para fiscalização aduaneira, fiscal, de imigração ou sanitária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É indefinida, dependendo da capacidade tecnológica do Estado para fiscalizar o alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 33**, a zona contígua não pode exceder 24 milhas e destina-se à fiscalização de leis aduaneiras, fiscais, de imigração ou sanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte III - Estreitos Utilizados para a Navegação Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em qual das seguintes situações a Parte III da Convenção (referente aos Estreitos) **não** se aplica, devendo prevalecer a liberdade de navegação e sobrevoo aplicável ao alto mar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o estreito conecta uma parte do alto mar ao mar territorial de um Estado estrangeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o estreito for formado por uma ilha do Estado ribeirinho e o seu território continental, sem rota alternativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se por esse estreito passar uma rota de alto mar ou de ZEE igualmente conveniente pelas suas características hidrográficas e de navegação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o estreito tiver largura inferior a 24 milhas marítimas, independentemente das rotas existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 36**, a Parte III não se aplica se houver uma rota de alto mar ou ZEE igualmente conveniente; aplicam-se então as outras partes pertinentes (liberdade de navegação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a exigência imposta pelo Artigo 40 aos navios estrangeiros, incluindo os de investigação científica marinha, durante a passagem em trânsito pelos estreitos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem compartilhar todos os dados coletados com o Estado ribeirinho, mas não necessitam de autorização prévia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem realizar levantamentos hidrográficos livremente, desde que não interrompam o trânsito contínuo e rápido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estão proibidos de navegar pelos estreitos, devendo buscar rotas alternativas em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem efetuar quaisquer atividades de investigação ou de levantamentos hidrográficos sem autorização prévia dos Estados ribeirinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 40**, navios de investigação não podem efetuar atividades ou levantamentos sem autorização prévia dos Estados ribeirinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferentemente do regime de passagem inocente no mar territorial, qual é o dever específico dos Estados ribeirinhos em relação à **passagem em trânsito** nos estreitos internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem suspender a passagem temporariamente por motivos de segurança, desde que deem a devida publicidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não impedirão a passagem em trânsito e não haverá nenhuma suspensão da mesma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem fornecer praticagem obrigatória para todos os navios estrangeiros que cruzem o estreito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem cobrar taxas de passagem para financiar a manutenção de faróis e boias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 44**, os Estados ribeirinhos não impedirão a passagem e "não haverá nenhuma suspensão da passagem em trânsito".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte IV - Estados Arquipélagos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para que um Estado arquipélago possa traçar linhas de base arquipelágicas retas, deve-se respeitar uma condição específica relativa à proporção entre mar e terra. Qual é essa proporção exigida pela Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A razão entre a superfície marítima e a superfície terrestre deve situar-se entre um para um e nove para um.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A superfície terrestre deve ser sempre superior à superfície marítima em pelo menos 50%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A razão entre a superfície marítima e a superfície terrestre não pode exceder cem para um.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A superfície marítima deve ser no mínimo dez vezes maior que a superfície terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 47, parágrafo 1**, a razão entre a superfície marítima e a superfície terrestre deve situar-se entre 1:1 e 9:1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a Convenção regula os direitos de pesca tradicionais e outras atividades legítimas dos Estados vizinhos imediatamente adjacentes nas águas arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tais direitos são abolidos automaticamente com o estabelecimento das linhas de base arquipelágicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado arquipélago deve reconhecer tais direitos e regulá-los por acordos bilaterais, sendo vedada a transferência a terceiros Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os direitos de pesca tradicionais podem ser livremente transferidos a qualquer outro Estado que tenha interesse na região.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado arquipélago tem soberania absoluta para proibir unilateralmente qualquer atividade tradicional sem necessidade de acordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 51, parágrafo 1**, o Estado arquipélago reconhecerá tais direitos, regulados por acordos bilaterais, e tais direitos não poderão ser transferidos a terceiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao exercer o direito de passagem pelas rotas marítimas arquipelágicas designadas, qual é a limitação geográfica imposta aos navios e aeronaves em relação ao afastamento das linhas axiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem navegar livremente por toda a extensão das águas arquipelágicas, desde que mantenham o trânsito contínuo e rápido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem afastar-se mais de 50 milhas marítimas para cada lado das linhas axiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem manter-se estritamente sobre a linha axial, sem qualquer margem de desvio lateral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem afastar-se mais de 25 milhas marítimas para cada lado das linhas axiais, nem navegar a uma distância da costa inferior a 10% da distância entre os pontos mais próximos das ilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 53, parágrafo 5**, os navios e aeronaves não podem afastar-se mais de 25 milhas para cada lado das linhas axiais, respeitando o limite de 10% da distância da costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte V - Zona Econômica Exclusiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Convenção, qual é o limite máximo de extensão da Zona Econômica Exclusiva (ZEE) e a partir de onde ela é medida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 milhas marítimas a partir das linhas de base do mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 milhas marítimas a partir das linhas de base das quais se mede a largura do mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350 milhas marítimas a partir da costa, coincidindo com a plataforma continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 milhas marítimas a partir do limite exterior do mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 57**, a zona econômica exclusiva não se estenderá além de 200 milhas marítimas das linhas de base a partir das quais se mede a largura do mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que concerne às ilhas artificiais, instalações e estruturas na Zona Econômica Exclusiva, é correto afirmar que:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas possuem o estatuto jurídico de ilhas naturais, gerando seu próprio mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro pode estabelecer zonas de segurança ao redor delas, as quais não devem exceder, regra geral, 500 metros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elas afetam a delimitação do mar territorial e da própria zona econômica exclusiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro tem jurisdição compartilhada com a comunidade internacional sobre as leis aduaneiras nessas estruturas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 60, parágrafo 5º**, as zonas de segurança não excederão uma distância de 500 metros em volta destas ilhas artificiais, salvo exceções autorizadas por normas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o Estado costeiro não possui capacidade para efetuar a totalidade da captura permissível dos recursos vivos na sua ZEE, qual deve ser sua conduta segundo a Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve proibir a pesca na área excedente para garantir a preservação ambiental absoluta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve dar a outros Estados acesso ao excedente da captura, mediante acordos e em conformidade com seus regulamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve transferir sua soberania sobre os recursos vivos para uma organização regional de pesca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve permitir o acesso livre e irrestrito de qualquer Estado, sem necessidade de acordos prévios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 62, parágrafo 2º**, quando o Estado costeiro não tiver capacidade para efetuar a totalidade da captura permissível deve dar a outros Estados acesso ao excedente desta captura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual Estado detém o interesse e a responsabilidade primordiais sobre as populações de peixes anádromos (que se reproduzem em rios e vivem no mar)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado em cujos rios se originem essas populações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado em cuja Zona Econômica Exclusiva os peixes passam a maior parte da vida adulta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado que historicamente capturou a maior quantidade dessas espécies em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A organização internacional competente para a gestão de recursos pesqueiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 66, parágrafo 1º**, os Estados em cujos rios se originem as populações de peixes anádromos devem ter por tais populações o interesse e a responsabilidade primordiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre os direitos dos Estados sem litoral na Zona Econômica Exclusiva de Estados costeiros da mesma região, assinale a alternativa correta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles têm direito a participar, em base equitativa, no aproveitamento de uma parte apropriada dos excedentes dos recursos vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles possuem direitos de soberania para a exploração de recursos não vivos, como minérios no leito do mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles têm prioridade absoluta sobre o Estado costeiro na captura de recursos vivos caso demonstrem necessidade nutricional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles não possuem quaisquer direitos de exploração na ZEE, limitando-se seus direitos ao alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 69, parágrafo 1º**, os Estados sem litoral terão o direito a participar, numa base equitativa, no aproveitamento de uma parte apropriada dos excedentes dos recursos vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à execução das leis e regulamentos do Estado costeiro na ZEE, quais restrições são impostas às sanções por violações de pesca?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro pode aplicar qualquer sanção penal, incluindo prisão perpétua, dada a sua soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As sanções podem incluir penas privativas de liberdade apenas se houver reincidência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As sanções não podem incluir penas privativas de liberdade, salvo acordo em contrário, nem qualquer forma de pena corporal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As embarcações apresadas podem ser confiscadas definitivamente sem possibilidade de fiança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 73, parágrafo 3º**, as sanções estabelecidas pelo Estado costeiro (...) não podem incluir penas privativas de liberdade, salvo acordo em contrário (...), nem qualquer outra forma de pena corporal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como deve ser realizada a delimitação da Zona Econômica Exclusiva entre Estados com costas adjacentes ou situadas frente a frente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo princípio da equidistância estrita, sem considerar outras circunstâncias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por acordo, em conformidade com o direito internacional, a fim de se chegar a uma solução equitativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por decisão unilateral do Estado com maior extensão costeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automaticamente, estendendo-se a linha de fronteira terrestre até o limite de 200 milhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 74, parágrafo 1º**, a delimitação (...) deve ser feita por acordo, de conformidade com o direito internacional (...), a fim de se chegar a uma solução equitativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 1533/1995 - CNUDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VI - Plataforma Continental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a definição estabelecida na Convenção, o que compreende a margem continental de um Estado costeiro e o que é explicitamente excluído dela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compreende o leito e o subsolo da plataforma continental e os grandes fundos oceânicos, excluindo apenas as cristas oceânicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrange o prolongamento submerso da massa terrestre (leito, subsolo, talude e elevação), mas não compreende os grandes fundos oceânicos nem as suas cristas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limita-se estritamente à distância de 200 milhas marítimas, independentemente da geologia do talude ou da elevação continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclui todo o leito marinho até o ponto onde a profundidade atinge 2500 metros, incluindo o subsolo dos grandes fundos oceânicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **artigo 76, parágrafo 3º**, a margem compreende o prolongamento submerso (...) e não compreende nem os grandes fundos oceânicos, com as suas cristas, nem o seu subsolo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a plataforma continental se estende além das 200 milhas marítimas, quais são os critérios limites para o estabelecimento dos pontos fixos da linha exterior, conforme o Artigo 76?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A linha não deve exceder 350 milhas marítimas das linhas de base ou 100 milhas marítimas da isóbata de 2500 metros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O limite é fixo em 350 milhas marítimas para qualquer tipo de leito marinho, inclusive para cristas submarinas e grandes fundos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro pode estender sua plataforma indefinidamente, desde que comprove a existência de rochas sedimentares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A linha exterior deve ser traçada a uma distância máxima de 60 milhas da isóbata de 2500 metros, sem limite total de distância da costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **artigo 76, parágrafo 5º**, os pontos fixos (...) devem estar situados a uma distância que não exceda 350 milhas marítimas da linha de base (...) ou 100 milhas marítimas da isóbata de 2500 metros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre os direitos do Estado costeiro na plataforma continental, é correto afirmar que eles são:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependentes de ocupação real ou fictícia e de uma declaração expressa do Estado costeiro para terem validade internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitados aos recursos minerais, não abrangendo organismos vivos de qualquer espécie, mesmo as sedentárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivos, independentes de ocupação ou declaração expressa, e voltados para a exploração e aproveitamento dos recursos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estendidos automaticamente à coluna de água sobrejacente e ao espaço aéreo acima dela, garantindo soberania total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **artigo 77, parágrafos 2º e 3º**, os direitos são exclusivos e independentes da ocupação, real ou fictícia, ou de qualquer declaração expressa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando as disposições sobre a escavação de túneis na Parte VI da Convenção, qual é o direito assegurado ao Estado costeiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aproveitamento do subsolo por meio de escavação de túneis, independentemente da profundidade das águas no local considerado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A construção de túneis apenas até o limite das 200 milhas marítimas, sendo proibida além dessa distância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A escavação de túneis condicionada à aprovação prévia da Autoridade Internacional dos Fundos Marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso do subsolo para túneis somente se estes se destinarem exclusivamente ao transporte, vedada a exploração de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **artigo 85**, a Parte VI não prejudica o direito do Estado costeiro de aproveitar o subsolo por meio de escavação de túneis, independentemente da profundidade das águas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VII - Alto Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do Artigo 87 da Convenção, a liberdade do alto mar é exercida nas condições estabelecidas no Direito Internacional. Qual das opções abaixo apresenta corretamente liberdades compreendidas nesse conceito para Estados costeiros e sem litoral?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de pirataria, liberdade de comércio de escravos e liberdade de navegação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de soberania territorial, liberdade de pesca e liberdade de construção de ilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de navegação, liberdade de sobrevoo e liberdade de colocação de cabos submarinos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de jurisdição exclusiva sobre navios estrangeiros e liberdade de investigação científica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 87, parágrafo 1, alíneas 'a', 'b' e 'c'**, a liberdade do alto mar compreende, *inter alia*, a liberdade de navegação, sobrevoo e colocação de cabos e dutos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Artigo 92, qual é a consequência jurídica para um navio que navega sob a bandeira de dois ou mais Estados, utilizando-as segundo as suas conveniências?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio terá dupla nacionalidade reconhecida e protegida por ambos os Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio não poderá reivindicar qualquer dessas nacionalidades perante um terceiro Estado e pode ser considerado navio sem nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio ficará sujeito à jurisdição do Estado onde foi construído.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio deverá pagar taxas a ambos os Estados de bandeira, mas manterá seus privilégios de imunidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 92, parágrafo 2**, um navio nesta situação não pode reivindicar qualquer das nacionalidades e pode ser considerado como um navio sem nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de abalroamento ou incidente de navegação no alto mar que envolva responsabilidade penal do capitão, quais autoridades são competentes para iniciar procedimentos penais, segundo o Artigo 97?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As autoridades de qualquer Estado que tenha sofrido danos com o incidente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas as autoridades do Estado onde o navio aportar logo após o incidente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente as autoridades judiciais ou administrativas do Estado de bandeira ou do Estado do qual a pessoa seja nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As autoridades de qualquer Estado membro da Organização Marítima Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 97, parágrafo 1**, os procedimentos penais só podem ser iniciados perante as autoridades do Estado de bandeira ou do Estado do qual essas pessoas sejam nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 101 define os atos que constituem pirataria. Qual das alternativas descreve corretamente um elemento essencial dessa definição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser um ato de violência cometido por um navio de guerra contra outro navio de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser um ato ilícito de violência ou detenção cometido para fins privados, em alto mar, contra outro navio ou aeronave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ocorrer dentro do mar territorial de um Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve ser um ato cometido por motivos políticos por ordem de um governo estrangeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 101, alínea 'a', subitem 'i'**, pirataria envolve atos para fins privados cometidos pela tripulação de navio privado contra outro navio em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando a repressão às transmissões não autorizadas a partir do alto mar, o Artigo 109 estabelece múltiplas jurisdições competentes para processar os responsáveis. Qual dos seguintes Estados NÃO é listado explicitamente como competente no parágrafo 3º?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado de bandeira do navio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado em que podem receber-se as transmissões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado vizinho que não sofra interferências nem receba a transmissão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado do qual a pessoa responsável é nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O **Artigo 109, parágrafo 3**, lista os Estados de bandeira, de registro, da nacionalidade da pessoa, onde se recebam transmissões ou que sofram interferências, não incluindo Estados sem conexão com o fato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "Direito de Visita" (Artigo 110) permite que um navio de guerra verifique um navio estrangeiro no alto mar em circunstâncias específicas. Em qual das situações abaixo o direito de visita é justificado sem a necessidade de tratados específicos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando há suspeita de que o navio estrangeiro está praticando pesca ilegal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando há motivo razoável para suspeitar que o navio se dedica à pirataria ou ao tráfico de escravos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o navio estrangeiro se recusa a responder a sinais de rádio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o navio de guerra deseja realizar uma inspeção de rotina sanitária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 110, parágrafo 1, alíneas 'a' e 'b'**, o direito de visita existe se houver suspeita de pirataria ou tráfico de escravos (entre outros motivos listados).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre o "Direito de Perseguição" regulado no Artigo 111, em que momento esse direito cessa obrigatoriamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o navio perseguidor perde o contato visual por mais de uma hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No momento em que o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assim que o navio perseguido entra na zona contígua do Estado perseguidor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o navio perseguido atravessa a linha do equador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 111, parágrafo 3**, o direito de perseguição cessa quando o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tocante à conservação dos recursos vivos do alto mar, qual é o dever imposto aos Estados pelo Artigo 118 da Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O dever de competir agressivamente pelos recursos antes que se esgotem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O dever de proibir totalmente a pesca de espécies ameaçadas sem exceções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O dever de cooperar entre si na conservação e gestão dos recursos vivos, inclusive através de negociações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O dever de solicitar permissão ao Estado costeiro mais próximo para pescar em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 118**, os Estados devem cooperar na conservação e gestão dos recursos e efetuar negociações para tomar medidas necessárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VIII, IX e X - Ilhas, mares fechados e acesso ao mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Convenção estabelece distinções importantes entre ilhas e rochedos para fins de delimitação de espaços marítimos. Nos termos do Artigo 121, qual é a consequência jurídica para os rochedos que, por si próprios, não se prestam à habitação humana ou à vida econômica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles não geram direito a nenhum espaço marítimo, nem mesmo ao mar territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles geram direito apenas à zona contígua e à zona econômica exclusiva, mas não à plataforma continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles possuem mar territorial, mas não devem ter zona econômica exclusiva nem plataforma continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles são equiparados integralmente às ilhas, possuindo todos os espaços marítimos, incluindo a plataforma continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 121, parágrafo 3º**, os rochedos que não se prestam à habitação humana ou à vida econômica não devem ter zona econômica exclusiva nem plataforma continental (embora mantenham o mar territorial, conforme o parágrafo 2º).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 127 trata dos direitos aduaneiros e encargos aplicáveis ao tráfego em trânsito oriundo de ou destinado a Estados sem litoral. De acordo com este dispositivo, qual é a regra aplicável à tributação desse tráfego?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tráfego em trânsito está sujeito a todos os impostos de importação e exportação vigentes no Estado de trânsito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tráfego em trânsito não deve estar sujeito a quaisquer direitos aduaneiros ou impostos, exceto encargos por serviços específicos prestados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados sem litoral devem pagar uma taxa fixa anual ao Estado de trânsito em substituição aos impostos aduaneiros convencionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A isenção de impostos depende exclusivamente da aplicação da cláusula da nação mais favorecida entre os Estados envolvidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 127, parágrafo 1º**, o tráfego em trânsito não deve estar sujeito a quaisquer direitos aduaneiros, impostos ou outros encargos, com exceção dos encargos devidos por serviços específicos prestados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XI - A Área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o regime jurídico estabelecido para a "Área" e seus recursos, como é tratada a questão da soberania estatal sobre essa região?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados costeiros podem reivindicar soberania sobre a Área adjacente à sua plataforma continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania pode ser exercida por Estados tecnologicamente avançados, desde que notifiquem a Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhum Estado pode reivindicar ou exercer soberania sobre qualquer parte da Área ou seus recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reivindicação de soberania é permitida apenas para fins de investigação científica marinha pacífica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 137, parágrafo 1º**, nenhum Estado pode reivindicar ou exercer soberania ou direitos de soberania sobre qualquer parte da Área ou seus recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o princípio fundamental que deve orientar a realização das atividades na Área em relação aos benefícios gerados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As atividades devem beneficiar primariamente os Estados que realizam os investimentos financeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As atividades devem ser realizadas em benefício da humanidade em geral, independentemente da situação geográfica dos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os lucros devem ser divididos igualmente apenas entre os Estados membros do Conselho de Segurança da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O benefício deve ser exclusivo para os Estados costeiros adjacentes às zonas de exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 140, parágrafo 1º**, as atividades na Área devem ser realizadas em benefício da humanidade em geral, independentemente da situação geográfica dos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da transferência de tecnologia, qual é a obrigação da Autoridade e dos Estados Partes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vender tecnologia exclusivamente para empresas privadas multinacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperar para promover a transferência de tecnologia e conhecimentos científicos de modo que a Empresa e todos os Estados Partes sejam beneficiados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restringir o acesso à tecnologia para garantir a competitividade dos pioneiros na exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferir tecnologia apenas para Estados que já possuem programas avançados de mineração submarina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 144, parágrafo 2º**, a Autoridade e os Estados Partes devem cooperar para promover a transferência de tecnologia [...] de modo a que a Empresa e todos os Estados Partes sejam beneficiados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como devem ser tratados os objetos de caráter arqueológico e histórico encontrados na Área?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser comercializados para financiar as atividades da Autoridade Internacional dos Fundos Marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serão conservados ou dispostos em benefício da humanidade, considerando os direitos preferenciais do Estado de origem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertencem automaticamente ao Estado que realizou a descoberta, independentemente da origem histórica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser destruídos se interferirem nas atividades de mineração e exploração de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 149**, todos os objetos de caráter arqueológico e histórico achados na Área serão conservados ou deles se disporá em benefício da humanidade [...], tendo particularmente em conta os direitos preferenciais do Estado ou país de origem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as políticas gerais relativas às atividades na Área, qual medida visa proteger as economias dos Estados em desenvolvimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proibição total da exportação de minerais extraídos da Área para países desenvolvidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proteção contra efeitos adversos nas suas receitas de exportação resultantes da redução no preço ou volume de minerais causada por atividades na Área.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concessão de monopólio de exploração para consórcios formados exclusivamente por países em desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A isenção total de cumprimento das normas ambientais para operadores de países em desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 150, alínea h**, deve-se assegurar a proteção dos Estados em desenvolvimento no que se refere aos efeitos adversos [...] resultantes de uma redução no preço de um mineral afetado ou no volume de exportação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para controlar a produção na Área, estabelece-se um "período provisório". Qual é a duração definida para esse período?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 anos ou até que as reservas de níquel se esgotem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 anos a contar da data de assinatura da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 anos ou até o fim da Conferência de revisão, ou entrada em vigor de novos acordos, prevalecendo o prazo mais curto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeterminado, durando enquanto houver demanda global por nódulos polimetálicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 151, parágrafo 3º**, o período provisório deve durar 25 anos ou até ao fim da Conferência de revisão [...] ou até ao dia da entrada em vigor dos novos ajustes [...], prevalecendo o de prazo mais curto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são as entidades autorizadas a realizar atividades na Área em associação com a Autoridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a Empresa e organizações não-governamentais ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados Partes, empresas estatais ou pessoas físicas/jurídicas patrocinadas por Estados Partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente empresas privadas multinacionais sem vínculo estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a Organização das Nações Unidas diretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 153, parágrafo 2º, alínea b**, as atividades serão realizadas por Estados Partes ou empresas estatais, ou pessoas físicas ou jurídicas [...] quando patrocinadas por tais Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a Assembleia deverá convocar uma conferência para a revisão das disposições que regulamentam a exploração da Área?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imediatamente após a primeira descoberta de recursos minerais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dez anos após a entrada em vigor da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinze anos após o dia 1 de janeiro do ano do início da primeira produção comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinco anos após a criação da Autoridade Internacional dos Fundos Marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 155, parágrafo 1º**, a Assembleia convocará uma conferência quinze anos após o dia 1 de Janeiro do ano do início da primeira produção comercial com base num plano de trabalho aprovado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onde está localizada a sede da Autoridade Internacional dos Fundos Marinhos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Nova Iorque, Estados Unidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Genebra, Suíça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Hamburgo, Alemanha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Jamaica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 156, parágrafo 4º**, a Autoridade terá a sua sede na Jamaica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como são tomadas as decisões sobre questões de fundo na Assembleia da Autoridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por maioria simples dos membros presentes e votantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por consenso absoluto de todos os membros da Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por maioria de dois terços dos membros presentes e votantes, desde que inclua a maioria dos membros participantes na sessão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela decisão unilateral do Presidente da Assembleia após ouvir o Conselho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 159, parágrafo 8º**, as decisões sobre questões de fundos serão tomadas por maioria de dois terços dos membros presentes e votantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a composição numérica do Conselho da Autoridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 membros, similar ao Conselho de Segurança da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 membros da Autoridade, eleitos pela Assembleia segundo critérios específicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 membros, representando os maiores produtores de minérios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Estados Partes são membros do Conselho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 161, parágrafo 1º**, o Conselho é composto de 36 membros da Autoridade, eleitos pela Assembleia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para efeitos de votação no Conselho, como é definido o termo "consenso"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concordância de pelo menos três quartos dos membros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aprovação por unanimidade de todos os membros presentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ausência de qualquer objeção formal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aprovação da maioria simples sem vetos dos membros permanentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 161, parágrafo 8º, alínea e**, ‘consenso’ significa ausência de qualquer objeção formal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o prazo que o Conselho possui para tomar uma decisão sobre um plano de trabalho após sua apresentação pela Comissão Jurídica e Técnica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 meses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 162, parágrafo 2º, alínea j**, o Conselho tomará uma decisão sobre cada plano de trabalho nos 60 dias seguintes à sua apresentação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os órgãos específicos criados como órgãos do Conselho?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comissão de Finanças e Comissão de Administração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comissão de Segurança Marítima e Comissão de Exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comissão Jurídica e Técnica e Comissão de Planejamento Econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comissão de Arbitragem e Comissão de Conciliação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 163, parágrafo 1º**, são criados, como órgãos do Conselho: a) uma Comissão Jurídica e Técnica; b) uma Comissão de Planejamento Econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é uma das funções atribuídas à Comissão de Planejamento Econômico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitir ordens de emergência para suspender atividades na Área.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propor ao Conselho um sistema de compensação para Estados em desenvolvimento que sofram efeitos adversos das atividades na Área.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julgar controvérsias entre Estados Partes relativas à interpretação da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomear o pessoal administrativo do Secretariado da Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 164, parágrafo 2º, alínea d**, a Comissão deve propor ao Conselho [...] um sistema de compensação [...] em favor dos Estados em desenvolvimento que sofram efeitos adversos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Comissão Jurídica e Técnica tem a responsabilidade de recomendar ao Conselho medidas para proteger o meio marinho. O que ela deve fazer caso haja risco de danos graves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar uma opinião consultiva ao Tribunal Internacional do Direito do Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recomendar ao Conselho a emissão de ordens de emergência, inclusive a suspensão das operações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multar diretamente o operador responsável sem consultar o Conselho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumentar as taxas de exploração como compensação ambiental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 165, parágrafo 2º, alínea k**, a Comissão deve recomendar ao Conselho que emita ordens de emergência, inclusive ordens de suspensão [...] a fim de prevenir qualquer dano grave ao meio marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual restrição é imposta ao Secretário Geral e ao pessoal da Autoridade para garantir o caráter internacional do Secretariado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles não devem solicitar nem receber instruções de qualquer governo ou fonte estranha à Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles devem reportar todas as suas atividades ao governo de seu país de origem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles podem ter interesses financeiros na Área, desde que declarados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles devem ser exclusivamente nacionais do país onde a sede está localizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 168, parágrafo 1º**, o Secretário Geral e o pessoal da Autoridade não solicitarão nem receberão instruções de qualquer governo nem de nenhuma outra fonte estranha à Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a função da "Empresa" na estrutura da Autoridade Internacional dos Fundos Marinhos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuar como tribunal para resolução de disputas comerciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar diretamente as atividades na Área, bem como o transporte, processamento e comercialização dos minerais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas fiscalizar as atividades realizadas por empresas privadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerir o orçamento administrativo da Assembleia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 170, parágrafo 1º**, a Empresa é o órgão da Autoridade que realizará diretamente as atividades na Área [...] bem como o transporte, o processamento e a comercialização dos minerais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à imunidade de jurisdição e execução, qual é a prerrogativa da Autoridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Autoridade não goza de nenhuma imunidade e pode ser processada em qualquer tribunal nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Autoridade goza de imunidade absoluta, que nunca pode ser renunciada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Autoridade goza de imunidade, salvo na medida em que renuncie expressamente a ela num caso particular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A imunidade aplica-se apenas aos bens localizados na sede na Jamaica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 178**, a Autoridade [...] gozam de imunidade de jurisdição e de execução, salvo na medida em que a Autoridade renuncie expressamente a esta imunidade num caso particular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sob que condição a Assembleia pode suspender um Estado Parte do exercício dos direitos e privilégios de membro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o Estado atrasar o pagamento de contribuições por um mês.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o Estado violar grave e persistentemente as disposições da Parte XI, após determinação da Câmara de Controvérsias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o Estado se recusar a transferir tecnologia para a Empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por recomendação simples do Secretário Geral, sem necessidade de processo judicial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 185, parágrafos 1º e 2º**, a suspensão ocorre se o Estado tiver violado grave e persistentemente as disposições [...], mas nenhuma decisão pode ser tomada [...] até que a Câmara de Controvérsias [...] tenha determinado [a violação].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quem compete solucionar controvérsias entre um Estado Parte e a Autoridade relativas a atos que constituam violação da Parte XI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Conselho de Segurança das Nações Unidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Corte Internacional de Justiça, exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Câmara de Controvérsias dos Fundos Marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A um tribunal arbitral comercial privado escolhido pelo Estado Parte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 187, alínea b**, a Câmara de Controvérsias dos Fundos Marinhos terá competência [...] para solucionar [...] controvérsias entre um Estado Parte e a Autoridade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem tem legitimidade para solicitar pareceres consultivos à Câmara de Controvérsias dos Fundos Marinhos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer Estado Parte individualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Assembleia ou o Conselho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Secretário Geral ou a Empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações não-governamentais credenciadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 191**, a Câmara de Controvérsias dos Fundos Marinhos emitirá, a pedido da Assembleia ou do Conselho, pareceres consultivos sobre questões jurídicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XII - Proteção e Preservação do Meio Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as Disposições Gerais da Parte XII da Convenção, como se caracteriza o direito de soberania dos Estados sobre seus recursos naturais em relação ao meio ambiente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É absoluto e incondicional, permitindo a exploração irrestrita independentemente dos impactos no meio marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É inexistente, visto que os recursos naturais marinhos são considerados patrimônio comum da humanidade e geridos exclusivamente por órgãos internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um direito de soberania para aproveitar seus recursos segundo sua política ambiental, mas condicionado ao dever de proteger e preservar o meio marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É subordinado inteiramente às legislações dos Estados vizinhos, exigindo aprovação prévia para qualquer exploração de recursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 193**, os Estados têm o direito de soberania para aproveitar os seus recursos naturais (...) de conformidade com o seu dever de proteger e preservar o meio marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No que tange à introdução de espécies exóticas no meio marinho, qual é a obrigação imposta aos Estados pela Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados devem proibir qualquer transporte marítimo de espécies vivas, independentemente de serem nativas ou não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados devem tomar medidas para prevenir, reduzir e controlar a introdução, intencional ou acidental, de espécies estranhas ou novas que possam causar mudanças prejudiciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Convenção não regula a introdução de espécies, focando apenas na poluição por substâncias químicas e detritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados são encorajados a introduzir novas espécies para aumentar a biodiversidade, desde que comuniquem tal fato à organização internacional competente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 196, parágrafo 1º**, os Estados devem tomar todas as medidas necessárias para prevenir (...) a introdução intencional ou acidental (...) de espécies estranhas ou novas que nele possam provocar mudanças importantes ou prejudiciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com o objetivo de prevenir, reduzir e controlar a poluição do meio marinho, como as organizações internacionais devem tratar os Estados em desenvolvimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem aplicar as mesmas exigências financeiras e técnicas impostas aos Estados desenvolvidos, garantindo a isonomia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem conceder tratamento preferencial na distribuição de fundos, assistência técnica e utilização de seus serviços especializados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem excluí-los de quaisquer obrigações de preservação ambiental até que atinjam determinado nível de PIB per capita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem impor sanções mais leves em caso de poluição, mas não oferecer suporte financeiro ou técnico diferenciado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 203, alíneas 'a' e 'b'**, as organizações internacionais devem dar um tratamento preferencial aos Estados em desenvolvimento no que se refere à distribuição de fundos e assistência técnica (...) e utilização dos seus serviços especializados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre a poluição de origem terrestre, o Artigo 207 estabelece que os Estados devem adotar leis e regulamentos para controlá-la. Qual critério deve ser observado na elaboração dessas normas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser baseadas exclusivamente no direito consuetudinário local, ignorando práticas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem focar apenas na poluição visível a olho nu, desconsiderando substâncias dissolvidas na água.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ter em conta regras, normas, práticas e procedimentos recomendados e internacionalmente acordados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ser menos rigorosas que as normas aplicáveis a embarcações estrangeiras para proteger a indústria nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 207, parágrafo 1º**, os Estados devem adotar leis e regulamentos (...) tendo em conta regras e normas, bem como práticas e procedimentos recomendados e internacionalmente acordados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O alijamento (descarte deliberado) de resíduos no mar territorial, na zona econômica exclusiva ou na plataforma continental requer uma condição específica para ser realizado. Qual é essa condição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a notificação posterior à organização marítima internacional, sem necessidade de autorização estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O consentimento prévio expresso do Estado costeiro, que tem o direito de autorizar, regular e controlar esse alijamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aprovação por maioria simples dos Estados da região, independentemente da posição do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autorização exclusiva do Estado de bandeira do navio que realiza o alijamento, sem ingerência do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 210, parágrafo 5º**, o alijamento (...) não pode realizar-se sem o consentimento prévio expresso do Estado costeiro que tem o direito de autorizar, regular e controlar esse alijamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da execução das normas relativas à poluição, quem tem competência para executar leis e regulamentos sobre poluição por alijamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusivamente o Estado do porto onde a embarcação foi carregada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas a organização internacional competente, através de forças de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro (em suas zonas), o Estado de bandeira (seus navios) e o Estado onde ocorre a carga dos detritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente o Estado de bandeira da embarcação, em qualquer local onde ela esteja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 216, parágrafo 1º**, as leis (...) devem ser executados: a) pelo Estado costeiro (...); b) pelo Estado de bandeira (...); c) por qualquer Estado no que se refere a atos de carga de detritos (...).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se uma embarcação cometer uma infração às regras internacionais de poluição, qual é o dever do Estado de bandeira segundo o Artigo 217?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordenar uma investigação imediata e, se necessário, iniciar procedimentos relativos à alegada infração, independentemente do local desta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguardar que o Estado costeiro afetado solicite formalmente uma investigação antes de tomar qualquer medida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicar apenas sanções administrativas leves, delegando a investigação criminal ao Estado do porto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignorar a infração se ela ocorreu em alto mar, pois está fora da jurisdição de qualquer Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 217, parágrafo 4º**, o Estado de bandeira (...) deve ordenar uma investigação imediata e, se necessário, iniciar procedimentos (...), independentemente do local em que tenha sido cometida a infração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "Estado do Porto" possui competência para investigar descargas poluentes realizadas por uma embarcação que se encontra voluntariamente em seu porto. Qual é a extensão dessa competência quanto ao local da descarga?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restringe-se apenas a descargas ocorridas dentro do porto ou nas águas interiores desse Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode abranger descargas realizadas em alto mar ou em zonas de outros Estados, se violarem normas internacionais, sob certas condições de prova.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limita-se a descargas ocorridas na Zona Econômica Exclusiva do próprio Estado do Porto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não permite investigação de eventos passados, focando apenas na prevenção de futuras descargas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 218, parágrafo 1º**, este Estado poderá realizar investigações (...) relativos a qualquer descarga procedente dessa embarcação realizada fora das águas interiores, mar territorial ou zona econômica exclusiva desse Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação a acidentes marítimos (como abalroamentos ou encalhes) que ocorram além do mar territorial, o que a Convenção permite aos Estados fazerem para proteger seu litoral de poluição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada, pois qualquer ação além do mar territorial seria uma violação da soberania de alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar permissão ao Conselho de Segurança da ONU antes de qualquer intervenção física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomar e executar medidas proporcionais ao dano efetivo ou potencial para proteger seu litoral contra a poluição ou ameaça de poluição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas monitorar a situação e enviar a conta dos danos ao Estado de bandeira após a conclusão do desastre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 221, parágrafo 1º**, nenhuma das disposições (...) deve prejudicar o direito dos Estados de (...) tomar e executar medidas além do mar territorial proporcionalmente ao dano efetivo ou potencial a fim de proteger o seu litoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando uma investigação sobre uma embarcação estrangeira justifica uma inspeção material (física), a que se deve limitar inicialmente essa inspeção segundo o Artigo 226?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A uma busca completa em todos os compartimentos de carga e tanques de combustível do navio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A um exame dos certificados, registros e outros documentos que a embarcação é obrigada a ter a bordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao interrogatório de todos os tripulantes e passageiros a bordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À coleta imediata de amostras de óleo do motor para análise laboratorial em terra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 226, parágrafo 1º, alínea 'a'**, a inspeção material de uma embarcação estrangeira deve ser limitada a um exame dos certificados, registros e outros documentos que a embarcação é obrigada a ter a bordo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto às sanções aplicáveis a embarcações estrangeiras por poluição no mar territorial (salvo em caso de ato intencional e grave), que tipo de pena é permitida pelo Artigo 230?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penas privativas de liberdade (prisão) para o capitão e o proprietário da embarcação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O confisco permanente da embarcação e de sua carga em favor do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas penas pecuniárias (multas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proibição perpétua da embarcação navegar em águas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 230, parágrafo 2º**, só podem ser impostas penas pecuniárias no caso de infrações (...) por poluição (...) proveniente de embarcações estrangeiras no mar territorial, salvo ato internacional e grave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a Convenção trata a imunidade soberana de navios de guerra e embarcações de Estado em serviço governamental não comercial em relação às normas ambientais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles estão totalmente sujeitos a todas as disposições da Convenção, sem qualquer exceção ou imunidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As disposições não se aplicam a eles, mas os Estados devem adotar medidas apropriadas para que procedam de modo compatível com a Convenção, na medida do possível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles devem seguir as normas apenas quando estiverem em portos estrangeiros, mantendo imunidade em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A imunidade é absoluta e os Estados não têm nenhuma obrigação de adequar o comportamento desses navios às normas ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 236**, as disposições (...) não se aplicam a navios de guerra (...). Contudo, cada Estado deve assegurar (...) que tais embarcações (...) procedam, na medida do possível e razoável, de modo compatível com a presente Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tocante às disposições gerais sobre a promoção do desenvolvimento e transferência de tecnologia marinha, como a Convenção orienta o tratamento dos interesses das partes envolvidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados devem priorizar incondicionalmente os recebedores de tecnologia, isentando-os de quaisquer deveres comerciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados devem ter em devida conta todos os interesses legítimos, incluindo os direitos e deveres dos possuidores, fornecedores e recebedores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento tecnológico deve ser conduzido exclusivamente por organizações internacionais, sem considerar interesses de fornecedores privados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os interesses dos Estados em desenvolvimento prevalecem sobre a proteção jurídica de patentes e direitos de fornecedores em qualquer circunstância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 267**, ao promover a cooperação, os Estados devem ter em devida conta todos os interesses legítimos, incluindo direitos e deveres de possuidores e fornecedores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No âmbito das atividades na Área, a Autoridade possui objetivos específicos para auxiliar os Estados em desenvolvimento. Qual das alternativas descreve corretamente uma dessas obrigações da Autoridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir que a documentação técnica seja mantida em sigilo absoluto para proteger a propriedade industrial dos investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assegurar que os nacionais dos Estados em desenvolvimento sejam admitidos para fins de estágio como membros do pessoal de gestão, de investigação e técnico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restringir o acesso a programas de formação profissional apenas aos nacionais de Estados que já possuam infraestrutura tecnológica avançada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorizar a venda de equipamentos obsoletos dos Estados desenvolvidos para os Estados em desenvolvimento e sem litoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 274, alínea 'a'**, a Autoridade deve assegurar que nacionais de Estados em desenvolvimento sejam admitidos para fins de estágio no pessoal de gestão e técnico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os centros regionais desempenham um papel crucial na infraestrutura de conhecimento marinho. Dentre as funções listadas para esses centros, qual está explicitamente prevista no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A emissão de licenças exclusivas para a exploração comercial de recursos vivos na região de atuação do centro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A definição unilateral de fronteiras marítimas entre os Estados da região para facilitar a pesquisa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A compilação e sistematização de informações sobre comercialização de tecnologia e sobre os contratos e outros ajustes relativos a patentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proibição da disseminação de resultados de investigação científica para proteger segredos industriais regionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **Artigo 277, alínea 'h'**, as funções incluem a compilação e sistematização de informações sobre comercialização de tecnologia e contratos de patentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XV - Solução de Controvérsias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as disposições gerais da Parte XV da Convenção, qual é a obrigação primária dos Estados Partes ao surgir uma controvérsia relativa à interpretação ou aplicação da Convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem submeter a questão imediatamente ao Tribunal Internacional do Direito do Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem solucionar a controvérsia por meios pacíficos, em conformidade com a Carta das Nações Unidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem aguardar a intervenção do Conselho de Segurança das Nações Unidas antes de agir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem recorrer obrigatoriamente à arbitragem internacional prevista no Anexo VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 279**, os Estados Partes devem solucionar qualquer controvérsia por meios pacíficos, de conformidade com o parágrafo 3º do artigo 2 da Carta das Nações Unidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 287 da Convenção permite que um Estado escolha livremente um ou mais meios para a solução de controvérsias. Qual das opções abaixo NÃO é um dos meios listados neste artigo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tribunal Internacional do Direito do Mar (Anexo VI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte Penal Internacional (Estatuto de Roma).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte Internacional de Justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um tribunal arbitral constituído de conformidade com o Anexo VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 287, parágrafo 1º**, os meios listados são o Tribunal Internacional do Direito do Mar, a Corte Internacional de Justiça e tribunais arbitrais (Anexos VII e VIII), não incluindo a Corte Penal Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos casos em que as partes em uma controvérsia não tenham aceito o mesmo procedimento para a solução do litígio, qual será o mecanismo aplicável segundo a Convenção, salvo acordo em contrário?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controvérsia será submetida à Corte Internacional de Justiça.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controvérsia será submetida ao Tribunal Internacional do Direito do Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controvérsia só poderá ser submetida à arbitragem, de conformidade com o Anexo VII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controvérsia será resolvida diplomaticamente pelo Secretário Geral da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 287, parágrafo 5º**, se as partes não tiverem aceito o mesmo procedimento, a controvérsia só poderá ser submetida a arbitragem (Anexo VII), salvo acordo em contrário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da pronta libertação de embarcações e tripulações apresadas (Artigo 292), quem possui legitimidade para fazer o pedido de libertação à corte ou tribunal competente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer Estado Parte da Convenção que tenha interesse no comércio marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O armador da embarcação ou a seguradora da carga diretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas o Estado de bandeira da embarcação ou alguém em seu nome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As autoridades do Estado que efetuou a detenção, após pagamento de fiança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 292, parágrafo 2º**, o pedido de libertação só pode ser feito pelo Estado de bandeira da embarcação ou em seu nome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes de submeter uma controvérsia aos procedimentos da Seção 2 (Procedimentos Compulsórios), qual requisito prévio deve ser observado pelos Estados Partes em relação aos recursos internos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os recursos internos devem ser esgotados apenas se a controvérsia envolver atividades na Área.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não é necessário esgotar os recursos internos, pois o Direito do Mar tem primazia imediata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os recursos internos devem ser esgotados de conformidade com o direito internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O esgotamento de recursos internos é facultativo, dependendo da vontade do Estado demandante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 295**, a controvérsia só pode ser submetida aos procedimentos estabelecidos após esgotados os recursos internos de conformidade com o direito internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 298 permite que um Estado declare não aceitar determinados procedimentos compulsórios da Seção 2. Para qual das categorias abaixo essa exceção facultativa pode ser aplicada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controvérsias relativas à poluição marinha grave causada por navios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controvérsias relativas a atividades militares e delimitação de zonas marítimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controvérsias sobre a pronta libertação de embarcações e tripulações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controvérsias sobre a liberdade de navegação em alto mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 298, parágrafo 1º, alíneas 'a' e 'b'**, as exceções podem se aplicar a controvérsias relativas à delimitação de zonas marítimas e a atividades militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XVI - Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Parte XVI estabelece princípios gerais para o cumprimento da Convenção. O que o Artigo 300 determina sobre o modo como os Estados devem exercer seus direitos e jurisdição?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem exercer seus direitos de modo a maximizar o interesse econômico nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem cumprir as obrigações de boa fé e exercer os direitos de modo a não constituir abuso de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem exercer seus direitos baseados estritamente na reciprocidade diplomática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem priorizar a segurança nacional sobre qualquer outra disposição da Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 300**, os Estados Partes devem cumprir de boa fé as obrigações e exercer os direitos de modo a não constituir abuso de direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte XVII - Disposições Finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além dos Estados soberanos, a Convenção prevê a possibilidade de outras entidades assinarem o tratado. Qual das alternativas abaixo apresenta uma entidade mencionada no Artigo 305?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Namíbia, representada pelo Conselho das Nações Unidas para a Namíbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Não Governamentais (ONGs) com fins ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresas multinacionais de exploração de petróleo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comitê Internacional da Cruz Vermelha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 305, parágrafo 1º, alínea 'b'**, a Convenção está aberta à assinatura da Namíbia, representada pelo Conselho das Nações Unidas para a Namíbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Artigo 309 trata da admissibilidade de reservas e exceções à Convenção. Qual é a regra geral estabelecida por este dispositivo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservas são permitidas livremente para proteger a soberania nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservas são permitidas apenas para as disposições relativas à Zona Econômica Exclusiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Convenção não admite quaisquer reservas ou exceções, além das expressamente autorizadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservas são admitidas mediante aprovação de dois terços da Assembleia Geral da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **Artigo 309**, a Convenção não admite quaisquer reservas ou exceções além das por ela expressamente autorizadas noutros artigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No procedimento simplificado de emenda (Artigo 313), o que acontece se, no prazo de 12 meses após a transmissão da proposta, um Estado Parte apresentar uma objeção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A emenda é submetida a uma conferência diplomática para votação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A emenda será considerada rejeitada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A emenda entra em vigor apenas para os Estados que não objetaram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A objeção é ignorada se a maioria dos Estados apoiar a emenda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Artigo 313, parágrafo 2º**, se um Estado Parte apresentar objeção à emenda proposta pelo procedimento simplificado, a emenda será considerada rejeitada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Artigo 320, quais são os textos da Convenção considerados autênticos (que fazem fé igualmente)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas o texto em inglês, por ser a língua diplomática universal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os textos em Inglês e Francês, línguas de trabalho da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os textos em Árabe, Chinês, Espanhol, Francês, Inglês e Russo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os textos na língua de cada Estado Parte signatário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **Artigo 320**, os textos em Árabe, Chinês, Espanhol, Francês, Inglês e Russo fazem igualmente fé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Remo Manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte I: Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando o contexto histórico e a motivação para a criação do Manual de San Remo, qual documento de 1913 é citado pelos especialistas como o "equivalente moderno" cujas normas precisavam de atualização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Declaração de Londres sobre o Direito da Guerra Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual de Oxford sobre as Leis da Guerra Naval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Convenção de Haia relativa à conversão de navios mercantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo Adicional I às Convenções de Genebra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **Nota Introdutória**, os participantes veem o Manual como o equivalente moderno ao Manual de Oxford adotado em 1913.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Seção III do Manual, como a identificação de um agressor pelo Conselho de Segurança da ONU (sob o Capítulo VII da Carta) afeta as obrigações dos Estados neutros?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados neutros devem manter imparcialidade estrita, não auxiliando nem o agressor nem a vítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados neutros ficam autorizados a intervir militarmente sem mandato da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados neutros são obrigados a não prestar assistência ao agressor, exceto ajuda humanitária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados neutros perdem seu status e tornam-se automaticamente cobeligerantes ao lado da vítima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **item 7**, quando o CS identifica o agressor, os neutros são obrigados a não prestar assistência a esse Estado, exceto humanitária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo as definições estabelecidas na Seção V do Manual de San Remo, qual das alternativas descreve corretamente o conceito de "ataque"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer operação naval que envolva o disparo de armas, exclusivamente em modo ofensivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um ato de violência, seja ele ofensivo ou defensivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A invasão de águas territoriais inimigas por navios de guerra, mesmo sem disparo de armas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intercepção de navios mercantes neutros para inspeção de carga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **item 13(b)**, ataque significa um ato de violência, seja ofensivo ou defensivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte II: Regiões de Operações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as regras estabelecidas na Seção I sobre a permanência de navios de guerra beligerantes em águas neutras, qual é o limite temporal geral e suas exceções?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A permanência é ilimitada, desde que o navio não realize ações hostis ou utilize as águas como santuário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O limite é de 48 horas, podendo ser estendido caso o navio precise de reparos para restaurar sua capacidade de combate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O limite é de 12 horas, sendo estritamente proibida qualquer extensão de prazo, independentemente das condições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A permanência não pode exceder 24 horas, exceto se inevitável devido a danos ou condições meteorológicas adversas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 21**, um navio de guerra não pode estender sua permanência por mais de 24 horas, a menos que seja inevitável por danos ou condições meteorológicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do Manual, qual é o procedimento correto que um beligerante deve adotar caso um Estado neutro falhe em encerrar uma violação de sua neutralidade pelo beligerante oponente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O beligerante pode declarar guerra imediatamente ao Estado neutro por cumplicidade com o inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O beligerante deve notificar o Estado neutro e, se a ameaça for séria e imediata e não houver alternativa, poderá usar a força estritamente necessária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O beligerante deve aguardar uma resolução do Conselho de Segurança da ONU antes de tomar qualquer medida defensiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O beligerante está autorizado a ocupar temporariamente as águas territoriais do Estado neutro para garantir sua própria segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **parágrafo 22**, o beligerante deve notificar, dar prazo e, se a ameaça for séria/imediata e sem alternativa, usar a força estritamente necessária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante a passagem em trânsito por um estreito internacional neutro em tempos de conflito armado, que tipo de conduta é permitida às forças beligerantes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar a área do estreito como base de operações para lançar ataques surpresa contra o inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar operações ofensivas contra forças inimigas que também estejam transitando pelo estreito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adotar medidas defensivas compatíveis com sua segurança, como navegação em formação de proteção e lançamento de aeronaves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspender o tráfego de navios mercantes neutros para garantir o sigilo da passagem da frota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 30**, beligerantes podem adotar medidas defensivas (incluindo *screen formation* e lançamento de aeronaves), mas não podem realizar operações ofensivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte III: Regras Básicas e Discriminação do Alvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a definição de "objetivos militares" aplicável a objetos/bens no contexto de conflitos armados no mar, qual critério deve ser satisfeito para que um objeto seja legitimamente atacado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objeto deve pertencer ao inimigo, independentemente de sua função ou localização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objeto deve contribuir efetivamente para a ação militar e sua destruição deve oferecer uma vantagem militar definida nas circunstâncias da época.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objeto deve estar localizado dentro das águas territoriais de uma das partes beligerantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O objeto deve ser uma instalação militar tripulada por combatentes armados, excluindo-se qualquer bem de uso dual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 40**, objetivos militares são limitados àqueles que contribuam efetivamente para a ação militar e cuja destruição ofereça uma vantagem militar definida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Seção III do Manual lista diversas classes de navios inimigos isentos de ataque. No que tange aos navios encarregados de missões científicas, qual é a condição para que a isenção seja válida?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os navios científicos são isentos, independentemente do tipo de dados coletados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A isenção aplica-se apenas se o navio estiver transportando cientistas de nações neutras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios que coletam dados científicos com provável aplicação militar não são protegidos pela isenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A isenção é válida apenas se o navio tiver obtido um salvo-conduto prévio do Conselho de Segurança da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 47(f)**, navios que coletam dados científicos com provável aplicação militar não são protegidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sob quais circunstâncias específicas um navio-hospital, que tenha perdido sua isenção por violar condições de proteção, pode ser atacado como "último recurso"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imediatamente após o primeiro aviso de violação não ser atendido pelo capitão do navio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas se estiver transportando armas pesadas no convés visível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o desvio ou captura não for viável, não houver outro método de controle, a gravidade justificar e os danos colaterais não forem desproporcionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios-hospital jamais podem ser atacados, mesmo que violem sua isenção e atuem como navios de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 51**, o ataque só ocorre se desvio/captura não for viável, sem outro método de controle, gravidade suficiente e proporcionalidade nos danos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual estabelece que navios mercantes inimigos podem se tornar objetivos militares se realizarem certas atividades. Qual das opções abaixo descreve corretamente uma dessas atividades, excluindo as exceções previstas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estar armado com armas individuais leves para defesa da tripulação contra piratas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportar suprimentos de alimentos destinados exclusivamente à população civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuar como auxiliar das forças armadas inimigas, transportando tropas ou reabastecendo navios de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegar em águas internacionais sem escolta militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **parágrafo 60(b)**, atuar como auxiliar (transporte de tropas/reabastecimento) torna o navio mercante um objetivo militar; o item 60(f) exclui armas leves de defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação aos navios mercantes neutros, o Manual de San Remo estipula regras estritas para o ataque. Qual é o entendimento do Manual sobre o fato de um navio mercante neutro estar armado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O armamento torna o navio automaticamente um alvo legítimo, pois perde sua característica civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O simples fato de estar armado não constitui, por si só, fundamento para atacá-lo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio só pode ser atacado se as armas forem de calibre superior a 20mm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O armamento permite o ataque imediato, a menos que o navio declare neutralidade via rádio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto explícito do **parágrafo 69**, o simples fato de um navio mercante neutro estar armado não constitui fundamento para atacá-lo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para garantir a segurança da aviação civil em áreas de conflito, os Estados devem emitir um Aviso aos Aeronavegantes (NOTAM). Que tipo de informação esse aviso deve conter obrigatoriamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lista de passageiros e cargas de todas as aeronaves militares na região.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As coordenadas exatas de todas as bases navais secretas dos beligerantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações sobre frequências de escuta, procedimentos de identificação e possíveis ações militares caso o aviso não seja cumprido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A declaração política das razões do conflito e os objetivos estratégicos da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 75**, o NOTAM deve incluir frequências, códigos de identificação, restrições e procedimentos para responder a contatos militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte IV: Métodos e meios de Guerra no Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as regras sobre o uso de minas navais estabelecidas na Seção I, em qual das situações abaixo o uso de minas flutuantes é permitido?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso de minas flutuantes é permitido em qualquer circunstância para negar acesso a uma área marítima, desde que notificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É estritamente proibido o uso de qualquer tipo de mina flutuante, independentemente de seus mecanismos de segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso é permitido apenas se forem direcionadas contra um objetivo militar e se tornarem inofensivas dentro de uma hora após a perda de controle sobre elas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É permitido o uso de minas flutuantes em águas neutras, desde que não impeçam o trânsito de navios mercantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 82**, minas flutuantes são proibidas a menos que visem objetivo militar e se tornem inofensivas em 1 hora após perda de controle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual de San Remo impõe limitações humanitárias ao estabelecimento de bloqueios navais. Qual das opções abaixo descreve corretamente uma proibição explícita ao estabelecimento de um bloqueio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um bloqueio é proibido se não for ratificado pelo Conselho de Segurança das Nações Unidas no prazo de 48 horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A declaração de bloqueio é proibida se tiver o único objetivo de passar fome à população civil ou se o dano causado for excessivo em relação à vantagem militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibido estabelecer bloqueios que impeçam a importação de bens de luxo destinados à elite política do Estado inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um bloqueio é considerado ilegal se a força naval bloqueadora estiver posicionada fora do mar territorial do Estado inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 102**, o bloqueio é proibido se visar apenas a fome da população civil ou se causar dano excessivo/desproporcional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Seção III trata da distinção entre estratagemas de guerra (permitidos) e condutas proibidas como a perfídia e o uso indevido de status protegido. Qual das condutas abaixo é expressamente permitida pelo Manual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeronaves militares fingirem ter status civil ou neutro para evitar detecção pelos radares inimigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de guerra simularem ativamente o status de navios-hospital ou de missões humanitárias para realizar reconhecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso de estratagemas de guerra, desde que não violem o direito internacional, sendo vedado, contudo, lançar ataque sob bandeira falsa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lançar um ataque fingindo rendição ou situação de emergência (como emitir sinais de socorro) para atrair o inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **parágrafo 110**, estratagemas são permitidos, mas é proibido atacar sob bandeira falsa ou simular status protegido; as demais opções são proibidas (parágrafos 109 e 111).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte V: Medidas curtas de ataque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da determinação do caráter de navios durante um conflito armado, qual é o valor probatório atribuído pelo Manual ao fato de um navio mercante hastear a bandeira de um Estado neutro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constitui prova conclusiva e irrefutável de seu caráter neutro, impedindo qualquer visita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constitui apenas prova *prima facie* (à primeira vista) de seu caráter neutro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não possui valor probatório, sendo necessária a inspeção física obrigatória em todos os casos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constitui prova de caráter inimigo se o navio estiver em zona de exclusão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 113**, o fato de hastear bandeira neutra constitui prova *prima facie* de seu caráter neutro, diferentemente da bandeira inimiga que é prova conclusiva (parágrafo 112).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Seção II prevê isenções ao exercício do direito de visita e busca. Um navio mercante neutro estaria isento desse procedimento se, entre outras condições, estivesse sob a escolta de:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um navio mercante armado da mesma nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma aeronave civil de observação da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um navio de guerra neutro da mesma nacionalidade ou de Estado com acordo de comboio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um navio de guerra beligerante que lhe concedeu salvo-conduto temporário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 120(b)**, a isenção aplica-se se estiver sob escolta de um navio de guerra neutro da mesma nacionalidade ou de Estado com acordo firmado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação às operações navais e a segurança das aeronaves civis, qual é a obrigação imposta às aeronaves civis que se encontrem nas imediações imediatas de tais operações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem manter o silêncio de rádio e aumentar a altitude para 30.000 pés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem cumprir as instruções dos combatentes quanto ao rumo e altitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem pousar imediatamente no aeroporto neutro mais próximo, independentemente de instruções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem continuar sua rota original, pois possuem imunidade absoluta contra interferências militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **parágrafo 131**, nas imediações imediatas de operações navais, as aeronaves civis devem cumprir as instruções dos combatentes quanto ao rumo e altitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Seção IV estabelece que certos navios são isentos de captura. No entanto, existe uma exceção específica para navios encarregados de missões científicas. Em qual situação eles perdem essa proteção e podem ser capturados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a missão científica for financiada por uma universidade privada de um país inimigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se recolherem dados científicos de provável aplicação militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a tripulação científica for composta por nacionais de países beligerantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se navegarem sem luzes de navegação durante a noite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 136(e)**, navios que recolhem dados científicos de provável aplicação militar não estão protegidos pela isenção de captura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios mercantes neutros estão sujeitos à captura fora das águas neutras em circunstâncias específicas listadas no Manual. Qual das alternativas abaixo constitui um fundamento válido para a captura de um navio mercante neutro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o navio transportar correspondência diplomática de qualquer Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o navio estiver violando ou tentando violar um bloqueio estabelecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o navio tiver sido construído em estaleiro inimigo, independentemente de sua propriedade atual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o capitão do navio se recusar a saudar a bandeira do navio de guerra beligerante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o **parágrafo 146(f)**, navios mercantes neutros estão sujeitos à captura se estiverem violando ou tentando violar um bloqueio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A destruição de um navio neutro capturado é uma medida excepcional. Qual é o critério quantitativo relativo ao contrabando que, se não atendido, impede absolutamente a destruição do navio segundo o parágrafo 151?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio não pode ser destruído a menos que o contrabando constitua a totalidade (100%) da carga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio não pode ser destruído se transportar qualquer quantidade de "bens livres", como itens religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O navio não pode ser destruído a menos que o contrabando constitua mais da metade da carga (por valor, peso, volume ou frete).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A destruição é permitida independentemente da quantidade de contrabando, desde que haja necessidade militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 151** (parte final), um navio não pode ser destruído a menos que o contrabando constitua mais da metade da carga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é exercido o procedimento de captura de uma aeronave civil neutra de acordo com a Seção VII do Manual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave é abatida após aviso prévio se recusar a mudar de rota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A captura é declarada via rádio, sem necessidade de alteração de rota da aeronave civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interceptando a aeronave, ordenando que siga para um aeródromo beligerante seguro e, após pouso e visita, tomando-a como prêmio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas através da apreensão dos bens a bordo, permitindo que a aeronave siga viagem após o confisco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 156**, a captura exerce-se interceptando, ordenando pouso em aeródromo beligerante e tomando-a como prêmio após visita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte VI: Pessoas protegidas, transportes médicos e aeronaves médicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual de San Remo prevê a possibilidade de acordos especiais entre as partes em conflito para fins humanitários no mar. Qual das alternativas descreve corretamente essa previsão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As partes podem criar zonas desmilitarizadas em qualquer parte do oceano, onde nenhum navio de guerra pode transitar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As partes podem concordar em criar uma zona em área definida onde somente atividades compatíveis com fins humanitários são permitidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É proibida a criação de zonas restritas no mar, pois isso violaria o princípio da liberdade de navegação em águas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As zonas humanitárias só podem ser estabelecidas em águas arquipelágicas ou no mar territorial de Estados neutros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **parágrafo 160**, as partes podem concordar em criar uma zona em área definida onde somente atividades compatíveis com fins humanitários são permitidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação aos equipamentos e meios permitidos a bordo de navios-hospital para o cumprimento de sua missão, o que dispõe o Manual sobre o uso de equipamentos criptográficos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso de qualquer equipamento criptográfico é estritamente proibido, para garantir a total transparência das comunicações humanitárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É permitido o uso de criptografia apenas se houver um oficial neutro a bordo para supervisionar as transmissões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os navios-hospital devem ter permissão para usar equipamentos criptográficos, desde que não sejam usados para transmitir dados de inteligência ou obter vantagem militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso é permitido irrestritamente, inclusive para relatar posições de navios de combate inimigos avistados durante o resgate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos do **parágrafo 171**, navios-hospital podem usar criptografia para sua missão, mas é proibido usá-la para inteligência ou vantagem militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se uma aeronave médica entrar no espaço aéreo neutro por erro de navegação ou emergência, sem acordo prévio, qual deve ser o procedimento correto segundo o Manual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave deve ser imediatamente abatida pelas defesas antiaéreas do Estado neutro para preservar sua neutralidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave deve envidar esforços para notificar e identificar-se; uma vez reconhecida, não pode ser atacada, mas pode ser obrigada a pousar para inspeção antes de ser autorizada a retomar o voo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave deve ser capturada imediatamente e todos os seus ocupantes, incluindo os doentes, devem ser tornados prisioneiros de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aeronave tem imunidade absoluta e não pode ser interceptada, inspecionada ou desviada pelo Estado neutro sob nenhuma circunstância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o **parágrafo 182**, a aeronave deve se identificar e, se reconhecida, não pode ser atacada, mas pode ser inspecionada e, se validada, autorizada a seguir.</t>
   </si>
 </sst>
 </file>
@@ -16106,7 +18878,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16379,10 +19151,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L864"/>
+  <dimension ref="A1:L1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A840" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A864" activeCellId="0" sqref="864:864"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A975" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A985" activeCellId="0" sqref="985:1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43240,8 +46012,7 @@
       <c r="J814" s="9" t="s">
         <v>4986</v>
       </c>
-      <c r="K814" s="0"/>
-      <c r="L814" s="0"/>
+      <c r="L814" s="1"/>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="9" t="s">
@@ -43274,8 +46045,7 @@
       <c r="J815" s="9" t="s">
         <v>4992</v>
       </c>
-      <c r="K815" s="0"/>
-      <c r="L815" s="0"/>
+      <c r="L815" s="1"/>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="9" t="s">
@@ -43308,8 +46078,7 @@
       <c r="J816" s="9" t="s">
         <v>4998</v>
       </c>
-      <c r="K816" s="0"/>
-      <c r="L816" s="0"/>
+      <c r="L816" s="1"/>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="9" t="s">
@@ -43342,8 +46111,7 @@
       <c r="J817" s="9" t="s">
         <v>5004</v>
       </c>
-      <c r="K817" s="0"/>
-      <c r="L817" s="0"/>
+      <c r="L817" s="1"/>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="9" t="s">
@@ -43376,8 +46144,7 @@
       <c r="J818" s="9" t="s">
         <v>5010</v>
       </c>
-      <c r="K818" s="0"/>
-      <c r="L818" s="0"/>
+      <c r="L818" s="1"/>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="9" t="s">
@@ -43410,8 +46177,7 @@
       <c r="J819" s="9" t="s">
         <v>5016</v>
       </c>
-      <c r="K819" s="0"/>
-      <c r="L819" s="0"/>
+      <c r="L819" s="1"/>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="9" t="s">
@@ -43444,8 +46210,7 @@
       <c r="J820" s="9" t="s">
         <v>5022</v>
       </c>
-      <c r="K820" s="0"/>
-      <c r="L820" s="0"/>
+      <c r="L820" s="1"/>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="9" t="s">
@@ -43478,8 +46243,7 @@
       <c r="J821" s="9" t="s">
         <v>5028</v>
       </c>
-      <c r="K821" s="0"/>
-      <c r="L821" s="0"/>
+      <c r="L821" s="1"/>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="9" t="s">
@@ -43512,8 +46276,7 @@
       <c r="J822" s="9" t="s">
         <v>5034</v>
       </c>
-      <c r="K822" s="0"/>
-      <c r="L822" s="0"/>
+      <c r="L822" s="1"/>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="9" t="s">
@@ -43546,8 +46309,7 @@
       <c r="J823" s="9" t="s">
         <v>5040</v>
       </c>
-      <c r="K823" s="0"/>
-      <c r="L823" s="0"/>
+      <c r="L823" s="1"/>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="9" t="s">
@@ -43580,8 +46342,7 @@
       <c r="J824" s="9" t="s">
         <v>5046</v>
       </c>
-      <c r="K824" s="0"/>
-      <c r="L824" s="0"/>
+      <c r="L824" s="1"/>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="9" t="s">
@@ -43614,8 +46375,7 @@
       <c r="J825" s="9" t="s">
         <v>5053</v>
       </c>
-      <c r="K825" s="0"/>
-      <c r="L825" s="0"/>
+      <c r="L825" s="1"/>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="9" t="s">
@@ -43648,8 +46408,7 @@
       <c r="J826" s="9" t="s">
         <v>5059</v>
       </c>
-      <c r="K826" s="0"/>
-      <c r="L826" s="0"/>
+      <c r="L826" s="1"/>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="9" t="s">
@@ -43682,8 +46441,7 @@
       <c r="J827" s="9" t="s">
         <v>5065</v>
       </c>
-      <c r="K827" s="0"/>
-      <c r="L827" s="0"/>
+      <c r="L827" s="1"/>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="9" t="s">
@@ -43716,8 +46474,7 @@
       <c r="J828" s="9" t="s">
         <v>5071</v>
       </c>
-      <c r="K828" s="0"/>
-      <c r="L828" s="0"/>
+      <c r="L828" s="1"/>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="9" t="s">
@@ -43750,8 +46507,7 @@
       <c r="J829" s="9" t="s">
         <v>5078</v>
       </c>
-      <c r="K829" s="0"/>
-      <c r="L829" s="0"/>
+      <c r="L829" s="1"/>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="9" t="s">
@@ -43784,8 +46540,7 @@
       <c r="J830" s="9" t="s">
         <v>5084</v>
       </c>
-      <c r="K830" s="0"/>
-      <c r="L830" s="0"/>
+      <c r="L830" s="1"/>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="9" t="s">
@@ -43818,8 +46573,7 @@
       <c r="J831" s="9" t="s">
         <v>5090</v>
       </c>
-      <c r="K831" s="0"/>
-      <c r="L831" s="0"/>
+      <c r="L831" s="1"/>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="9" t="s">
@@ -43852,8 +46606,7 @@
       <c r="J832" s="9" t="s">
         <v>5096</v>
       </c>
-      <c r="K832" s="0"/>
-      <c r="L832" s="0"/>
+      <c r="L832" s="1"/>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="9" t="s">
@@ -43886,8 +46639,7 @@
       <c r="J833" s="9" t="s">
         <v>5102</v>
       </c>
-      <c r="K833" s="0"/>
-      <c r="L833" s="0"/>
+      <c r="L833" s="1"/>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="9" t="s">
@@ -43920,8 +46672,7 @@
       <c r="J834" s="9" t="s">
         <v>5109</v>
       </c>
-      <c r="K834" s="0"/>
-      <c r="L834" s="0"/>
+      <c r="L834" s="1"/>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="9" t="s">
@@ -43954,8 +46705,7 @@
       <c r="J835" s="9" t="s">
         <v>5115</v>
       </c>
-      <c r="K835" s="0"/>
-      <c r="L835" s="0"/>
+      <c r="L835" s="1"/>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="9" t="s">
@@ -43988,8 +46738,7 @@
       <c r="J836" s="9" t="s">
         <v>5121</v>
       </c>
-      <c r="K836" s="0"/>
-      <c r="L836" s="0"/>
+      <c r="L836" s="1"/>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="9" t="s">
@@ -44022,8 +46771,7 @@
       <c r="J837" s="9" t="s">
         <v>5127</v>
       </c>
-      <c r="K837" s="0"/>
-      <c r="L837" s="0"/>
+      <c r="L837" s="1"/>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="9" t="s">
@@ -44056,8 +46804,7 @@
       <c r="J838" s="9" t="s">
         <v>5133</v>
       </c>
-      <c r="K838" s="0"/>
-      <c r="L838" s="0"/>
+      <c r="L838" s="1"/>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="9" t="s">
@@ -44090,8 +46837,7 @@
       <c r="J839" s="9" t="s">
         <v>5139</v>
       </c>
-      <c r="K839" s="0"/>
-      <c r="L839" s="0"/>
+      <c r="L839" s="1"/>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="9" t="s">
@@ -44124,8 +46870,7 @@
       <c r="J840" s="9" t="s">
         <v>5144</v>
       </c>
-      <c r="K840" s="0"/>
-      <c r="L840" s="0"/>
+      <c r="L840" s="1"/>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="9" t="s">
@@ -44158,8 +46903,7 @@
       <c r="J841" s="9" t="s">
         <v>5150</v>
       </c>
-      <c r="K841" s="0"/>
-      <c r="L841" s="0"/>
+      <c r="L841" s="1"/>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="9" t="s">
@@ -44192,8 +46936,7 @@
       <c r="J842" s="9" t="s">
         <v>5156</v>
       </c>
-      <c r="K842" s="0"/>
-      <c r="L842" s="0"/>
+      <c r="L842" s="1"/>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="9" t="s">
@@ -44226,8 +46969,7 @@
       <c r="J843" s="9" t="s">
         <v>5163</v>
       </c>
-      <c r="K843" s="0"/>
-      <c r="L843" s="0"/>
+      <c r="L843" s="1"/>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="9" t="s">
@@ -44260,8 +47002,7 @@
       <c r="J844" s="9" t="s">
         <v>5169</v>
       </c>
-      <c r="K844" s="0"/>
-      <c r="L844" s="0"/>
+      <c r="L844" s="1"/>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="9" t="s">
@@ -44294,8 +47035,7 @@
       <c r="J845" s="9" t="s">
         <v>5175</v>
       </c>
-      <c r="K845" s="0"/>
-      <c r="L845" s="0"/>
+      <c r="L845" s="1"/>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="9" t="s">
@@ -44328,8 +47068,7 @@
       <c r="J846" s="9" t="s">
         <v>5183</v>
       </c>
-      <c r="K846" s="0"/>
-      <c r="L846" s="0"/>
+      <c r="L846" s="1"/>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="9" t="s">
@@ -44362,8 +47101,7 @@
       <c r="J847" s="9" t="s">
         <v>5190</v>
       </c>
-      <c r="K847" s="0"/>
-      <c r="L847" s="0"/>
+      <c r="L847" s="1"/>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="9" t="s">
@@ -44396,8 +47134,7 @@
       <c r="J848" s="9" t="s">
         <v>5197</v>
       </c>
-      <c r="K848" s="0"/>
-      <c r="L848" s="0"/>
+      <c r="L848" s="1"/>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="9" t="s">
@@ -44430,8 +47167,7 @@
       <c r="J849" s="9" t="s">
         <v>5204</v>
       </c>
-      <c r="K849" s="0"/>
-      <c r="L849" s="0"/>
+      <c r="L849" s="1"/>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="9" t="s">
@@ -44464,8 +47200,7 @@
       <c r="J850" s="9" t="s">
         <v>5211</v>
       </c>
-      <c r="K850" s="0"/>
-      <c r="L850" s="0"/>
+      <c r="L850" s="1"/>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="9" t="s">
@@ -44498,8 +47233,7 @@
       <c r="J851" s="9" t="s">
         <v>5219</v>
       </c>
-      <c r="K851" s="0"/>
-      <c r="L851" s="0"/>
+      <c r="L851" s="1"/>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="9" t="s">
@@ -44532,8 +47266,7 @@
       <c r="J852" s="9" t="s">
         <v>5227</v>
       </c>
-      <c r="K852" s="0"/>
-      <c r="L852" s="0"/>
+      <c r="L852" s="1"/>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="9" t="s">
@@ -44566,8 +47299,7 @@
       <c r="J853" s="9" t="s">
         <v>5234</v>
       </c>
-      <c r="K853" s="0"/>
-      <c r="L853" s="0"/>
+      <c r="L853" s="1"/>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="9" t="s">
@@ -44600,8 +47332,7 @@
       <c r="J854" s="9" t="s">
         <v>5241</v>
       </c>
-      <c r="K854" s="0"/>
-      <c r="L854" s="0"/>
+      <c r="L854" s="1"/>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="9" t="s">
@@ -44634,8 +47365,7 @@
       <c r="J855" s="9" t="s">
         <v>5248</v>
       </c>
-      <c r="K855" s="0"/>
-      <c r="L855" s="0"/>
+      <c r="L855" s="1"/>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="9" t="s">
@@ -44668,8 +47398,7 @@
       <c r="J856" s="9" t="s">
         <v>5256</v>
       </c>
-      <c r="K856" s="0"/>
-      <c r="L856" s="0"/>
+      <c r="L856" s="1"/>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="9" t="s">
@@ -44702,8 +47431,7 @@
       <c r="J857" s="9" t="s">
         <v>5263</v>
       </c>
-      <c r="K857" s="0"/>
-      <c r="L857" s="0"/>
+      <c r="L857" s="1"/>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="9" t="s">
@@ -44736,8 +47464,7 @@
       <c r="J858" s="9" t="s">
         <v>5270</v>
       </c>
-      <c r="K858" s="0"/>
-      <c r="L858" s="0"/>
+      <c r="L858" s="1"/>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="9" t="s">
@@ -44770,8 +47497,7 @@
       <c r="J859" s="9" t="s">
         <v>5277</v>
       </c>
-      <c r="K859" s="0"/>
-      <c r="L859" s="0"/>
+      <c r="L859" s="1"/>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="9" t="s">
@@ -44804,8 +47530,7 @@
       <c r="J860" s="9" t="s">
         <v>5284</v>
       </c>
-      <c r="K860" s="0"/>
-      <c r="L860" s="0"/>
+      <c r="L860" s="1"/>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="9" t="s">
@@ -44838,8 +47563,7 @@
       <c r="J861" s="9" t="s">
         <v>5291</v>
       </c>
-      <c r="K861" s="0"/>
-      <c r="L861" s="0"/>
+      <c r="L861" s="1"/>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="9" t="s">
@@ -44872,8 +47596,7 @@
       <c r="J862" s="9" t="s">
         <v>5298</v>
       </c>
-      <c r="K862" s="0"/>
-      <c r="L862" s="0"/>
+      <c r="L862" s="1"/>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="9" t="s">
@@ -44906,8 +47629,7 @@
       <c r="J863" s="9" t="s">
         <v>5305</v>
       </c>
-      <c r="K863" s="0"/>
-      <c r="L863" s="0"/>
+      <c r="L863" s="1"/>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="9" t="s">
@@ -44940,8 +47662,4900 @@
       <c r="J864" s="9" t="s">
         <v>5313</v>
       </c>
-      <c r="K864" s="0"/>
-      <c r="L864" s="0"/>
+      <c r="L864" s="1"/>
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>5316</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>5317</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>5318</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>5319</v>
+      </c>
+      <c r="H865" s="1" t="s">
+        <v>5320</v>
+      </c>
+      <c r="I865" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J865" s="1" t="s">
+        <v>5321</v>
+      </c>
+      <c r="L865" s="1"/>
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>5322</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>5323</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>5324</v>
+      </c>
+      <c r="G866" s="1" t="s">
+        <v>5325</v>
+      </c>
+      <c r="H866" s="1" t="s">
+        <v>5326</v>
+      </c>
+      <c r="I866" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J866" s="1" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L866" s="1"/>
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>5328</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>5329</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>5330</v>
+      </c>
+      <c r="G867" s="1" t="s">
+        <v>5331</v>
+      </c>
+      <c r="H867" s="1" t="s">
+        <v>5332</v>
+      </c>
+      <c r="I867" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J867" s="1" t="s">
+        <v>5333</v>
+      </c>
+      <c r="L867" s="1"/>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>5334</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>5335</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>5336</v>
+      </c>
+      <c r="G868" s="1" t="s">
+        <v>5337</v>
+      </c>
+      <c r="H868" s="1" t="s">
+        <v>5338</v>
+      </c>
+      <c r="I868" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J868" s="1" t="s">
+        <v>5339</v>
+      </c>
+      <c r="L868" s="1"/>
+    </row>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>5340</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>5341</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>5342</v>
+      </c>
+      <c r="G869" s="1" t="s">
+        <v>5343</v>
+      </c>
+      <c r="H869" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="I869" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J869" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="L869" s="1"/>
+    </row>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>5346</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>5347</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>5348</v>
+      </c>
+      <c r="G870" s="1" t="s">
+        <v>5349</v>
+      </c>
+      <c r="H870" s="1" t="s">
+        <v>5350</v>
+      </c>
+      <c r="I870" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J870" s="1" t="s">
+        <v>5351</v>
+      </c>
+      <c r="L870" s="1"/>
+    </row>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>5352</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>5353</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>5354</v>
+      </c>
+      <c r="G871" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="H871" s="1" t="s">
+        <v>5356</v>
+      </c>
+      <c r="I871" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J871" s="1" t="s">
+        <v>5357</v>
+      </c>
+      <c r="L871" s="1"/>
+    </row>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>5359</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>5360</v>
+      </c>
+      <c r="G872" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="H872" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J872" s="1" t="s">
+        <v>5363</v>
+      </c>
+      <c r="L872" s="1"/>
+    </row>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>5366</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>5367</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>5368</v>
+      </c>
+      <c r="G873" s="1" t="s">
+        <v>5369</v>
+      </c>
+      <c r="H873" s="1" t="s">
+        <v>5370</v>
+      </c>
+      <c r="I873" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J873" s="1" t="s">
+        <v>5371</v>
+      </c>
+      <c r="L873" s="1"/>
+    </row>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>5372</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>5373</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>5374</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>5375</v>
+      </c>
+      <c r="H874" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="I874" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J874" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="L874" s="1"/>
+    </row>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>5378</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>5380</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>5381</v>
+      </c>
+      <c r="H875" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="I875" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J875" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="L875" s="1"/>
+    </row>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>5385</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>5386</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>5387</v>
+      </c>
+      <c r="H876" s="1" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I876" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J876" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="L876" s="1"/>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>5390</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>5391</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="H877" s="1" t="s">
+        <v>5394</v>
+      </c>
+      <c r="I877" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J877" s="1" t="s">
+        <v>5395</v>
+      </c>
+      <c r="L877" s="1"/>
+    </row>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>5396</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>5397</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>5399</v>
+      </c>
+      <c r="H878" s="1" t="s">
+        <v>5400</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J878" s="1" t="s">
+        <v>5401</v>
+      </c>
+      <c r="L878" s="1"/>
+    </row>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>5403</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>5404</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>5405</v>
+      </c>
+      <c r="H879" s="1" t="s">
+        <v>5406</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J879" s="1" t="s">
+        <v>5407</v>
+      </c>
+      <c r="L879" s="1"/>
+    </row>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>5409</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>5410</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>5411</v>
+      </c>
+      <c r="H880" s="1" t="s">
+        <v>5412</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J880" s="1" t="s">
+        <v>5413</v>
+      </c>
+      <c r="L880" s="1"/>
+    </row>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>5414</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>5415</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>5417</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>5418</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J881" s="1" t="s">
+        <v>5419</v>
+      </c>
+      <c r="L881" s="1"/>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>5420</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>5422</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>5423</v>
+      </c>
+      <c r="H882" s="1" t="s">
+        <v>5424</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J882" s="1" t="s">
+        <v>5425</v>
+      </c>
+      <c r="L882" s="1"/>
+    </row>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>5426</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>5427</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>5429</v>
+      </c>
+      <c r="H883" s="1" t="s">
+        <v>5430</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J883" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="L883" s="1"/>
+    </row>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>5433</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>5434</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>5435</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="H884" s="1" t="s">
+        <v>5437</v>
+      </c>
+      <c r="I884" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J884" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="L884" s="1"/>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>5440</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>5441</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="H885" s="1" t="s">
+        <v>5443</v>
+      </c>
+      <c r="I885" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J885" s="1" t="s">
+        <v>5444</v>
+      </c>
+      <c r="L885" s="1"/>
+    </row>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>5445</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>5446</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>5447</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="H886" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="I886" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J886" s="1" t="s">
+        <v>5450</v>
+      </c>
+      <c r="L886" s="1"/>
+    </row>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>5453</v>
+      </c>
+      <c r="G887" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H887" s="1" t="s">
+        <v>5455</v>
+      </c>
+      <c r="I887" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J887" s="1" t="s">
+        <v>5456</v>
+      </c>
+      <c r="L887" s="1"/>
+    </row>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>5457</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>5459</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="H888" s="1" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I888" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J888" s="1" t="s">
+        <v>5462</v>
+      </c>
+      <c r="L888" s="1"/>
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>5463</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>5466</v>
+      </c>
+      <c r="H889" s="1" t="s">
+        <v>5467</v>
+      </c>
+      <c r="I889" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J889" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="L889" s="1"/>
+    </row>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="H890" s="1" t="s">
+        <v>5473</v>
+      </c>
+      <c r="I890" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J890" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="L890" s="1"/>
+    </row>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="H891" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="I891" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J891" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="L891" s="1"/>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>5486</v>
+      </c>
+      <c r="H892" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="I892" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J892" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="L892" s="1"/>
+    </row>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>5490</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="G893" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="H893" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="I893" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J893" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="L893" s="1"/>
+    </row>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>5496</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>5497</v>
+      </c>
+      <c r="G894" s="1" t="s">
+        <v>5498</v>
+      </c>
+      <c r="H894" s="1" t="s">
+        <v>5499</v>
+      </c>
+      <c r="I894" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J894" s="1" t="s">
+        <v>5500</v>
+      </c>
+      <c r="L894" s="1"/>
+    </row>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>5501</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="G895" s="1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="H895" s="1" t="s">
+        <v>5505</v>
+      </c>
+      <c r="I895" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J895" s="1" t="s">
+        <v>5506</v>
+      </c>
+      <c r="L895" s="1"/>
+    </row>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>5507</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="G896" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="H896" s="1" t="s">
+        <v>5511</v>
+      </c>
+      <c r="I896" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J896" s="1" t="s">
+        <v>5512</v>
+      </c>
+      <c r="L896" s="1"/>
+    </row>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="G897" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="H897" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="I897" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J897" s="1" t="s">
+        <v>5518</v>
+      </c>
+      <c r="L897" s="1"/>
+    </row>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>5519</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>5520</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>5521</v>
+      </c>
+      <c r="G898" s="1" t="s">
+        <v>5522</v>
+      </c>
+      <c r="H898" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I898" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J898" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="L898" s="1"/>
+    </row>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="F899" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="G899" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="H899" s="1" t="s">
+        <v>5529</v>
+      </c>
+      <c r="I899" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J899" s="1" t="s">
+        <v>5530</v>
+      </c>
+      <c r="L899" s="1"/>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>5531</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>5532</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>5533</v>
+      </c>
+      <c r="G900" s="1" t="s">
+        <v>5534</v>
+      </c>
+      <c r="H900" s="1" t="s">
+        <v>5535</v>
+      </c>
+      <c r="I900" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J900" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="L900" s="1"/>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>5537</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="F901" s="1" t="s">
+        <v>5539</v>
+      </c>
+      <c r="G901" s="1" t="s">
+        <v>5540</v>
+      </c>
+      <c r="H901" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="I901" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J901" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="L901" s="1"/>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>5544</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>5546</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>5547</v>
+      </c>
+      <c r="G902" s="1" t="s">
+        <v>5548</v>
+      </c>
+      <c r="H902" s="1" t="s">
+        <v>5549</v>
+      </c>
+      <c r="I902" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J902" s="1" t="s">
+        <v>5550</v>
+      </c>
+      <c r="K902" s="0"/>
+      <c r="L902" s="0"/>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>5551</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>5553</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>5554</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="G903" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="H903" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="I903" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J903" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="K903" s="0"/>
+      <c r="L903" s="0"/>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>5563</v>
+      </c>
+      <c r="H904" s="1" t="s">
+        <v>5564</v>
+      </c>
+      <c r="I904" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J904" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="K904" s="0"/>
+      <c r="L904" s="0"/>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="F905" s="1" t="s">
+        <v>5569</v>
+      </c>
+      <c r="G905" s="1" t="s">
+        <v>5570</v>
+      </c>
+      <c r="H905" s="1" t="s">
+        <v>5571</v>
+      </c>
+      <c r="I905" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J905" s="1" t="s">
+        <v>5572</v>
+      </c>
+      <c r="K905" s="0"/>
+      <c r="L905" s="0"/>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>5574</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>5575</v>
+      </c>
+      <c r="F906" s="1" t="s">
+        <v>5576</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>5577</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>5578</v>
+      </c>
+      <c r="I906" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J906" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="K906" s="0"/>
+      <c r="L906" s="0"/>
+    </row>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>5580</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="G907" s="1" t="s">
+        <v>5584</v>
+      </c>
+      <c r="H907" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="I907" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J907" s="1" t="s">
+        <v>5586</v>
+      </c>
+      <c r="K907" s="0"/>
+      <c r="L907" s="0"/>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="H908" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="I908" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J908" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="K908" s="0"/>
+      <c r="L908" s="0"/>
+    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>5598</v>
+      </c>
+      <c r="H909" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="I909" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J909" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="K909" s="0"/>
+      <c r="L909" s="0"/>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="H910" s="1" t="s">
+        <v>5607</v>
+      </c>
+      <c r="I910" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J910" s="1" t="s">
+        <v>5608</v>
+      </c>
+      <c r="K910" s="0"/>
+      <c r="L910" s="0"/>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="F911" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="H911" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="I911" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J911" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="K911" s="0"/>
+      <c r="L911" s="0"/>
+    </row>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="H912" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="I912" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J912" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="K912" s="0"/>
+      <c r="L912" s="0"/>
+    </row>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="H913" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="I913" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J913" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="K913" s="0"/>
+      <c r="L913" s="0"/>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="G914" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="H914" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="I914" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J914" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="K914" s="0"/>
+      <c r="L914" s="0"/>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="F915" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="G915" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="H915" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="I915" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J915" s="1" t="s">
+        <v>5644</v>
+      </c>
+      <c r="K915" s="0"/>
+      <c r="L915" s="0"/>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>5647</v>
+      </c>
+      <c r="F916" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="G916" s="1" t="s">
+        <v>5649</v>
+      </c>
+      <c r="H916" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="I916" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J916" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="K916" s="0"/>
+      <c r="L916" s="0"/>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>5653</v>
+      </c>
+      <c r="F917" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="G917" s="1" t="s">
+        <v>5655</v>
+      </c>
+      <c r="H917" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="I917" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J917" s="1" t="s">
+        <v>5657</v>
+      </c>
+      <c r="K917" s="0"/>
+      <c r="L917" s="0"/>
+    </row>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="F918" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="G918" s="1" t="s">
+        <v>5661</v>
+      </c>
+      <c r="H918" s="1" t="s">
+        <v>5662</v>
+      </c>
+      <c r="I918" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J918" s="1" t="s">
+        <v>5663</v>
+      </c>
+      <c r="K918" s="0"/>
+      <c r="L918" s="0"/>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>5666</v>
+      </c>
+      <c r="G919" s="1" t="s">
+        <v>5667</v>
+      </c>
+      <c r="H919" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="I919" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J919" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="K919" s="0"/>
+      <c r="L919" s="0"/>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>5672</v>
+      </c>
+      <c r="G920" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="H920" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="I920" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J920" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="K920" s="0"/>
+      <c r="L920" s="0"/>
+    </row>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="G921" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="H921" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I921" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J921" s="1" t="s">
+        <v>5681</v>
+      </c>
+      <c r="K921" s="0"/>
+      <c r="L921" s="0"/>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>5683</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="G922" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="H922" s="1" t="s">
+        <v>5686</v>
+      </c>
+      <c r="I922" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J922" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="K922" s="0"/>
+      <c r="L922" s="0"/>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>5691</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="G923" s="1" t="s">
+        <v>5693</v>
+      </c>
+      <c r="H923" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="I923" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J923" s="1" t="s">
+        <v>5695</v>
+      </c>
+      <c r="K923" s="0"/>
+      <c r="L923" s="0"/>
+    </row>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>5697</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>5698</v>
+      </c>
+      <c r="G924" s="1" t="s">
+        <v>5699</v>
+      </c>
+      <c r="H924" s="1" t="s">
+        <v>5700</v>
+      </c>
+      <c r="I924" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J924" s="1" t="s">
+        <v>5701</v>
+      </c>
+      <c r="K924" s="0"/>
+      <c r="L924" s="0"/>
+    </row>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>5703</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="G925" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="H925" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="I925" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J925" s="1" t="s">
+        <v>5707</v>
+      </c>
+      <c r="K925" s="0"/>
+      <c r="L925" s="0"/>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="F926" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G926" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="H926" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="I926" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J926" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="K926" s="0"/>
+      <c r="L926" s="0"/>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="G927" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="H927" s="1" t="s">
+        <v>5719</v>
+      </c>
+      <c r="I927" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J927" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="K927" s="0"/>
+      <c r="L927" s="0"/>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>5723</v>
+      </c>
+      <c r="G928" s="1" t="s">
+        <v>5724</v>
+      </c>
+      <c r="H928" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="I928" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J928" s="1" t="s">
+        <v>5726</v>
+      </c>
+      <c r="K928" s="0"/>
+      <c r="L928" s="0"/>
+    </row>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="G929" s="1" t="s">
+        <v>5730</v>
+      </c>
+      <c r="H929" s="1" t="s">
+        <v>5731</v>
+      </c>
+      <c r="I929" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J929" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="K929" s="0"/>
+      <c r="L929" s="0"/>
+    </row>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="G930" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="H930" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="I930" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J930" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="K930" s="0"/>
+      <c r="L930" s="0"/>
+    </row>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="G931" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="H931" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="I931" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J931" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="K931" s="0"/>
+      <c r="L931" s="0"/>
+    </row>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="F932" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="G932" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="H932" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="I932" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J932" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="K932" s="0"/>
+      <c r="L932" s="0"/>
+    </row>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="G933" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="H933" s="1" t="s">
+        <v>5755</v>
+      </c>
+      <c r="I933" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J933" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="K933" s="0"/>
+      <c r="L933" s="0"/>
+    </row>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="G934" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="H934" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="I934" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J934" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="K934" s="0"/>
+      <c r="L934" s="0"/>
+    </row>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>5765</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="G935" s="1" t="s">
+        <v>5767</v>
+      </c>
+      <c r="H935" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="I935" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J935" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="K935" s="0"/>
+      <c r="L935" s="0"/>
+    </row>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="G936" s="1" t="s">
+        <v>5773</v>
+      </c>
+      <c r="H936" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="I936" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J936" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="K936" s="0"/>
+      <c r="L936" s="0"/>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>5778</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>5779</v>
+      </c>
+      <c r="G937" s="1" t="s">
+        <v>5780</v>
+      </c>
+      <c r="H937" s="1" t="s">
+        <v>5781</v>
+      </c>
+      <c r="I937" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J937" s="1" t="s">
+        <v>5782</v>
+      </c>
+      <c r="K937" s="0"/>
+      <c r="L937" s="0"/>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>5784</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>5785</v>
+      </c>
+      <c r="G938" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="H938" s="1" t="s">
+        <v>5787</v>
+      </c>
+      <c r="I938" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J938" s="1" t="s">
+        <v>5788</v>
+      </c>
+      <c r="K938" s="0"/>
+      <c r="L938" s="0"/>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="H939" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="I939" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J939" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="K939" s="0"/>
+      <c r="L939" s="0"/>
+    </row>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="G940" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H940" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="I940" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J940" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="K940" s="0"/>
+      <c r="L940" s="0"/>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="G941" s="1" t="s">
+        <v>5804</v>
+      </c>
+      <c r="H941" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="I941" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J941" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="K941" s="0"/>
+      <c r="L941" s="0"/>
+    </row>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>5809</v>
+      </c>
+      <c r="G942" s="1" t="s">
+        <v>5810</v>
+      </c>
+      <c r="H942" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="I942" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J942" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="K942" s="0"/>
+      <c r="L942" s="0"/>
+    </row>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>5815</v>
+      </c>
+      <c r="G943" s="1" t="s">
+        <v>5816</v>
+      </c>
+      <c r="H943" s="1" t="s">
+        <v>5817</v>
+      </c>
+      <c r="I943" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J943" s="1" t="s">
+        <v>5818</v>
+      </c>
+      <c r="K943" s="0"/>
+      <c r="L943" s="0"/>
+    </row>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>5820</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>5821</v>
+      </c>
+      <c r="G944" s="1" t="s">
+        <v>5822</v>
+      </c>
+      <c r="H944" s="1" t="s">
+        <v>5823</v>
+      </c>
+      <c r="I944" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J944" s="1" t="s">
+        <v>5824</v>
+      </c>
+      <c r="K944" s="0"/>
+      <c r="L944" s="0"/>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>5826</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>5827</v>
+      </c>
+      <c r="G945" s="1" t="s">
+        <v>5828</v>
+      </c>
+      <c r="H945" s="1" t="s">
+        <v>5829</v>
+      </c>
+      <c r="I945" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J945" s="1" t="s">
+        <v>5830</v>
+      </c>
+      <c r="K945" s="0"/>
+      <c r="L945" s="0"/>
+    </row>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>5832</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>5833</v>
+      </c>
+      <c r="G946" s="1" t="s">
+        <v>5834</v>
+      </c>
+      <c r="H946" s="1" t="s">
+        <v>5835</v>
+      </c>
+      <c r="I946" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J946" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="K946" s="0"/>
+      <c r="L946" s="0"/>
+    </row>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>5838</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>5839</v>
+      </c>
+      <c r="G947" s="1" t="s">
+        <v>5840</v>
+      </c>
+      <c r="H947" s="1" t="s">
+        <v>5841</v>
+      </c>
+      <c r="I947" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J947" s="1" t="s">
+        <v>5842</v>
+      </c>
+      <c r="K947" s="0"/>
+      <c r="L947" s="0"/>
+    </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>5844</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>5845</v>
+      </c>
+      <c r="G948" s="1" t="s">
+        <v>5846</v>
+      </c>
+      <c r="H948" s="1" t="s">
+        <v>5847</v>
+      </c>
+      <c r="I948" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J948" s="1" t="s">
+        <v>5848</v>
+      </c>
+      <c r="K948" s="0"/>
+      <c r="L948" s="0"/>
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>5851</v>
+      </c>
+      <c r="G949" s="1" t="s">
+        <v>5852</v>
+      </c>
+      <c r="H949" s="1" t="s">
+        <v>5853</v>
+      </c>
+      <c r="I949" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J949" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="K949" s="0"/>
+      <c r="L949" s="0"/>
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>5857</v>
+      </c>
+      <c r="G950" s="1" t="s">
+        <v>5858</v>
+      </c>
+      <c r="H950" s="1" t="s">
+        <v>5859</v>
+      </c>
+      <c r="I950" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J950" s="1" t="s">
+        <v>5860</v>
+      </c>
+      <c r="K950" s="0"/>
+      <c r="L950" s="0"/>
+    </row>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>5863</v>
+      </c>
+      <c r="G951" s="1" t="s">
+        <v>5864</v>
+      </c>
+      <c r="H951" s="1" t="s">
+        <v>5865</v>
+      </c>
+      <c r="I951" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J951" s="1" t="s">
+        <v>5866</v>
+      </c>
+      <c r="K951" s="0"/>
+      <c r="L951" s="0"/>
+    </row>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>5868</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>5869</v>
+      </c>
+      <c r="G952" s="1" t="s">
+        <v>5870</v>
+      </c>
+      <c r="H952" s="1" t="s">
+        <v>5871</v>
+      </c>
+      <c r="I952" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J952" s="1" t="s">
+        <v>5872</v>
+      </c>
+      <c r="K952" s="0"/>
+      <c r="L952" s="0"/>
+    </row>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>5874</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>5875</v>
+      </c>
+      <c r="G953" s="1" t="s">
+        <v>5876</v>
+      </c>
+      <c r="H953" s="1" t="s">
+        <v>5877</v>
+      </c>
+      <c r="I953" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J953" s="1" t="s">
+        <v>5878</v>
+      </c>
+      <c r="K953" s="0"/>
+      <c r="L953" s="0"/>
+    </row>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>5880</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>5881</v>
+      </c>
+      <c r="G954" s="1" t="s">
+        <v>5882</v>
+      </c>
+      <c r="H954" s="1" t="s">
+        <v>5883</v>
+      </c>
+      <c r="I954" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J954" s="1" t="s">
+        <v>5884</v>
+      </c>
+      <c r="K954" s="0"/>
+      <c r="L954" s="0"/>
+    </row>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>5886</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>5887</v>
+      </c>
+      <c r="G955" s="1" t="s">
+        <v>5888</v>
+      </c>
+      <c r="H955" s="1" t="s">
+        <v>5889</v>
+      </c>
+      <c r="I955" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J955" s="1" t="s">
+        <v>5890</v>
+      </c>
+      <c r="K955" s="0"/>
+      <c r="L955" s="0"/>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>5892</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>5893</v>
+      </c>
+      <c r="G956" s="1" t="s">
+        <v>5894</v>
+      </c>
+      <c r="H956" s="1" t="s">
+        <v>5895</v>
+      </c>
+      <c r="I956" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J956" s="1" t="s">
+        <v>5896</v>
+      </c>
+      <c r="K956" s="0"/>
+      <c r="L956" s="0"/>
+    </row>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>5898</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>5899</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="H957" s="1" t="s">
+        <v>5901</v>
+      </c>
+      <c r="I957" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J957" s="1" t="s">
+        <v>5902</v>
+      </c>
+      <c r="K957" s="0"/>
+      <c r="L957" s="0"/>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>5904</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>5905</v>
+      </c>
+      <c r="G958" s="1" t="s">
+        <v>5906</v>
+      </c>
+      <c r="H958" s="1" t="s">
+        <v>5907</v>
+      </c>
+      <c r="I958" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J958" s="1" t="s">
+        <v>5908</v>
+      </c>
+      <c r="K958" s="0"/>
+      <c r="L958" s="0"/>
+    </row>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>5911</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>5912</v>
+      </c>
+      <c r="G959" s="1" t="s">
+        <v>5913</v>
+      </c>
+      <c r="H959" s="1" t="s">
+        <v>5914</v>
+      </c>
+      <c r="I959" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J959" s="1" t="s">
+        <v>5915</v>
+      </c>
+      <c r="K959" s="0"/>
+      <c r="L959" s="0"/>
+    </row>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>5917</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>5918</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>5919</v>
+      </c>
+      <c r="H960" s="1" t="s">
+        <v>5920</v>
+      </c>
+      <c r="I960" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J960" s="1" t="s">
+        <v>5921</v>
+      </c>
+      <c r="K960" s="0"/>
+      <c r="L960" s="0"/>
+    </row>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>5923</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G961" s="1" t="s">
+        <v>5925</v>
+      </c>
+      <c r="H961" s="1" t="s">
+        <v>5926</v>
+      </c>
+      <c r="I961" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J961" s="1" t="s">
+        <v>5927</v>
+      </c>
+      <c r="K961" s="0"/>
+      <c r="L961" s="0"/>
+    </row>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F962" s="1" t="s">
+        <v>5930</v>
+      </c>
+      <c r="G962" s="1" t="s">
+        <v>5931</v>
+      </c>
+      <c r="H962" s="1" t="s">
+        <v>5932</v>
+      </c>
+      <c r="I962" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J962" s="1" t="s">
+        <v>5933</v>
+      </c>
+      <c r="K962" s="0"/>
+      <c r="L962" s="0"/>
+    </row>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>5935</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>5936</v>
+      </c>
+      <c r="G963" s="1" t="s">
+        <v>5937</v>
+      </c>
+      <c r="H963" s="1" t="s">
+        <v>5938</v>
+      </c>
+      <c r="I963" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J963" s="1" t="s">
+        <v>5939</v>
+      </c>
+      <c r="K963" s="0"/>
+      <c r="L963" s="0"/>
+    </row>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>5941</v>
+      </c>
+      <c r="F964" s="1" t="s">
+        <v>5942</v>
+      </c>
+      <c r="G964" s="1" t="s">
+        <v>5943</v>
+      </c>
+      <c r="H964" s="1" t="s">
+        <v>5944</v>
+      </c>
+      <c r="I964" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J964" s="1" t="s">
+        <v>5945</v>
+      </c>
+      <c r="K964" s="0"/>
+      <c r="L964" s="0"/>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>5947</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>5948</v>
+      </c>
+      <c r="G965" s="1" t="s">
+        <v>5949</v>
+      </c>
+      <c r="H965" s="1" t="s">
+        <v>5950</v>
+      </c>
+      <c r="I965" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J965" s="1" t="s">
+        <v>5951</v>
+      </c>
+      <c r="K965" s="0"/>
+      <c r="L965" s="0"/>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>5953</v>
+      </c>
+      <c r="F966" s="1" t="s">
+        <v>5954</v>
+      </c>
+      <c r="G966" s="1" t="s">
+        <v>5955</v>
+      </c>
+      <c r="H966" s="1" t="s">
+        <v>5956</v>
+      </c>
+      <c r="I966" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J966" s="1" t="s">
+        <v>5957</v>
+      </c>
+      <c r="K966" s="0"/>
+      <c r="L966" s="0"/>
+    </row>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>5959</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>5960</v>
+      </c>
+      <c r="G967" s="1" t="s">
+        <v>5961</v>
+      </c>
+      <c r="H967" s="1" t="s">
+        <v>5962</v>
+      </c>
+      <c r="I967" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J967" s="1" t="s">
+        <v>5963</v>
+      </c>
+      <c r="K967" s="0"/>
+      <c r="L967" s="0"/>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>5965</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>5966</v>
+      </c>
+      <c r="G968" s="1" t="s">
+        <v>5967</v>
+      </c>
+      <c r="H968" s="1" t="s">
+        <v>5968</v>
+      </c>
+      <c r="I968" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J968" s="1" t="s">
+        <v>5969</v>
+      </c>
+      <c r="K968" s="0"/>
+      <c r="L968" s="0"/>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>5971</v>
+      </c>
+      <c r="F969" s="1" t="s">
+        <v>5972</v>
+      </c>
+      <c r="G969" s="1" t="s">
+        <v>5973</v>
+      </c>
+      <c r="H969" s="1" t="s">
+        <v>5974</v>
+      </c>
+      <c r="I969" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J969" s="1" t="s">
+        <v>5975</v>
+      </c>
+      <c r="K969" s="0"/>
+      <c r="L969" s="0"/>
+    </row>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>5977</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>5978</v>
+      </c>
+      <c r="G970" s="1" t="s">
+        <v>5979</v>
+      </c>
+      <c r="H970" s="1" t="s">
+        <v>5980</v>
+      </c>
+      <c r="I970" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J970" s="1" t="s">
+        <v>5981</v>
+      </c>
+      <c r="K970" s="0"/>
+      <c r="L970" s="0"/>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>5982</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>5985</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>5986</v>
+      </c>
+      <c r="G971" s="1" t="s">
+        <v>5987</v>
+      </c>
+      <c r="H971" s="1" t="s">
+        <v>5988</v>
+      </c>
+      <c r="I971" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J971" s="1" t="s">
+        <v>5989</v>
+      </c>
+      <c r="K971" s="0"/>
+      <c r="L971" s="0"/>
+    </row>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>5992</v>
+      </c>
+      <c r="G972" s="1" t="s">
+        <v>5993</v>
+      </c>
+      <c r="H972" s="1" t="s">
+        <v>5994</v>
+      </c>
+      <c r="I972" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J972" s="1" t="s">
+        <v>5995</v>
+      </c>
+      <c r="K972" s="0"/>
+      <c r="L972" s="0"/>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>5996</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>5999</v>
+      </c>
+      <c r="G973" s="1" t="s">
+        <v>6000</v>
+      </c>
+      <c r="H973" s="1" t="s">
+        <v>6001</v>
+      </c>
+      <c r="I973" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J973" s="1" t="s">
+        <v>6002</v>
+      </c>
+      <c r="K973" s="0"/>
+      <c r="L973" s="0"/>
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>5996</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>6005</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>6006</v>
+      </c>
+      <c r="G974" s="1" t="s">
+        <v>6007</v>
+      </c>
+      <c r="H974" s="1" t="s">
+        <v>6008</v>
+      </c>
+      <c r="I974" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J974" s="1" t="s">
+        <v>6009</v>
+      </c>
+      <c r="K974" s="0"/>
+      <c r="L974" s="0"/>
+    </row>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>6010</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>6012</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>6013</v>
+      </c>
+      <c r="G975" s="1" t="s">
+        <v>6014</v>
+      </c>
+      <c r="H975" s="1" t="s">
+        <v>6015</v>
+      </c>
+      <c r="I975" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J975" s="1" t="s">
+        <v>6016</v>
+      </c>
+      <c r="K975" s="0"/>
+      <c r="L975" s="0"/>
+    </row>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>6018</v>
+      </c>
+      <c r="F976" s="1" t="s">
+        <v>6019</v>
+      </c>
+      <c r="G976" s="1" t="s">
+        <v>6020</v>
+      </c>
+      <c r="H976" s="1" t="s">
+        <v>6021</v>
+      </c>
+      <c r="I976" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J976" s="1" t="s">
+        <v>6022</v>
+      </c>
+      <c r="K976" s="0"/>
+      <c r="L976" s="0"/>
+    </row>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>6023</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>6025</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>6026</v>
+      </c>
+      <c r="G977" s="1" t="s">
+        <v>6027</v>
+      </c>
+      <c r="H977" s="1" t="s">
+        <v>6028</v>
+      </c>
+      <c r="I977" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J977" s="1" t="s">
+        <v>6029</v>
+      </c>
+      <c r="K977" s="0"/>
+      <c r="L977" s="0"/>
+    </row>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>6030</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>6032</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>6033</v>
+      </c>
+      <c r="G978" s="1" t="s">
+        <v>6034</v>
+      </c>
+      <c r="H978" s="1" t="s">
+        <v>6035</v>
+      </c>
+      <c r="I978" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J978" s="1" t="s">
+        <v>6036</v>
+      </c>
+      <c r="K978" s="0"/>
+      <c r="L978" s="0"/>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>6037</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>6039</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>6040</v>
+      </c>
+      <c r="G979" s="1" t="s">
+        <v>6041</v>
+      </c>
+      <c r="H979" s="1" t="s">
+        <v>6042</v>
+      </c>
+      <c r="I979" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J979" s="1" t="s">
+        <v>6043</v>
+      </c>
+      <c r="K979" s="0"/>
+      <c r="L979" s="0"/>
+    </row>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>6044</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>6047</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>6048</v>
+      </c>
+      <c r="G980" s="1" t="s">
+        <v>6049</v>
+      </c>
+      <c r="H980" s="1" t="s">
+        <v>6050</v>
+      </c>
+      <c r="I980" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J980" s="1" t="s">
+        <v>6051</v>
+      </c>
+      <c r="K980" s="0"/>
+      <c r="L980" s="0"/>
+    </row>
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>6052</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>6055</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>6056</v>
+      </c>
+      <c r="G981" s="1" t="s">
+        <v>6057</v>
+      </c>
+      <c r="H981" s="1" t="s">
+        <v>6058</v>
+      </c>
+      <c r="I981" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J981" s="1" t="s">
+        <v>6059</v>
+      </c>
+      <c r="K981" s="0"/>
+      <c r="L981" s="0"/>
+    </row>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>6060</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>6062</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>6063</v>
+      </c>
+      <c r="G982" s="1" t="s">
+        <v>6064</v>
+      </c>
+      <c r="H982" s="1" t="s">
+        <v>6065</v>
+      </c>
+      <c r="I982" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J982" s="1" t="s">
+        <v>6066</v>
+      </c>
+      <c r="K982" s="0"/>
+      <c r="L982" s="0"/>
+    </row>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>6067</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>6069</v>
+      </c>
+      <c r="F983" s="1" t="s">
+        <v>6070</v>
+      </c>
+      <c r="G983" s="1" t="s">
+        <v>6071</v>
+      </c>
+      <c r="H983" s="1" t="s">
+        <v>6072</v>
+      </c>
+      <c r="I983" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J983" s="1" t="s">
+        <v>6073</v>
+      </c>
+      <c r="K983" s="0"/>
+      <c r="L983" s="0"/>
+    </row>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>6074</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>6077</v>
+      </c>
+      <c r="G984" s="1" t="s">
+        <v>6078</v>
+      </c>
+      <c r="H984" s="1" t="s">
+        <v>6079</v>
+      </c>
+      <c r="I984" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J984" s="1" t="s">
+        <v>6080</v>
+      </c>
+      <c r="K984" s="0"/>
+      <c r="L984" s="0"/>
+    </row>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B985" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C985" s="0" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D985" s="0" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E985" s="0" t="s">
+        <v>6084</v>
+      </c>
+      <c r="F985" s="0" t="s">
+        <v>6085</v>
+      </c>
+      <c r="G985" s="0" t="s">
+        <v>6086</v>
+      </c>
+      <c r="H985" s="0" t="s">
+        <v>6087</v>
+      </c>
+      <c r="I985" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J985" s="0" t="s">
+        <v>6088</v>
+      </c>
+      <c r="K985" s="0"/>
+      <c r="L985" s="0"/>
+    </row>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B986" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C986" s="0" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D986" s="0" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E986" s="0" t="s">
+        <v>6090</v>
+      </c>
+      <c r="F986" s="0" t="s">
+        <v>6091</v>
+      </c>
+      <c r="G986" s="0" t="s">
+        <v>6092</v>
+      </c>
+      <c r="H986" s="0" t="s">
+        <v>6093</v>
+      </c>
+      <c r="I986" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J986" s="0" t="s">
+        <v>6094</v>
+      </c>
+      <c r="K986" s="0"/>
+      <c r="L986" s="0"/>
+    </row>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B987" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C987" s="0" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D987" s="0" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E987" s="0" t="s">
+        <v>6096</v>
+      </c>
+      <c r="F987" s="0" t="s">
+        <v>6097</v>
+      </c>
+      <c r="G987" s="0" t="s">
+        <v>6098</v>
+      </c>
+      <c r="H987" s="0" t="s">
+        <v>6099</v>
+      </c>
+      <c r="I987" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J987" s="0" t="s">
+        <v>6100</v>
+      </c>
+      <c r="K987" s="0"/>
+      <c r="L987" s="0"/>
+    </row>
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C988" s="0" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D988" s="0" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E988" s="0" t="s">
+        <v>6103</v>
+      </c>
+      <c r="F988" s="0" t="s">
+        <v>6104</v>
+      </c>
+      <c r="G988" s="0" t="s">
+        <v>6105</v>
+      </c>
+      <c r="H988" s="0" t="s">
+        <v>6106</v>
+      </c>
+      <c r="I988" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J988" s="0" t="s">
+        <v>6107</v>
+      </c>
+      <c r="K988" s="0"/>
+      <c r="L988" s="0"/>
+    </row>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B989" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C989" s="0" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D989" s="0" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E989" s="0" t="s">
+        <v>6109</v>
+      </c>
+      <c r="F989" s="0" t="s">
+        <v>6110</v>
+      </c>
+      <c r="G989" s="0" t="s">
+        <v>6111</v>
+      </c>
+      <c r="H989" s="0" t="s">
+        <v>6112</v>
+      </c>
+      <c r="I989" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J989" s="0" t="s">
+        <v>6113</v>
+      </c>
+      <c r="K989" s="0"/>
+      <c r="L989" s="0"/>
+    </row>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C990" s="0" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D990" s="0" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E990" s="0" t="s">
+        <v>6115</v>
+      </c>
+      <c r="F990" s="0" t="s">
+        <v>6116</v>
+      </c>
+      <c r="G990" s="0" t="s">
+        <v>6117</v>
+      </c>
+      <c r="H990" s="0" t="s">
+        <v>6118</v>
+      </c>
+      <c r="I990" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J990" s="0" t="s">
+        <v>6119</v>
+      </c>
+      <c r="K990" s="0"/>
+      <c r="L990" s="0"/>
+    </row>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C991" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D991" s="0" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E991" s="0" t="s">
+        <v>6122</v>
+      </c>
+      <c r="F991" s="0" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G991" s="0" t="s">
+        <v>6124</v>
+      </c>
+      <c r="H991" s="0" t="s">
+        <v>6125</v>
+      </c>
+      <c r="I991" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J991" s="0" t="s">
+        <v>6126</v>
+      </c>
+      <c r="K991" s="0"/>
+      <c r="L991" s="0"/>
+    </row>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B992" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C992" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D992" s="0" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E992" s="0" t="s">
+        <v>6128</v>
+      </c>
+      <c r="F992" s="0" t="s">
+        <v>6129</v>
+      </c>
+      <c r="G992" s="0" t="s">
+        <v>6130</v>
+      </c>
+      <c r="H992" s="0" t="s">
+        <v>6131</v>
+      </c>
+      <c r="I992" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J992" s="0" t="s">
+        <v>6132</v>
+      </c>
+      <c r="K992" s="0"/>
+      <c r="L992" s="0"/>
+    </row>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B993" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C993" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D993" s="0" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E993" s="0" t="s">
+        <v>6134</v>
+      </c>
+      <c r="F993" s="0" t="s">
+        <v>6135</v>
+      </c>
+      <c r="G993" s="0" t="s">
+        <v>6136</v>
+      </c>
+      <c r="H993" s="0" t="s">
+        <v>6137</v>
+      </c>
+      <c r="I993" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J993" s="0" t="s">
+        <v>6138</v>
+      </c>
+      <c r="K993" s="0"/>
+      <c r="L993" s="0"/>
+    </row>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C994" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D994" s="0" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E994" s="0" t="s">
+        <v>6140</v>
+      </c>
+      <c r="F994" s="0" t="s">
+        <v>6141</v>
+      </c>
+      <c r="G994" s="0" t="s">
+        <v>6142</v>
+      </c>
+      <c r="H994" s="0" t="s">
+        <v>6143</v>
+      </c>
+      <c r="I994" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J994" s="0" t="s">
+        <v>6144</v>
+      </c>
+      <c r="K994" s="0"/>
+      <c r="L994" s="0"/>
+    </row>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C995" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D995" s="0" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E995" s="0" t="s">
+        <v>6146</v>
+      </c>
+      <c r="F995" s="0" t="s">
+        <v>6147</v>
+      </c>
+      <c r="G995" s="0" t="s">
+        <v>6148</v>
+      </c>
+      <c r="H995" s="0" t="s">
+        <v>6149</v>
+      </c>
+      <c r="I995" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J995" s="0" t="s">
+        <v>6150</v>
+      </c>
+      <c r="K995" s="0"/>
+      <c r="L995" s="0"/>
+    </row>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B996" s="0" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C996" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D996" s="0" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E996" s="0" t="s">
+        <v>6152</v>
+      </c>
+      <c r="F996" s="0" t="s">
+        <v>6153</v>
+      </c>
+      <c r="G996" s="0" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H996" s="0" t="s">
+        <v>6155</v>
+      </c>
+      <c r="I996" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J996" s="0" t="s">
+        <v>6156</v>
+      </c>
+      <c r="K996" s="0"/>
+      <c r="L996" s="0"/>
+    </row>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C997" s="0" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D997" s="0" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E997" s="0" t="s">
+        <v>6159</v>
+      </c>
+      <c r="F997" s="0" t="s">
+        <v>6160</v>
+      </c>
+      <c r="G997" s="0" t="s">
+        <v>6161</v>
+      </c>
+      <c r="H997" s="0" t="s">
+        <v>6162</v>
+      </c>
+      <c r="I997" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J997" s="0" t="s">
+        <v>6163</v>
+      </c>
+      <c r="K997" s="0"/>
+      <c r="L997" s="0"/>
+    </row>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B998" s="0" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C998" s="0" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D998" s="0" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E998" s="0" t="s">
+        <v>6165</v>
+      </c>
+      <c r="F998" s="0" t="s">
+        <v>6166</v>
+      </c>
+      <c r="G998" s="0" t="s">
+        <v>6167</v>
+      </c>
+      <c r="H998" s="0" t="s">
+        <v>6168</v>
+      </c>
+      <c r="I998" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J998" s="0" t="s">
+        <v>6169</v>
+      </c>
+      <c r="K998" s="0"/>
+      <c r="L998" s="0"/>
+    </row>
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C999" s="0" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D999" s="0" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E999" s="0" t="s">
+        <v>6171</v>
+      </c>
+      <c r="F999" s="0" t="s">
+        <v>6172</v>
+      </c>
+      <c r="G999" s="0" t="s">
+        <v>6173</v>
+      </c>
+      <c r="H999" s="0" t="s">
+        <v>6174</v>
+      </c>
+      <c r="I999" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J999" s="0" t="s">
+        <v>6175</v>
+      </c>
+      <c r="K999" s="0"/>
+      <c r="L999" s="0"/>
+    </row>
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1000" s="0" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1000" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1000" s="0" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E1000" s="0" t="s">
+        <v>6178</v>
+      </c>
+      <c r="F1000" s="0" t="s">
+        <v>6179</v>
+      </c>
+      <c r="G1000" s="0" t="s">
+        <v>6180</v>
+      </c>
+      <c r="H1000" s="0" t="s">
+        <v>6181</v>
+      </c>
+      <c r="I1000" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1000" s="0" t="s">
+        <v>6182</v>
+      </c>
+      <c r="K1000" s="0"/>
+      <c r="L1000" s="0"/>
+    </row>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1001" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1001" s="0" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E1001" s="0" t="s">
+        <v>6184</v>
+      </c>
+      <c r="F1001" s="0" t="s">
+        <v>6185</v>
+      </c>
+      <c r="G1001" s="0" t="s">
+        <v>6186</v>
+      </c>
+      <c r="H1001" s="0" t="s">
+        <v>6187</v>
+      </c>
+      <c r="I1001" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1001" s="0" t="s">
+        <v>6188</v>
+      </c>
+      <c r="K1001" s="0"/>
+      <c r="L1001" s="0"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1002" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1002" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1002" s="0" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E1002" s="0" t="s">
+        <v>6190</v>
+      </c>
+      <c r="F1002" s="0" t="s">
+        <v>6191</v>
+      </c>
+      <c r="G1002" s="0" t="s">
+        <v>6192</v>
+      </c>
+      <c r="H1002" s="0" t="s">
+        <v>6193</v>
+      </c>
+      <c r="I1002" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1002" s="0" t="s">
+        <v>6194</v>
+      </c>
+      <c r="K1002" s="0"/>
+      <c r="L1002" s="0"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1003" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1003" s="0" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E1003" s="0" t="s">
+        <v>6196</v>
+      </c>
+      <c r="F1003" s="0" t="s">
+        <v>6197</v>
+      </c>
+      <c r="G1003" s="0" t="s">
+        <v>6198</v>
+      </c>
+      <c r="H1003" s="0" t="s">
+        <v>6199</v>
+      </c>
+      <c r="I1003" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1003" s="0" t="s">
+        <v>6200</v>
+      </c>
+      <c r="K1003" s="0"/>
+      <c r="L1003" s="0"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1004" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1004" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1004" s="0" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E1004" s="0" t="s">
+        <v>6202</v>
+      </c>
+      <c r="F1004" s="0" t="s">
+        <v>6203</v>
+      </c>
+      <c r="G1004" s="0" t="s">
+        <v>6204</v>
+      </c>
+      <c r="H1004" s="0" t="s">
+        <v>6205</v>
+      </c>
+      <c r="I1004" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1004" s="0" t="s">
+        <v>6206</v>
+      </c>
+      <c r="K1004" s="0"/>
+      <c r="L1004" s="0"/>
+    </row>
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1005" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1005" s="0" t="s">
+        <v>6207</v>
+      </c>
+      <c r="E1005" s="0" t="s">
+        <v>6208</v>
+      </c>
+      <c r="F1005" s="0" t="s">
+        <v>6209</v>
+      </c>
+      <c r="G1005" s="0" t="s">
+        <v>6210</v>
+      </c>
+      <c r="H1005" s="0" t="s">
+        <v>6211</v>
+      </c>
+      <c r="I1005" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1005" s="0" t="s">
+        <v>6212</v>
+      </c>
+      <c r="K1005" s="0"/>
+      <c r="L1005" s="0"/>
+    </row>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1006" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D1006" s="0" t="s">
+        <v>6213</v>
+      </c>
+      <c r="E1006" s="0" t="s">
+        <v>6214</v>
+      </c>
+      <c r="F1006" s="0" t="s">
+        <v>6215</v>
+      </c>
+      <c r="G1006" s="0" t="s">
+        <v>6216</v>
+      </c>
+      <c r="H1006" s="0" t="s">
+        <v>6217</v>
+      </c>
+      <c r="I1006" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1006" s="0" t="s">
+        <v>6218</v>
+      </c>
+      <c r="K1006" s="0"/>
+      <c r="L1006" s="0"/>
+    </row>
+    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1007" s="0" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D1007" s="0" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E1007" s="0" t="s">
+        <v>6221</v>
+      </c>
+      <c r="F1007" s="0" t="s">
+        <v>6222</v>
+      </c>
+      <c r="G1007" s="0" t="s">
+        <v>6223</v>
+      </c>
+      <c r="H1007" s="0" t="s">
+        <v>6224</v>
+      </c>
+      <c r="I1007" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1007" s="0" t="s">
+        <v>6225</v>
+      </c>
+      <c r="K1007" s="0"/>
+      <c r="L1007" s="0"/>
+    </row>
+    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1008" s="0" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D1008" s="0" t="s">
+        <v>6226</v>
+      </c>
+      <c r="E1008" s="0" t="s">
+        <v>6227</v>
+      </c>
+      <c r="F1008" s="0" t="s">
+        <v>6228</v>
+      </c>
+      <c r="G1008" s="0" t="s">
+        <v>6229</v>
+      </c>
+      <c r="H1008" s="0" t="s">
+        <v>6230</v>
+      </c>
+      <c r="I1008" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1008" s="0" t="s">
+        <v>6231</v>
+      </c>
+      <c r="K1008" s="0"/>
+      <c r="L1008" s="0"/>
+    </row>
+    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1009" s="0" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D1009" s="0" t="s">
+        <v>6232</v>
+      </c>
+      <c r="E1009" s="0" t="s">
+        <v>6233</v>
+      </c>
+      <c r="F1009" s="0" t="s">
+        <v>6234</v>
+      </c>
+      <c r="G1009" s="0" t="s">
+        <v>6235</v>
+      </c>
+      <c r="H1009" s="0" t="s">
+        <v>6236</v>
+      </c>
+      <c r="I1009" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1009" s="0" t="s">
+        <v>6237</v>
+      </c>
+      <c r="K1009" s="0"/>
+      <c r="L1009" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/perguntas_multipla.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10092" uniqueCount="6238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10802" uniqueCount="6669">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -18737,6 +18737,1355 @@
   </si>
   <si>
     <t xml:space="preserve">De acordo com o **parágrafo 182**, a aeronave deve se identificar e, se reconhecida, não pode ser atacada, mas pode ser inspecionada e, se validada, autorizada a seguir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Brasileira Contemporânea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 – Aspectos Demográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao analisar a economia de um país sob a ótica demográfica, como é definida a parcela da população que representa os potenciais trabalhadores e produtores do país?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População em idade de consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População economicamente ativa ou força de trabalho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População dependente ou inativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População em transição demográfica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo do Capítulo 1**, a população economicamente ativa representa os potenciais trabalhadores/produtores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a corrente neomalthusiana apresentada na seção 1.1, qual é a principal consequência do crescimento populacional acelerado, especialmente da população trabalhadora?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento imediato do progresso tecnológico devido à maior mão de obra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estímulo ao investimento em capital humano e aumento da renda per capita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendência de empobrecimento e esgotamento rápido dos recursos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução da pobreza devido ao aumento da demanda agregada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos termos da **seção 1.1**, os neomalthusianos afirmam que o crescimento populacional provoca empobrecimento e esgotamento de recursos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a teoria do ciclo de vida e a Figura 1.1, o que ocorre na fase da vida de um indivíduo situada entre os pontos A e B?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O indivíduo consome mais do que gera de renda, dependendo de transferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A geração de renda e o consumo são exatamente iguais e nulos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O indivíduo gera mais renda do que consome, criando poupança transferida para outras fases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O consumo atinge seu pico máximo enquanto a renda cai drasticamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação da **Figura 1.1 na página 2 e texto da página 3**, entre A e B produz-se e gera-se mais renda do que se consome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando os dados apresentados na Tabela 1.1 sobre a taxa média anual de crescimento da população residente no Brasil, o que se verifica em relação ao ritmo de crescimento na primeira década do século XXI (2000-2010)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve uma explosão demográfica com taxas superiores a 3% ao ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento foi de 1,17% ao ano, confirmando a tendência de queda e afastando temores de explosão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento manteve-se estagnado nos mesmos patamares da década de 1950.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento tornou-se negativo, indicando redução absoluta da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **texto da Página 4 e a Tabela 1.1**, o crescimento de 2000/2010 foi de 1,17% (e 0,83% na primeira década citada no texto), afastando a explosão demográfica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A equação do crescimento populacional envolve natalidade, mortalidade e migração. Segundo o texto, como a taxa de migração é definida nessa equação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma dos imigrantes dividida pela área territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre o saldo migratório e a população total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre natalidade e mortalidade dividida pela migração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de emigrantes multiplicado pela população economicamente ativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a fórmula apresentada no **início da Página 5**, a taxa de migração é igual ao saldo migratório dividido pela população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o crescimento populacional de um país passa a depender apenas da diferença entre nascimentos e óbitos, sem influência significativa de fluxos migratórios externos, diz-se que a população é:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estacionária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fechada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em explosão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **item 1.2 (final)**, uma população é fechada quando seu crescimento depende apenas do crescimento vegetativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na transição demográfica brasileira, descrita na seção 1.3 e ilustrada na Figura 1.2, o que caracteriza a fase intermediária (situação "B") que gera grande crescimento populacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queda simultânea e proporcional das taxas de natalidade e mortalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da taxa de mortalidade superando a taxa de natalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutenção das taxas de natalidade e mortalidade em níveis elevados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queda da taxa de mortalidade enquanto a taxa de natalidade permanece elevada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a **seção 1.3 e a análise da Figura 1.2**, na fase B há queda da mortalidade e manutenção da natalidade elevada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir da década de 1940, o Brasil experimentou um declínio na taxa de mortalidade. Qual dos fatores abaixo é citado como uma das causas principais dessa queda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da renda per capita exclusivamente nas zonas rurais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressos na saúde pública e controle de doenças epidêmicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoção de políticas neomalthusianas de controle de natalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução drástica da migração interna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo da Página 8**, a queda deve-se aos progressos na saúde pública e controle de doenças epidêmicas (item i).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As tábuas de mortalidade são instrumentos importantes para questões atuariais. O que a "expectativa de vida condicionada à idade" indica, conforme explicado na análise da Figura 1.3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a expectativa de vida ao nascer é imutável para todos os indivíduos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que, ao atingir determinada idade com vida (ex: 60 anos), a pessoa tende a viver mais do que a expectativa calculada ao nascer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a expectativa de vida diminui progressivamente quanto mais a pessoa envelhece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que homens e mulheres têm exatamente a mesma expectativa de vida após os 40 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação da **Figura 1.3 na Página 9**, ao atingir idades mais avançadas, a expectativa total de vida aumenta em relação à do nascimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisando a evolução da mortalidade infantil no Brasil (Figura 1.4), qual é a situação do país no início do século XXI comparada ao cenário internacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa caiu para zero, igualando-se aos países nórdicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa aumentou devido à urbanização descontrolada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa caiu significativamente, mas ainda é considerada elevada (acima de 12 por mil) em relação aos países desenvolvidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa estabilizou-se em 50 por mil, o mesmo nível da década de 1940.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **último parágrafo da Página 10**, apesar da queda, a taxa brasileira ainda é elevada se comparada aos países desenvolvidos (&lt;7 por mil).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Box 1.1, a pandemia de Covid-19 é comparada a qual outro evento histórico que também teve dimensões mundiais e forte letalidade, afetando a demografia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peste Negra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gripe Espanhola de 1918.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gripe Suína (H1N1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varíola.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Box 1.1**, a pandemia que guarda semelhança é a Gripe Espanhola de 1918.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o impacto imediato da pandemia de Covid-19 na taxa de mortalidade brasileira entre 2019 e 2021, segundo os dados apresentados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa de mortalidade permaneceu estável em 6 mortes por mil habitantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve uma redução da mortalidade devido ao isolamento social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa de mortalidade aumentou cerca de 42%, subindo para 8,5 mortes por mil habitantes em 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mortalidade caiu, pois as mortes por outras causas diminuíram drasticamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **texto da Página 12**, houve um aumento de 42% na taxa de mortalidade entre 2019 e 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a pandemia de Covid-19 alterou a estrutura das principais causas de morte no Brasil em 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As doenças do aparelho circulatório continuaram sendo a principal causa isolada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As causas externas (violência e trânsito) tornaram-se a principal causa de morte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As doenças infecciosas e parasitárias tornaram-se a principal causa de mortes, atingindo 27% do total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As neoplasias (câncer) ultrapassaram todas as outras causas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo da Página 13**, doenças infecciosas e parasitárias tornaram-se a principal causa (27%) em 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queda generalizada da taxa de fecundidade no Brasil, observada a partir das últimas décadas do século XX, é explicada principalmente por quais fatores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da mortalidade infantil e emigração em massa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada da mulher no mercado de trabalho e disseminação de métodos contraceptivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas governamentais de filho único e proibição de casamentos precoces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno da população ao campo e diminuição da urbanização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme os **itens i e ii da Página 14**, a queda explica-se pela entrada da mulher no mercado de trabalho e métodos contraceptivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que significa o fato de a taxa de fecundidade brasileira (1,7 filho por mulher) estar abaixo da chamada "taxa de reposição"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a população crescerá exponencialmente nas próximas décadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a população tende a se estabilizar e cair no longo prazo, pois as novas gerações são menores que as anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que o governo deve proibir a imigração para evitar superpopulação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a taxa de mortalidade superou a taxa de natalidade imediatamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **texto da Página 15**, estar abaixo da reposição implica que as novas gerações são inferiores e a população tende a cair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A análise da Tabela 1.4 sobre a distribuição da população por grupos de idade mostra que, entre 1940 e 2021, o Brasil passou de um país essencialmente jovem para um país em envelhecimento. Qual dado comprova essa mudança?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proporção de crianças de 0 a 4 anos aumentou para 20%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A população com mais de 70 anos diminuiu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A população com menos de 10 anos caiu pela metade (em proporção) e a com mais de 70 anos quadruplicou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A faixa etária de 20 a 24 anos manteve-se exatamente a mesma em termos absolutos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **final da seção 1.4 na Página 16**, a população &lt;10 anos caiu para metade da proporção e &gt;70 anos quadruplicou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao observar a evolução das pirâmides etárias brasileiras (Figuras 1.7 a 1.10) e a projeção para 2050, qual fenômeno é explicitamente mencionado em relação à população idosa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masculinização do envelhecimento, com mais homens idosos que mulheres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estagnação do topo da pirâmide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversão da pirâmide e "feminilização do envelhecimento" (maior crescimento das mulheres).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutenção da base larga típica de países jovens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a descrição das pirâmides na **Página 17**, nota-se um crescimento maior das mulheres (feminilização do envelhecimento).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O índice de envelhecimento do IBGE, citado no texto, relaciona quais grupos populacionais para demonstrar a transição demográfica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População economicamente ativa e população inativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População rural e população urbana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População com mais de 65 anos e população com menos de 15 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulheres em idade fértil e total de nascimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo da Página 21**, o índice é a relação entre a população &gt;65 anos e a população &lt;15 anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é um dos efeitos "positivos" ou de "alívio" imediato causado pela diminuição da população entre 0 e 14 anos nas próximas décadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da arrecadação previdenciária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alívio na demanda por serviços de saúde materno-infantil e ensino básico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento automático da produtividade do trabalho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim da necessidade de geração de novos empregos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **texto da Página 22**, a queda gera alívio na demanda por saúde materno-infantil e ensino básico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que define a "janela demográfica" ou "bônus demográfico" mencionado no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período em que a taxa de mortalidade supera a de natalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momento em que a razão de dependência é baixa, com alta proporção de pessoas em idade ativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase em que o governo paga um bônus financeiro para famílias com muitos filhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período de forte migração externa que rejuvenesce a população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Página 23**, o bônus ocorre quando a proporção de pessoas em idade ativa é alta e a razão de dependência é baixa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o principal fluxo migratório interno que caracterizou a economia brasileira entre 1950 e 1990, conforme a seção 1.5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migração das grandes metrópoles para o interior do Nordeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Êxodo rural, com saída do campo em direção às cidades, especialmente do Sudeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo contínuo da Região Sul para a Região Norte exclusivamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migração de retorno das cidades para as zonas rurais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo da Página 24**, o principal fluxo foi o êxodo rural em direção às cidades (especialmente Sudeste).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como se diferencia a urbanização recente nas fronteiras agrícolas em comparação ao êxodo rural clássico das décadas anteriores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A migração atual dirige-se a núcleos urbanos de médio porte, não apenas grandes metrópoles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A migração atual é exclusivamente rural-rural, sem criar cidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As fronteiras agrícolas não geram urbanização, apenas assentamentos temporários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fluxo atual é direcionado apenas para as capitais litorâneas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **segundo e terceiro parágrafos da Página 25**, a migração para a fronteira destina-se a núcleos de médio porte, diferente da metropolização anterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual tendência recente é apontada no texto sobre o processo de urbanização e as grandes metrópoles brasileiras?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceleração do crescimento das grandes metrópoles em detrimento do interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desaceleração da concentração nos grandes centros e surgimento de novas regiões metropolitanas no interior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinção das regiões metropolitanas e retorno à vida rural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentração de 80% da população em apenas duas cidades (São Paulo e Rio de Janeiro).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **primeiro parágrafo da Página 26**, há uma tendência de desaceleração da concentração nos grandes centros e ampliação de novas regiões metropolitanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a motivação fundamental para o desenvolvimento da Contabilidade Nacional e quais autores são citados como pioneiros nesse processo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A necessidade de controlar a inflação no pós-guerra, liderada por John Maynard Keynes e Adam Smith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A necessidade de mensurar a totalidade das atividades econômicas, com contribuições de Richard Stone e Simon Kuznets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desejo de microfundamentar as decisões das empresas, desenvolvido por Milton Friedman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de um sistema para calcular a carga tributária global, proposta por Karl Marx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 1**, foi necessário um instrumental para mensurar a totalidade das atividades, evolução que se deve aos trabalhos de Richard Stone e Simon Kuznets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na análise macroeconômica, as variáveis são classificadas como fluxos ou estoques. Assinale a alternativa que apresenta corretamente um exemplo de variável estoque e sua definição conceitual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Interno Bruto (PIB), pois é medido ao longo de um ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Investimento, pois representa a variação da capacidade produtiva em um período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Dívida Pública, pois corresponde a uma magnitude medida em um determinado instante do tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Déficit Público, pois é a diferença entre gastos e receitas em um momento específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **Boxe 2.1**, variáveis estoque correspondem a magnitudes medidas em dado instante, citando explicitamente a Dívida Pública como exemplo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para evitar o problema da dupla contagem na mensuração do produto de uma economia, qual procedimento deve ser adotado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somar o valor bruto de produção de todas as empresas, independentemente do setor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilizar apenas os bens intermediários, pois eles compõem o custo real da produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somar apenas os valores dos bens finais ou agregar os valores adicionados em cada etapa produtiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduzir os salários pagos do valor final das vendas de todas as empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 3**, deve-se contabilizar apenas os bens finais ou, alternativamente, agregar os valores adicionados para evitar a dupla contagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sob a ótica do dispêndio, o Produto Interno Bruto (PIB) é medido considerando os destinos da produção. Quais são os principais componentes dessa ótica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários, juros, lucros e aluguéis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo pessoal, consumo do governo, investimento, exportações e importações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Bruto da Produção menos o Consumo Intermediário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativos financeiros, estoque de capital e reservas cambiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **Seção 2.2**, o conceito de dispêndio refere-se aos destinos do produto: consumo (pessoal e público), investimento e o setor externo (exportações menos importações).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de "Absorção Interna" é fundamental para a análise macroeconômica. Como este agregado é definido no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a soma do consumo (público e privado) e do investimento, excluindo as transações externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a soma do PIB mais as importações, representando a oferta global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o total da renda enviada ao exterior menos a renda recebida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a diferença entre o Investimento Bruto e a Depreciação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 5**, a soma do consumo (público e privado) e o investimento é definida como absorção interna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em uma economia simples, sem governo e sem setor externo, onde apenas se produzem bens de consumo, qual identidade macroeconômica se verifica necessariamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Investimento é sempre maior que a Poupança (I &gt; S).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto (Y) é igual ao Consumo (C), que por sua vez iguala a Renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Renda é igual à soma de Salários e Impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Consumo é igual à Renda menos a Variação de Estoques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação e a equação (1) na **Página 6**, nessa economia simples, o valor da produção (Y) é igual à renda, que é igual ao valor do consumo (C).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No fluxo circular da renda expandido, qual é a função econômica fundamental desempenhada pelo Sistema Financeiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produzir bens de capital para as empresas do setor secundário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantir que o consumo das famílias seja igual à sua renda total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captar recursos dos poupadores (famílias) e transferi-los aos investidores (empresas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrecadar impostos sobre as transações financeiras para financiar o governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 7**, a principal função do Sistema Financeiro é captar os recursos dos poupadores para transferi-los aos investidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a diferença conceitual entre o Investimento Bruto (IB) e o Investimento Líquido (IL)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IL desconta a inflação do período, enquanto o IB é nominal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IL corresponde ao IB subtraído da depreciação, que é a reposição do capital desgastado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IL considera apenas o investimento do governo, enquanto o IB inclui o setor privado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IL inclui a variação de estoques, enquanto o IB considera apenas máquinas novas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Página 8**, "IL = IB — Depreciação", onde a depreciação é a parcela de capital consumida no período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os bens públicos possuem características específicas que dificultam sua provisão pelo mercado. Além disso, a presença do governo altera a medição do PIB. Como é calculado o PIB a custos de fatores (PIBcf)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBcf = PIBpm + impostos indiretos - subsídios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBcf = PIBpm - impostos diretos + transferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBcf = PIBpm - impostos indiretos + subsídios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBcf = PIBpm + depreciação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a fórmula apresentada na **Página 9**, o PIBcf corresponde ao PIBpm menos os impostos indiretos mais os subsídios concedidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na contabilidade nacional, ao se introduzir o governo, define-se a Renda Líquida do Setor Público (T). Qual das alternativas expressa corretamente a composição de T?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma dos impostos diretos e indiretos, sem deduções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre gastos do governo (G) e a arrecadação total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma dos impostos diretos e indiretos, deduzidos os subsídios e as transferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas os impostos diretos pagos pelas famílias e empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Página 10**, T = (Td-R) + (Ti-Q), ou seja, impostos diretos e indiretos deduzidos subsídios e transferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as identidades macroeconômicas apresentadas, como é definido o conceito de déficit público (Dg)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a diferença entre a arrecadação de impostos e as transferências governamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a diferença entre o investimento público (Ig) e a poupança pública (Sg).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o montante total da dívida pública acumulada em determinado período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a soma do consumo do governo e dos subsídios concedidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a equação (11) na **Página 11**, o conceito de déficit público (Dg) corresponde à diferença entre o investimento público (Ig) e a poupança pública (Sg).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a contabilidade nacional e o setor externo, a definição de "residente" é crucial. Quem é considerado residente no Brasil segundo o texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas cidadãos com nacionalidade brasileira vivendo no país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualquer agente econômico (famílias, empresas) estabelecido no país, independente da nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turistas estrangeiros que permanecem no país por mais de 30 dias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietários de empresas brasileiras que moram no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Página 11** (texto continua na 12), residente refere-se aos agentes estabelecidos no país, independentemente de sua nacionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com a introdução do "Resto do Mundo", a identidade macroeconômica entre poupança e investimento se altera. Qual a equação que representa o financiamento do investimento nessa economia aberta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = Sp (Poupança Privada) + Sg (Poupança Pública).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = Sp + Sg + Se (Poupança Externa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = C (Consumo) + G (Gastos) + X (Exportações).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = Sp + (X - M).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a equação (14) na **Página 13**, a identidade transforma-se em I = Sp + Sg + Se.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir do Produto Nacional Líquido a custo de fatores (PNLcf), chega-se à Renda Nacional (RN). Qual é a definição de Renda Pessoal Disponível (RPD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a Renda Nacional menos os impostos indiretos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a Renda Pessoal menos os impostos diretos sobre as famílias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o PIB a preços de mercado menos a depreciação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a soma de todos os salários pagos na economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o resumo das medidas na **Página 14**, a RPD é igual à Renda Pessoal (RP) menos os impostos diretos sobre famílias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para avaliar o crescimento econômico efetivo de um país, deve-se observar o Produto Real. O que diferencia o Produto Real do Produto Nominal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Real é medido a preços constantes, descontando a inflação, enquanto o Nominal é a preços correntes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Real inclui a economia informal, enquanto o Nominal considera apenas dados oficiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Real é calculado em dólares, enquanto o Nominal é na moeda local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Real considera a depreciação, enquanto o Nominal não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação na **Seção 2.7**, o Produto Real é aquele medido a preços constantes, retirando os efeitos da inflação observados no Produto Nominal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao analisar a decomposição do PIB pela ótica da demanda (Tabela 2.1), qual característica distingue a economia brasileira em comparação a outras economias emergentes como a China?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil possui uma taxa de formação bruta de capital (investimento) superior à da China.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil apresenta uma participação do consumo (famílias e governo) bastante elevada e investimento relativamente baixo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As exportações brasileiras representam mais de 50% do PIB, indicando alta abertura comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O consumo do governo no Brasil é inferior a 10% do PIB, um dos menores do mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a análise do texto na **Página 16** sobre a Tabela 2.1, percebe-se que o Brasil tem participação do consumo bastante elevada e uma formação bruta de capital relativamente baixa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas considerações finais do capítulo, qual é o objetivo declarado da apresentação dos agregados macroeconômicos e dos atores (famílias, empresas, governo, resto do mundo)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensinar técnicas avançadas de econometria para previsão de crises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir que o leitor entenda o comportamento da economia e analise a evolução da economia brasileira nos capítulos seguintes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonstrar que a microeconomia é insuficiente para explicar a formação de preços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprovar que o modelo keynesiano é superior ao modelo clássico em todas as situações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme as Considerações Finais na **Página 17**, a conceituação é necessária para que o leitor possa entender como a economia se comporta e analisar a evolução da economia brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que a ONU criou o conceito de PIB em Paridade do Poder de Compra (PIBppp) para comparações internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para valorizar as moedas de países desenvolvidos em detrimento dos emergentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para eliminar as distorções causadas pela política cambial e refletir o real poder de compra entre países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para facilitar a conversão de moedas para o Euro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para substituir o Índice Big Mac como medida oficial de inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 19 (Apêndice 2B)**, o PIBppp foi criado para sanar o problema do PIB em dólares correntes ser muito afetado pela política cambial e não refletir o real poder de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é metodologicamente calculado o PIB pela Paridade do Poder de Compra (PIBppp) de um país como o Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplicam-se as quantidades produzidas no Brasil pelos preços vigentes nos Estados Unidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convertem-se os valores em reais para dólares pela taxa de câmbio média do ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma-se a inflação brasileira à inflação americana para ajustar o PIB nominal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliza-se apenas o preço do Big Mac para ponderar todo o PIB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a fórmula e explicação na **Página 20**, tomam-se as quantidades produzidas por cada país e multiplicam-se pelos preços dos Estados Unidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao comparar o PIB do Brasil em 2021 utilizando dólares correntes versus dólares PPP (Tabela 2.2), o que se observa sobre a posição da economia brasileira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil cai muitas posições no ranking PPP, indicando que o custo de vida é muito alto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil melhora sua posição no ranking PPP (8º lugar) em relação ao ranking de dólares correntes (11º lugar), indicando que o real estava desvalorizado frente ao dólar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As posições são idênticas, pois a taxa de câmbio reflete perfeitamente a paridade de poder de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil supera os Estados Unidos e a China em termos de PIB per capita PPP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a análise da **Página 21**, o Brasil apresentou uma posição melhor em termos de PPP (8º) do que em dólares correntes (11º), pois o poder de compra do dólar é maior internamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando as diferenças entre PIB em dólares correntes e PIB em dólares PPP, qual é a aplicação mais adequada para o PIB em dólares PPP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisar resultados financeiros de empresas multinacionais e balanços de pagamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparar o tamanho real das economias e o padrão de vida (poder de compra) das populações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcular o valor exato das dívidas externas dos países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinar a taxa de câmbio nominal de equilíbrio para o dia seguinte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a conclusão na **Página 22**, para compararmos o tamanho das economias dos países (e poder de compra), utilizamos valores em termos de PPP.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Desenvolvimento e Distribuição de Renda</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No início do capítulo, é estabelecida uma distinção fundamental entre crescimento econômico e desenvolvimento econômico. Qual é a principal diferença apontada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento econômico refere-se à qualidade de vida, enquanto o desenvolvimento foca apenas no aumento do PIB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O crescimento é a ampliação quantitativa da produção, enquanto o desenvolvimento é mais amplo e envolve a qualidade de vida e condições da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desenvolvimento econômico exclui o crescimento do PIB, focando apenas em indicadores ambientais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há diferença, os termos são usados como sinônimos perfeitos na literatura econômica citada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **Seção 3.1**, crescimento é a ampliação quantitativa da produção, enquanto desenvolvimento é um conceito mais amplo associado às condições de vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Produto Per Capita é utilizado como uma primeira aproximação para medir o desenvolvimento. Por que a Suíça é considerada mais desenvolvida que o Brasil, mesmo tendo um PIB total menor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a Suíça possui uma população significativamente menor, resultando em uma renda média por habitante muito superior à brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a produção total da Suíça em dólares absolutos é superior à do Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque o Brasil não produz bens de alta tecnologia, o que reduz seu cálculo de desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque o cálculo do PIB suíço exclui a inflação, diferentemente do brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 2**, embora o PIB total do Brasil seja maior, a população suíça é menor, fazendo com que o acesso médio a bens (renda per capita) seja superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao analisar o PIB per capita como indicador de desenvolvimento, o texto aponta uma limitação crucial relacionada à natureza de uma média aritmética. Qual é essa limitação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A média ignora a inflação do período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A média não considera a produção de serviços, apenas de bens industriais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A média pode ocultar a concentração de renda; um país pode ter PIB per capita alto, mas a renda estar concentrada em poucos habitantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O PIB per capita diminui automaticamente quando a população cresce, independentemente da produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 3**, deve-se ter cuidado com o conceito de média, pois é necessário investigar a distribuição em torno dessa média e a concentração de renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além da renda, os indicadores sociais são essenciais. Observando os dados de analfabetismo no Brasil (Tabela 3.1), qual tendência é destacada no texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O analfabetismo aumentou na região Sudeste devido à migração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve evolução positiva (queda do analfabetismo), mas persistem disparidades regionais significativas, com o Nordeste apresentando taxas mais altas que o Sul/Sudeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A região Centro-Oeste possui as piores taxas de saneamento e alfabetização do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa de analfabetismo no Brasil estagnou desde a década de 1980.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a análise da **Página 4**, houve evolução positiva, mas o segundo aspecto que chama a atenção são as disparidades regionais (Tabelas 3.1 e 3.2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Tabela 3.3 e a Figura 3.2 relacionam indicadores sociais (saneamento e alfabetização) com faixas de renda. O que os dados evidenciam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As condições de saneamento são uniformes em todas as faixas de renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe uma forte correlação onde famílias com renda per capita mais baixa (até 1/4 do salário-mínimo) sofrem significativamente mais com falta de saneamento e analfabetismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O analfabetismo é maior nas faixas de renda superiores a 2 salários-mínimos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A renda não influencia o acesso à coleta de esgoto no Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 5**, ao dividir a população por nível de renda, percebem-se fortes desigualdades, com piores indicadores nas famílias de até 1/4 de salário-mínimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na comparação dos indicadores sociais do Brasil com o resto do mundo (Tabela 3.4), como o texto classifica a posição brasileira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil está entre os países desenvolvidos, com indicadores próximos aos do Canadá e Japão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil ocupa uma posição intermediária, distante dos países desenvolvidos, indicando que muito precisa ser feito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil possui os piores indicadores do mundo, abaixo de países como a Etiópia em todos os quesitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil lidera o ranking mundial em saneamento básico seguro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 6**, percebe-se que o Brasil ocupa posição intermediária em nível mundial, ainda distante dos chamados países desenvolvidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IDH é um índice composto que busca medir o desenvolvimento social. Quais são os três indicadores fundamentais que compõem o IDH?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros, inflação e desemprego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda per capita (PPP), Longevidade (esperança de vida) e Educação (anos de estudo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saneamento básico, segurança pública e renda nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortalidade infantil, acesso à internet e PIB nominal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o **Boxe 3.1**, o IDH é a média geométrica de três indicadores: renda (PPP), saúde (longevidade/expectativa de vida) e educação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com base nos dados de 2021 apresentados no texto, como o Brasil é classificado no ranking do IDH e qual foi sua trajetória recente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil é classificado como "muito alto", superando a média da OCDE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil tem IDH "baixo", similar aos países da África Subsaariana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil situa-se no grupo de desenvolvimento humano "alto", mas apresentou queda no índice a partir de 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O IDH brasileiro tem crescido ininterruptamente, sem quedas, mesmo durante a pandemia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 8** (referente à Tabela 3.5 e Figura 3.3), o Brasil está entre os de desenvolvimento alto (0,754), com queda de 2020 em diante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Índice de Desenvolvimento Humano Municipal (IDHM) revela disparidades internas no Brasil. O que se observa ao comparar os estados brasileiros em 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os estados do Nordeste possuem IDHM equivalente aos de "muito alto" desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas São Paulo e Distrito Federal chegam próximo aos índices de "muito alto" desenvolvimento, enquanto outros estados têm níveis de médio desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há diferença significativa entre o IDHM do Rio Grande do Sul e o do Maranhão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Região Norte possui, em média, os maiores índices de desenvolvimento do país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 9**, chamam a atenção as desigualdades: apenas SP e DF chegam próximo a índices muito altos, enquanto outros têm IDHM médio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto menciona diferentes formas de analisar a distribuição de renda. O que a "distribuição regional da renda" procura mostrar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A participação de cada setor (indústria, serviços) no produto total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão da renda entre lucros e salários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A participação de cada região brasileira na renda global do país, evidenciando a concentração no Sudeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribuição da renda entre os 10% mais ricos e os 50% mais pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Seção 3.4**, a distribuição regional procura mostrar qual a participação de cada uma das regiões brasileiras na renda global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na distribuição funcional da renda, o produto é repartido pela remuneração dos fatores. O que representa o "excedente operacional bruto"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soma de todos os salários pagos aos empregados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os impostos arrecadados pelo governo sobre a produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A renda mista recebida pelos trabalhadores autônomos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O saldo correspondente aos lucros e outras remunerações do capital e da terra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição no **item iv da Página 11**, o excedente operacional bruto são os lucros e outras remunerações do capital e das terras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisando a "divisão pessoal da renda" (Tabela 3.7), qual característica marcante da economia brasileira é apontada em relação aos 1% mais ricos em 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles se apropriam de uma parcela ínfima da renda, inferior a 1%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve uma distribuição total da renda deles para os mais pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eles se apropriam de uma parcela elevada, cerca de 12,4% da renda total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A participação deles é idêntica à dos 20% mais pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a análise dos dados na **Página 12**, os 1% mais ricos se apropriam de elevados 12,4% da renda em 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Tabela 3.8, que compara o Brasil com o resto do mundo, qual é a situação da distribuição de renda brasileira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil tem uma distribuição de renda similar à da Alemanha e Finlândia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil disputa a liderança da pior distribuição de renda do mundo com países como África do Sul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil possui um Índice de Gini baixo, indicando alta igualdade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A participação dos 10% mais ricos no Brasil é menor que na França.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 13**, o Brasil disputa a liderança da pior distribuição de renda com países como África do Sul, Honduras e México.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Índice de Gini é calculado a partir da Curva de Lorenz. O que indicaria um Índice de Gini igual a 0 (zero)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentração total da renda em uma única pessoa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação onde a Curva de Lorenz coincide com a reta de perfeita igualdade (nenhuma concentração).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que o país está em extrema pobreza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a área entre a Curva de Lorenz e a reta de igualdade é máxima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação no **Boxe 3.2**, o índice varia de 0 (quando a Curva de Lorenz e a reta AB são as mesmas — nenhuma concentração) a 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na representação gráfica da Curva de Lorenz (Figura 3.6), o que significa o fato de a curva estar distante da linha diagonal (reta de perfeita igualdade)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significa que a renda é bem distribuída.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significa que há uma maior desigualdade na distribuição de renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significa que o país é rico em termos de PIB per capita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significa que a população diminuiu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a explicação da Figura 3.6 na **Página 14/15**, quanto mais a curva se aproxima da reta, mais bem distribuída é a renda; quanto mais se afasta, mais mal distribuída.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante o "milagre econômico" (anos 1970), a desigualdade aumentou. Qual era o argumento central da "Teoria do Bolo" para justificar esse fenômeno?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Era necessário distribuir a renda imediatamente para gerar demanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concentração de renda nos mais ricos aumentaria a poupança e o investimento, permitindo crescer primeiro para distribuir depois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação deveria ser combatida com aumento de salários acima da produtividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado deveria intervir para igualar todos os salários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 16**, a Teoria do Bolo argumentava que a concentração permitia aumento da poupança e investimentos, sustentando o crescimento (crescer para depois distribuir).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferentemente do "milagre econômico", o que ocorreu com a distribuição de renda durante o crescimento da primeira década do século XXI (2003-2015)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A desigualdade aumentou drasticamente devido à inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve uma melhora na distribuição, com as classes menos abastadas se aproveitando melhor do crescimento (queda do Gini).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribuição permaneceu estagnada em níveis altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os mais ricos capturaram todos os ganhos do crescimento, repetindo a década de 1970.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 16/17**, na primeira década do século XXI, houve retomada do crescimento e as classes menos abastadas se aproveitaram melhor, com melhora dos indicadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto discute o conceito de pobreza absoluta e o uso de linhas de pobreza. O que define a "linha de indigência" mencionada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o nível de renda necessário para comprar um imóvel próprio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se ao acesso à renda básica necessária apenas para suprir as necessidades alimentares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É definida como quem ganha menos de 5 salários-mínimos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É baseada exclusivamente na posse de bens duráveis como TV e geladeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 18**, alguns autores referem-se a uma linha de indigência quando tratam do mínimo necessário para suprir as necessidades alimentares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observando a Figura 3.9 e o texto sobre a pobreza na última década (até 2021), qual foi o comportamento dos indicadores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pobreza foi erradicada no Brasil em 2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houve uma redução contínua e ininterrupta da pobreza até 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dados mostram certa retomada (aumento) da pobreza nos últimos anos, apesar de oscilações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pobreza extrema manteve-se estável, mas a riqueza aumentou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a análise da **Página 19**, a estimativa mostra certa retomada da pobreza, apesar de algumas oscilações, nos últimos anos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que diferencia a abordagem da "Pobreza Multidimensional" (MPI) das medidas tradicionais de pobreza?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela foca exclusivamente na renda monetária das famílias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela considera diversas privações (saúde, educação, padrões de vida) em vez de apenas a renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela mede apenas a pobreza em áreas rurais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ela utiliza o PIB per capita como único indicador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a **Seção 3.5 e Quadro 3.1**, a pobreza multidimensional mede privações em dez indicadores divididos em saúde, educação e padrões de vida, indo além da renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de desenvolvimento evoluiu para incluir a sustentabilidade. Como o texto define "desenvolvimento sustentado"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que maximiza o lucro das empresas no curto prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que atende às necessidades do presente sem comprometer a possibilidade de as gerações futuras atenderem às suas próprias necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que foca exclusivamente na preservação ambiental, ignorando o crescimento econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que depende de subsídios governamentais para se manter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a definição na **Página 21**, desenvolvimento sustentado é o que atende às necessidades do presente sem significar um limite ao atendimento das necessidades das gerações futuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debate sobre a questão ambiental e desenvolvimento, como o texto descreve a posição dos "ecologistas políticos"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acreditam que a tecnologia resolverá todos os problemas sem mudança de comportamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São negacionistas que não acreditam em mudanças climáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afirmam que são necessárias mudanças radicais nos padrões de consumo e produção, associando-se às teses do decrescimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defendem que o mercado se ajustará automaticamente sem intervenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 21/22**, os ecologistas políticos afirmam que são necessárias mudanças radicais no relacionamento com a natureza, padrões de vida, consumo e produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são os ODS (Objetivos de Desenvolvimento Sustentável) apresentados no Quadro 3.2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um conjunto de leis brasileiras para proteção da Amazônia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma coleção de 17 metas globais estabelecidas pela ONU (Agenda 2030) para promover desenvolvimento inclusivo e sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um tratado comercial entre países do Mercosul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metas exclusivas para países desenvolvidos reduzirem suas emissões de carbono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o texto da **Página 23**, os ODS são uma coleção de metas globais estabelecidas pelas Nações Unidas, conhecidos como Agenda 2030, contendo 17 objetivos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inflação</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerando o comportamento histórico da inflação no Brasil descrito no texto, como é caracterizado o período das décadas de 1980 e 1990 em comparação ao período pós-2000?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As décadas de 80 e 90 foram de deflação constante, enquanto o período pós-2000 apresentou aceleração inflacionária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil manteve uma inflação rastejante nas décadas de 80 e 90, atingindo a hiperinflação apenas em 2002.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As décadas de 80 e 90 registraram inflação média anual superior a 500%, caracterizando uma hiperinflação, ao passo que após 2000 a média tornou-se mais moderada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambos os períodos apresentaram taxas de inflação similares, oscilando estavelmente próximas a 10% ao ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o primeiro parágrafo da **Página 1**, a média anual da inflação nas décadas de 1980 e 1990 foi de "mais de 500%", motivo pelo qual analistas diziam que vivíamos uma "hiperinflação", contrastando com a média mais moderada após o ano 2000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com as definições conceituais apresentadas, qual é a distinção fundamental entre inflação e aceleração inflacionária?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação ocorre quando os preços sobem, enquanto a aceleração inflacionária ocorre quando os preços sobem e a taxa de inflação aumenta a cada período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação refere-se ao aumento de preços de um único setor, enquanto a aceleração inflacionária é o aumento generalizado de todos os preços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação é definida como o aumento dos preços em até 10%, enquanto qualquer taxa acima desse valor é considerada aceleração inflacionária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inflação é o aumento contínuo de preços, enquanto a aceleração inflacionária é sinônimo de hiperinflação e abandono da moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a definição de **aceleração inflacionária** na Página 3, esta ocorre quando "os preços estão em média subindo e subindo cada vez mais", ou seja, a taxa de inflação não é constante, mas cresce (ex: 10% para 15%, depois 20%).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a concepção estruturalista (ou cepalina) descrita no texto, qual é a principal causa da inflação nos países latino-americanos durante o processo de industrialização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O excesso de demanda agregada causado exclusivamente pelo déficit público e pela emissão monetária desenfreada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aumento generalizado das taxas de juros internacionais que encareceu o crédito para as empresas nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os desequilíbrios entre o crescimento industrial e a oferta agrícola, gerando pontos de estrangulamento e choques de oferta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inércia inflacionária causada pela indexação formal dos salários, sem relação com a produção física de bens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme a descrição da **concepção estruturalista** na Página 5, a inflação decorre de "pontos de estrangulamento", onde a agricultura não acompanhou o desenvolvimento industrial, elevando preços de produtos primários (choques de oferta).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é considerada, pelo texto, a primeira consequência negativa advinda de taxas elevadas de inflação sobre o funcionamento da economia de mercado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O aumento imediato da carga tributária para compensar a perda de arrecadação do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distorção na alocação de recursos, pois os preços relativos deixam de sinalizar corretamente a escassez e os custos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valorização excessiva da moeda nacional frente ao dólar, prejudicando as exportações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A redução dos custos de transação, uma vez que as empresas deixam de pesquisar preços devido à volatilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conforme o item **5.3 Consequências da Inflação** na Página 6, o primeiro efeito é "provocar distorções na alocação de recursos da economia", pois perde-se a noção de preços relativos como sinalizadores.</t>
   </si>
 </sst>
 </file>
@@ -18747,7 +20096,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18784,6 +20133,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -18841,7 +20202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18880,6 +20241,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -19151,17 +20520,17 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1009"/>
+  <dimension ref="A1:L1080"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A975" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A985" activeCellId="0" sqref="985:1009"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1044" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1082" activeCellId="0" sqref="C1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="66.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="13.58"/>
@@ -48916,8 +50285,7 @@
       <c r="J902" s="1" t="s">
         <v>5550</v>
       </c>
-      <c r="K902" s="0"/>
-      <c r="L902" s="0"/>
+      <c r="L902" s="1"/>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
@@ -48950,8 +50318,7 @@
       <c r="J903" s="1" t="s">
         <v>5558</v>
       </c>
-      <c r="K903" s="0"/>
-      <c r="L903" s="0"/>
+      <c r="L903" s="1"/>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="s">
@@ -48984,8 +50351,7 @@
       <c r="J904" s="1" t="s">
         <v>5565</v>
       </c>
-      <c r="K904" s="0"/>
-      <c r="L904" s="0"/>
+      <c r="L904" s="1"/>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="s">
@@ -49018,8 +50384,7 @@
       <c r="J905" s="1" t="s">
         <v>5572</v>
       </c>
-      <c r="K905" s="0"/>
-      <c r="L905" s="0"/>
+      <c r="L905" s="1"/>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="s">
@@ -49052,8 +50417,7 @@
       <c r="J906" s="1" t="s">
         <v>5579</v>
       </c>
-      <c r="K906" s="0"/>
-      <c r="L906" s="0"/>
+      <c r="L906" s="1"/>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="s">
@@ -49086,8 +50450,7 @@
       <c r="J907" s="1" t="s">
         <v>5586</v>
       </c>
-      <c r="K907" s="0"/>
-      <c r="L907" s="0"/>
+      <c r="L907" s="1"/>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="s">
@@ -49120,8 +50483,7 @@
       <c r="J908" s="1" t="s">
         <v>5593</v>
       </c>
-      <c r="K908" s="0"/>
-      <c r="L908" s="0"/>
+      <c r="L908" s="1"/>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="s">
@@ -49154,8 +50516,7 @@
       <c r="J909" s="1" t="s">
         <v>5600</v>
       </c>
-      <c r="K909" s="0"/>
-      <c r="L909" s="0"/>
+      <c r="L909" s="1"/>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
@@ -49188,8 +50549,7 @@
       <c r="J910" s="1" t="s">
         <v>5608</v>
       </c>
-      <c r="K910" s="0"/>
-      <c r="L910" s="0"/>
+      <c r="L910" s="1"/>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
@@ -49222,8 +50582,7 @@
       <c r="J911" s="1" t="s">
         <v>5615</v>
       </c>
-      <c r="K911" s="0"/>
-      <c r="L911" s="0"/>
+      <c r="L911" s="1"/>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
@@ -49256,8 +50615,7 @@
       <c r="J912" s="1" t="s">
         <v>5622</v>
       </c>
-      <c r="K912" s="0"/>
-      <c r="L912" s="0"/>
+      <c r="L912" s="1"/>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="s">
@@ -49290,8 +50648,7 @@
       <c r="J913" s="1" t="s">
         <v>5630</v>
       </c>
-      <c r="K913" s="0"/>
-      <c r="L913" s="0"/>
+      <c r="L913" s="1"/>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
@@ -49324,8 +50681,7 @@
       <c r="J914" s="1" t="s">
         <v>5637</v>
       </c>
-      <c r="K914" s="0"/>
-      <c r="L914" s="0"/>
+      <c r="L914" s="1"/>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
@@ -49358,8 +50714,7 @@
       <c r="J915" s="1" t="s">
         <v>5644</v>
       </c>
-      <c r="K915" s="0"/>
-      <c r="L915" s="0"/>
+      <c r="L915" s="1"/>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
@@ -49392,8 +50747,7 @@
       <c r="J916" s="1" t="s">
         <v>5651</v>
       </c>
-      <c r="K916" s="0"/>
-      <c r="L916" s="0"/>
+      <c r="L916" s="1"/>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
@@ -49426,8 +50780,7 @@
       <c r="J917" s="1" t="s">
         <v>5657</v>
       </c>
-      <c r="K917" s="0"/>
-      <c r="L917" s="0"/>
+      <c r="L917" s="1"/>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
@@ -49460,8 +50813,7 @@
       <c r="J918" s="1" t="s">
         <v>5663</v>
       </c>
-      <c r="K918" s="0"/>
-      <c r="L918" s="0"/>
+      <c r="L918" s="1"/>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
@@ -49494,8 +50846,7 @@
       <c r="J919" s="1" t="s">
         <v>5669</v>
       </c>
-      <c r="K919" s="0"/>
-      <c r="L919" s="0"/>
+      <c r="L919" s="1"/>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
@@ -49528,8 +50879,7 @@
       <c r="J920" s="1" t="s">
         <v>5675</v>
       </c>
-      <c r="K920" s="0"/>
-      <c r="L920" s="0"/>
+      <c r="L920" s="1"/>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
@@ -49562,8 +50912,7 @@
       <c r="J921" s="1" t="s">
         <v>5681</v>
       </c>
-      <c r="K921" s="0"/>
-      <c r="L921" s="0"/>
+      <c r="L921" s="1"/>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
@@ -49596,8 +50945,7 @@
       <c r="J922" s="1" t="s">
         <v>5687</v>
       </c>
-      <c r="K922" s="0"/>
-      <c r="L922" s="0"/>
+      <c r="L922" s="1"/>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
@@ -49630,8 +50978,7 @@
       <c r="J923" s="1" t="s">
         <v>5695</v>
       </c>
-      <c r="K923" s="0"/>
-      <c r="L923" s="0"/>
+      <c r="L923" s="1"/>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
@@ -49664,8 +51011,7 @@
       <c r="J924" s="1" t="s">
         <v>5701</v>
       </c>
-      <c r="K924" s="0"/>
-      <c r="L924" s="0"/>
+      <c r="L924" s="1"/>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
@@ -49698,8 +51044,7 @@
       <c r="J925" s="1" t="s">
         <v>5707</v>
       </c>
-      <c r="K925" s="0"/>
-      <c r="L925" s="0"/>
+      <c r="L925" s="1"/>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="s">
@@ -49732,8 +51077,7 @@
       <c r="J926" s="1" t="s">
         <v>5713</v>
       </c>
-      <c r="K926" s="0"/>
-      <c r="L926" s="0"/>
+      <c r="L926" s="1"/>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="s">
@@ -49766,8 +51110,7 @@
       <c r="J927" s="1" t="s">
         <v>5720</v>
       </c>
-      <c r="K927" s="0"/>
-      <c r="L927" s="0"/>
+      <c r="L927" s="1"/>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
@@ -49800,8 +51143,7 @@
       <c r="J928" s="1" t="s">
         <v>5726</v>
       </c>
-      <c r="K928" s="0"/>
-      <c r="L928" s="0"/>
+      <c r="L928" s="1"/>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="s">
@@ -49834,8 +51176,7 @@
       <c r="J929" s="1" t="s">
         <v>5732</v>
       </c>
-      <c r="K929" s="0"/>
-      <c r="L929" s="0"/>
+      <c r="L929" s="1"/>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
@@ -49868,8 +51209,7 @@
       <c r="J930" s="1" t="s">
         <v>5738</v>
       </c>
-      <c r="K930" s="0"/>
-      <c r="L930" s="0"/>
+      <c r="L930" s="1"/>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
@@ -49902,8 +51242,7 @@
       <c r="J931" s="1" t="s">
         <v>5744</v>
       </c>
-      <c r="K931" s="0"/>
-      <c r="L931" s="0"/>
+      <c r="L931" s="1"/>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="s">
@@ -49936,8 +51275,7 @@
       <c r="J932" s="1" t="s">
         <v>5750</v>
       </c>
-      <c r="K932" s="0"/>
-      <c r="L932" s="0"/>
+      <c r="L932" s="1"/>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="s">
@@ -49970,8 +51308,7 @@
       <c r="J933" s="1" t="s">
         <v>5756</v>
       </c>
-      <c r="K933" s="0"/>
-      <c r="L933" s="0"/>
+      <c r="L933" s="1"/>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
@@ -50004,8 +51341,7 @@
       <c r="J934" s="1" t="s">
         <v>5762</v>
       </c>
-      <c r="K934" s="0"/>
-      <c r="L934" s="0"/>
+      <c r="L934" s="1"/>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
@@ -50038,8 +51374,7 @@
       <c r="J935" s="1" t="s">
         <v>5769</v>
       </c>
-      <c r="K935" s="0"/>
-      <c r="L935" s="0"/>
+      <c r="L935" s="1"/>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
@@ -50072,8 +51407,7 @@
       <c r="J936" s="1" t="s">
         <v>5775</v>
       </c>
-      <c r="K936" s="0"/>
-      <c r="L936" s="0"/>
+      <c r="L936" s="1"/>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="s">
@@ -50106,8 +51440,7 @@
       <c r="J937" s="1" t="s">
         <v>5782</v>
       </c>
-      <c r="K937" s="0"/>
-      <c r="L937" s="0"/>
+      <c r="L937" s="1"/>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="s">
@@ -50140,8 +51473,7 @@
       <c r="J938" s="1" t="s">
         <v>5788</v>
       </c>
-      <c r="K938" s="0"/>
-      <c r="L938" s="0"/>
+      <c r="L938" s="1"/>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="s">
@@ -50174,8 +51506,7 @@
       <c r="J939" s="1" t="s">
         <v>5794</v>
       </c>
-      <c r="K939" s="0"/>
-      <c r="L939" s="0"/>
+      <c r="L939" s="1"/>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
@@ -50208,8 +51539,7 @@
       <c r="J940" s="1" t="s">
         <v>5800</v>
       </c>
-      <c r="K940" s="0"/>
-      <c r="L940" s="0"/>
+      <c r="L940" s="1"/>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
@@ -50242,8 +51572,7 @@
       <c r="J941" s="1" t="s">
         <v>5806</v>
       </c>
-      <c r="K941" s="0"/>
-      <c r="L941" s="0"/>
+      <c r="L941" s="1"/>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
@@ -50276,8 +51605,7 @@
       <c r="J942" s="1" t="s">
         <v>5812</v>
       </c>
-      <c r="K942" s="0"/>
-      <c r="L942" s="0"/>
+      <c r="L942" s="1"/>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
@@ -50310,8 +51638,7 @@
       <c r="J943" s="1" t="s">
         <v>5818</v>
       </c>
-      <c r="K943" s="0"/>
-      <c r="L943" s="0"/>
+      <c r="L943" s="1"/>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
@@ -50344,8 +51671,7 @@
       <c r="J944" s="1" t="s">
         <v>5824</v>
       </c>
-      <c r="K944" s="0"/>
-      <c r="L944" s="0"/>
+      <c r="L944" s="1"/>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
@@ -50378,8 +51704,7 @@
       <c r="J945" s="1" t="s">
         <v>5830</v>
       </c>
-      <c r="K945" s="0"/>
-      <c r="L945" s="0"/>
+      <c r="L945" s="1"/>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="s">
@@ -50412,8 +51737,7 @@
       <c r="J946" s="1" t="s">
         <v>5836</v>
       </c>
-      <c r="K946" s="0"/>
-      <c r="L946" s="0"/>
+      <c r="L946" s="1"/>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
@@ -50446,8 +51770,7 @@
       <c r="J947" s="1" t="s">
         <v>5842</v>
       </c>
-      <c r="K947" s="0"/>
-      <c r="L947" s="0"/>
+      <c r="L947" s="1"/>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
@@ -50480,8 +51803,7 @@
       <c r="J948" s="1" t="s">
         <v>5848</v>
       </c>
-      <c r="K948" s="0"/>
-      <c r="L948" s="0"/>
+      <c r="L948" s="1"/>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
@@ -50514,8 +51836,7 @@
       <c r="J949" s="1" t="s">
         <v>5854</v>
       </c>
-      <c r="K949" s="0"/>
-      <c r="L949" s="0"/>
+      <c r="L949" s="1"/>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
@@ -50548,8 +51869,7 @@
       <c r="J950" s="1" t="s">
         <v>5860</v>
       </c>
-      <c r="K950" s="0"/>
-      <c r="L950" s="0"/>
+      <c r="L950" s="1"/>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="s">
@@ -50582,8 +51902,7 @@
       <c r="J951" s="1" t="s">
         <v>5866</v>
       </c>
-      <c r="K951" s="0"/>
-      <c r="L951" s="0"/>
+      <c r="L951" s="1"/>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
@@ -50616,8 +51935,7 @@
       <c r="J952" s="1" t="s">
         <v>5872</v>
       </c>
-      <c r="K952" s="0"/>
-      <c r="L952" s="0"/>
+      <c r="L952" s="1"/>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
@@ -50650,8 +51968,7 @@
       <c r="J953" s="1" t="s">
         <v>5878</v>
       </c>
-      <c r="K953" s="0"/>
-      <c r="L953" s="0"/>
+      <c r="L953" s="1"/>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
@@ -50684,8 +52001,7 @@
       <c r="J954" s="1" t="s">
         <v>5884</v>
       </c>
-      <c r="K954" s="0"/>
-      <c r="L954" s="0"/>
+      <c r="L954" s="1"/>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
@@ -50718,8 +52034,7 @@
       <c r="J955" s="1" t="s">
         <v>5890</v>
       </c>
-      <c r="K955" s="0"/>
-      <c r="L955" s="0"/>
+      <c r="L955" s="1"/>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
@@ -50752,8 +52067,7 @@
       <c r="J956" s="1" t="s">
         <v>5896</v>
       </c>
-      <c r="K956" s="0"/>
-      <c r="L956" s="0"/>
+      <c r="L956" s="1"/>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
@@ -50786,8 +52100,7 @@
       <c r="J957" s="1" t="s">
         <v>5902</v>
       </c>
-      <c r="K957" s="0"/>
-      <c r="L957" s="0"/>
+      <c r="L957" s="1"/>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
@@ -50820,8 +52133,7 @@
       <c r="J958" s="1" t="s">
         <v>5908</v>
       </c>
-      <c r="K958" s="0"/>
-      <c r="L958" s="0"/>
+      <c r="L958" s="1"/>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
@@ -50854,8 +52166,7 @@
       <c r="J959" s="1" t="s">
         <v>5915</v>
       </c>
-      <c r="K959" s="0"/>
-      <c r="L959" s="0"/>
+      <c r="L959" s="1"/>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
@@ -50888,8 +52199,7 @@
       <c r="J960" s="1" t="s">
         <v>5921</v>
       </c>
-      <c r="K960" s="0"/>
-      <c r="L960" s="0"/>
+      <c r="L960" s="1"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
@@ -50922,8 +52232,7 @@
       <c r="J961" s="1" t="s">
         <v>5927</v>
       </c>
-      <c r="K961" s="0"/>
-      <c r="L961" s="0"/>
+      <c r="L961" s="1"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
@@ -50956,8 +52265,7 @@
       <c r="J962" s="1" t="s">
         <v>5933</v>
       </c>
-      <c r="K962" s="0"/>
-      <c r="L962" s="0"/>
+      <c r="L962" s="1"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="s">
@@ -50990,8 +52298,7 @@
       <c r="J963" s="1" t="s">
         <v>5939</v>
       </c>
-      <c r="K963" s="0"/>
-      <c r="L963" s="0"/>
+      <c r="L963" s="1"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
@@ -51024,8 +52331,7 @@
       <c r="J964" s="1" t="s">
         <v>5945</v>
       </c>
-      <c r="K964" s="0"/>
-      <c r="L964" s="0"/>
+      <c r="L964" s="1"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
@@ -51058,8 +52364,7 @@
       <c r="J965" s="1" t="s">
         <v>5951</v>
       </c>
-      <c r="K965" s="0"/>
-      <c r="L965" s="0"/>
+      <c r="L965" s="1"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
@@ -51092,8 +52397,7 @@
       <c r="J966" s="1" t="s">
         <v>5957</v>
       </c>
-      <c r="K966" s="0"/>
-      <c r="L966" s="0"/>
+      <c r="L966" s="1"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
@@ -51126,8 +52430,7 @@
       <c r="J967" s="1" t="s">
         <v>5963</v>
       </c>
-      <c r="K967" s="0"/>
-      <c r="L967" s="0"/>
+      <c r="L967" s="1"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
@@ -51160,8 +52463,7 @@
       <c r="J968" s="1" t="s">
         <v>5969</v>
       </c>
-      <c r="K968" s="0"/>
-      <c r="L968" s="0"/>
+      <c r="L968" s="1"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="s">
@@ -51194,8 +52496,7 @@
       <c r="J969" s="1" t="s">
         <v>5975</v>
       </c>
-      <c r="K969" s="0"/>
-      <c r="L969" s="0"/>
+      <c r="L969" s="1"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
@@ -51228,8 +52529,7 @@
       <c r="J970" s="1" t="s">
         <v>5981</v>
       </c>
-      <c r="K970" s="0"/>
-      <c r="L970" s="0"/>
+      <c r="L970" s="1"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="s">
@@ -51262,8 +52562,7 @@
       <c r="J971" s="1" t="s">
         <v>5989</v>
       </c>
-      <c r="K971" s="0"/>
-      <c r="L971" s="0"/>
+      <c r="L971" s="1"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="s">
@@ -51296,8 +52595,7 @@
       <c r="J972" s="1" t="s">
         <v>5995</v>
       </c>
-      <c r="K972" s="0"/>
-      <c r="L972" s="0"/>
+      <c r="L972" s="1"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="s">
@@ -51330,8 +52628,7 @@
       <c r="J973" s="1" t="s">
         <v>6002</v>
       </c>
-      <c r="K973" s="0"/>
-      <c r="L973" s="0"/>
+      <c r="L973" s="1"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="s">
@@ -51364,8 +52661,7 @@
       <c r="J974" s="1" t="s">
         <v>6009</v>
       </c>
-      <c r="K974" s="0"/>
-      <c r="L974" s="0"/>
+      <c r="L974" s="1"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="s">
@@ -51398,8 +52694,7 @@
       <c r="J975" s="1" t="s">
         <v>6016</v>
       </c>
-      <c r="K975" s="0"/>
-      <c r="L975" s="0"/>
+      <c r="L975" s="1"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
@@ -51432,8 +52727,7 @@
       <c r="J976" s="1" t="s">
         <v>6022</v>
       </c>
-      <c r="K976" s="0"/>
-      <c r="L976" s="0"/>
+      <c r="L976" s="1"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="s">
@@ -51466,8 +52760,7 @@
       <c r="J977" s="1" t="s">
         <v>6029</v>
       </c>
-      <c r="K977" s="0"/>
-      <c r="L977" s="0"/>
+      <c r="L977" s="1"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="s">
@@ -51500,8 +52793,7 @@
       <c r="J978" s="1" t="s">
         <v>6036</v>
       </c>
-      <c r="K978" s="0"/>
-      <c r="L978" s="0"/>
+      <c r="L978" s="1"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="s">
@@ -51534,8 +52826,7 @@
       <c r="J979" s="1" t="s">
         <v>6043</v>
       </c>
-      <c r="K979" s="0"/>
-      <c r="L979" s="0"/>
+      <c r="L979" s="1"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
@@ -51568,8 +52859,7 @@
       <c r="J980" s="1" t="s">
         <v>6051</v>
       </c>
-      <c r="K980" s="0"/>
-      <c r="L980" s="0"/>
+      <c r="L980" s="1"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
@@ -51602,8 +52892,7 @@
       <c r="J981" s="1" t="s">
         <v>6059</v>
       </c>
-      <c r="K981" s="0"/>
-      <c r="L981" s="0"/>
+      <c r="L981" s="1"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
@@ -51636,8 +52925,7 @@
       <c r="J982" s="1" t="s">
         <v>6066</v>
       </c>
-      <c r="K982" s="0"/>
-      <c r="L982" s="0"/>
+      <c r="L982" s="1"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
@@ -51670,8 +52958,7 @@
       <c r="J983" s="1" t="s">
         <v>6073</v>
       </c>
-      <c r="K983" s="0"/>
-      <c r="L983" s="0"/>
+      <c r="L983" s="1"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
@@ -51704,858 +52991,3246 @@
       <c r="J984" s="1" t="s">
         <v>6080</v>
       </c>
-      <c r="K984" s="0"/>
-      <c r="L984" s="0"/>
+      <c r="L984" s="1"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="0" t="s">
+      <c r="A985" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B985" s="0" t="s">
+      <c r="B985" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="C985" s="0" t="s">
+      <c r="C985" s="1" t="s">
         <v>6082</v>
       </c>
-      <c r="D985" s="0" t="s">
+      <c r="D985" s="1" t="s">
         <v>6083</v>
       </c>
-      <c r="E985" s="0" t="s">
+      <c r="E985" s="1" t="s">
         <v>6084</v>
       </c>
-      <c r="F985" s="0" t="s">
+      <c r="F985" s="1" t="s">
         <v>6085</v>
       </c>
-      <c r="G985" s="0" t="s">
+      <c r="G985" s="1" t="s">
         <v>6086</v>
       </c>
-      <c r="H985" s="0" t="s">
+      <c r="H985" s="1" t="s">
         <v>6087</v>
       </c>
-      <c r="I985" s="0" t="s">
+      <c r="I985" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J985" s="0" t="s">
+      <c r="J985" s="1" t="s">
         <v>6088</v>
       </c>
-      <c r="K985" s="0"/>
-      <c r="L985" s="0"/>
+      <c r="L985" s="1"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="0" t="s">
+      <c r="A986" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B986" s="0" t="s">
+      <c r="B986" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="C986" s="0" t="s">
+      <c r="C986" s="1" t="s">
         <v>6082</v>
       </c>
-      <c r="D986" s="0" t="s">
+      <c r="D986" s="1" t="s">
         <v>6089</v>
       </c>
-      <c r="E986" s="0" t="s">
+      <c r="E986" s="1" t="s">
         <v>6090</v>
       </c>
-      <c r="F986" s="0" t="s">
+      <c r="F986" s="1" t="s">
         <v>6091</v>
       </c>
-      <c r="G986" s="0" t="s">
+      <c r="G986" s="1" t="s">
         <v>6092</v>
       </c>
-      <c r="H986" s="0" t="s">
+      <c r="H986" s="1" t="s">
         <v>6093</v>
       </c>
-      <c r="I986" s="0" t="s">
+      <c r="I986" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J986" s="0" t="s">
+      <c r="J986" s="1" t="s">
         <v>6094</v>
       </c>
-      <c r="K986" s="0"/>
-      <c r="L986" s="0"/>
+      <c r="L986" s="1"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="0" t="s">
+      <c r="A987" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B987" s="0" t="s">
+      <c r="B987" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C987" s="0" t="s">
+      <c r="C987" s="1" t="s">
         <v>6082</v>
       </c>
-      <c r="D987" s="0" t="s">
+      <c r="D987" s="1" t="s">
         <v>6095</v>
       </c>
-      <c r="E987" s="0" t="s">
+      <c r="E987" s="1" t="s">
         <v>6096</v>
       </c>
-      <c r="F987" s="0" t="s">
+      <c r="F987" s="1" t="s">
         <v>6097</v>
       </c>
-      <c r="G987" s="0" t="s">
+      <c r="G987" s="1" t="s">
         <v>6098</v>
       </c>
-      <c r="H987" s="0" t="s">
+      <c r="H987" s="1" t="s">
         <v>6099</v>
       </c>
-      <c r="I987" s="0" t="s">
+      <c r="I987" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J987" s="0" t="s">
+      <c r="J987" s="1" t="s">
         <v>6100</v>
       </c>
-      <c r="K987" s="0"/>
-      <c r="L987" s="0"/>
+      <c r="L987" s="1"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="0" t="s">
+      <c r="A988" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B988" s="0" t="s">
+      <c r="B988" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="C988" s="0" t="s">
+      <c r="C988" s="1" t="s">
         <v>6101</v>
       </c>
-      <c r="D988" s="0" t="s">
+      <c r="D988" s="1" t="s">
         <v>6102</v>
       </c>
-      <c r="E988" s="0" t="s">
+      <c r="E988" s="1" t="s">
         <v>6103</v>
       </c>
-      <c r="F988" s="0" t="s">
+      <c r="F988" s="1" t="s">
         <v>6104</v>
       </c>
-      <c r="G988" s="0" t="s">
+      <c r="G988" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="H988" s="0" t="s">
+      <c r="H988" s="1" t="s">
         <v>6106</v>
       </c>
-      <c r="I988" s="0" t="s">
+      <c r="I988" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J988" s="0" t="s">
+      <c r="J988" s="1" t="s">
         <v>6107</v>
       </c>
-      <c r="K988" s="0"/>
-      <c r="L988" s="0"/>
+      <c r="L988" s="1"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="0" t="s">
+      <c r="A989" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B989" s="0" t="s">
+      <c r="B989" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C989" s="0" t="s">
+      <c r="C989" s="1" t="s">
         <v>6101</v>
       </c>
-      <c r="D989" s="0" t="s">
+      <c r="D989" s="1" t="s">
         <v>6108</v>
       </c>
-      <c r="E989" s="0" t="s">
+      <c r="E989" s="1" t="s">
         <v>6109</v>
       </c>
-      <c r="F989" s="0" t="s">
+      <c r="F989" s="1" t="s">
         <v>6110</v>
       </c>
-      <c r="G989" s="0" t="s">
+      <c r="G989" s="1" t="s">
         <v>6111</v>
       </c>
-      <c r="H989" s="0" t="s">
+      <c r="H989" s="1" t="s">
         <v>6112</v>
       </c>
-      <c r="I989" s="0" t="s">
+      <c r="I989" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J989" s="0" t="s">
+      <c r="J989" s="1" t="s">
         <v>6113</v>
       </c>
-      <c r="K989" s="0"/>
-      <c r="L989" s="0"/>
+      <c r="L989" s="1"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="0" t="s">
+      <c r="A990" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B990" s="0" t="s">
+      <c r="B990" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C990" s="0" t="s">
+      <c r="C990" s="1" t="s">
         <v>6101</v>
       </c>
-      <c r="D990" s="0" t="s">
+      <c r="D990" s="1" t="s">
         <v>6114</v>
       </c>
-      <c r="E990" s="0" t="s">
+      <c r="E990" s="1" t="s">
         <v>6115</v>
       </c>
-      <c r="F990" s="0" t="s">
+      <c r="F990" s="1" t="s">
         <v>6116</v>
       </c>
-      <c r="G990" s="0" t="s">
+      <c r="G990" s="1" t="s">
         <v>6117</v>
       </c>
-      <c r="H990" s="0" t="s">
+      <c r="H990" s="1" t="s">
         <v>6118</v>
       </c>
-      <c r="I990" s="0" t="s">
+      <c r="I990" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J990" s="0" t="s">
+      <c r="J990" s="1" t="s">
         <v>6119</v>
       </c>
-      <c r="K990" s="0"/>
-      <c r="L990" s="0"/>
+      <c r="L990" s="1"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="0" t="s">
+      <c r="A991" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B991" s="0" t="s">
+      <c r="B991" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="C991" s="0" t="s">
+      <c r="C991" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D991" s="0" t="s">
+      <c r="D991" s="1" t="s">
         <v>6121</v>
       </c>
-      <c r="E991" s="0" t="s">
+      <c r="E991" s="1" t="s">
         <v>6122</v>
       </c>
-      <c r="F991" s="0" t="s">
+      <c r="F991" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G991" s="0" t="s">
+      <c r="G991" s="1" t="s">
         <v>6124</v>
       </c>
-      <c r="H991" s="0" t="s">
+      <c r="H991" s="1" t="s">
         <v>6125</v>
       </c>
-      <c r="I991" s="0" t="s">
+      <c r="I991" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J991" s="0" t="s">
+      <c r="J991" s="1" t="s">
         <v>6126</v>
       </c>
-      <c r="K991" s="0"/>
-      <c r="L991" s="0"/>
+      <c r="L991" s="1"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="0" t="s">
+      <c r="A992" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B992" s="0" t="s">
+      <c r="B992" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="C992" s="0" t="s">
+      <c r="C992" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D992" s="0" t="s">
+      <c r="D992" s="1" t="s">
         <v>6127</v>
       </c>
-      <c r="E992" s="0" t="s">
+      <c r="E992" s="1" t="s">
         <v>6128</v>
       </c>
-      <c r="F992" s="0" t="s">
+      <c r="F992" s="1" t="s">
         <v>6129</v>
       </c>
-      <c r="G992" s="0" t="s">
+      <c r="G992" s="1" t="s">
         <v>6130</v>
       </c>
-      <c r="H992" s="0" t="s">
+      <c r="H992" s="1" t="s">
         <v>6131</v>
       </c>
-      <c r="I992" s="0" t="s">
+      <c r="I992" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J992" s="0" t="s">
+      <c r="J992" s="1" t="s">
         <v>6132</v>
       </c>
-      <c r="K992" s="0"/>
-      <c r="L992" s="0"/>
+      <c r="L992" s="1"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="0" t="s">
+      <c r="A993" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B993" s="0" t="s">
+      <c r="B993" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="C993" s="0" t="s">
+      <c r="C993" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D993" s="0" t="s">
+      <c r="D993" s="1" t="s">
         <v>6133</v>
       </c>
-      <c r="E993" s="0" t="s">
+      <c r="E993" s="1" t="s">
         <v>6134</v>
       </c>
-      <c r="F993" s="0" t="s">
+      <c r="F993" s="1" t="s">
         <v>6135</v>
       </c>
-      <c r="G993" s="0" t="s">
+      <c r="G993" s="1" t="s">
         <v>6136</v>
       </c>
-      <c r="H993" s="0" t="s">
+      <c r="H993" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="I993" s="0" t="s">
+      <c r="I993" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J993" s="0" t="s">
+      <c r="J993" s="1" t="s">
         <v>6138</v>
       </c>
-      <c r="K993" s="0"/>
-      <c r="L993" s="0"/>
+      <c r="L993" s="1"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="0" t="s">
+      <c r="A994" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B994" s="0" t="s">
+      <c r="B994" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="C994" s="0" t="s">
+      <c r="C994" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D994" s="0" t="s">
+      <c r="D994" s="1" t="s">
         <v>6139</v>
       </c>
-      <c r="E994" s="0" t="s">
+      <c r="E994" s="1" t="s">
         <v>6140</v>
       </c>
-      <c r="F994" s="0" t="s">
+      <c r="F994" s="1" t="s">
         <v>6141</v>
       </c>
-      <c r="G994" s="0" t="s">
+      <c r="G994" s="1" t="s">
         <v>6142</v>
       </c>
-      <c r="H994" s="0" t="s">
+      <c r="H994" s="1" t="s">
         <v>6143</v>
       </c>
-      <c r="I994" s="0" t="s">
+      <c r="I994" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J994" s="0" t="s">
+      <c r="J994" s="1" t="s">
         <v>6144</v>
       </c>
-      <c r="K994" s="0"/>
-      <c r="L994" s="0"/>
+      <c r="L994" s="1"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="0" t="s">
+      <c r="A995" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B995" s="0" t="s">
+      <c r="B995" s="1" t="s">
         <v>5432</v>
       </c>
-      <c r="C995" s="0" t="s">
+      <c r="C995" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D995" s="0" t="s">
+      <c r="D995" s="1" t="s">
         <v>6145</v>
       </c>
-      <c r="E995" s="0" t="s">
+      <c r="E995" s="1" t="s">
         <v>6146</v>
       </c>
-      <c r="F995" s="0" t="s">
+      <c r="F995" s="1" t="s">
         <v>6147</v>
       </c>
-      <c r="G995" s="0" t="s">
+      <c r="G995" s="1" t="s">
         <v>6148</v>
       </c>
-      <c r="H995" s="0" t="s">
+      <c r="H995" s="1" t="s">
         <v>6149</v>
       </c>
-      <c r="I995" s="0" t="s">
+      <c r="I995" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J995" s="0" t="s">
+      <c r="J995" s="1" t="s">
         <v>6150</v>
       </c>
-      <c r="K995" s="0"/>
-      <c r="L995" s="0"/>
+      <c r="L995" s="1"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="0" t="s">
+      <c r="A996" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B996" s="0" t="s">
+      <c r="B996" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="C996" s="0" t="s">
+      <c r="C996" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="D996" s="0" t="s">
+      <c r="D996" s="1" t="s">
         <v>6151</v>
       </c>
-      <c r="E996" s="0" t="s">
+      <c r="E996" s="1" t="s">
         <v>6152</v>
       </c>
-      <c r="F996" s="0" t="s">
+      <c r="F996" s="1" t="s">
         <v>6153</v>
       </c>
-      <c r="G996" s="0" t="s">
+      <c r="G996" s="1" t="s">
         <v>6154</v>
       </c>
-      <c r="H996" s="0" t="s">
+      <c r="H996" s="1" t="s">
         <v>6155</v>
       </c>
-      <c r="I996" s="0" t="s">
+      <c r="I996" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J996" s="0" t="s">
+      <c r="J996" s="1" t="s">
         <v>6156</v>
       </c>
-      <c r="K996" s="0"/>
-      <c r="L996" s="0"/>
+      <c r="L996" s="1"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="0" t="s">
+      <c r="A997" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B997" s="0" t="s">
+      <c r="B997" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="C997" s="0" t="s">
+      <c r="C997" s="1" t="s">
         <v>6157</v>
       </c>
-      <c r="D997" s="0" t="s">
+      <c r="D997" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="E997" s="0" t="s">
+      <c r="E997" s="1" t="s">
         <v>6159</v>
       </c>
-      <c r="F997" s="0" t="s">
+      <c r="F997" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="G997" s="0" t="s">
+      <c r="G997" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="H997" s="0" t="s">
+      <c r="H997" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I997" s="0" t="s">
+      <c r="I997" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J997" s="0" t="s">
+      <c r="J997" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="K997" s="0"/>
-      <c r="L997" s="0"/>
+      <c r="L997" s="1"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="0" t="s">
+      <c r="A998" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B998" s="0" t="s">
+      <c r="B998" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="C998" s="0" t="s">
+      <c r="C998" s="1" t="s">
         <v>6157</v>
       </c>
-      <c r="D998" s="0" t="s">
+      <c r="D998" s="1" t="s">
         <v>6164</v>
       </c>
-      <c r="E998" s="0" t="s">
+      <c r="E998" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="F998" s="0" t="s">
+      <c r="F998" s="1" t="s">
         <v>6166</v>
       </c>
-      <c r="G998" s="0" t="s">
+      <c r="G998" s="1" t="s">
         <v>6167</v>
       </c>
-      <c r="H998" s="0" t="s">
+      <c r="H998" s="1" t="s">
         <v>6168</v>
       </c>
-      <c r="I998" s="0" t="s">
+      <c r="I998" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J998" s="0" t="s">
+      <c r="J998" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="K998" s="0"/>
-      <c r="L998" s="0"/>
+      <c r="L998" s="1"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="0" t="s">
+      <c r="A999" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B999" s="0" t="s">
+      <c r="B999" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="C999" s="0" t="s">
+      <c r="C999" s="1" t="s">
         <v>6157</v>
       </c>
-      <c r="D999" s="0" t="s">
+      <c r="D999" s="1" t="s">
         <v>6170</v>
       </c>
-      <c r="E999" s="0" t="s">
+      <c r="E999" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="F999" s="0" t="s">
+      <c r="F999" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="G999" s="0" t="s">
+      <c r="G999" s="1" t="s">
         <v>6173</v>
       </c>
-      <c r="H999" s="0" t="s">
+      <c r="H999" s="1" t="s">
         <v>6174</v>
       </c>
-      <c r="I999" s="0" t="s">
+      <c r="I999" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J999" s="0" t="s">
+      <c r="J999" s="1" t="s">
         <v>6175</v>
       </c>
-      <c r="K999" s="0"/>
-      <c r="L999" s="0"/>
+      <c r="L999" s="1"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="0" t="s">
+      <c r="A1000" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1000" s="0" t="s">
+      <c r="B1000" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="C1000" s="0" t="s">
+      <c r="C1000" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1000" s="0" t="s">
+      <c r="D1000" s="1" t="s">
         <v>6177</v>
       </c>
-      <c r="E1000" s="0" t="s">
+      <c r="E1000" s="1" t="s">
         <v>6178</v>
       </c>
-      <c r="F1000" s="0" t="s">
+      <c r="F1000" s="1" t="s">
         <v>6179</v>
       </c>
-      <c r="G1000" s="0" t="s">
+      <c r="G1000" s="1" t="s">
         <v>6180</v>
       </c>
-      <c r="H1000" s="0" t="s">
+      <c r="H1000" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="I1000" s="0" t="s">
+      <c r="I1000" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1000" s="0" t="s">
+      <c r="J1000" s="1" t="s">
         <v>6182</v>
       </c>
-      <c r="K1000" s="0"/>
-      <c r="L1000" s="0"/>
+      <c r="L1000" s="1"/>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="0" t="s">
+      <c r="A1001" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1001" s="0" t="s">
+      <c r="B1001" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="C1001" s="0" t="s">
+      <c r="C1001" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1001" s="0" t="s">
+      <c r="D1001" s="1" t="s">
         <v>6183</v>
       </c>
-      <c r="E1001" s="0" t="s">
+      <c r="E1001" s="1" t="s">
         <v>6184</v>
       </c>
-      <c r="F1001" s="0" t="s">
+      <c r="F1001" s="1" t="s">
         <v>6185</v>
       </c>
-      <c r="G1001" s="0" t="s">
+      <c r="G1001" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="H1001" s="0" t="s">
+      <c r="H1001" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="I1001" s="0" t="s">
+      <c r="I1001" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1001" s="0" t="s">
+      <c r="J1001" s="1" t="s">
         <v>6188</v>
       </c>
-      <c r="K1001" s="0"/>
-      <c r="L1001" s="0"/>
+      <c r="L1001" s="1"/>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="0" t="s">
+      <c r="A1002" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1002" s="0" t="s">
+      <c r="B1002" s="1" t="s">
         <v>4079</v>
       </c>
-      <c r="C1002" s="0" t="s">
+      <c r="C1002" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1002" s="0" t="s">
+      <c r="D1002" s="1" t="s">
         <v>6189</v>
       </c>
-      <c r="E1002" s="0" t="s">
+      <c r="E1002" s="1" t="s">
         <v>6190</v>
       </c>
-      <c r="F1002" s="0" t="s">
+      <c r="F1002" s="1" t="s">
         <v>6191</v>
       </c>
-      <c r="G1002" s="0" t="s">
+      <c r="G1002" s="1" t="s">
         <v>6192</v>
       </c>
-      <c r="H1002" s="0" t="s">
+      <c r="H1002" s="1" t="s">
         <v>6193</v>
       </c>
-      <c r="I1002" s="0" t="s">
+      <c r="I1002" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1002" s="0" t="s">
+      <c r="J1002" s="1" t="s">
         <v>6194</v>
       </c>
-      <c r="K1002" s="0"/>
-      <c r="L1002" s="0"/>
+      <c r="L1002" s="1"/>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="0" t="s">
+      <c r="A1003" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1003" s="0" t="s">
+      <c r="B1003" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="C1003" s="0" t="s">
+      <c r="C1003" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1003" s="0" t="s">
+      <c r="D1003" s="1" t="s">
         <v>6195</v>
       </c>
-      <c r="E1003" s="0" t="s">
+      <c r="E1003" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="F1003" s="0" t="s">
+      <c r="F1003" s="1" t="s">
         <v>6197</v>
       </c>
-      <c r="G1003" s="0" t="s">
+      <c r="G1003" s="1" t="s">
         <v>6198</v>
       </c>
-      <c r="H1003" s="0" t="s">
+      <c r="H1003" s="1" t="s">
         <v>6199</v>
       </c>
-      <c r="I1003" s="0" t="s">
+      <c r="I1003" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1003" s="0" t="s">
+      <c r="J1003" s="1" t="s">
         <v>6200</v>
       </c>
-      <c r="K1003" s="0"/>
-      <c r="L1003" s="0"/>
+      <c r="L1003" s="1"/>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="0" t="s">
+      <c r="A1004" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1004" s="0" t="s">
+      <c r="B1004" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="C1004" s="0" t="s">
+      <c r="C1004" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1004" s="0" t="s">
+      <c r="D1004" s="1" t="s">
         <v>6201</v>
       </c>
-      <c r="E1004" s="0" t="s">
+      <c r="E1004" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="F1004" s="0" t="s">
+      <c r="F1004" s="1" t="s">
         <v>6203</v>
       </c>
-      <c r="G1004" s="0" t="s">
+      <c r="G1004" s="1" t="s">
         <v>6204</v>
       </c>
-      <c r="H1004" s="0" t="s">
+      <c r="H1004" s="1" t="s">
         <v>6205</v>
       </c>
-      <c r="I1004" s="0" t="s">
+      <c r="I1004" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1004" s="0" t="s">
+      <c r="J1004" s="1" t="s">
         <v>6206</v>
       </c>
-      <c r="K1004" s="0"/>
-      <c r="L1004" s="0"/>
+      <c r="L1004" s="1"/>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="0" t="s">
+      <c r="A1005" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1005" s="0" t="s">
+      <c r="B1005" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="C1005" s="0" t="s">
+      <c r="C1005" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1005" s="0" t="s">
+      <c r="D1005" s="1" t="s">
         <v>6207</v>
       </c>
-      <c r="E1005" s="0" t="s">
+      <c r="E1005" s="1" t="s">
         <v>6208</v>
       </c>
-      <c r="F1005" s="0" t="s">
+      <c r="F1005" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="G1005" s="0" t="s">
+      <c r="G1005" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="H1005" s="0" t="s">
+      <c r="H1005" s="1" t="s">
         <v>6211</v>
       </c>
-      <c r="I1005" s="0" t="s">
+      <c r="I1005" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1005" s="0" t="s">
+      <c r="J1005" s="1" t="s">
         <v>6212</v>
       </c>
-      <c r="K1005" s="0"/>
-      <c r="L1005" s="0"/>
+      <c r="L1005" s="1"/>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="0" t="s">
+      <c r="A1006" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1006" s="0" t="s">
+      <c r="B1006" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="C1006" s="0" t="s">
+      <c r="C1006" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="D1006" s="0" t="s">
+      <c r="D1006" s="1" t="s">
         <v>6213</v>
       </c>
-      <c r="E1006" s="0" t="s">
+      <c r="E1006" s="1" t="s">
         <v>6214</v>
       </c>
-      <c r="F1006" s="0" t="s">
+      <c r="F1006" s="1" t="s">
         <v>6215</v>
       </c>
-      <c r="G1006" s="0" t="s">
+      <c r="G1006" s="1" t="s">
         <v>6216</v>
       </c>
-      <c r="H1006" s="0" t="s">
+      <c r="H1006" s="1" t="s">
         <v>6217</v>
       </c>
-      <c r="I1006" s="0" t="s">
+      <c r="I1006" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1006" s="0" t="s">
+      <c r="J1006" s="1" t="s">
         <v>6218</v>
       </c>
-      <c r="K1006" s="0"/>
-      <c r="L1006" s="0"/>
+      <c r="L1006" s="1"/>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="0" t="s">
+      <c r="A1007" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1007" s="0" t="s">
+      <c r="B1007" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="C1007" s="0" t="s">
+      <c r="C1007" s="1" t="s">
         <v>6219</v>
       </c>
-      <c r="D1007" s="0" t="s">
+      <c r="D1007" s="1" t="s">
         <v>6220</v>
       </c>
-      <c r="E1007" s="0" t="s">
+      <c r="E1007" s="1" t="s">
         <v>6221</v>
       </c>
-      <c r="F1007" s="0" t="s">
+      <c r="F1007" s="1" t="s">
         <v>6222</v>
       </c>
-      <c r="G1007" s="0" t="s">
+      <c r="G1007" s="1" t="s">
         <v>6223</v>
       </c>
-      <c r="H1007" s="0" t="s">
+      <c r="H1007" s="1" t="s">
         <v>6224</v>
       </c>
-      <c r="I1007" s="0" t="s">
+      <c r="I1007" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1007" s="0" t="s">
+      <c r="J1007" s="1" t="s">
         <v>6225</v>
       </c>
-      <c r="K1007" s="0"/>
-      <c r="L1007" s="0"/>
+      <c r="L1007" s="1"/>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="0" t="s">
+      <c r="A1008" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1008" s="0" t="s">
+      <c r="B1008" s="1" t="s">
         <v>4110</v>
       </c>
-      <c r="C1008" s="0" t="s">
+      <c r="C1008" s="1" t="s">
         <v>6219</v>
       </c>
-      <c r="D1008" s="0" t="s">
+      <c r="D1008" s="1" t="s">
         <v>6226</v>
       </c>
-      <c r="E1008" s="0" t="s">
+      <c r="E1008" s="1" t="s">
         <v>6227</v>
       </c>
-      <c r="F1008" s="0" t="s">
+      <c r="F1008" s="1" t="s">
         <v>6228</v>
       </c>
-      <c r="G1008" s="0" t="s">
+      <c r="G1008" s="1" t="s">
         <v>6229</v>
       </c>
-      <c r="H1008" s="0" t="s">
+      <c r="H1008" s="1" t="s">
         <v>6230</v>
       </c>
-      <c r="I1008" s="0" t="s">
+      <c r="I1008" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1008" s="0" t="s">
+      <c r="J1008" s="1" t="s">
         <v>6231</v>
       </c>
-      <c r="K1008" s="0"/>
-      <c r="L1008" s="0"/>
+      <c r="L1008" s="1"/>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="0" t="s">
+      <c r="A1009" s="1" t="s">
         <v>6081</v>
       </c>
-      <c r="B1009" s="0" t="s">
+      <c r="B1009" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="C1009" s="0" t="s">
+      <c r="C1009" s="1" t="s">
         <v>6219</v>
       </c>
-      <c r="D1009" s="0" t="s">
+      <c r="D1009" s="1" t="s">
         <v>6232</v>
       </c>
-      <c r="E1009" s="0" t="s">
+      <c r="E1009" s="1" t="s">
         <v>6233</v>
       </c>
-      <c r="F1009" s="0" t="s">
+      <c r="F1009" s="1" t="s">
         <v>6234</v>
       </c>
-      <c r="G1009" s="0" t="s">
+      <c r="G1009" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="H1009" s="0" t="s">
+      <c r="H1009" s="1" t="s">
         <v>6236</v>
       </c>
-      <c r="I1009" s="0" t="s">
+      <c r="I1009" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1009" s="0" t="s">
+      <c r="J1009" s="1" t="s">
         <v>6237</v>
       </c>
-      <c r="K1009" s="0"/>
-      <c r="L1009" s="0"/>
+      <c r="L1009" s="1"/>
+    </row>
+    <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1010" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1010" s="0" t="s">
+        <v>6240</v>
+      </c>
+      <c r="E1010" s="0" t="s">
+        <v>6241</v>
+      </c>
+      <c r="F1010" s="0" t="s">
+        <v>6242</v>
+      </c>
+      <c r="G1010" s="0" t="s">
+        <v>6243</v>
+      </c>
+      <c r="H1010" s="0" t="s">
+        <v>6244</v>
+      </c>
+      <c r="I1010" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1010" s="0" t="s">
+        <v>6245</v>
+      </c>
+      <c r="K1010" s="0"/>
+      <c r="L1010" s="0"/>
+    </row>
+    <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1011" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1011" s="0" t="s">
+        <v>6246</v>
+      </c>
+      <c r="E1011" s="0" t="s">
+        <v>6247</v>
+      </c>
+      <c r="F1011" s="0" t="s">
+        <v>6248</v>
+      </c>
+      <c r="G1011" s="0" t="s">
+        <v>6249</v>
+      </c>
+      <c r="H1011" s="0" t="s">
+        <v>6250</v>
+      </c>
+      <c r="I1011" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1011" s="0" t="s">
+        <v>6251</v>
+      </c>
+      <c r="K1011" s="0"/>
+      <c r="L1011" s="0"/>
+    </row>
+    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1012" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1012" s="0" t="s">
+        <v>6252</v>
+      </c>
+      <c r="E1012" s="0" t="s">
+        <v>6253</v>
+      </c>
+      <c r="F1012" s="0" t="s">
+        <v>6254</v>
+      </c>
+      <c r="G1012" s="0" t="s">
+        <v>6255</v>
+      </c>
+      <c r="H1012" s="0" t="s">
+        <v>6256</v>
+      </c>
+      <c r="I1012" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1012" s="0" t="s">
+        <v>6257</v>
+      </c>
+      <c r="K1012" s="0"/>
+      <c r="L1012" s="0"/>
+    </row>
+    <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1013" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1013" s="0" t="s">
+        <v>6258</v>
+      </c>
+      <c r="E1013" s="0" t="s">
+        <v>6259</v>
+      </c>
+      <c r="F1013" s="0" t="s">
+        <v>6260</v>
+      </c>
+      <c r="G1013" s="0" t="s">
+        <v>6261</v>
+      </c>
+      <c r="H1013" s="0" t="s">
+        <v>6262</v>
+      </c>
+      <c r="I1013" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1013" s="0" t="s">
+        <v>6263</v>
+      </c>
+      <c r="K1013" s="0"/>
+      <c r="L1013" s="0"/>
+    </row>
+    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1014" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1014" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1014" s="0" t="s">
+        <v>6264</v>
+      </c>
+      <c r="E1014" s="0" t="s">
+        <v>6265</v>
+      </c>
+      <c r="F1014" s="0" t="s">
+        <v>6266</v>
+      </c>
+      <c r="G1014" s="0" t="s">
+        <v>6267</v>
+      </c>
+      <c r="H1014" s="0" t="s">
+        <v>6268</v>
+      </c>
+      <c r="I1014" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1014" s="0" t="s">
+        <v>6269</v>
+      </c>
+      <c r="K1014" s="0"/>
+      <c r="L1014" s="0"/>
+    </row>
+    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1015" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1015" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1015" s="0" t="s">
+        <v>6270</v>
+      </c>
+      <c r="E1015" s="0" t="s">
+        <v>6271</v>
+      </c>
+      <c r="F1015" s="0" t="s">
+        <v>6272</v>
+      </c>
+      <c r="G1015" s="0" t="s">
+        <v>6273</v>
+      </c>
+      <c r="H1015" s="0" t="s">
+        <v>6274</v>
+      </c>
+      <c r="I1015" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1015" s="0" t="s">
+        <v>6275</v>
+      </c>
+      <c r="K1015" s="0"/>
+      <c r="L1015" s="0"/>
+    </row>
+    <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1016" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1016" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1016" s="0" t="s">
+        <v>6276</v>
+      </c>
+      <c r="E1016" s="0" t="s">
+        <v>6277</v>
+      </c>
+      <c r="F1016" s="0" t="s">
+        <v>6278</v>
+      </c>
+      <c r="G1016" s="0" t="s">
+        <v>6279</v>
+      </c>
+      <c r="H1016" s="0" t="s">
+        <v>6280</v>
+      </c>
+      <c r="I1016" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1016" s="0" t="s">
+        <v>6281</v>
+      </c>
+      <c r="K1016" s="0"/>
+      <c r="L1016" s="0"/>
+    </row>
+    <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1017" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1017" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1017" s="0" t="s">
+        <v>6282</v>
+      </c>
+      <c r="E1017" s="0" t="s">
+        <v>6283</v>
+      </c>
+      <c r="F1017" s="0" t="s">
+        <v>6284</v>
+      </c>
+      <c r="G1017" s="0" t="s">
+        <v>6285</v>
+      </c>
+      <c r="H1017" s="0" t="s">
+        <v>6286</v>
+      </c>
+      <c r="I1017" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1017" s="0" t="s">
+        <v>6287</v>
+      </c>
+      <c r="K1017" s="0"/>
+      <c r="L1017" s="0"/>
+    </row>
+    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1018" s="0" t="s">
+        <v>6288</v>
+      </c>
+      <c r="E1018" s="0" t="s">
+        <v>6289</v>
+      </c>
+      <c r="F1018" s="0" t="s">
+        <v>6290</v>
+      </c>
+      <c r="G1018" s="0" t="s">
+        <v>6291</v>
+      </c>
+      <c r="H1018" s="0" t="s">
+        <v>6292</v>
+      </c>
+      <c r="I1018" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1018" s="0" t="s">
+        <v>6293</v>
+      </c>
+      <c r="K1018" s="0"/>
+      <c r="L1018" s="0"/>
+    </row>
+    <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1019" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1019" s="0" t="s">
+        <v>6294</v>
+      </c>
+      <c r="E1019" s="0" t="s">
+        <v>6295</v>
+      </c>
+      <c r="F1019" s="0" t="s">
+        <v>6296</v>
+      </c>
+      <c r="G1019" s="0" t="s">
+        <v>6297</v>
+      </c>
+      <c r="H1019" s="0" t="s">
+        <v>6298</v>
+      </c>
+      <c r="I1019" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1019" s="0" t="s">
+        <v>6299</v>
+      </c>
+      <c r="K1019" s="0"/>
+      <c r="L1019" s="0"/>
+    </row>
+    <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1020" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1020" s="0" t="s">
+        <v>6300</v>
+      </c>
+      <c r="E1020" s="0" t="s">
+        <v>6301</v>
+      </c>
+      <c r="F1020" s="0" t="s">
+        <v>6302</v>
+      </c>
+      <c r="G1020" s="0" t="s">
+        <v>6303</v>
+      </c>
+      <c r="H1020" s="0" t="s">
+        <v>6304</v>
+      </c>
+      <c r="I1020" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1020" s="0" t="s">
+        <v>6305</v>
+      </c>
+      <c r="K1020" s="0"/>
+      <c r="L1020" s="0"/>
+    </row>
+    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C1021" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1021" s="0" t="s">
+        <v>6306</v>
+      </c>
+      <c r="E1021" s="0" t="s">
+        <v>6307</v>
+      </c>
+      <c r="F1021" s="0" t="s">
+        <v>6308</v>
+      </c>
+      <c r="G1021" s="0" t="s">
+        <v>6309</v>
+      </c>
+      <c r="H1021" s="0" t="s">
+        <v>6310</v>
+      </c>
+      <c r="I1021" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1021" s="0" t="s">
+        <v>6311</v>
+      </c>
+      <c r="K1021" s="0"/>
+      <c r="L1021" s="0"/>
+    </row>
+    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1022" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1022" s="0" t="s">
+        <v>6312</v>
+      </c>
+      <c r="E1022" s="0" t="s">
+        <v>6313</v>
+      </c>
+      <c r="F1022" s="0" t="s">
+        <v>6314</v>
+      </c>
+      <c r="G1022" s="0" t="s">
+        <v>6315</v>
+      </c>
+      <c r="H1022" s="0" t="s">
+        <v>6316</v>
+      </c>
+      <c r="I1022" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1022" s="0" t="s">
+        <v>6317</v>
+      </c>
+      <c r="K1022" s="0"/>
+      <c r="L1022" s="0"/>
+    </row>
+    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1023" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1023" s="0" t="s">
+        <v>6318</v>
+      </c>
+      <c r="E1023" s="0" t="s">
+        <v>6319</v>
+      </c>
+      <c r="F1023" s="0" t="s">
+        <v>6320</v>
+      </c>
+      <c r="G1023" s="0" t="s">
+        <v>6321</v>
+      </c>
+      <c r="H1023" s="0" t="s">
+        <v>6322</v>
+      </c>
+      <c r="I1023" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1023" s="0" t="s">
+        <v>6323</v>
+      </c>
+      <c r="K1023" s="0"/>
+      <c r="L1023" s="0"/>
+    </row>
+    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1024" s="0" t="s">
+        <v>6324</v>
+      </c>
+      <c r="E1024" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="F1024" s="0" t="s">
+        <v>6326</v>
+      </c>
+      <c r="G1024" s="0" t="s">
+        <v>6327</v>
+      </c>
+      <c r="H1024" s="0" t="s">
+        <v>6328</v>
+      </c>
+      <c r="I1024" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1024" s="0" t="s">
+        <v>6329</v>
+      </c>
+      <c r="K1024" s="0"/>
+      <c r="L1024" s="0"/>
+    </row>
+    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1025" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1025" s="0" t="s">
+        <v>6330</v>
+      </c>
+      <c r="E1025" s="0" t="s">
+        <v>6331</v>
+      </c>
+      <c r="F1025" s="0" t="s">
+        <v>6332</v>
+      </c>
+      <c r="G1025" s="0" t="s">
+        <v>6333</v>
+      </c>
+      <c r="H1025" s="0" t="s">
+        <v>6334</v>
+      </c>
+      <c r="I1025" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1025" s="0" t="s">
+        <v>6335</v>
+      </c>
+      <c r="K1025" s="0"/>
+      <c r="L1025" s="0"/>
+    </row>
+    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1026" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1026" s="0" t="s">
+        <v>6336</v>
+      </c>
+      <c r="E1026" s="0" t="s">
+        <v>6337</v>
+      </c>
+      <c r="F1026" s="0" t="s">
+        <v>6338</v>
+      </c>
+      <c r="G1026" s="0" t="s">
+        <v>6339</v>
+      </c>
+      <c r="H1026" s="0" t="s">
+        <v>6340</v>
+      </c>
+      <c r="I1026" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1026" s="0" t="s">
+        <v>6341</v>
+      </c>
+      <c r="K1026" s="0"/>
+      <c r="L1026" s="0"/>
+    </row>
+    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1027" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1027" s="0" t="s">
+        <v>6342</v>
+      </c>
+      <c r="E1027" s="0" t="s">
+        <v>6343</v>
+      </c>
+      <c r="F1027" s="0" t="s">
+        <v>6344</v>
+      </c>
+      <c r="G1027" s="0" t="s">
+        <v>6345</v>
+      </c>
+      <c r="H1027" s="0" t="s">
+        <v>6346</v>
+      </c>
+      <c r="I1027" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1027" s="0" t="s">
+        <v>6347</v>
+      </c>
+      <c r="K1027" s="0"/>
+      <c r="L1027" s="0"/>
+    </row>
+    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1028" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1028" s="0" t="s">
+        <v>6348</v>
+      </c>
+      <c r="E1028" s="0" t="s">
+        <v>6349</v>
+      </c>
+      <c r="F1028" s="0" t="s">
+        <v>6350</v>
+      </c>
+      <c r="G1028" s="0" t="s">
+        <v>6351</v>
+      </c>
+      <c r="H1028" s="0" t="s">
+        <v>6352</v>
+      </c>
+      <c r="I1028" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1028" s="0" t="s">
+        <v>6353</v>
+      </c>
+      <c r="K1028" s="0"/>
+      <c r="L1028" s="0"/>
+    </row>
+    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1029" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1029" s="0" t="s">
+        <v>6354</v>
+      </c>
+      <c r="E1029" s="0" t="s">
+        <v>6355</v>
+      </c>
+      <c r="F1029" s="0" t="s">
+        <v>6356</v>
+      </c>
+      <c r="G1029" s="0" t="s">
+        <v>6357</v>
+      </c>
+      <c r="H1029" s="0" t="s">
+        <v>6358</v>
+      </c>
+      <c r="I1029" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1029" s="0" t="s">
+        <v>6359</v>
+      </c>
+      <c r="K1029" s="0"/>
+      <c r="L1029" s="0"/>
+    </row>
+    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1030" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1030" s="0" t="s">
+        <v>6360</v>
+      </c>
+      <c r="E1030" s="0" t="s">
+        <v>6361</v>
+      </c>
+      <c r="F1030" s="0" t="s">
+        <v>6362</v>
+      </c>
+      <c r="G1030" s="0" t="s">
+        <v>6363</v>
+      </c>
+      <c r="H1030" s="0" t="s">
+        <v>6364</v>
+      </c>
+      <c r="I1030" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1030" s="0" t="s">
+        <v>6365</v>
+      </c>
+      <c r="K1030" s="0"/>
+      <c r="L1030" s="0"/>
+    </row>
+    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1031" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1031" s="0" t="s">
+        <v>6366</v>
+      </c>
+      <c r="E1031" s="0" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F1031" s="0" t="s">
+        <v>6368</v>
+      </c>
+      <c r="G1031" s="0" t="s">
+        <v>6369</v>
+      </c>
+      <c r="H1031" s="0" t="s">
+        <v>6370</v>
+      </c>
+      <c r="I1031" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1031" s="0" t="s">
+        <v>6371</v>
+      </c>
+      <c r="K1031" s="0"/>
+      <c r="L1031" s="0"/>
+    </row>
+    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1032" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D1032" s="0" t="s">
+        <v>6372</v>
+      </c>
+      <c r="E1032" s="0" t="s">
+        <v>6373</v>
+      </c>
+      <c r="F1032" s="0" t="s">
+        <v>6374</v>
+      </c>
+      <c r="G1032" s="0" t="s">
+        <v>6375</v>
+      </c>
+      <c r="H1032" s="0" t="s">
+        <v>6376</v>
+      </c>
+      <c r="I1032" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1032" s="0" t="s">
+        <v>6377</v>
+      </c>
+      <c r="K1032" s="0"/>
+      <c r="L1032" s="0"/>
+    </row>
+    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1033" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1033" s="0" t="s">
+        <v>6379</v>
+      </c>
+      <c r="E1033" s="0" t="s">
+        <v>6380</v>
+      </c>
+      <c r="F1033" s="0" t="s">
+        <v>6381</v>
+      </c>
+      <c r="G1033" s="0" t="s">
+        <v>6382</v>
+      </c>
+      <c r="H1033" s="0" t="s">
+        <v>6383</v>
+      </c>
+      <c r="I1033" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1033" s="0" t="s">
+        <v>6384</v>
+      </c>
+      <c r="K1033" s="0"/>
+      <c r="L1033" s="0"/>
+    </row>
+    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1034" s="0" t="s">
+        <v>6385</v>
+      </c>
+      <c r="E1034" s="0" t="s">
+        <v>6386</v>
+      </c>
+      <c r="F1034" s="0" t="s">
+        <v>6387</v>
+      </c>
+      <c r="G1034" s="0" t="s">
+        <v>6388</v>
+      </c>
+      <c r="H1034" s="0" t="s">
+        <v>6389</v>
+      </c>
+      <c r="I1034" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1034" s="0" t="s">
+        <v>6390</v>
+      </c>
+      <c r="K1034" s="0"/>
+      <c r="L1034" s="0"/>
+    </row>
+    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1035" s="0" t="s">
+        <v>6391</v>
+      </c>
+      <c r="E1035" s="0" t="s">
+        <v>6392</v>
+      </c>
+      <c r="F1035" s="0" t="s">
+        <v>6393</v>
+      </c>
+      <c r="G1035" s="0" t="s">
+        <v>6394</v>
+      </c>
+      <c r="H1035" s="0" t="s">
+        <v>6395</v>
+      </c>
+      <c r="I1035" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1035" s="0" t="s">
+        <v>6396</v>
+      </c>
+      <c r="K1035" s="0"/>
+      <c r="L1035" s="0"/>
+    </row>
+    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>6397</v>
+      </c>
+      <c r="E1036" s="0" t="s">
+        <v>6398</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>6399</v>
+      </c>
+      <c r="G1036" s="0" t="s">
+        <v>6400</v>
+      </c>
+      <c r="H1036" s="0" t="s">
+        <v>6401</v>
+      </c>
+      <c r="I1036" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1036" s="0" t="s">
+        <v>6402</v>
+      </c>
+      <c r="K1036" s="0"/>
+      <c r="L1036" s="0"/>
+    </row>
+    <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1037" s="0" t="s">
+        <v>6403</v>
+      </c>
+      <c r="E1037" s="0" t="s">
+        <v>6404</v>
+      </c>
+      <c r="F1037" s="0" t="s">
+        <v>6405</v>
+      </c>
+      <c r="G1037" s="0" t="s">
+        <v>6406</v>
+      </c>
+      <c r="H1037" s="0" t="s">
+        <v>6407</v>
+      </c>
+      <c r="I1037" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1037" s="0" t="s">
+        <v>6408</v>
+      </c>
+      <c r="K1037" s="0"/>
+      <c r="L1037" s="0"/>
+    </row>
+    <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1038" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1038" s="0" t="s">
+        <v>6409</v>
+      </c>
+      <c r="E1038" s="0" t="s">
+        <v>6410</v>
+      </c>
+      <c r="F1038" s="0" t="s">
+        <v>6411</v>
+      </c>
+      <c r="G1038" s="0" t="s">
+        <v>6412</v>
+      </c>
+      <c r="H1038" s="0" t="s">
+        <v>6413</v>
+      </c>
+      <c r="I1038" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1038" s="0" t="s">
+        <v>6414</v>
+      </c>
+      <c r="K1038" s="0"/>
+      <c r="L1038" s="0"/>
+    </row>
+    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1039" s="0" t="s">
+        <v>6415</v>
+      </c>
+      <c r="E1039" s="0" t="s">
+        <v>6416</v>
+      </c>
+      <c r="F1039" s="0" t="s">
+        <v>6417</v>
+      </c>
+      <c r="G1039" s="0" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1039" s="0" t="s">
+        <v>6419</v>
+      </c>
+      <c r="I1039" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1039" s="0" t="s">
+        <v>6420</v>
+      </c>
+      <c r="K1039" s="0"/>
+      <c r="L1039" s="0"/>
+    </row>
+    <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1040" s="0" t="s">
+        <v>6421</v>
+      </c>
+      <c r="E1040" s="0" t="s">
+        <v>6422</v>
+      </c>
+      <c r="F1040" s="0" t="s">
+        <v>6423</v>
+      </c>
+      <c r="G1040" s="0" t="s">
+        <v>6424</v>
+      </c>
+      <c r="H1040" s="0" t="s">
+        <v>6425</v>
+      </c>
+      <c r="I1040" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1040" s="0" t="s">
+        <v>6426</v>
+      </c>
+      <c r="K1040" s="0"/>
+      <c r="L1040" s="0"/>
+    </row>
+    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>6427</v>
+      </c>
+      <c r="E1041" s="0" t="s">
+        <v>6428</v>
+      </c>
+      <c r="F1041" s="0" t="s">
+        <v>6429</v>
+      </c>
+      <c r="G1041" s="0" t="s">
+        <v>6430</v>
+      </c>
+      <c r="H1041" s="0" t="s">
+        <v>6431</v>
+      </c>
+      <c r="I1041" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1041" s="0" t="s">
+        <v>6432</v>
+      </c>
+      <c r="K1041" s="0"/>
+      <c r="L1041" s="0"/>
+    </row>
+    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1042" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1042" s="0" t="s">
+        <v>6433</v>
+      </c>
+      <c r="E1042" s="0" t="s">
+        <v>6434</v>
+      </c>
+      <c r="F1042" s="0" t="s">
+        <v>6435</v>
+      </c>
+      <c r="G1042" s="0" t="s">
+        <v>6436</v>
+      </c>
+      <c r="H1042" s="0" t="s">
+        <v>6437</v>
+      </c>
+      <c r="I1042" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1042" s="0" t="s">
+        <v>6438</v>
+      </c>
+      <c r="K1042" s="0"/>
+      <c r="L1042" s="0"/>
+    </row>
+    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1043" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1043" s="0" t="s">
+        <v>6439</v>
+      </c>
+      <c r="E1043" s="0" t="s">
+        <v>6440</v>
+      </c>
+      <c r="F1043" s="0" t="s">
+        <v>6441</v>
+      </c>
+      <c r="G1043" s="0" t="s">
+        <v>6442</v>
+      </c>
+      <c r="H1043" s="0" t="s">
+        <v>6443</v>
+      </c>
+      <c r="I1043" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1043" s="0" t="s">
+        <v>6444</v>
+      </c>
+      <c r="K1043" s="0"/>
+      <c r="L1043" s="0"/>
+    </row>
+    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1044" s="0" t="s">
+        <v>6445</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>6446</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>6447</v>
+      </c>
+      <c r="G1044" s="0" t="s">
+        <v>6448</v>
+      </c>
+      <c r="H1044" s="0" t="s">
+        <v>6449</v>
+      </c>
+      <c r="I1044" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1044" s="0" t="s">
+        <v>6450</v>
+      </c>
+      <c r="K1044" s="0"/>
+      <c r="L1044" s="0"/>
+    </row>
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>6451</v>
+      </c>
+      <c r="E1045" s="0" t="s">
+        <v>6452</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>6453</v>
+      </c>
+      <c r="G1045" s="0" t="s">
+        <v>6454</v>
+      </c>
+      <c r="H1045" s="0" t="s">
+        <v>6455</v>
+      </c>
+      <c r="I1045" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1045" s="0" t="s">
+        <v>6456</v>
+      </c>
+      <c r="K1045" s="0"/>
+      <c r="L1045" s="0"/>
+    </row>
+    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>6457</v>
+      </c>
+      <c r="E1046" s="0" t="s">
+        <v>6458</v>
+      </c>
+      <c r="F1046" s="0" t="s">
+        <v>6459</v>
+      </c>
+      <c r="G1046" s="0" t="s">
+        <v>6460</v>
+      </c>
+      <c r="H1046" s="0" t="s">
+        <v>6461</v>
+      </c>
+      <c r="I1046" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1046" s="0" t="s">
+        <v>6462</v>
+      </c>
+      <c r="K1046" s="0"/>
+      <c r="L1046" s="0"/>
+    </row>
+    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1047" s="0" t="s">
+        <v>6463</v>
+      </c>
+      <c r="E1047" s="0" t="s">
+        <v>6464</v>
+      </c>
+      <c r="F1047" s="0" t="s">
+        <v>6465</v>
+      </c>
+      <c r="G1047" s="0" t="s">
+        <v>6466</v>
+      </c>
+      <c r="H1047" s="0" t="s">
+        <v>6467</v>
+      </c>
+      <c r="I1047" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1047" s="0" t="s">
+        <v>6468</v>
+      </c>
+      <c r="K1047" s="0"/>
+      <c r="L1047" s="0"/>
+    </row>
+    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1048" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1048" s="0" t="s">
+        <v>6469</v>
+      </c>
+      <c r="E1048" s="0" t="s">
+        <v>6470</v>
+      </c>
+      <c r="F1048" s="0" t="s">
+        <v>6471</v>
+      </c>
+      <c r="G1048" s="0" t="s">
+        <v>6472</v>
+      </c>
+      <c r="H1048" s="0" t="s">
+        <v>6473</v>
+      </c>
+      <c r="I1048" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1048" s="0" t="s">
+        <v>6474</v>
+      </c>
+      <c r="K1048" s="0"/>
+      <c r="L1048" s="0"/>
+    </row>
+    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1049" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1049" s="0" t="s">
+        <v>6475</v>
+      </c>
+      <c r="E1049" s="0" t="s">
+        <v>6476</v>
+      </c>
+      <c r="F1049" s="0" t="s">
+        <v>6477</v>
+      </c>
+      <c r="G1049" s="0" t="s">
+        <v>6478</v>
+      </c>
+      <c r="H1049" s="0" t="s">
+        <v>6479</v>
+      </c>
+      <c r="I1049" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1049" s="0" t="s">
+        <v>6480</v>
+      </c>
+      <c r="K1049" s="0"/>
+      <c r="L1049" s="0"/>
+    </row>
+    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1050" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1050" s="0" t="s">
+        <v>6481</v>
+      </c>
+      <c r="E1050" s="0" t="s">
+        <v>6482</v>
+      </c>
+      <c r="F1050" s="0" t="s">
+        <v>6483</v>
+      </c>
+      <c r="G1050" s="0" t="s">
+        <v>6484</v>
+      </c>
+      <c r="H1050" s="0" t="s">
+        <v>6485</v>
+      </c>
+      <c r="I1050" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1050" s="0" t="s">
+        <v>6486</v>
+      </c>
+      <c r="K1050" s="0"/>
+      <c r="L1050" s="0"/>
+    </row>
+    <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1051" s="0" t="s">
+        <v>6487</v>
+      </c>
+      <c r="E1051" s="0" t="s">
+        <v>6488</v>
+      </c>
+      <c r="F1051" s="0" t="s">
+        <v>6489</v>
+      </c>
+      <c r="G1051" s="0" t="s">
+        <v>6490</v>
+      </c>
+      <c r="H1051" s="0" t="s">
+        <v>6491</v>
+      </c>
+      <c r="I1051" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1051" s="0" t="s">
+        <v>6492</v>
+      </c>
+      <c r="K1051" s="0"/>
+      <c r="L1051" s="0"/>
+    </row>
+    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1052" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1052" s="0" t="s">
+        <v>6493</v>
+      </c>
+      <c r="E1052" s="0" t="s">
+        <v>6494</v>
+      </c>
+      <c r="F1052" s="0" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G1052" s="0" t="s">
+        <v>6496</v>
+      </c>
+      <c r="H1052" s="0" t="s">
+        <v>6497</v>
+      </c>
+      <c r="I1052" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1052" s="0" t="s">
+        <v>6498</v>
+      </c>
+      <c r="K1052" s="0"/>
+      <c r="L1052" s="0"/>
+    </row>
+    <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1053" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1053" s="0" t="s">
+        <v>6499</v>
+      </c>
+      <c r="E1053" s="0" t="s">
+        <v>6500</v>
+      </c>
+      <c r="F1053" s="0" t="s">
+        <v>6501</v>
+      </c>
+      <c r="G1053" s="0" t="s">
+        <v>6502</v>
+      </c>
+      <c r="H1053" s="0" t="s">
+        <v>6503</v>
+      </c>
+      <c r="I1053" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1053" s="0" t="s">
+        <v>6504</v>
+      </c>
+      <c r="K1053" s="0"/>
+      <c r="L1053" s="0"/>
+    </row>
+    <row r="1054" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1054" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1054" s="0" t="s">
+        <v>6506</v>
+      </c>
+      <c r="E1054" s="0" t="s">
+        <v>6507</v>
+      </c>
+      <c r="F1054" s="0" t="s">
+        <v>6508</v>
+      </c>
+      <c r="G1054" s="0" t="s">
+        <v>6509</v>
+      </c>
+      <c r="H1054" s="0" t="s">
+        <v>6510</v>
+      </c>
+      <c r="I1054" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1054" s="0" t="s">
+        <v>6511</v>
+      </c>
+      <c r="K1054" s="0"/>
+      <c r="L1054" s="0"/>
+    </row>
+    <row r="1055" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1055" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1055" s="0" t="s">
+        <v>6512</v>
+      </c>
+      <c r="E1055" s="0" t="s">
+        <v>6513</v>
+      </c>
+      <c r="F1055" s="0" t="s">
+        <v>6514</v>
+      </c>
+      <c r="G1055" s="0" t="s">
+        <v>6515</v>
+      </c>
+      <c r="H1055" s="0" t="s">
+        <v>6516</v>
+      </c>
+      <c r="I1055" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1055" s="0" t="s">
+        <v>6517</v>
+      </c>
+      <c r="K1055" s="0"/>
+      <c r="L1055" s="0"/>
+    </row>
+    <row r="1056" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1056" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1056" s="0" t="s">
+        <v>6518</v>
+      </c>
+      <c r="E1056" s="0" t="s">
+        <v>6519</v>
+      </c>
+      <c r="F1056" s="0" t="s">
+        <v>6520</v>
+      </c>
+      <c r="G1056" s="0" t="s">
+        <v>6521</v>
+      </c>
+      <c r="H1056" s="0" t="s">
+        <v>6522</v>
+      </c>
+      <c r="I1056" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1056" s="0" t="s">
+        <v>6523</v>
+      </c>
+      <c r="K1056" s="0"/>
+      <c r="L1056" s="0"/>
+    </row>
+    <row r="1057" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1057" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1057" s="0" t="s">
+        <v>6524</v>
+      </c>
+      <c r="E1057" s="0" t="s">
+        <v>6525</v>
+      </c>
+      <c r="F1057" s="0" t="s">
+        <v>6526</v>
+      </c>
+      <c r="G1057" s="0" t="s">
+        <v>6527</v>
+      </c>
+      <c r="H1057" s="0" t="s">
+        <v>6528</v>
+      </c>
+      <c r="I1057" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1057" s="0" t="s">
+        <v>6529</v>
+      </c>
+      <c r="K1057" s="0"/>
+      <c r="L1057" s="0"/>
+    </row>
+    <row r="1058" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1058" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1058" s="0" t="s">
+        <v>6530</v>
+      </c>
+      <c r="E1058" s="0" t="s">
+        <v>6531</v>
+      </c>
+      <c r="F1058" s="0" t="s">
+        <v>6532</v>
+      </c>
+      <c r="G1058" s="0" t="s">
+        <v>6533</v>
+      </c>
+      <c r="H1058" s="0" t="s">
+        <v>6534</v>
+      </c>
+      <c r="I1058" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1058" s="0" t="s">
+        <v>6535</v>
+      </c>
+      <c r="K1058" s="0"/>
+      <c r="L1058" s="0"/>
+    </row>
+    <row r="1059" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1059" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1059" s="0" t="s">
+        <v>6536</v>
+      </c>
+      <c r="E1059" s="0" t="s">
+        <v>6537</v>
+      </c>
+      <c r="F1059" s="0" t="s">
+        <v>6538</v>
+      </c>
+      <c r="G1059" s="0" t="s">
+        <v>6539</v>
+      </c>
+      <c r="H1059" s="0" t="s">
+        <v>6540</v>
+      </c>
+      <c r="I1059" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1059" s="0" t="s">
+        <v>6541</v>
+      </c>
+      <c r="K1059" s="0"/>
+      <c r="L1059" s="0"/>
+    </row>
+    <row r="1060" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1060" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1060" s="0" t="s">
+        <v>6542</v>
+      </c>
+      <c r="E1060" s="0" t="s">
+        <v>6543</v>
+      </c>
+      <c r="F1060" s="0" t="s">
+        <v>6544</v>
+      </c>
+      <c r="G1060" s="0" t="s">
+        <v>6545</v>
+      </c>
+      <c r="H1060" s="0" t="s">
+        <v>6546</v>
+      </c>
+      <c r="I1060" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1060" s="0" t="s">
+        <v>6547</v>
+      </c>
+      <c r="K1060" s="0"/>
+      <c r="L1060" s="0"/>
+    </row>
+    <row r="1061" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1061" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1061" s="0" t="s">
+        <v>6548</v>
+      </c>
+      <c r="E1061" s="0" t="s">
+        <v>6549</v>
+      </c>
+      <c r="F1061" s="0" t="s">
+        <v>6550</v>
+      </c>
+      <c r="G1061" s="0" t="s">
+        <v>6551</v>
+      </c>
+      <c r="H1061" s="0" t="s">
+        <v>6552</v>
+      </c>
+      <c r="I1061" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1061" s="0" t="s">
+        <v>6553</v>
+      </c>
+      <c r="K1061" s="0"/>
+      <c r="L1061" s="0"/>
+    </row>
+    <row r="1062" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1062" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1062" s="0" t="s">
+        <v>6554</v>
+      </c>
+      <c r="E1062" s="0" t="s">
+        <v>6555</v>
+      </c>
+      <c r="F1062" s="0" t="s">
+        <v>6556</v>
+      </c>
+      <c r="G1062" s="0" t="s">
+        <v>6557</v>
+      </c>
+      <c r="H1062" s="0" t="s">
+        <v>6558</v>
+      </c>
+      <c r="I1062" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1062" s="0" t="s">
+        <v>6559</v>
+      </c>
+      <c r="K1062" s="0"/>
+      <c r="L1062" s="0"/>
+    </row>
+    <row r="1063" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1063" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1063" s="0" t="s">
+        <v>6560</v>
+      </c>
+      <c r="E1063" s="0" t="s">
+        <v>6561</v>
+      </c>
+      <c r="F1063" s="0" t="s">
+        <v>6562</v>
+      </c>
+      <c r="G1063" s="0" t="s">
+        <v>6563</v>
+      </c>
+      <c r="H1063" s="0" t="s">
+        <v>6564</v>
+      </c>
+      <c r="I1063" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1063" s="0" t="s">
+        <v>6565</v>
+      </c>
+      <c r="K1063" s="0"/>
+      <c r="L1063" s="0"/>
+    </row>
+    <row r="1064" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1064" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1064" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1064" s="0" t="s">
+        <v>6566</v>
+      </c>
+      <c r="E1064" s="0" t="s">
+        <v>6567</v>
+      </c>
+      <c r="F1064" s="0" t="s">
+        <v>6568</v>
+      </c>
+      <c r="G1064" s="0" t="s">
+        <v>6569</v>
+      </c>
+      <c r="H1064" s="0" t="s">
+        <v>6570</v>
+      </c>
+      <c r="I1064" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1064" s="0" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K1064" s="0"/>
+      <c r="L1064" s="0"/>
+    </row>
+    <row r="1065" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1065" s="0" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C1065" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1065" s="0" t="s">
+        <v>6572</v>
+      </c>
+      <c r="E1065" s="0" t="s">
+        <v>6573</v>
+      </c>
+      <c r="F1065" s="0" t="s">
+        <v>6574</v>
+      </c>
+      <c r="G1065" s="0" t="s">
+        <v>6575</v>
+      </c>
+      <c r="H1065" s="0" t="s">
+        <v>6576</v>
+      </c>
+      <c r="I1065" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1065" s="0" t="s">
+        <v>6577</v>
+      </c>
+      <c r="K1065" s="0"/>
+      <c r="L1065" s="0"/>
+    </row>
+    <row r="1066" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1066" s="0" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1066" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1066" s="0" t="s">
+        <v>6578</v>
+      </c>
+      <c r="E1066" s="0" t="s">
+        <v>6579</v>
+      </c>
+      <c r="F1066" s="0" t="s">
+        <v>6580</v>
+      </c>
+      <c r="G1066" s="0" t="s">
+        <v>6581</v>
+      </c>
+      <c r="H1066" s="0" t="s">
+        <v>6582</v>
+      </c>
+      <c r="I1066" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1066" s="0" t="s">
+        <v>6583</v>
+      </c>
+      <c r="K1066" s="0"/>
+      <c r="L1066" s="0"/>
+    </row>
+    <row r="1067" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1067" s="0" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1067" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1067" s="0" t="s">
+        <v>6584</v>
+      </c>
+      <c r="E1067" s="0" t="s">
+        <v>6585</v>
+      </c>
+      <c r="F1067" s="0" t="s">
+        <v>6586</v>
+      </c>
+      <c r="G1067" s="0" t="s">
+        <v>6587</v>
+      </c>
+      <c r="H1067" s="0" t="s">
+        <v>6588</v>
+      </c>
+      <c r="I1067" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1067" s="0" t="s">
+        <v>6589</v>
+      </c>
+      <c r="K1067" s="0"/>
+      <c r="L1067" s="0"/>
+    </row>
+    <row r="1068" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1068" s="0" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1068" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1068" s="0" t="s">
+        <v>6590</v>
+      </c>
+      <c r="E1068" s="0" t="s">
+        <v>6591</v>
+      </c>
+      <c r="F1068" s="0" t="s">
+        <v>6592</v>
+      </c>
+      <c r="G1068" s="0" t="s">
+        <v>6593</v>
+      </c>
+      <c r="H1068" s="0" t="s">
+        <v>6594</v>
+      </c>
+      <c r="I1068" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1068" s="0" t="s">
+        <v>6595</v>
+      </c>
+      <c r="K1068" s="0"/>
+      <c r="L1068" s="0"/>
+    </row>
+    <row r="1069" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1069" s="0" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1069" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1069" s="0" t="s">
+        <v>6596</v>
+      </c>
+      <c r="E1069" s="0" t="s">
+        <v>6597</v>
+      </c>
+      <c r="F1069" s="0" t="s">
+        <v>6598</v>
+      </c>
+      <c r="G1069" s="0" t="s">
+        <v>6599</v>
+      </c>
+      <c r="H1069" s="0" t="s">
+        <v>6600</v>
+      </c>
+      <c r="I1069" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1069" s="0" t="s">
+        <v>6601</v>
+      </c>
+      <c r="K1069" s="0"/>
+      <c r="L1069" s="0"/>
+    </row>
+    <row r="1070" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1070" s="0" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1070" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1070" s="0" t="s">
+        <v>6602</v>
+      </c>
+      <c r="E1070" s="0" t="s">
+        <v>6603</v>
+      </c>
+      <c r="F1070" s="0" t="s">
+        <v>6604</v>
+      </c>
+      <c r="G1070" s="0" t="s">
+        <v>6605</v>
+      </c>
+      <c r="H1070" s="0" t="s">
+        <v>6606</v>
+      </c>
+      <c r="I1070" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1070" s="0" t="s">
+        <v>6607</v>
+      </c>
+      <c r="K1070" s="0"/>
+      <c r="L1070" s="0"/>
+    </row>
+    <row r="1071" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1071" s="0" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1071" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1071" s="0" t="s">
+        <v>6608</v>
+      </c>
+      <c r="E1071" s="0" t="s">
+        <v>6609</v>
+      </c>
+      <c r="F1071" s="0" t="s">
+        <v>6610</v>
+      </c>
+      <c r="G1071" s="0" t="s">
+        <v>6611</v>
+      </c>
+      <c r="H1071" s="0" t="s">
+        <v>6612</v>
+      </c>
+      <c r="I1071" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1071" s="0" t="s">
+        <v>6613</v>
+      </c>
+      <c r="K1071" s="0"/>
+      <c r="L1071" s="0"/>
+    </row>
+    <row r="1072" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1072" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1072" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1072" s="0" t="s">
+        <v>6614</v>
+      </c>
+      <c r="E1072" s="0" t="s">
+        <v>6615</v>
+      </c>
+      <c r="F1072" s="0" t="s">
+        <v>6616</v>
+      </c>
+      <c r="G1072" s="0" t="s">
+        <v>6617</v>
+      </c>
+      <c r="H1072" s="0" t="s">
+        <v>6618</v>
+      </c>
+      <c r="I1072" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1072" s="0" t="s">
+        <v>6619</v>
+      </c>
+      <c r="K1072" s="0"/>
+      <c r="L1072" s="0"/>
+    </row>
+    <row r="1073" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1073" s="0" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1073" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1073" s="0" t="s">
+        <v>6620</v>
+      </c>
+      <c r="E1073" s="0" t="s">
+        <v>6621</v>
+      </c>
+      <c r="F1073" s="0" t="s">
+        <v>6622</v>
+      </c>
+      <c r="G1073" s="0" t="s">
+        <v>6623</v>
+      </c>
+      <c r="H1073" s="0" t="s">
+        <v>6624</v>
+      </c>
+      <c r="I1073" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1073" s="0" t="s">
+        <v>6625</v>
+      </c>
+      <c r="K1073" s="0"/>
+      <c r="L1073" s="0"/>
+    </row>
+    <row r="1074" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1074" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1074" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1074" s="0" t="s">
+        <v>6626</v>
+      </c>
+      <c r="E1074" s="0" t="s">
+        <v>6627</v>
+      </c>
+      <c r="F1074" s="0" t="s">
+        <v>6628</v>
+      </c>
+      <c r="G1074" s="0" t="s">
+        <v>6629</v>
+      </c>
+      <c r="H1074" s="0" t="s">
+        <v>6630</v>
+      </c>
+      <c r="I1074" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1074" s="0" t="s">
+        <v>6631</v>
+      </c>
+      <c r="K1074" s="0"/>
+      <c r="L1074" s="0"/>
+    </row>
+    <row r="1075" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1075" s="0" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1075" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1075" s="0" t="s">
+        <v>6632</v>
+      </c>
+      <c r="E1075" s="0" t="s">
+        <v>6633</v>
+      </c>
+      <c r="F1075" s="0" t="s">
+        <v>6634</v>
+      </c>
+      <c r="G1075" s="0" t="s">
+        <v>6635</v>
+      </c>
+      <c r="H1075" s="0" t="s">
+        <v>6636</v>
+      </c>
+      <c r="I1075" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1075" s="0" t="s">
+        <v>6637</v>
+      </c>
+      <c r="K1075" s="0"/>
+      <c r="L1075" s="0"/>
+    </row>
+    <row r="1076" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1076" s="0" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1076" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1076" s="0" t="s">
+        <v>6638</v>
+      </c>
+      <c r="E1076" s="0" t="s">
+        <v>6639</v>
+      </c>
+      <c r="F1076" s="0" t="s">
+        <v>6640</v>
+      </c>
+      <c r="G1076" s="0" t="s">
+        <v>6641</v>
+      </c>
+      <c r="H1076" s="0" t="s">
+        <v>6642</v>
+      </c>
+      <c r="I1076" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1076" s="0" t="s">
+        <v>6643</v>
+      </c>
+      <c r="K1076" s="0"/>
+      <c r="L1076" s="0"/>
+    </row>
+    <row r="1077" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1077" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1077" s="11" t="s">
+        <v>6644</v>
+      </c>
+      <c r="D1077" s="0" t="s">
+        <v>6645</v>
+      </c>
+      <c r="E1077" s="0" t="s">
+        <v>6646</v>
+      </c>
+      <c r="F1077" s="0" t="s">
+        <v>6647</v>
+      </c>
+      <c r="G1077" s="0" t="s">
+        <v>6648</v>
+      </c>
+      <c r="H1077" s="0" t="s">
+        <v>6649</v>
+      </c>
+      <c r="I1077" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1077" s="0" t="s">
+        <v>6650</v>
+      </c>
+      <c r="K1077" s="0"/>
+      <c r="L1077" s="0"/>
+    </row>
+    <row r="1078" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1078" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1078" s="11" t="s">
+        <v>6644</v>
+      </c>
+      <c r="D1078" s="0" t="s">
+        <v>6651</v>
+      </c>
+      <c r="E1078" s="0" t="s">
+        <v>6652</v>
+      </c>
+      <c r="F1078" s="0" t="s">
+        <v>6653</v>
+      </c>
+      <c r="G1078" s="0" t="s">
+        <v>6654</v>
+      </c>
+      <c r="H1078" s="0" t="s">
+        <v>6655</v>
+      </c>
+      <c r="I1078" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1078" s="0" t="s">
+        <v>6656</v>
+      </c>
+      <c r="K1078" s="0"/>
+      <c r="L1078" s="0"/>
+    </row>
+    <row r="1079" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1079" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1079" s="11" t="s">
+        <v>6644</v>
+      </c>
+      <c r="D1079" s="0" t="s">
+        <v>6657</v>
+      </c>
+      <c r="E1079" s="0" t="s">
+        <v>6658</v>
+      </c>
+      <c r="F1079" s="0" t="s">
+        <v>6659</v>
+      </c>
+      <c r="G1079" s="0" t="s">
+        <v>6660</v>
+      </c>
+      <c r="H1079" s="0" t="s">
+        <v>6661</v>
+      </c>
+      <c r="I1079" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1079" s="0" t="s">
+        <v>6662</v>
+      </c>
+      <c r="K1079" s="0"/>
+      <c r="L1079" s="0"/>
+    </row>
+    <row r="1080" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B1080" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1080" s="11" t="s">
+        <v>6644</v>
+      </c>
+      <c r="D1080" s="0" t="s">
+        <v>6663</v>
+      </c>
+      <c r="E1080" s="0" t="s">
+        <v>6664</v>
+      </c>
+      <c r="F1080" s="0" t="s">
+        <v>6665</v>
+      </c>
+      <c r="G1080" s="0" t="s">
+        <v>6666</v>
+      </c>
+      <c r="H1080" s="0" t="s">
+        <v>6667</v>
+      </c>
+      <c r="I1080" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1080" s="0" t="s">
+        <v>6668</v>
+      </c>
+      <c r="K1080" s="0"/>
+      <c r="L1080" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L624">
